--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="3">
-        <v>10005</v>
+        <v>9781</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>111</v>
       </c>
       <c r="C5" s="3">
-        <v>11512</v>
+        <v>11456</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,10 +808,10 @@
         <v>45642</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3">
-        <v>103033</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,10 +819,10 @@
         <v>45642</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3">
-        <v>13081</v>
+        <v>102361</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>10111</v>
+        <v>9971</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,10 +841,10 @@
         <v>45642</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3">
-        <v>19512</v>
+        <v>15877</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>45642</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>16003</v>
+        <v>19358</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="3">
-        <v>17377</v>
+        <v>17349</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>8209</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,10 +885,10 @@
         <v>45642</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
-        <v>5935</v>
+        <v>25031</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
         <v>45642</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>25493</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
         <v>45642</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
-        <v>12004</v>
+        <v>54184</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
         <v>45642</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>29860</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,10 +929,10 @@
         <v>45642</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3">
-        <v>54786</v>
+        <v>29594</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="3">
-        <v>49560</v>
+        <v>49504</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,10 +951,10 @@
         <v>45642</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3">
-        <v>32186</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,10 +962,10 @@
         <v>45642</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3">
-        <v>20746</v>
+        <v>32018</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,10 +973,10 @@
         <v>45642</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="C21" s="3">
-        <v>7097</v>
+        <v>20746</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="3">
-        <v>21780</v>
+        <v>21710</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="3">
-        <v>75478</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="3">
-        <v>26727</v>
+        <v>26545</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="3">
-        <v>25657</v>
+        <v>25503</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="3">
-        <v>12433</v>
+        <v>12405</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="3">
-        <v>51492</v>
+        <v>51478</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,10 +1050,10 @@
         <v>45642</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>37716</v>
+        <v>28030</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,10 +1061,10 @@
         <v>45642</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3">
-        <v>28170</v>
+        <v>37492</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="3">
-        <v>24942</v>
+        <v>24914</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="3">
-        <v>86747</v>
+        <v>86509</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="3">
-        <v>20218</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>108</v>
       </c>
       <c r="C33" s="3">
-        <v>39459</v>
+        <v>39389</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>17171</v>
+        <v>16947</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="3">
-        <v>32663</v>
+        <v>32439</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="3">
-        <v>29206</v>
+        <v>29164</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="3">
-        <v>23836</v>
+        <v>23794</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>28322</v>
+        <v>28252</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="3">
-        <v>18842</v>
+        <v>18786</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="3">
-        <v>12722</v>
+        <v>12680</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="3">
-        <v>40152</v>
+        <v>40082</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="3">
-        <v>8826</v>
+        <v>8766</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="3">
-        <v>3946</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="3">
-        <v>473217</v>
+        <v>468609</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>51</v>
       </c>
       <c r="C60" s="3">
-        <v>1980</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>94</v>
       </c>
       <c r="C61" s="3">
-        <v>18832</v>
+        <v>18796</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,10 +1424,10 @@
         <v>45642</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3">
-        <v>67092</v>
+        <v>34919</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,10 +1435,10 @@
         <v>45642</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3">
-        <v>35171</v>
+        <v>66840</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="3">
-        <v>14793</v>
+        <v>14685</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="3">
-        <v>24553</v>
+        <v>24229</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,10 +1468,10 @@
         <v>45642</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C66" s="3">
-        <v>6382</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1479,10 +1479,10 @@
         <v>45642</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3">
-        <v>156878</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1490,10 +1490,10 @@
         <v>45642</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C68" s="3">
-        <v>1944</v>
+        <v>155762</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="3">
-        <v>51145</v>
+        <v>50839</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1512,10 +1512,10 @@
         <v>45642</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C70" s="3">
-        <v>144692</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,10 +1523,10 @@
         <v>45642</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3">
-        <v>54335</v>
+        <v>143972</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,10 +1534,10 @@
         <v>45642</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C72" s="3">
-        <v>491924</v>
+        <v>53525</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1545,10 +1545,10 @@
         <v>45642</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C73" s="3">
-        <v>1523</v>
+        <v>489998</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="3">
-        <v>51439</v>
+        <v>51295</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>50</v>
       </c>
       <c r="C75" s="3">
-        <v>2178</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>98</v>
       </c>
       <c r="C76" s="3">
-        <v>21893</v>
+        <v>21677</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>52</v>
       </c>
       <c r="C78" s="3">
-        <v>5444</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>102</v>
       </c>
       <c r="C79" s="3">
-        <v>109473</v>
+        <v>108915</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="3">
-        <v>5047</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="3">
-        <v>29666</v>
+        <v>29540</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>90</v>
       </c>
       <c r="C82" s="3">
-        <v>37682</v>
+        <v>37574</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1655,10 +1655,10 @@
         <v>45642</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="3">
-        <v>23504</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,10 +1666,10 @@
         <v>45642</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" s="3">
-        <v>5600</v>
+        <v>23288</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1677,10 +1677,10 @@
         <v>45642</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C85" s="3">
-        <v>51246</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1688,10 +1688,10 @@
         <v>45642</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C86" s="3">
-        <v>2700</v>
+        <v>50976</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1699,10 +1699,10 @@
         <v>45642</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="3">
-        <v>51732</v>
+        <v>34056</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,10 +1710,10 @@
         <v>45642</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C88" s="3">
-        <v>34344</v>
+        <v>51516</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>100</v>
       </c>
       <c r="C89" s="3">
-        <v>36933</v>
+        <v>36825</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1732,10 +1732,10 @@
         <v>45642</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C90" s="3">
-        <v>23216</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1743,10 +1743,10 @@
         <v>45642</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C91" s="3">
-        <v>78904</v>
+        <v>23090</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1754,10 +1754,10 @@
         <v>45642</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3">
-        <v>42104</v>
+        <v>78724</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,7 +1768,7 @@
         <v>86</v>
       </c>
       <c r="C93" s="3">
-        <v>22965</v>
+        <v>22803</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,10 +1776,10 @@
         <v>45642</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C94" s="3">
-        <v>44877</v>
+        <v>28948</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,10 +1787,10 @@
         <v>45642</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C95" s="3">
-        <v>29110</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>71</v>
       </c>
       <c r="C96" s="3">
-        <v>71296</v>
+        <v>71170</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>80</v>
       </c>
       <c r="C97" s="3">
-        <v>43958</v>
+        <v>43814</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
         <v>47</v>
       </c>
       <c r="C98" s="3">
-        <v>2916</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
         <v>79</v>
       </c>
       <c r="C101" s="3">
-        <v>29122</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>74</v>
       </c>
       <c r="C102" s="3">
-        <v>38638</v>
+        <v>38368</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>58</v>
       </c>
       <c r="C103" s="3">
-        <v>14661</v>
+        <v>14481</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>68</v>
       </c>
       <c r="C105" s="3">
-        <v>6761</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>95</v>
       </c>
       <c r="C106" s="3">
-        <v>31200</v>
+        <v>30768</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>63</v>
       </c>
       <c r="C107" s="3">
-        <v>23293</v>
+        <v>23041</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>57</v>
       </c>
       <c r="C108" s="3">
-        <v>20840</v>
+        <v>20732</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,7 +1944,7 @@
         <v>69</v>
       </c>
       <c r="C109" s="3">
-        <v>16731</v>
+        <v>16515</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -738,7 +738,7 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,183 +761,183 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>21440</v>
+        <v>21376</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3">
-        <v>9781</v>
+        <v>25180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>25180</v>
+        <v>102109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
-        <v>11456</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
-        <v>12927</v>
+        <v>9929</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>102361</v>
+        <v>19344</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3">
-        <v>9971</v>
+        <v>15779</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3">
-        <v>15877</v>
+        <v>17335</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>19358</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
-        <v>17349</v>
+        <v>25031</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>8153</v>
+        <v>54170</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>25031</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3">
-        <v>5935</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
-        <v>54184</v>
+        <v>6999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3">
-        <v>11920</v>
+        <v>32018</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>29594</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -948,183 +948,183 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
-        <v>7027</v>
+        <v>25461</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3">
-        <v>32018</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C21" s="3">
-        <v>20746</v>
+        <v>21682</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3">
-        <v>21710</v>
+        <v>20746</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3">
-        <v>74442</v>
+        <v>51478</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3">
-        <v>26545</v>
+        <v>12405</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
-        <v>25503</v>
+        <v>26545</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
-        <v>12405</v>
+        <v>24914</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3">
-        <v>51478</v>
+        <v>37464</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>28030</v>
+        <v>28016</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3">
-        <v>37492</v>
+        <v>86509</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3">
-        <v>24914</v>
+        <v>19791</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3">
-        <v>86509</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3">
-        <v>20176</v>
+        <v>16157</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>39389</v>
+        <v>16947</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C34" s="3">
-        <v>16947</v>
+        <v>39375</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -1135,62 +1135,62 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="3">
-        <v>16157</v>
+        <v>29164</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3">
-        <v>17710</v>
+        <v>23794</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
-        <v>29164</v>
+        <v>17710</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C39" s="3">
-        <v>23794</v>
+        <v>19959</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C40" s="3">
-        <v>19973</v>
+        <v>26618</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>34</v>
@@ -1212,40 +1212,40 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="3">
-        <v>18786</v>
+        <v>18744</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="3">
-        <v>12680</v>
+        <v>12666</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="3">
-        <v>14143</v>
+        <v>14115</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>20</v>
@@ -1256,84 +1256,84 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="3">
-        <v>4690</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="3">
-        <v>33647</v>
+        <v>33591</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="3">
-        <v>1850</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="3">
-        <v>8766</v>
+        <v>8736</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="3">
-        <v>3926</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="3">
-        <v>1280</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="3">
-        <v>1760</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>44</v>
@@ -1366,18 +1366,18 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C57" s="3">
-        <v>468609</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>45</v>
@@ -1388,40 +1388,40 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3">
-        <v>1188</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C60" s="3">
-        <v>1944</v>
+        <v>18796</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C61" s="3">
-        <v>18796</v>
+        <v>726657</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>67</v>
@@ -1432,304 +1432,304 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C63" s="3">
-        <v>66840</v>
+        <v>155762</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C64" s="3">
-        <v>14685</v>
+        <v>50839</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
-        <v>24229</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C66" s="3">
-        <v>1926</v>
+        <v>143972</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C67" s="3">
-        <v>6382</v>
+        <v>53525</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C68" s="3">
-        <v>155762</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C69" s="3">
-        <v>50839</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C70" s="3">
-        <v>1523</v>
+        <v>51295</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C71" s="3">
-        <v>143972</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C72" s="3">
-        <v>53525</v>
+        <v>487586</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C73" s="3">
-        <v>489998</v>
+        <v>21677</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C74" s="3">
-        <v>51295</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C75" s="3">
-        <v>2160</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C76" s="3">
-        <v>21677</v>
+        <v>108879</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3">
-        <v>2756</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3">
-        <v>5354</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C79" s="3">
-        <v>108915</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" s="3">
-        <v>5011</v>
+        <v>23288</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C81" s="3">
-        <v>29540</v>
+        <v>37538</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C82" s="3">
-        <v>37574</v>
+        <v>29504</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C83" s="3">
-        <v>5510</v>
+        <v>50958</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C84" s="3">
-        <v>23288</v>
+        <v>34056</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C85" s="3">
-        <v>2664</v>
+        <v>51480</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C86" s="3">
-        <v>50976</v>
+        <v>40609</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C87" s="3">
-        <v>34056</v>
+        <v>36807</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C88" s="3">
-        <v>51516</v>
+        <v>23072</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C89" s="3">
-        <v>36825</v>
+        <v>106289</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>82</v>
@@ -1740,40 +1740,40 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C91" s="3">
-        <v>23090</v>
+        <v>22803</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C92" s="3">
-        <v>78724</v>
+        <v>29247</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C93" s="3">
-        <v>22803</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>101</v>
@@ -1784,40 +1784,40 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C95" s="3">
-        <v>44679</v>
+        <v>78724</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C96" s="3">
-        <v>71170</v>
+        <v>43814</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C97" s="3">
-        <v>43814</v>
+        <v>71170</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>47</v>
@@ -1828,18 +1828,18 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C99" s="3">
-        <v>5335</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>96</v>
@@ -1850,18 +1850,18 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="3">
-        <v>28798</v>
+        <v>49415</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>74</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
@@ -1883,73 +1883,73 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C104" s="3">
-        <v>3773</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C105" s="3">
-        <v>6635</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C106" s="3">
-        <v>30768</v>
+        <v>22879</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C107" s="3">
-        <v>23041</v>
+        <v>30768</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C108" s="3">
-        <v>20732</v>
+        <v>16497</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C109" s="3">
-        <v>16515</v>
+        <v>20732</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>53</v>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,326 +761,326 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>21376</v>
+        <v>21344</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>25180</v>
+        <v>8655</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3">
-        <v>102109</v>
+        <v>15053</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C5" s="3">
-        <v>12927</v>
+        <v>14617</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3">
-        <v>9929</v>
+        <v>25424</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>19344</v>
+        <v>17972</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>15779</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
-        <v>17335</v>
+        <v>50320</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
-        <v>8139</v>
+        <v>43778</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3">
-        <v>25031</v>
+        <v>23309</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
-        <v>54170</v>
+        <v>10921</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3">
-        <v>5935</v>
+        <v>28110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3">
-        <v>29580</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>6999</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>32018</v>
+        <v>11416</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3">
-        <v>11920</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
-        <v>49504</v>
+        <v>139209</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3">
-        <v>25461</v>
+        <v>20172</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3">
-        <v>74442</v>
+        <v>21094</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3">
-        <v>21682</v>
+        <v>25461</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C22" s="3">
-        <v>20746</v>
+        <v>38479</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3">
-        <v>51478</v>
+        <v>25887</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3">
-        <v>12405</v>
+        <v>35476</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3">
-        <v>26545</v>
+        <v>51450</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3">
-        <v>24914</v>
+        <v>23360</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3">
-        <v>37464</v>
+        <v>14281</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3">
-        <v>28016</v>
+        <v>85375</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>86509</v>
+        <v>27988</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="3">
-        <v>19791</v>
+        <v>19427</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
@@ -1091,139 +1091,139 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C32" s="3">
-        <v>16157</v>
+        <v>38353</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>16947</v>
+        <v>16303</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3">
-        <v>39375</v>
+        <v>31487</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3">
-        <v>32439</v>
+        <v>28030</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3">
-        <v>29164</v>
+        <v>18027</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3">
-        <v>23794</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3">
-        <v>17710</v>
+        <v>23724</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3">
-        <v>19959</v>
+        <v>25317</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C40" s="3">
-        <v>26618</v>
+        <v>17456</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3">
-        <v>28252</v>
+        <v>26212</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3">
-        <v>7864</v>
+        <v>26824</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3">
-        <v>18744</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>32</v>
@@ -1234,29 +1234,29 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="3">
-        <v>14115</v>
+        <v>13471</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="3">
-        <v>40082</v>
+        <v>39564</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>30</v>
@@ -1267,73 +1267,73 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="3">
-        <v>33591</v>
+        <v>33068</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="3">
-        <v>1790</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="3">
-        <v>8736</v>
+        <v>8466</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="3">
-        <v>3886</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="3">
-        <v>1210</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="3">
-        <v>1660</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
@@ -1344,18 +1344,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3">
-        <v>5000</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>44</v>
@@ -1366,469 +1366,469 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="3">
-        <v>1152</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C58" s="3">
-        <v>2736</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C59" s="3">
-        <v>1890</v>
+        <v>531375</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C60" s="3">
-        <v>18796</v>
+        <v>115634</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C61" s="3">
-        <v>726657</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C62" s="3">
-        <v>34919</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C63" s="3">
-        <v>155762</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C64" s="3">
-        <v>50839</v>
+        <v>424840</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C65" s="3">
-        <v>6382</v>
+        <v>50375</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
-        <v>143972</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" s="3">
-        <v>53525</v>
+        <v>136052</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C68" s="3">
-        <v>1926</v>
+        <v>19247</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C69" s="3">
-        <v>1523</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C70" s="3">
-        <v>51295</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C71" s="3">
-        <v>2088</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3">
-        <v>487586</v>
+        <v>31940</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C73" s="3">
-        <v>21677</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C74" s="3">
-        <v>5354</v>
+        <v>26030</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C75" s="3">
-        <v>2738</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C76" s="3">
-        <v>108879</v>
+        <v>106809</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C77" s="3">
-        <v>5011</v>
+        <v>85373</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="3">
-        <v>5510</v>
+        <v>22730</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C79" s="3">
-        <v>2646</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="3">
-        <v>23288</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C81" s="3">
-        <v>37538</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C82" s="3">
-        <v>29504</v>
+        <v>49158</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C83" s="3">
-        <v>50958</v>
+        <v>58227</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C84" s="3">
-        <v>34056</v>
+        <v>33033</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C85" s="3">
-        <v>51480</v>
+        <v>39511</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3">
-        <v>40609</v>
+        <v>34953</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C87" s="3">
-        <v>36807</v>
+        <v>33984</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="3">
-        <v>23072</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C89" s="3">
-        <v>106289</v>
+        <v>39656</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C90" s="3">
-        <v>41816</v>
+        <v>72154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="3">
-        <v>22803</v>
+        <v>22136</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C92" s="3">
-        <v>29247</v>
+        <v>42141</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C93" s="3">
-        <v>44679</v>
+        <v>65122</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C94" s="3">
-        <v>28948</v>
+        <v>28599</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C95" s="3">
-        <v>78724</v>
+        <v>89971</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C96" s="3">
-        <v>43814</v>
+        <v>28786</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C97" s="3">
-        <v>71170</v>
+        <v>42536</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="3">
-        <v>2862</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>66</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>96</v>
@@ -1850,51 +1850,51 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="3">
-        <v>49415</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C102" s="3">
-        <v>38368</v>
+        <v>36688</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C103" s="3">
-        <v>14481</v>
+        <v>13545</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C104" s="3">
-        <v>6617</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>70</v>
@@ -1905,51 +1905,51 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C106" s="3">
-        <v>22879</v>
+        <v>17798</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C107" s="3">
-        <v>30768</v>
+        <v>29040</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C108" s="3">
-        <v>16497</v>
+        <v>22177</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C109" s="3">
-        <v>20732</v>
+        <v>15615</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>53</v>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -738,7 +738,7 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,524 +761,524 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>21344</v>
+        <v>21312</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="C3" s="3">
-        <v>8655</v>
+        <v>22540</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>15053</v>
+        <v>16754</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
-        <v>14617</v>
+        <v>40516</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
-        <v>25424</v>
+        <v>9927</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
-        <v>17972</v>
+        <v>47730</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
-        <v>7411</v>
+        <v>22693</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>50320</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3">
-        <v>43778</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3">
-        <v>23309</v>
+        <v>63578</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
-        <v>10921</v>
+        <v>26752</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>28110</v>
+        <v>10604</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3">
-        <v>68800</v>
+        <v>20338</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
-        <v>5935</v>
+        <v>131481</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C16" s="3">
-        <v>11416</v>
+        <v>19332</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3">
-        <v>6677</v>
+        <v>23577</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
-        <v>139209</v>
+        <v>22296</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
-        <v>20172</v>
+        <v>25097</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="3">
-        <v>21094</v>
+        <v>36099</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
-        <v>25461</v>
+        <v>50932</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3">
-        <v>38479</v>
+        <v>13959</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3">
-        <v>25887</v>
+        <v>34650</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3">
-        <v>35476</v>
+        <v>17495</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3">
-        <v>51450</v>
+        <v>27036</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3">
-        <v>23360</v>
+        <v>82239</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>14281</v>
+        <v>15393</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
-        <v>85375</v>
+        <v>19644</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>27988</v>
+        <v>29989</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C30" s="3">
-        <v>19427</v>
+        <v>37877</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3">
-        <v>20176</v>
+        <v>26574</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3">
-        <v>38353</v>
+        <v>26766</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3">
-        <v>16303</v>
+        <v>17149</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="C34" s="3">
-        <v>31487</v>
+        <v>17733</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3">
-        <v>28030</v>
+        <v>24197</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3">
-        <v>18027</v>
+        <v>16968</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3">
-        <v>17374</v>
+        <v>23318</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" s="3">
-        <v>23724</v>
+        <v>16392</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C39" s="3">
-        <v>25317</v>
+        <v>27539</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C40" s="3">
-        <v>17456</v>
+        <v>25526</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>26212</v>
+        <v>26447</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C42" s="3">
-        <v>26824</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43" s="3">
-        <v>7738</v>
+        <v>12260</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3">
-        <v>12666</v>
+        <v>13359</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C45" s="3">
-        <v>13471</v>
+        <v>38780</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C46" s="3">
-        <v>39564</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C47" s="3">
-        <v>4676</v>
+        <v>32732</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>33068</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>61</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="3">
-        <v>8466</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>62</v>
@@ -1311,40 +1311,40 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="3">
-        <v>1180</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="3">
-        <v>1620</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="3">
-        <v>3150</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>44</v>
@@ -1366,469 +1366,469 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="3">
-        <v>1134</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C58" s="3">
-        <v>2718</v>
+        <v>459090</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C59" s="3">
-        <v>531375</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="3">
-        <v>115634</v>
+        <v>103196</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C61" s="3">
-        <v>1890</v>
+        <v>38131</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C62" s="3">
-        <v>1235</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C63" s="3">
-        <v>45043</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C64" s="3">
-        <v>424840</v>
+        <v>118309</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C65" s="3">
-        <v>50375</v>
+        <v>408100</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C66" s="3">
-        <v>6094</v>
+        <v>17645</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3">
-        <v>136052</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C68" s="3">
-        <v>19247</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C69" s="3">
-        <v>1908</v>
+        <v>23420</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C70" s="3">
-        <v>2088</v>
+        <v>29222</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C71" s="3">
-        <v>5336</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C72" s="3">
-        <v>31940</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="3">
-        <v>2738</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C74" s="3">
-        <v>26030</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C75" s="3">
-        <v>4831</v>
+        <v>79523</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C76" s="3">
-        <v>106809</v>
+        <v>103211</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C77" s="3">
-        <v>85373</v>
+        <v>42876</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="3">
-        <v>22730</v>
+        <v>21686</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C79" s="3">
-        <v>44784</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C80" s="3">
-        <v>5492</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C81" s="3">
-        <v>2538</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C82" s="3">
-        <v>49158</v>
+        <v>56607</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C83" s="3">
-        <v>58227</v>
+        <v>37837</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C84" s="3">
-        <v>33033</v>
+        <v>32403</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C85" s="3">
-        <v>39511</v>
+        <v>68734</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3">
-        <v>34953</v>
+        <v>82016</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3">
-        <v>33984</v>
+        <v>19185</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C88" s="3">
-        <v>20445</v>
+        <v>33138</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C89" s="3">
-        <v>39656</v>
+        <v>34413</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C90" s="3">
-        <v>72154</v>
+        <v>37676</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C91" s="3">
-        <v>22136</v>
+        <v>21128</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C92" s="3">
-        <v>42141</v>
+        <v>40845</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C93" s="3">
-        <v>65122</v>
+        <v>28059</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C94" s="3">
-        <v>28599</v>
+        <v>85939</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C95" s="3">
-        <v>89971</v>
+        <v>64367</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C96" s="3">
-        <v>28786</v>
+        <v>27580</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C97" s="3">
-        <v>42536</v>
+        <v>40772</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="3">
-        <v>2790</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>66</v>
@@ -1839,123 +1839,123 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C100" s="3">
-        <v>6123</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="3">
-        <v>45455</v>
+        <v>40685</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C102" s="3">
-        <v>36688</v>
+        <v>35969</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C103" s="3">
-        <v>13545</v>
+        <v>12879</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C104" s="3">
-        <v>6131</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C105" s="3">
-        <v>3773</v>
+        <v>17222</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C106" s="3">
-        <v>17798</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C107" s="3">
-        <v>29040</v>
+        <v>27438</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C108" s="3">
-        <v>22177</v>
+        <v>20953</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C109" s="3">
-        <v>15615</v>
+        <v>14823</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C110" s="3">
-        <v>4350</v>
+        <v>4170</v>
       </c>
     </row>
   </sheetData>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -738,7 +738,7 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -772,513 +772,513 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="3">
-        <v>22540</v>
+        <v>19348</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3">
-        <v>16754</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="3">
-        <v>40516</v>
+        <v>36708</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3">
-        <v>9927</v>
+        <v>8597</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3">
-        <v>47730</v>
+        <v>54562</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>22693</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
-        <v>7411</v>
+        <v>24652</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>5893</v>
+        <v>9904</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>63578</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>26752</v>
+        <v>21281</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3">
-        <v>10604</v>
+        <v>17498</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="3">
-        <v>20338</v>
+        <v>18924</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3">
-        <v>131481</v>
+        <v>125489</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
-        <v>19332</v>
+        <v>20504</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3">
-        <v>23577</v>
+        <v>33929</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
-        <v>22296</v>
+        <v>24047</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3">
-        <v>25097</v>
+        <v>15465</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
-        <v>36099</v>
+        <v>32284</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="3">
-        <v>50932</v>
+        <v>49840</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="3">
-        <v>13959</v>
+        <v>13539</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>34650</v>
+        <v>14371</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3">
-        <v>17495</v>
+        <v>79201</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3">
-        <v>27036</v>
+        <v>25832</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3">
-        <v>82239</v>
+        <v>18566</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
-        <v>15393</v>
+        <v>27819</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>19644</v>
+        <v>24208</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3">
-        <v>29989</v>
+        <v>24876</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3">
-        <v>37877</v>
+        <v>15231</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C31" s="3">
-        <v>26574</v>
+        <v>35917</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3">
-        <v>26766</v>
+        <v>14866</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C33" s="3">
-        <v>17149</v>
+        <v>22769</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="3">
-        <v>17733</v>
+        <v>16739</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35" s="3">
-        <v>24197</v>
+        <v>36735</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="3">
-        <v>16968</v>
+        <v>15736</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="3">
-        <v>23318</v>
+        <v>22156</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3">
-        <v>16392</v>
+        <v>29109</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C39" s="3">
-        <v>27539</v>
+        <v>26475</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C40" s="3">
-        <v>25526</v>
+        <v>24504</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>26447</v>
+        <v>25551</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="3">
-        <v>7598</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="3">
-        <v>12260</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="3">
-        <v>13359</v>
+        <v>13275</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="3">
-        <v>38780</v>
+        <v>37226</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="3">
-        <v>4648</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="3">
-        <v>32732</v>
+        <v>32214</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>12515</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>61</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="3">
-        <v>7386</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>62</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>43</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>44</v>
@@ -1366,62 +1366,62 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C57" s="3">
-        <v>1116</v>
+        <v>403920</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C58" s="3">
-        <v>459090</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C59" s="3">
-        <v>2700</v>
+        <v>94988</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C60" s="3">
-        <v>103196</v>
+        <v>32137</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C61" s="3">
-        <v>38131</v>
+        <v>99535</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>51</v>
@@ -1432,95 +1432,95 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3">
-        <v>1181</v>
+        <v>15539</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3">
-        <v>118309</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C65" s="3">
-        <v>408100</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C66" s="3">
-        <v>17645</v>
+        <v>396292</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C67" s="3">
-        <v>5860</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C68" s="3">
-        <v>1908</v>
+        <v>21584</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="3">
-        <v>23420</v>
+        <v>27584</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C70" s="3">
-        <v>29222</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>50</v>
@@ -1531,293 +1531,293 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C72" s="3">
-        <v>2666</v>
+        <v>74141</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C73" s="3">
-        <v>5336</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C74" s="3">
-        <v>4273</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C75" s="3">
-        <v>79523</v>
+        <v>40014</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C76" s="3">
-        <v>103211</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C77" s="3">
-        <v>42876</v>
+        <v>98819</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="3">
-        <v>21686</v>
+        <v>19976</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C79" s="3">
-        <v>4988</v>
+        <v>40824</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C80" s="3">
-        <v>45378</v>
+        <v>35209</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C81" s="3">
-        <v>2520</v>
+        <v>53835</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C82" s="3">
-        <v>56607</v>
+        <v>17817</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C83" s="3">
-        <v>37837</v>
+        <v>76238</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C84" s="3">
-        <v>32403</v>
+        <v>31122</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C85" s="3">
-        <v>68734</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C86" s="3">
-        <v>82016</v>
+        <v>31035</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="3">
-        <v>19185</v>
+        <v>35228</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C88" s="3">
-        <v>33138</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C89" s="3">
-        <v>34413</v>
+        <v>65476</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C90" s="3">
-        <v>37676</v>
+        <v>19760</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C91" s="3">
-        <v>21128</v>
+        <v>32847</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C92" s="3">
-        <v>40845</v>
+        <v>83113</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C93" s="3">
-        <v>28059</v>
+        <v>25960</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C94" s="3">
-        <v>85939</v>
+        <v>39765</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C95" s="3">
-        <v>64367</v>
+        <v>62009</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C96" s="3">
-        <v>27580</v>
+        <v>27051</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C97" s="3">
-        <v>40772</v>
+        <v>38558</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>47</v>
@@ -1828,134 +1828,134 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C99" s="3">
-        <v>5317</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C100" s="3">
-        <v>6105</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="3">
-        <v>40685</v>
+        <v>35573</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C102" s="3">
-        <v>35969</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C103" s="3">
-        <v>12879</v>
+        <v>11673</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C104" s="3">
-        <v>5375</v>
+        <v>25152</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C105" s="3">
-        <v>17222</v>
+        <v>19279</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C106" s="3">
-        <v>3719</v>
+        <v>16520</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C107" s="3">
-        <v>27438</v>
+        <v>13419</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C108" s="3">
-        <v>20953</v>
+        <v>53807</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C109" s="3">
-        <v>14823</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C110" s="3">
-        <v>4170</v>
+        <v>3900</v>
       </c>
     </row>
   </sheetData>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -738,7 +738,7 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -772,436 +772,436 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="3">
-        <v>19348</v>
+        <v>19180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="3">
-        <v>4787</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="3">
-        <v>36708</v>
+        <v>36008</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3">
-        <v>8597</v>
+        <v>54408</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>54562</v>
+        <v>8541</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3">
-        <v>43950</v>
+        <v>24232</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3">
-        <v>24652</v>
+        <v>18630</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3">
-        <v>9904</v>
+        <v>17316</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3">
-        <v>7341</v>
+        <v>15045</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
-        <v>21281</v>
+        <v>9792</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
-        <v>17498</v>
+        <v>125139</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
-        <v>18924</v>
+        <v>20266</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3">
-        <v>125489</v>
+        <v>23865</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3">
-        <v>20504</v>
+        <v>33929</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
-        <v>33929</v>
+        <v>49350</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>24047</v>
+        <v>21183</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
-        <v>15465</v>
+        <v>32144</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3">
-        <v>32284</v>
+        <v>13469</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>49840</v>
+        <v>14161</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>13539</v>
+        <v>25314</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3">
-        <v>14371</v>
+        <v>23886</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3">
-        <v>79201</v>
+        <v>24498</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
-        <v>25832</v>
+        <v>15105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
-        <v>18566</v>
+        <v>27777</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
-        <v>27819</v>
+        <v>18482</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3">
-        <v>24208</v>
+        <v>78879</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>24876</v>
+        <v>14810</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3">
-        <v>15231</v>
+        <v>22349</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="3">
-        <v>35917</v>
+        <v>35875</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C32" s="3">
-        <v>14866</v>
+        <v>36539</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>22769</v>
+        <v>12073</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="3">
-        <v>16739</v>
+        <v>16725</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C35" s="3">
-        <v>36735</v>
+        <v>26195</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3">
-        <v>15736</v>
+        <v>77265</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3">
-        <v>22156</v>
+        <v>15582</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3">
-        <v>29109</v>
+        <v>22030</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C39" s="3">
-        <v>26475</v>
+        <v>24462</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3">
-        <v>24504</v>
+        <v>28913</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>25551</v>
+        <v>25383</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>34</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>32</v>
@@ -1223,73 +1223,73 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="3">
-        <v>13275</v>
+        <v>13205</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="3">
-        <v>37226</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="3">
-        <v>4620</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="3">
-        <v>32214</v>
+        <v>32130</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>12473</v>
+        <v>12459</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="3">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>97</v>
@@ -1300,18 +1300,18 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="3">
-        <v>3850</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>43</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
@@ -1344,18 +1344,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3">
-        <v>4990</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>44</v>
@@ -1366,216 +1366,216 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C57" s="3">
-        <v>403920</v>
+        <v>31345</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C58" s="3">
-        <v>1116</v>
+        <v>93638</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C59" s="3">
-        <v>94988</v>
+        <v>14963</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C60" s="3">
-        <v>32137</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C61" s="3">
-        <v>99535</v>
+        <v>392602</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C62" s="3">
-        <v>1872</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C63" s="3">
-        <v>15539</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="3">
-        <v>5356</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C65" s="3">
-        <v>1181</v>
+        <v>756738</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C66" s="3">
-        <v>396292</v>
+        <v>21080</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C67" s="3">
-        <v>3517</v>
+        <v>147556</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C68" s="3">
-        <v>21584</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C69" s="3">
-        <v>27584</v>
+        <v>27152</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C70" s="3">
-        <v>1890</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C71" s="3">
-        <v>2070</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="3">
-        <v>74141</v>
+        <v>74033</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C73" s="3">
-        <v>5282</v>
+        <v>19580</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3">
-        <v>2648</v>
+        <v>40014</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C75" s="3">
-        <v>40014</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>77</v>
@@ -1586,370 +1586,370 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="3">
-        <v>98819</v>
+        <v>40752</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C78" s="3">
-        <v>19976</v>
+        <v>98765</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3">
-        <v>40824</v>
+        <v>30585</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C80" s="3">
-        <v>35209</v>
+        <v>75518</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C81" s="3">
-        <v>53835</v>
+        <v>35083</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C82" s="3">
-        <v>17817</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C83" s="3">
-        <v>76238</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C84" s="3">
-        <v>31122</v>
+        <v>30960</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C85" s="3">
-        <v>2520</v>
+        <v>17601</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C86" s="3">
-        <v>31035</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C87" s="3">
-        <v>35228</v>
+        <v>32793</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C88" s="3">
-        <v>5058</v>
+        <v>19598</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="3">
-        <v>65476</v>
+        <v>65044</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C90" s="3">
-        <v>19760</v>
+        <v>53547</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C91" s="3">
-        <v>32847</v>
+        <v>34778</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C92" s="3">
-        <v>83113</v>
+        <v>26979</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C93" s="3">
-        <v>25960</v>
+        <v>25528</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="3">
-        <v>39765</v>
+        <v>39657</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C95" s="3">
-        <v>62009</v>
+        <v>61235</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C96" s="3">
-        <v>27051</v>
+        <v>38288</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C97" s="3">
-        <v>38558</v>
+        <v>82969</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C98" s="3">
-        <v>2754</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C99" s="3">
-        <v>5299</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C100" s="3">
-        <v>6069</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="3">
-        <v>35573</v>
+        <v>34457</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C102" s="3">
-        <v>3989</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C103" s="3">
-        <v>11673</v>
+        <v>11313</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C104" s="3">
-        <v>25152</v>
+        <v>25116</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C105" s="3">
-        <v>19279</v>
+        <v>12969</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C106" s="3">
-        <v>16520</v>
+        <v>16070</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C107" s="3">
-        <v>13419</v>
+        <v>19099</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C108" s="3">
-        <v>53807</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C109" s="3">
-        <v>3701</v>
+        <v>53735</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>53</v>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="115">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -816,27 +816,25 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
-        <v>10318</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14021</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>113</v>
@@ -844,13 +842,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
-        <v>14021</v>
+        <v>9656</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>113</v>
@@ -858,13 +856,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
-        <v>46816</v>
+        <v>19194</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>113</v>
@@ -872,13 +870,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5">
-        <v>10998</v>
+        <v>33651</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>113</v>
@@ -886,13 +884,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5">
-        <v>9656</v>
+        <v>14952</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>113</v>
@@ -900,13 +898,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5">
-        <v>17500</v>
+        <v>10038</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>113</v>
@@ -914,13 +912,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
-        <v>33651</v>
+        <v>12964</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>113</v>
@@ -928,13 +926,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5">
-        <v>14952</v>
+        <v>11290</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>113</v>
@@ -942,13 +940,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>11684</v>
+        <v>26502</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>113</v>
@@ -956,13 +954,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5">
-        <v>12964</v>
+        <v>52332</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>113</v>
@@ -970,13 +968,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
-        <v>11290</v>
+        <v>16436</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>113</v>
@@ -984,13 +982,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5">
-        <v>6118</v>
+        <v>5202</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>113</v>
@@ -998,13 +996,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5">
-        <v>89292</v>
+        <v>29582</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>113</v>
@@ -1012,13 +1010,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5">
-        <v>16436</v>
+        <v>19684</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>113</v>
@@ -1026,13 +1024,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5">
-        <v>5202</v>
+        <v>14126</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>113</v>
@@ -1040,13 +1038,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5">
-        <v>14644</v>
+        <v>12707</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>113</v>
@@ -1054,13 +1052,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5">
-        <v>10038</v>
+        <v>43590</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>113</v>
@@ -1068,13 +1066,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5">
-        <v>12707</v>
+        <v>2358</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>113</v>
@@ -1082,13 +1080,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5">
-        <v>85628</v>
+        <v>2394</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>113</v>
@@ -1096,13 +1094,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5">
-        <v>2358</v>
+        <v>5480</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>113</v>
@@ -1110,13 +1108,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5">
-        <v>2394</v>
+        <v>45612</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>113</v>
@@ -1124,13 +1122,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5">
-        <v>45612</v>
+        <v>3230</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>113</v>
@@ -1138,13 +1136,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="5">
-        <v>14382</v>
+        <v>4856</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>113</v>
@@ -1152,7 +1150,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>64</v>
@@ -1166,13 +1164,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="5">
-        <v>16380</v>
+        <v>11088</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>113</v>
@@ -1180,13 +1178,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="5">
-        <v>48670</v>
+        <v>26422</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>113</v>
@@ -1194,7 +1192,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>69</v>
@@ -1208,13 +1206,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="5">
-        <v>19530</v>
+        <v>19872</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>113</v>
@@ -1222,13 +1220,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="5">
-        <v>32544</v>
+        <v>4806</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>113</v>
@@ -1236,13 +1234,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="5">
-        <v>20617</v>
+        <v>37748</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>113</v>
@@ -1250,7 +1248,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>80</v>
@@ -1264,13 +1262,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="5">
-        <v>624150</v>
+        <v>494046</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>113</v>
@@ -1278,13 +1276,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="5">
-        <v>74066</v>
+        <v>98406</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>113</v>
@@ -1292,13 +1290,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="5">
-        <v>6336</v>
+        <v>98874</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>113</v>
@@ -1306,13 +1304,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="5">
-        <v>10021</v>
+        <v>6336</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>113</v>
@@ -1320,13 +1318,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="5">
-        <v>36267</v>
+        <v>10021</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>113</v>
@@ -1334,13 +1332,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="5">
-        <v>138231</v>
+        <v>38898</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>113</v>
@@ -1348,13 +1346,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C42" s="5">
-        <v>49156</v>
+        <v>36267</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>113</v>
@@ -1362,13 +1360,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C43" s="5">
-        <v>39449</v>
+        <v>48811</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>113</v>
@@ -1376,13 +1374,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C44" s="5">
-        <v>14795</v>
+        <v>24552</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>113</v>
@@ -1390,13 +1388,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C45" s="5">
-        <v>14130</v>
+        <v>49156</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>113</v>
@@ -1404,13 +1402,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C46" s="5">
-        <v>9666</v>
+        <v>19491</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>113</v>
@@ -1418,13 +1416,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C47" s="5">
-        <v>29736</v>
+        <v>26777</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>113</v>
@@ -1432,13 +1430,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5">
-        <v>30438</v>
+        <v>14795</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>113</v>
@@ -1446,13 +1444,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5">
-        <v>17316</v>
+        <v>14130</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>113</v>
@@ -1460,13 +1458,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C50" s="5">
-        <v>10104</v>
+        <v>9666</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>113</v>
@@ -1474,13 +1472,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C51" s="5">
-        <v>14798</v>
+        <v>11412</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>113</v>
@@ -1488,13 +1486,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5">
-        <v>22148</v>
+        <v>29736</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>113</v>
@@ -1502,13 +1500,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C53" s="5">
-        <v>13789</v>
+        <v>30438</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>113</v>
@@ -1516,13 +1514,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C54" s="5">
-        <v>15162</v>
+        <v>17316</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>113</v>
@@ -1530,69 +1528,69 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C55" s="5">
-        <v>6977</v>
+        <v>14798</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C56" s="5">
-        <v>5865</v>
+        <v>13789</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C57" s="5">
-        <v>14161</v>
+        <v>19684</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C58" s="5">
-        <v>14810</v>
+        <v>15162</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C59" s="5">
-        <v>21141</v>
+        <v>6949</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>114</v>
@@ -1600,13 +1598,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60" s="5">
-        <v>25314</v>
+        <v>5865</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>114</v>
@@ -1614,13 +1612,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C61" s="5">
-        <v>11698</v>
+        <v>14077</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>114</v>
@@ -1628,13 +1626,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C62" s="5">
-        <v>25383</v>
+        <v>14180</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>114</v>
@@ -1642,13 +1640,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C63" s="5">
-        <v>21312</v>
+        <v>19797</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>114</v>
@@ -1656,13 +1654,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C64" s="5">
-        <v>14878</v>
+        <v>24208</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>114</v>
@@ -1670,13 +1668,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C65" s="5">
-        <v>32035</v>
+        <v>21526</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>114</v>
@@ -1684,13 +1682,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C66" s="5">
-        <v>32102</v>
+        <v>24179</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>114</v>
@@ -1698,13 +1696,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C67" s="5">
-        <v>7484</v>
+        <v>21312</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>114</v>
@@ -1712,13 +1710,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C68" s="5">
-        <v>5435</v>
+        <v>14290</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>114</v>
@@ -1726,13 +1724,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C69" s="5">
-        <v>10263</v>
+        <v>67459</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>114</v>
@@ -1740,13 +1738,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C70" s="5">
-        <v>8541</v>
+        <v>29736</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>114</v>
@@ -1754,13 +1752,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C71" s="5">
-        <v>43600</v>
+        <v>16956</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>114</v>
@@ -1768,13 +1766,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C72" s="5">
-        <v>37086</v>
+        <v>4035</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>114</v>
@@ -1782,13 +1780,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C73" s="5">
-        <v>21587</v>
+        <v>26657</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>114</v>
@@ -1796,13 +1794,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C74" s="5">
-        <v>9736</v>
+        <v>7533</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>114</v>
@@ -1810,13 +1808,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C75" s="5">
-        <v>8582</v>
+        <v>36992</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>114</v>
@@ -1824,13 +1822,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C76" s="5">
-        <v>23872</v>
+        <v>36162</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>114</v>
@@ -1838,13 +1836,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C77" s="5">
-        <v>9385</v>
+        <v>20383</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>114</v>
@@ -1852,13 +1850,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C78" s="5">
-        <v>2179</v>
+        <v>9232</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>114</v>
@@ -1866,13 +1864,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C79" s="5">
-        <v>29848</v>
+        <v>18586</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>114</v>
@@ -1880,13 +1878,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C80" s="5">
-        <v>15582</v>
+        <v>22402</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>114</v>
@@ -1894,13 +1892,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C81" s="5">
-        <v>35847</v>
+        <v>9161</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>114</v>
@@ -1908,13 +1906,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C82" s="5">
-        <v>4578</v>
+        <v>1703</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>114</v>
@@ -1922,13 +1920,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C83" s="5">
-        <v>32914</v>
+        <v>25340</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>114</v>
@@ -1936,13 +1934,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C84" s="5">
-        <v>12106</v>
+        <v>14756</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>114</v>
@@ -1950,13 +1948,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C85" s="5">
-        <v>32102</v>
+        <v>50869</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>114</v>
@@ -1964,13 +1962,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C86" s="5">
-        <v>7570</v>
+        <v>4536</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>114</v>
@@ -1978,13 +1976,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C87" s="5">
-        <v>7989</v>
+        <v>32354</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>114</v>
@@ -1992,13 +1990,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C88" s="5">
-        <v>23865</v>
+        <v>12036</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>114</v>
@@ -2006,13 +2004,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C89" s="5">
-        <v>9588</v>
+        <v>30688</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>114</v>
@@ -2020,13 +2018,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C90" s="5">
-        <v>5007</v>
+        <v>7570</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>114</v>
@@ -2034,13 +2032,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C91" s="5">
-        <v>4675</v>
+        <v>7555</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>114</v>
@@ -2048,13 +2046,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C92" s="5">
-        <v>11791</v>
+        <v>21835</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>114</v>
@@ -2062,13 +2060,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C93" s="5">
-        <v>12370</v>
+        <v>7810</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>114</v>
@@ -2076,13 +2074,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C94" s="5">
-        <v>1590</v>
+        <v>7023</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>114</v>
@@ -2090,13 +2088,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C95" s="5">
-        <v>1160</v>
+        <v>4325</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>114</v>
@@ -2104,13 +2102,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C96" s="5">
-        <v>3070</v>
+        <v>9607</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>114</v>
@@ -2118,13 +2116,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C97" s="5">
-        <v>2700</v>
+        <v>45645</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>114</v>
@@ -2132,13 +2130,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C98" s="5">
-        <v>1080</v>
+        <v>1590</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>114</v>
@@ -2146,13 +2144,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C99" s="5">
-        <v>2718</v>
+        <v>1160</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>114</v>
@@ -2160,13 +2158,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C100" s="5">
-        <v>1890</v>
+        <v>3070</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>114</v>
@@ -2174,13 +2172,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C101" s="5">
-        <v>2484</v>
+        <v>2700</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>114</v>
@@ -2188,13 +2186,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C102" s="5">
-        <v>2016</v>
+        <v>1080</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>114</v>
@@ -2202,13 +2200,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C103" s="5">
-        <v>1836</v>
+        <v>2718</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>114</v>
@@ -2216,13 +2214,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C104" s="5">
-        <v>5246</v>
+        <v>1890</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>114</v>
@@ -2230,13 +2228,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C105" s="5">
-        <v>3900</v>
+        <v>2484</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>114</v>
@@ -2244,13 +2242,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C106" s="5">
-        <v>2648</v>
+        <v>2016</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>114</v>
@@ -2258,13 +2256,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C107" s="5">
-        <v>5284</v>
+        <v>1836</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>114</v>
@@ -2272,13 +2270,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C108" s="5">
-        <v>37357</v>
+        <v>5246</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>114</v>
@@ -2286,13 +2284,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C109" s="5">
-        <v>16052</v>
+        <v>3900</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>114</v>
@@ -2300,13 +2298,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C110" s="5">
-        <v>11313</v>
+        <v>2648</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>114</v>
@@ -2314,13 +2312,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C111" s="5">
-        <v>4970</v>
+        <v>4762</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>114</v>
@@ -2328,13 +2326,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C112" s="5">
-        <v>3140</v>
+        <v>27637</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>114</v>
@@ -2342,13 +2340,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C113" s="5">
-        <v>1740</v>
+        <v>15296</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>114</v>
@@ -2356,13 +2354,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C114" s="5">
-        <v>3840</v>
+        <v>10647</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>114</v>
@@ -2370,13 +2368,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C115" s="5">
-        <v>4699</v>
+        <v>4970</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>114</v>
@@ -2384,13 +2382,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C116" s="5">
-        <v>12381</v>
+        <v>3140</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>114</v>
@@ -2398,13 +2396,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C117" s="5">
-        <v>18667</v>
+        <v>1740</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>114</v>
@@ -2412,13 +2410,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C118" s="5">
-        <v>5173</v>
+        <v>3840</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>114</v>
@@ -2426,13 +2424,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C119" s="5">
-        <v>4877</v>
+        <v>17569</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>114</v>
@@ -2440,13 +2438,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C120" s="5">
-        <v>3809</v>
+        <v>10671</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>114</v>
@@ -2454,13 +2452,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C121" s="5">
-        <v>4227</v>
+        <v>20161</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>114</v>
@@ -2468,13 +2466,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C122" s="5">
-        <v>3647</v>
+        <v>5065</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>114</v>
@@ -2482,13 +2480,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C123" s="5">
-        <v>61199</v>
+        <v>23093</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>114</v>
@@ -2496,13 +2494,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C124" s="5">
-        <v>11412</v>
+        <v>3233</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>114</v>
@@ -2510,13 +2508,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C125" s="5">
-        <v>39996</v>
+        <v>4191</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>114</v>
@@ -2524,13 +2522,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C126" s="5">
-        <v>21191</v>
+        <v>3647</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>114</v>
@@ -2538,13 +2536,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C127" s="5">
-        <v>1163</v>
+        <v>57744</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>114</v>
@@ -2552,13 +2550,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C128" s="5">
-        <v>3373</v>
+        <v>29106</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>114</v>
@@ -2566,13 +2564,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C129" s="5">
-        <v>4412</v>
+        <v>34038</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>114</v>
@@ -2580,13 +2578,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C130" s="5">
-        <v>19544</v>
+        <v>31415</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>114</v>
@@ -2594,13 +2592,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C131" s="5">
-        <v>13768</v>
+        <v>1163</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>114</v>
@@ -2608,13 +2606,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C132" s="5">
-        <v>17138</v>
+        <v>3355</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>114</v>
@@ -2622,13 +2620,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C133" s="5">
-        <v>123084</v>
+        <v>4376</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>114</v>
@@ -2636,13 +2634,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C134" s="5">
-        <v>34724</v>
+        <v>17817</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>114</v>
@@ -2650,13 +2648,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C135" s="5">
-        <v>11976</v>
+        <v>9592</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>114</v>
@@ -2664,13 +2662,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C136" s="5">
-        <v>389506</v>
+        <v>14150</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>114</v>
@@ -2678,13 +2676,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C137" s="5">
-        <v>13262</v>
+        <v>32544</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>114</v>
@@ -2692,13 +2690,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C138" s="5">
-        <v>7580</v>
+        <v>33518</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>114</v>
@@ -2706,13 +2704,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C139" s="5">
-        <v>31327</v>
+        <v>56414</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>114</v>
@@ -2720,13 +2718,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C140" s="5">
-        <v>39251</v>
+        <v>355005</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>114</v>
@@ -2734,13 +2732,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C141" s="5">
-        <v>9325</v>
+        <v>12812</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>114</v>
@@ -2748,13 +2746,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C142" s="5">
-        <v>27152</v>
+        <v>6519</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>114</v>
@@ -2762,13 +2760,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C143" s="5">
-        <v>15888</v>
+        <v>24199</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>114</v>
@@ -2776,13 +2774,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C144" s="5">
-        <v>21062</v>
+        <v>33851</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>114</v>
@@ -2790,13 +2788,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C145" s="5">
-        <v>34584</v>
+        <v>71601</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>114</v>
@@ -2804,13 +2802,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C146" s="5">
-        <v>15790</v>
+        <v>23066</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>114</v>
@@ -2818,13 +2816,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C147" s="5">
-        <v>10968</v>
+        <v>8706</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>114</v>
@@ -2832,13 +2830,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C148" s="5">
-        <v>5997</v>
+        <v>17408</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>114</v>
@@ -2846,13 +2844,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C149" s="5">
-        <v>6196</v>
+        <v>33706</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>114</v>
@@ -2860,13 +2858,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C150" s="5">
-        <v>14927</v>
+        <v>12894</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>114</v>
@@ -2874,13 +2872,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C151" s="5">
-        <v>10998</v>
+        <v>10554</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>114</v>
@@ -2888,13 +2886,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C152" s="5">
-        <v>32757</v>
+        <v>5997</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>114</v>
@@ -2902,13 +2900,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C153" s="5">
-        <v>25474</v>
+        <v>5506</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>114</v>
@@ -2916,13 +2914,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C154" s="5">
-        <v>68273</v>
+        <v>13019</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>114</v>
@@ -2930,13 +2928,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C155" s="5">
-        <v>39603</v>
+        <v>8676</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>114</v>
@@ -2944,13 +2942,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C156" s="5">
-        <v>17316</v>
+        <v>30616</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>114</v>
@@ -2958,13 +2956,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C157" s="5">
-        <v>19180</v>
+        <v>23800</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>114</v>
@@ -2972,13 +2970,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C158" s="5">
-        <v>6621</v>
+        <v>54720</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>114</v>
@@ -2986,13 +2984,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C159" s="5">
-        <v>11397</v>
+        <v>35028</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>114</v>
@@ -3000,13 +2998,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C160" s="5">
-        <v>13727</v>
+        <v>16224</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>114</v>
@@ -3014,13 +3012,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C161" s="5">
-        <v>20140</v>
+        <v>14756</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>114</v>
@@ -3028,13 +3026,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C162" s="5">
-        <v>18603</v>
+        <v>15451</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>114</v>
@@ -3042,15 +3040,71 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C163" s="5">
+        <v>8345</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" s="5">
+        <v>33187</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C165" s="5">
+        <v>13756</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C166" s="5">
+        <v>17077</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C163" s="5">
-        <v>9286</v>
-      </c>
-      <c r="D163" s="7" t="s">
+      <c r="C167" s="5">
+        <v>8754</v>
+      </c>
+      <c r="D167" s="7" t="s">
         <v>114</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="115">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>25</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>26</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>31</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>35</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>37</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>38</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>39</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>41</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>45</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>46</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>52</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>56</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>61</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>62</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>64</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>65</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>67</v>
@@ -1192,13 +1192,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5">
-        <v>8742</v>
+        <v>9531</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>113</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5">
-        <v>19872</v>
+        <v>8742</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>113</v>
@@ -1220,13 +1220,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="5">
-        <v>4806</v>
+        <v>19872</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>113</v>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="5">
-        <v>37748</v>
+        <v>4806</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>113</v>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="5">
-        <v>21150</v>
+        <v>37748</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>113</v>
@@ -1262,13 +1262,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="5">
-        <v>494046</v>
+        <v>21150</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>113</v>
@@ -1276,13 +1276,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5">
-        <v>98406</v>
+        <v>494046</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>113</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5">
-        <v>98874</v>
+        <v>98406</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>113</v>
@@ -1304,13 +1304,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="5">
-        <v>6336</v>
+        <v>98874</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>113</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="5">
-        <v>10021</v>
+        <v>6336</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>113</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5">
-        <v>38898</v>
+        <v>10021</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>113</v>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5">
-        <v>36267</v>
+        <v>38898</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>113</v>
@@ -1360,13 +1360,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="5">
-        <v>48811</v>
+        <v>36267</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>113</v>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="5">
-        <v>24552</v>
+        <v>48811</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>113</v>
@@ -1388,13 +1388,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="5">
-        <v>49156</v>
+        <v>24552</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>113</v>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="5">
-        <v>19491</v>
+        <v>49156</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>113</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="5">
-        <v>26777</v>
+        <v>19491</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>113</v>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="5">
-        <v>14795</v>
+        <v>90029</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>113</v>
@@ -1444,13 +1444,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="5">
-        <v>14130</v>
+        <v>14795</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>113</v>
@@ -1458,13 +1458,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="5">
-        <v>9666</v>
+        <v>14130</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>113</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="5">
-        <v>11412</v>
+        <v>9666</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>113</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="5">
-        <v>29736</v>
+        <v>11412</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>113</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C53" s="5">
-        <v>30438</v>
+        <v>29736</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>113</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C54" s="5">
-        <v>17316</v>
+        <v>30438</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>113</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C55" s="5">
-        <v>14798</v>
+        <v>13398</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>113</v>
@@ -1542,13 +1542,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C56" s="5">
-        <v>13789</v>
+        <v>17316</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>113</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C57" s="5">
-        <v>19684</v>
+        <v>14798</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>113</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" s="5">
-        <v>15162</v>
+        <v>13789</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>113</v>
@@ -1584,41 +1584,41 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C59" s="5">
-        <v>6949</v>
+        <v>19684</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C60" s="5">
-        <v>5865</v>
+        <v>15162</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="5">
-        <v>14077</v>
+        <v>6949</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>114</v>
@@ -1626,13 +1626,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" s="5">
-        <v>14180</v>
+        <v>5865</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>114</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" s="5">
-        <v>19797</v>
+        <v>14077</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>114</v>
@@ -1654,13 +1654,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" s="5">
-        <v>24208</v>
+        <v>14194</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>114</v>
@@ -1668,13 +1668,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" s="5">
-        <v>21526</v>
+        <v>19811</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>114</v>
@@ -1682,13 +1682,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" s="5">
-        <v>24179</v>
+        <v>24208</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>114</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67" s="5">
-        <v>21312</v>
+        <v>21526</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>114</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C68" s="5">
-        <v>14290</v>
+        <v>24179</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>114</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" s="5">
-        <v>67459</v>
+        <v>21312</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>114</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C70" s="5">
-        <v>29736</v>
+        <v>14290</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>114</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71" s="5">
-        <v>16956</v>
+        <v>67515</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>114</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" s="5">
-        <v>4035</v>
+        <v>29764</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>114</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C73" s="5">
-        <v>26657</v>
+        <v>16956</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>114</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C74" s="5">
-        <v>7533</v>
+        <v>4049</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>114</v>
@@ -1808,13 +1808,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" s="5">
-        <v>36992</v>
+        <v>26657</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>114</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C76" s="5">
-        <v>36162</v>
+        <v>7533</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>114</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77" s="5">
-        <v>20383</v>
+        <v>37132</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>114</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C78" s="5">
-        <v>9232</v>
+        <v>36162</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>114</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C79" s="5">
-        <v>18586</v>
+        <v>20383</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>114</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C80" s="5">
-        <v>22402</v>
+        <v>9232</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>114</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C81" s="5">
-        <v>9161</v>
+        <v>18614</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>114</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C82" s="5">
-        <v>1703</v>
+        <v>22416</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>114</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C83" s="5">
-        <v>25340</v>
+        <v>9189</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>114</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C84" s="5">
-        <v>14756</v>
+        <v>1731</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>114</v>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C85" s="5">
-        <v>50869</v>
+        <v>25382</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>114</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C86" s="5">
-        <v>4536</v>
+        <v>14784</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>114</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C87" s="5">
-        <v>32354</v>
+        <v>50939</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>114</v>
@@ -1990,13 +1990,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C88" s="5">
-        <v>12036</v>
+        <v>4550</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>114</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C89" s="5">
-        <v>30688</v>
+        <v>32368</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>114</v>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C90" s="5">
-        <v>7570</v>
+        <v>12036</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>114</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91" s="5">
-        <v>7555</v>
+        <v>30688</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>114</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C92" s="5">
-        <v>21835</v>
+        <v>7570</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>114</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C93" s="5">
-        <v>7810</v>
+        <v>7569</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>114</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94" s="5">
-        <v>7023</v>
+        <v>21835</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>114</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C95" s="5">
-        <v>4325</v>
+        <v>7810</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>114</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C96" s="5">
-        <v>9607</v>
+        <v>7023</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>114</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C97" s="5">
-        <v>45645</v>
+        <v>4325</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>114</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C98" s="5">
-        <v>1590</v>
+        <v>9635</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>114</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C99" s="5">
-        <v>1160</v>
+        <v>45883</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>114</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C100" s="5">
-        <v>3070</v>
+        <v>1590</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>114</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C101" s="5">
-        <v>2700</v>
+        <v>1160</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>114</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C102" s="5">
-        <v>1080</v>
+        <v>3070</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>114</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C103" s="5">
-        <v>2718</v>
+        <v>2700</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>114</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C104" s="5">
-        <v>1890</v>
+        <v>1080</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>114</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C105" s="5">
-        <v>2484</v>
+        <v>2718</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>114</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C106" s="5">
-        <v>2016</v>
+        <v>1890</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>114</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C107" s="5">
-        <v>1836</v>
+        <v>2484</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>114</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C108" s="5">
-        <v>5246</v>
+        <v>2016</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>114</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C109" s="5">
-        <v>3900</v>
+        <v>1836</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>114</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C110" s="5">
-        <v>2648</v>
+        <v>5246</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>114</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C111" s="5">
-        <v>4762</v>
+        <v>3900</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>114</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C112" s="5">
-        <v>27637</v>
+        <v>2648</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>114</v>
@@ -2340,13 +2340,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C113" s="5">
-        <v>15296</v>
+        <v>4780</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>114</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C114" s="5">
-        <v>10647</v>
+        <v>27637</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>114</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C115" s="5">
-        <v>4970</v>
+        <v>15314</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>114</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C116" s="5">
-        <v>3140</v>
+        <v>10647</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>114</v>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C117" s="5">
-        <v>1740</v>
+        <v>4970</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>114</v>
@@ -2410,13 +2410,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C118" s="5">
-        <v>3840</v>
+        <v>3140</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>114</v>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C119" s="5">
-        <v>17569</v>
+        <v>1740</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>114</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C120" s="5">
-        <v>10671</v>
+        <v>3840</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>114</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C121" s="5">
-        <v>20161</v>
+        <v>17569</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>114</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C122" s="5">
-        <v>5065</v>
+        <v>10707</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>114</v>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C123" s="5">
-        <v>23093</v>
+        <v>20197</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>114</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C124" s="5">
-        <v>3233</v>
+        <v>5065</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>114</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C125" s="5">
-        <v>4191</v>
+        <v>23111</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>114</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C126" s="5">
-        <v>3647</v>
+        <v>3233</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>114</v>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C127" s="5">
-        <v>57744</v>
+        <v>4191</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>114</v>
@@ -2550,13 +2550,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C128" s="5">
-        <v>29106</v>
+        <v>3647</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>114</v>
@@ -2564,13 +2564,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C129" s="5">
-        <v>34038</v>
+        <v>57762</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>114</v>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C130" s="5">
-        <v>31415</v>
+        <v>29142</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>114</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C131" s="5">
-        <v>1163</v>
+        <v>34092</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>114</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C132" s="5">
-        <v>3355</v>
+        <v>31415</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>114</v>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C133" s="5">
-        <v>4376</v>
+        <v>1163</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>114</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C134" s="5">
-        <v>17817</v>
+        <v>3373</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>114</v>
@@ -2648,13 +2648,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C135" s="5">
-        <v>9592</v>
+        <v>4394</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>114</v>
@@ -2662,13 +2662,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C136" s="5">
-        <v>14150</v>
+        <v>17817</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>114</v>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C137" s="5">
-        <v>32544</v>
+        <v>9700</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>114</v>
@@ -2690,13 +2690,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C138" s="5">
-        <v>33518</v>
+        <v>14186</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>114</v>
@@ -2704,13 +2704,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C139" s="5">
-        <v>56414</v>
+        <v>33876</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>114</v>
@@ -2718,13 +2718,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C140" s="5">
-        <v>355005</v>
+        <v>33554</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>114</v>
@@ -2732,13 +2732,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C141" s="5">
-        <v>12812</v>
+        <v>56468</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>114</v>
@@ -2746,13 +2746,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C142" s="5">
-        <v>6519</v>
+        <v>355113</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>114</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C143" s="5">
-        <v>24199</v>
+        <v>12866</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>114</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C144" s="5">
-        <v>33851</v>
+        <v>6519</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>114</v>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C145" s="5">
-        <v>71601</v>
+        <v>24235</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>114</v>
@@ -2802,13 +2802,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C146" s="5">
-        <v>23066</v>
+        <v>33941</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>114</v>
@@ -2816,13 +2816,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C147" s="5">
-        <v>8706</v>
+        <v>71673</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>114</v>
@@ -2830,13 +2830,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C148" s="5">
-        <v>17408</v>
+        <v>23102</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>114</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C149" s="5">
-        <v>33706</v>
+        <v>8742</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>114</v>
@@ -2858,13 +2858,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C150" s="5">
-        <v>12894</v>
+        <v>17444</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>114</v>
@@ -2872,13 +2872,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C151" s="5">
-        <v>10554</v>
+        <v>33760</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>114</v>
@@ -2886,13 +2886,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C152" s="5">
-        <v>5997</v>
+        <v>12948</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>114</v>
@@ -2900,13 +2900,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C153" s="5">
-        <v>5506</v>
+        <v>10554</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>114</v>
@@ -2914,13 +2914,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C154" s="5">
-        <v>13019</v>
+        <v>5997</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>114</v>
@@ -2928,13 +2928,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C155" s="5">
-        <v>8676</v>
+        <v>5516</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>114</v>
@@ -2942,13 +2942,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C156" s="5">
-        <v>30616</v>
+        <v>13055</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>114</v>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C157" s="5">
-        <v>23800</v>
+        <v>8712</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>114</v>
@@ -2970,13 +2970,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C158" s="5">
-        <v>54720</v>
+        <v>30652</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>114</v>
@@ -2984,13 +2984,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C159" s="5">
-        <v>35028</v>
+        <v>23836</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>114</v>
@@ -2998,13 +2998,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C160" s="5">
-        <v>16224</v>
+        <v>54774</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>114</v>
@@ -3012,13 +3012,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C161" s="5">
-        <v>14756</v>
+        <v>35064</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>114</v>
@@ -3026,13 +3026,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C162" s="5">
-        <v>15451</v>
+        <v>16224</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>114</v>
@@ -3040,13 +3040,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C163" s="5">
-        <v>8345</v>
+        <v>14756</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>114</v>
@@ -3054,13 +3054,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C164" s="5">
-        <v>33187</v>
+        <v>15479</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>114</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C165" s="5">
-        <v>13756</v>
+        <v>8373</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>114</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C166" s="5">
-        <v>17077</v>
+        <v>33215</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>114</v>
@@ -3096,15 +3096,43 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45652</v>
+        <v>45653</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C167" s="5">
+        <v>13812</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>45653</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C168" s="5">
+        <v>17077</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>45653</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C167" s="5">
-        <v>8754</v>
-      </c>
-      <c r="D167" s="7" t="s">
+      <c r="C169" s="5">
+        <v>8768</v>
+      </c>
+      <c r="D169" s="7" t="s">
         <v>114</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="115">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -912,13 +912,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5">
-        <v>12964</v>
+        <v>10438</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>113</v>
@@ -926,13 +926,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5">
-        <v>11290</v>
+        <v>12964</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>113</v>
@@ -940,13 +940,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>26502</v>
+        <v>11290</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>113</v>
@@ -954,13 +954,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
-        <v>52332</v>
+        <v>26502</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>113</v>
@@ -968,13 +968,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5">
-        <v>16436</v>
+        <v>91949</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>113</v>
@@ -982,13 +982,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5">
-        <v>5202</v>
+        <v>16436</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>113</v>
@@ -996,13 +996,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5">
-        <v>29582</v>
+        <v>5202</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>113</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5">
-        <v>19684</v>
+        <v>15162</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>113</v>
@@ -1024,13 +1024,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5">
-        <v>14126</v>
+        <v>29582</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>113</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5">
-        <v>12707</v>
+        <v>19684</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>113</v>
@@ -1052,13 +1052,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5">
-        <v>43590</v>
+        <v>14126</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>113</v>
@@ -1066,13 +1066,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
-        <v>2358</v>
+        <v>12707</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>113</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5">
-        <v>2394</v>
+        <v>43590</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>113</v>
@@ -1094,13 +1094,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5">
-        <v>5480</v>
+        <v>2358</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>113</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5">
-        <v>45612</v>
+        <v>2394</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>113</v>
@@ -1122,13 +1122,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5">
-        <v>3230</v>
+        <v>2412</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>113</v>
@@ -1136,13 +1136,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5">
-        <v>4856</v>
+        <v>5480</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>113</v>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5">
-        <v>14598</v>
+        <v>7272</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>113</v>
@@ -1164,13 +1164,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5">
-        <v>11088</v>
+        <v>45612</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>113</v>
@@ -1178,13 +1178,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C30" s="5">
-        <v>26422</v>
+        <v>17604</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>113</v>
@@ -1192,13 +1192,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C31" s="5">
-        <v>9531</v>
+        <v>3230</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>113</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C32" s="5">
-        <v>8742</v>
+        <v>4856</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>113</v>
@@ -1220,13 +1220,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5">
-        <v>19872</v>
+        <v>14598</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>113</v>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5">
-        <v>4806</v>
+        <v>11088</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>113</v>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C35" s="5">
-        <v>37748</v>
+        <v>26422</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>113</v>
@@ -1262,13 +1262,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C36" s="5">
-        <v>21150</v>
+        <v>9531</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>113</v>
@@ -1276,13 +1276,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C37" s="5">
-        <v>494046</v>
+        <v>8742</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>113</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C38" s="5">
-        <v>98406</v>
+        <v>20568</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>113</v>
@@ -1304,13 +1304,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C39" s="5">
-        <v>98874</v>
+        <v>19872</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>113</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C40" s="5">
-        <v>6336</v>
+        <v>4806</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>113</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C41" s="5">
-        <v>10021</v>
+        <v>14760</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>113</v>
@@ -1346,13 +1346,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C42" s="5">
-        <v>38898</v>
+        <v>37748</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>113</v>
@@ -1360,13 +1360,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C43" s="5">
-        <v>36267</v>
+        <v>21150</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>113</v>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C44" s="5">
-        <v>48811</v>
+        <v>803268</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>113</v>
@@ -1388,13 +1388,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C45" s="5">
-        <v>24552</v>
+        <v>98406</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>113</v>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C46" s="5">
-        <v>49156</v>
+        <v>98874</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>113</v>
@@ -1416,13 +1416,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C47" s="5">
-        <v>19491</v>
+        <v>6336</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>113</v>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C48" s="5">
-        <v>90029</v>
+        <v>10021</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>113</v>
@@ -1444,13 +1444,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C49" s="5">
-        <v>14795</v>
+        <v>38898</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>113</v>
@@ -1458,13 +1458,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C50" s="5">
-        <v>14130</v>
+        <v>36267</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>113</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C51" s="5">
-        <v>9666</v>
+        <v>146983</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>113</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5">
-        <v>11412</v>
+        <v>24552</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>113</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5">
-        <v>29736</v>
+        <v>49156</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>113</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C54" s="5">
-        <v>30438</v>
+        <v>19491</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>113</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C55" s="5">
-        <v>13398</v>
+        <v>90029</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>113</v>
@@ -1542,13 +1542,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C56" s="5">
-        <v>17316</v>
+        <v>14795</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>113</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C57" s="5">
-        <v>14798</v>
+        <v>14130</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>113</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C58" s="5">
-        <v>13789</v>
+        <v>9666</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>113</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C59" s="5">
-        <v>19684</v>
+        <v>11412</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>113</v>
@@ -1598,13 +1598,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C60" s="5">
-        <v>15162</v>
+        <v>29736</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>113</v>
@@ -1612,111 +1612,111 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C61" s="5">
-        <v>6949</v>
+        <v>30438</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C62" s="5">
-        <v>5865</v>
+        <v>13398</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C63" s="5">
-        <v>14077</v>
+        <v>17316</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C64" s="5">
-        <v>14194</v>
+        <v>14798</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C65" s="5">
-        <v>19811</v>
+        <v>13789</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="C66" s="5">
-        <v>24208</v>
+        <v>19684</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C67" s="5">
-        <v>21526</v>
+        <v>15162</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C68" s="5">
-        <v>24179</v>
+        <v>6949</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>114</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C69" s="5">
-        <v>21312</v>
+        <v>5865</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>114</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70" s="5">
-        <v>14290</v>
+        <v>14077</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>114</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C71" s="5">
-        <v>67515</v>
+        <v>14194</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>114</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72" s="5">
-        <v>29764</v>
+        <v>19811</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>114</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C73" s="5">
-        <v>16956</v>
+        <v>24208</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>114</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C74" s="5">
-        <v>4049</v>
+        <v>21526</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>114</v>
@@ -1808,13 +1808,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C75" s="5">
-        <v>26657</v>
+        <v>24179</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>114</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76" s="5">
-        <v>7533</v>
+        <v>21312</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>114</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C77" s="5">
-        <v>37132</v>
+        <v>14290</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>114</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C78" s="5">
-        <v>36162</v>
+        <v>67515</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>114</v>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79" s="5">
-        <v>20383</v>
+        <v>29764</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>114</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C80" s="5">
-        <v>9232</v>
+        <v>16956</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>114</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C81" s="5">
-        <v>18614</v>
+        <v>4049</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>114</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C82" s="5">
-        <v>22416</v>
+        <v>26657</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>114</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C83" s="5">
-        <v>9189</v>
+        <v>7533</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>114</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C84" s="5">
-        <v>1731</v>
+        <v>37132</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>114</v>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C85" s="5">
-        <v>25382</v>
+        <v>36162</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>114</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C86" s="5">
-        <v>14784</v>
+        <v>20383</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>114</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C87" s="5">
-        <v>50939</v>
+        <v>9232</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>114</v>
@@ -1990,13 +1990,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C88" s="5">
-        <v>4550</v>
+        <v>18614</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>114</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C89" s="5">
-        <v>32368</v>
+        <v>22416</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>114</v>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C90" s="5">
-        <v>12036</v>
+        <v>9189</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>114</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C91" s="5">
-        <v>30688</v>
+        <v>1731</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>114</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C92" s="5">
-        <v>7570</v>
+        <v>25382</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>114</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C93" s="5">
-        <v>7569</v>
+        <v>14784</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>114</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C94" s="5">
-        <v>21835</v>
+        <v>50939</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>114</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C95" s="5">
-        <v>7810</v>
+        <v>4550</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>114</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C96" s="5">
-        <v>7023</v>
+        <v>32368</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>114</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C97" s="5">
-        <v>4325</v>
+        <v>12036</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>114</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C98" s="5">
-        <v>9635</v>
+        <v>30688</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>114</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C99" s="5">
-        <v>45883</v>
+        <v>7570</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>114</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C100" s="5">
-        <v>1590</v>
+        <v>7569</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>114</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C101" s="5">
-        <v>1160</v>
+        <v>21835</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>114</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C102" s="5">
-        <v>3070</v>
+        <v>7810</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>114</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C103" s="5">
-        <v>2700</v>
+        <v>7023</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>114</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C104" s="5">
-        <v>1080</v>
+        <v>4325</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>114</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C105" s="5">
-        <v>2718</v>
+        <v>9635</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>114</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C106" s="5">
-        <v>1890</v>
+        <v>45883</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>114</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C107" s="5">
-        <v>2484</v>
+        <v>1590</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>114</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C108" s="5">
-        <v>2016</v>
+        <v>1160</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>114</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C109" s="5">
-        <v>1836</v>
+        <v>3070</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>114</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C110" s="5">
-        <v>5246</v>
+        <v>2700</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>114</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C111" s="5">
-        <v>3900</v>
+        <v>1080</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>114</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C112" s="5">
-        <v>2648</v>
+        <v>2718</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>114</v>
@@ -2340,13 +2340,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C113" s="5">
-        <v>4780</v>
+        <v>1890</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>114</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C114" s="5">
-        <v>27637</v>
+        <v>2484</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>114</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C115" s="5">
-        <v>15314</v>
+        <v>2016</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>114</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C116" s="5">
-        <v>10647</v>
+        <v>1836</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>114</v>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C117" s="5">
-        <v>4970</v>
+        <v>5246</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>114</v>
@@ -2410,13 +2410,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C118" s="5">
-        <v>3140</v>
+        <v>3900</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>114</v>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C119" s="5">
-        <v>1740</v>
+        <v>2648</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>114</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C120" s="5">
-        <v>3840</v>
+        <v>4780</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>114</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C121" s="5">
-        <v>17569</v>
+        <v>27637</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>114</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C122" s="5">
-        <v>10707</v>
+        <v>15314</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>114</v>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C123" s="5">
-        <v>20197</v>
+        <v>10647</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>114</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C124" s="5">
-        <v>5065</v>
+        <v>4970</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>114</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C125" s="5">
-        <v>23111</v>
+        <v>3140</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>114</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C126" s="5">
-        <v>3233</v>
+        <v>1740</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>114</v>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C127" s="5">
-        <v>4191</v>
+        <v>3840</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>114</v>
@@ -2550,13 +2550,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C128" s="5">
-        <v>3647</v>
+        <v>17569</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>114</v>
@@ -2564,13 +2564,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C129" s="5">
-        <v>57762</v>
+        <v>10707</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>114</v>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C130" s="5">
-        <v>29142</v>
+        <v>20197</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>114</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C131" s="5">
-        <v>34092</v>
+        <v>5065</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>114</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C132" s="5">
-        <v>31415</v>
+        <v>23111</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>114</v>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C133" s="5">
-        <v>1163</v>
+        <v>3233</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>114</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C134" s="5">
-        <v>3373</v>
+        <v>4191</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>114</v>
@@ -2648,13 +2648,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C135" s="5">
-        <v>4394</v>
+        <v>3647</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>114</v>
@@ -2662,13 +2662,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C136" s="5">
-        <v>17817</v>
+        <v>57762</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>114</v>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C137" s="5">
-        <v>9700</v>
+        <v>29142</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>114</v>
@@ -2690,13 +2690,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C138" s="5">
-        <v>14186</v>
+        <v>34092</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>114</v>
@@ -2704,13 +2704,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C139" s="5">
-        <v>33876</v>
+        <v>31415</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>114</v>
@@ -2718,13 +2718,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C140" s="5">
-        <v>33554</v>
+        <v>1163</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>114</v>
@@ -2732,13 +2732,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C141" s="5">
-        <v>56468</v>
+        <v>3373</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>114</v>
@@ -2746,13 +2746,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C142" s="5">
-        <v>355113</v>
+        <v>4394</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>114</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C143" s="5">
-        <v>12866</v>
+        <v>17817</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>114</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C144" s="5">
-        <v>6519</v>
+        <v>9700</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>114</v>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C145" s="5">
-        <v>24235</v>
+        <v>14186</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>114</v>
@@ -2802,13 +2802,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C146" s="5">
-        <v>33941</v>
+        <v>33876</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>114</v>
@@ -2816,13 +2816,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C147" s="5">
-        <v>71673</v>
+        <v>33554</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>114</v>
@@ -2830,13 +2830,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C148" s="5">
-        <v>23102</v>
+        <v>56468</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>114</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C149" s="5">
-        <v>8742</v>
+        <v>355113</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>114</v>
@@ -2858,13 +2858,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C150" s="5">
-        <v>17444</v>
+        <v>12866</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>114</v>
@@ -2872,13 +2872,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C151" s="5">
-        <v>33760</v>
+        <v>6519</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>114</v>
@@ -2886,13 +2886,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C152" s="5">
-        <v>12948</v>
+        <v>24235</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>114</v>
@@ -2900,13 +2900,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C153" s="5">
-        <v>10554</v>
+        <v>33941</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>114</v>
@@ -2914,13 +2914,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C154" s="5">
-        <v>5997</v>
+        <v>71673</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>114</v>
@@ -2928,13 +2928,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C155" s="5">
-        <v>5516</v>
+        <v>23102</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>114</v>
@@ -2942,13 +2942,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C156" s="5">
-        <v>13055</v>
+        <v>8742</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>114</v>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C157" s="5">
-        <v>8712</v>
+        <v>17444</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>114</v>
@@ -2970,13 +2970,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C158" s="5">
-        <v>30652</v>
+        <v>33760</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>114</v>
@@ -2984,13 +2984,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C159" s="5">
-        <v>23836</v>
+        <v>12948</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>114</v>
@@ -2998,13 +2998,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C160" s="5">
-        <v>54774</v>
+        <v>10554</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>114</v>
@@ -3012,13 +3012,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C161" s="5">
-        <v>35064</v>
+        <v>5997</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>114</v>
@@ -3026,13 +3026,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C162" s="5">
-        <v>16224</v>
+        <v>5516</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>114</v>
@@ -3040,13 +3040,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C163" s="5">
-        <v>14756</v>
+        <v>13055</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>114</v>
@@ -3054,13 +3054,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C164" s="5">
-        <v>15479</v>
+        <v>8712</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>114</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C165" s="5">
-        <v>8373</v>
+        <v>30652</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>114</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C166" s="5">
-        <v>33215</v>
+        <v>23836</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>114</v>
@@ -3096,13 +3096,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C167" s="5">
-        <v>13812</v>
+        <v>54756</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>114</v>
@@ -3110,13 +3110,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C168" s="5">
-        <v>17077</v>
+        <v>35064</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>114</v>
@@ -3124,15 +3124,113 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" s="5">
+        <v>16224</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>45654</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C170" s="5">
+        <v>14756</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>45654</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" s="5">
+        <v>15479</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>45654</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C172" s="5">
+        <v>8373</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>45654</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C173" s="5">
+        <v>33215</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>45654</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C174" s="5">
+        <v>13812</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>45654</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C175" s="5">
+        <v>17077</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>45654</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C176" s="5">
         <v>8768</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D176" s="7" t="s">
         <v>114</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C1370F-577F-3645-B137-95EFD33A0E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,16 +394,16 @@
     <t>Стоматофит® эксперт, спрей для местного применения, флакон 50 мл</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,22 +737,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScale="139" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="62.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -767,7 +766,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45665</v>
       </c>
@@ -781,7 +780,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45665</v>
       </c>
@@ -795,7 +794,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45665</v>
       </c>
@@ -809,7 +808,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45665</v>
       </c>
@@ -821,7 +820,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45665</v>
       </c>
@@ -835,7 +834,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45665</v>
       </c>
@@ -849,7 +848,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45665</v>
       </c>
@@ -863,7 +862,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45665</v>
       </c>
@@ -877,7 +876,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45665</v>
       </c>
@@ -891,7 +890,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45665</v>
       </c>
@@ -905,7 +904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45665</v>
       </c>
@@ -919,7 +918,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45665</v>
       </c>
@@ -933,7 +932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45665</v>
       </c>
@@ -947,7 +946,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45665</v>
       </c>
@@ -961,7 +960,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45665</v>
       </c>
@@ -975,7 +974,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45665</v>
       </c>
@@ -989,7 +988,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45665</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45665</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45665</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45665</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45665</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45665</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45665</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45665</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45665</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45665</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45665</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45665</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45665</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45665</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45665</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45665</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45665</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45665</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45665</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45665</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45665</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45665</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45665</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45665</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45665</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45665</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45665</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45665</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45665</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45665</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45665</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45665</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45665</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45665</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45665</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45665</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45665</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45665</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45665</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45665</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45665</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45665</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45665</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45665</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45665</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45665</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45665</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45665</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45665</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45665</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45665</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45665</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45665</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45665</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45665</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45665</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45665</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45665</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45665</v>
       </c>
@@ -1815,12 +1814,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45665</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" s="4">
         <v>21312</v>
@@ -1829,7 +1828,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45665</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45665</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45665</v>
       </c>
@@ -1871,7 +1870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45665</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45665</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45665</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45665</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45665</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45665</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45665</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45665</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45665</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45665</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45665</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45665</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45665</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45665</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45665</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45665</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45665</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45665</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45665</v>
       </c>
@@ -2137,7 +2136,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45665</v>
       </c>
@@ -2151,7 +2150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45665</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45665</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45665</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45665</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45665</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45665</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45665</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45665</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45665</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45665</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45665</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45665</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45665</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45665</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45665</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45665</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45665</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45665</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45665</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45665</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45665</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45665</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45665</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45665</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45665</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45665</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45665</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45665</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45665</v>
       </c>
@@ -2557,12 +2556,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45665</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" s="4">
         <v>4970</v>
@@ -2571,7 +2570,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45665</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45665</v>
       </c>
@@ -2599,7 +2598,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45665</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45665</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45665</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>45665</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45665</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>45665</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>45665</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>45665</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>45665</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45665</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>45665</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>45665</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>45665</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>45665</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>45665</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>45665</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45665</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45665</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>45665</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>45665</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>45665</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>45665</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>45665</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>45665</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>45665</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>45665</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>45665</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>45665</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>45665</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>45665</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>45665</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>45665</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>45665</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>45665</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>45665</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>45665</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>45665</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>45665</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>45665</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>45665</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>45665</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>45665</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>45665</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>45665</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>45665</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>45665</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>45665</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>45665</v>
       </c>
@@ -3271,7 +3270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>45665</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>45665</v>
       </c>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -397,14 +397,18 @@
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,20 +427,29 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -444,23 +457,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="60"/>
+      </left>
+      <right style="thin">
+        <color indexed="60"/>
+      </right>
+      <top style="thin">
+        <color indexed="60"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="60"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +809,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -776,13 +817,13 @@
       <c r="C2" s="4">
         <v>5082</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -790,2511 +831,2535 @@
       <c r="C3" s="4">
         <v>6594</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>14021</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>14021</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4">
-        <v>9656</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4">
-        <v>19194</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>33651</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>9656</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>14952</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>19194</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4">
-        <v>10038</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>33651</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>10438</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>14952</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
-        <v>12964</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>10038</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4">
-        <v>11290</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>10438</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>26502</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>12964</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>91949</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>11290</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>16436</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>26502</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4">
-        <v>5202</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>91949</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4">
-        <v>15162</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>16436</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4">
-        <v>29582</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>5202</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
-        <v>19684</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>15162</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4">
-        <v>14126</v>
-      </c>
-      <c r="D21" s="3" t="s">
+        <v>29582</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4">
-        <v>12707</v>
-      </c>
-      <c r="D22" s="3" t="s">
+        <v>19684</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4">
-        <v>43590</v>
-      </c>
-      <c r="D23" s="3" t="s">
+        <v>14126</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4">
-        <v>2358</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>12707</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4">
-        <v>2394</v>
-      </c>
-      <c r="D25" s="3" t="s">
+        <v>43590</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4">
-        <v>2412</v>
-      </c>
-      <c r="D26" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4">
-        <v>5480</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4">
-        <v>7272</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4">
-        <v>45612</v>
-      </c>
-      <c r="D29" s="3" t="s">
+        <v>5480</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4">
-        <v>17604</v>
-      </c>
-      <c r="D30" s="3" t="s">
+        <v>7272</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4">
-        <v>3230</v>
-      </c>
-      <c r="D31" s="3" t="s">
+        <v>45612</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4">
-        <v>4856</v>
-      </c>
-      <c r="D32" s="3" t="s">
+        <v>17604</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4">
-        <v>14598</v>
-      </c>
-      <c r="D33" s="3" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4">
-        <v>11088</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4">
-        <v>26422</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>14598</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4">
-        <v>9531</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>11088</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4">
-        <v>8742</v>
-      </c>
-      <c r="D37" s="3" t="s">
+        <v>26422</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4">
-        <v>20568</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>9531</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C39" s="4">
-        <v>19872</v>
-      </c>
-      <c r="D39" s="3" t="s">
+        <v>8742</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="4">
-        <v>4806</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>20568</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C41" s="4">
-        <v>14760</v>
-      </c>
-      <c r="D41" s="3" t="s">
+        <v>19872</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C42" s="4">
-        <v>37748</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>4806</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="4">
-        <v>21150</v>
-      </c>
-      <c r="D43" s="3" t="s">
+        <v>14760</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" s="4">
-        <v>803268</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>37748</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C45" s="4">
-        <v>98406</v>
-      </c>
-      <c r="D45" s="3" t="s">
+        <v>21150</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" s="4">
-        <v>98874</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>803268</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" s="4">
-        <v>6336</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>98406</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C48" s="4">
-        <v>10021</v>
-      </c>
-      <c r="D48" s="3" t="s">
+        <v>98874</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" s="4">
-        <v>38898</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>6336</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" s="4">
-        <v>36267</v>
-      </c>
-      <c r="D50" s="3" t="s">
+        <v>10021</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" s="4">
-        <v>146983</v>
-      </c>
-      <c r="D51" s="3" t="s">
+        <v>38898</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" s="4">
-        <v>24552</v>
-      </c>
-      <c r="D52" s="3" t="s">
+        <v>36267</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C53" s="4">
-        <v>49156</v>
-      </c>
-      <c r="D53" s="3" t="s">
+        <v>146983</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="4">
-        <v>19491</v>
-      </c>
-      <c r="D54" s="3" t="s">
+        <v>24552</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C55" s="4">
-        <v>90029</v>
-      </c>
-      <c r="D55" s="3" t="s">
+        <v>49156</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" s="4">
-        <v>14795</v>
-      </c>
-      <c r="D56" s="3" t="s">
+        <v>19491</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" s="4">
-        <v>14130</v>
-      </c>
-      <c r="D57" s="3" t="s">
+        <v>90029</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C58" s="4">
-        <v>9666</v>
-      </c>
-      <c r="D58" s="3" t="s">
+        <v>14795</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C59" s="4">
-        <v>11412</v>
-      </c>
-      <c r="D59" s="3" t="s">
+        <v>14130</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C60" s="4">
-        <v>29736</v>
-      </c>
-      <c r="D60" s="3" t="s">
+        <v>9666</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C61" s="4">
-        <v>30438</v>
-      </c>
-      <c r="D61" s="3" t="s">
+        <v>11412</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C62" s="4">
-        <v>13398</v>
-      </c>
-      <c r="D62" s="3" t="s">
+        <v>29736</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C63" s="4">
-        <v>17316</v>
-      </c>
-      <c r="D63" s="3" t="s">
+        <v>30438</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C64" s="4">
-        <v>14798</v>
-      </c>
-      <c r="D64" s="3" t="s">
+        <v>13398</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C65" s="4">
-        <v>13789</v>
-      </c>
-      <c r="D65" s="3" t="s">
+        <v>17316</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C66" s="4">
-        <v>19684</v>
-      </c>
-      <c r="D66" s="3" t="s">
+        <v>14798</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C67" s="4">
-        <v>15162</v>
-      </c>
-      <c r="D67" s="3" t="s">
+        <v>13789</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C68" s="4">
-        <v>6949</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>112</v>
+        <v>19684</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C69" s="4">
-        <v>5865</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>112</v>
+        <v>15162</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70" s="4">
-        <v>14077</v>
-      </c>
-      <c r="D70" s="3" t="s">
+        <v>6907</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4">
-        <v>14194</v>
-      </c>
-      <c r="D71" s="3" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" s="4">
-        <v>19810</v>
-      </c>
-      <c r="D72" s="3" t="s">
+        <v>14049</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" s="4">
-        <v>24208</v>
-      </c>
-      <c r="D73" s="3" t="s">
+        <v>14194</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C74" s="4">
-        <v>45312</v>
-      </c>
-      <c r="D74" s="3" t="s">
+        <v>19810</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" s="4">
-        <v>21526</v>
-      </c>
-      <c r="D75" s="3" t="s">
+        <v>24166</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C76" s="4">
-        <v>24178</v>
-      </c>
-      <c r="D76" s="3" t="s">
+        <v>45312</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="C77" s="4">
-        <v>21312</v>
-      </c>
-      <c r="D77" s="3" t="s">
+        <v>21512</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="4">
-        <v>14290</v>
-      </c>
-      <c r="D78" s="3" t="s">
+        <v>24136</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C79" s="4">
-        <v>67511</v>
-      </c>
-      <c r="D79" s="3" t="s">
+        <v>21312</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C80" s="4">
-        <v>29760</v>
-      </c>
-      <c r="D80" s="3" t="s">
+        <v>14290</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C81" s="4">
-        <v>16956</v>
-      </c>
-      <c r="D81" s="3" t="s">
+        <v>65831</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C82" s="4">
-        <v>4049</v>
-      </c>
-      <c r="D82" s="3" t="s">
+        <v>29760</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C83" s="4">
-        <v>26656</v>
-      </c>
-      <c r="D83" s="3" t="s">
+        <v>16816</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C84" s="4">
-        <v>7532</v>
-      </c>
-      <c r="D84" s="3" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C85" s="4">
-        <v>37119</v>
-      </c>
-      <c r="D85" s="3" t="s">
+        <v>26516</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C86" s="4">
-        <v>36162</v>
-      </c>
-      <c r="D86" s="3" t="s">
+        <v>7532</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C87" s="4">
-        <v>20383</v>
-      </c>
-      <c r="D87" s="3" t="s">
+        <v>37119</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C88" s="4">
-        <v>9232</v>
-      </c>
-      <c r="D88" s="3" t="s">
+        <v>36162</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C89" s="4">
-        <v>18614</v>
-      </c>
-      <c r="D89" s="3" t="s">
+        <v>20243</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C90" s="4">
-        <v>22416</v>
-      </c>
-      <c r="D90" s="3" t="s">
+        <v>9232</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="C91" s="4">
-        <v>83</v>
-      </c>
-      <c r="D91" s="3" t="s">
+        <v>18334</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="4">
-        <v>9189</v>
-      </c>
-      <c r="D92" s="3" t="s">
+        <v>22332</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="4">
-        <v>1731</v>
-      </c>
-      <c r="D93" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="7">
+        <v>83</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C94" s="4">
-        <v>25382</v>
-      </c>
-      <c r="D94" s="3" t="s">
+        <v>9189</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C95" s="4">
-        <v>14784</v>
-      </c>
-      <c r="D95" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C96" s="4">
-        <v>50928</v>
-      </c>
-      <c r="D96" s="3" t="s">
+        <v>25382</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C97" s="4">
-        <v>4550</v>
-      </c>
-      <c r="D97" s="3" t="s">
+        <v>14784</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C98" s="4">
-        <v>32367</v>
-      </c>
-      <c r="D98" s="3" t="s">
+        <v>50928</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C99" s="4">
-        <v>12036</v>
-      </c>
-      <c r="D99" s="3" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C100" s="4">
-        <v>30688</v>
-      </c>
-      <c r="D100" s="3" t="s">
+        <v>32367</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C101" s="4">
-        <v>7570</v>
-      </c>
-      <c r="D101" s="3" t="s">
+        <v>12036</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C102" s="4">
-        <v>7569</v>
-      </c>
-      <c r="D102" s="3" t="s">
+        <v>30688</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" s="4">
-        <v>21835</v>
-      </c>
-      <c r="D103" s="3" t="s">
+        <v>7570</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104" s="4">
-        <v>7810</v>
-      </c>
-      <c r="D104" s="3" t="s">
+        <v>7569</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C105" s="4">
-        <v>7023</v>
-      </c>
-      <c r="D105" s="3" t="s">
+        <v>21835</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="C106" s="4">
-        <v>656458</v>
-      </c>
-      <c r="D106" s="3" t="s">
+        <v>7670</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C107" s="4">
-        <v>546757</v>
-      </c>
-      <c r="D107" s="3" t="s">
+        <v>7023</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C108" s="4">
-        <v>104630</v>
-      </c>
-      <c r="D108" s="3" t="s">
+        <v>656458</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C109" s="4">
-        <v>62737</v>
-      </c>
-      <c r="D109" s="3" t="s">
+        <v>631237</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="C110" s="4">
-        <v>4325</v>
-      </c>
-      <c r="D110" s="3" t="s">
+        <v>104630</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C111" s="4">
-        <v>9635</v>
-      </c>
-      <c r="D111" s="3" t="s">
+        <v>62737</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C112" s="4">
-        <v>45874</v>
-      </c>
-      <c r="D112" s="3" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C113" s="4">
-        <v>1590</v>
-      </c>
-      <c r="D113" s="3" t="s">
+        <v>9635</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C114" s="4">
-        <v>1160</v>
-      </c>
-      <c r="D114" s="3" t="s">
+        <v>45874</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C115" s="4">
-        <v>3070</v>
-      </c>
-      <c r="D115" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C116" s="4">
-        <v>2700</v>
-      </c>
-      <c r="D116" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C117" s="4">
-        <v>1080</v>
-      </c>
-      <c r="D117" s="3" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C118" s="4">
-        <v>2718</v>
-      </c>
-      <c r="D118" s="3" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C119" s="4">
-        <v>1890</v>
-      </c>
-      <c r="D119" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C120" s="4">
-        <v>2484</v>
-      </c>
-      <c r="D120" s="3" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C121" s="4">
-        <v>2016</v>
-      </c>
-      <c r="D121" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C122" s="4">
-        <v>1836</v>
-      </c>
-      <c r="D122" s="3" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C123" s="4">
-        <v>5246</v>
-      </c>
-      <c r="D123" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C124" s="4">
-        <v>3900</v>
-      </c>
-      <c r="D124" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C125" s="4">
-        <v>2648</v>
-      </c>
-      <c r="D125" s="3" t="s">
+        <v>5246</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C126" s="4">
-        <v>4780</v>
-      </c>
-      <c r="D126" s="3" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C127" s="4">
-        <v>27633</v>
-      </c>
-      <c r="D127" s="3" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C128" s="4">
-        <v>15314</v>
-      </c>
-      <c r="D128" s="3" t="s">
+        <v>4780</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C129" s="4">
-        <v>10647</v>
-      </c>
-      <c r="D129" s="3" t="s">
+        <v>27633</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C130" s="4">
-        <v>4970</v>
-      </c>
-      <c r="D130" s="3" t="s">
+        <v>15314</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C131" s="4">
-        <v>3140</v>
-      </c>
-      <c r="D131" s="3" t="s">
+        <v>10647</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C132" s="4">
-        <v>1740</v>
-      </c>
-      <c r="D132" s="3" t="s">
+        <v>4950</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C133" s="4">
-        <v>3840</v>
-      </c>
-      <c r="D133" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C134" s="4">
-        <v>17569</v>
-      </c>
-      <c r="D134" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C135" s="4">
-        <v>10707</v>
-      </c>
-      <c r="D135" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D135" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C136" s="4">
-        <v>20197</v>
-      </c>
-      <c r="D136" s="3" t="s">
+        <v>17569</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C137" s="4">
-        <v>5065</v>
-      </c>
-      <c r="D137" s="3" t="s">
+        <v>10527</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C138" s="4">
-        <v>23086</v>
-      </c>
-      <c r="D138" s="3" t="s">
+        <v>20161</v>
+      </c>
+      <c r="D138" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C139" s="4">
-        <v>3233</v>
-      </c>
-      <c r="D139" s="3" t="s">
+        <v>5065</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C140" s="4">
-        <v>4191</v>
-      </c>
-      <c r="D140" s="3" t="s">
+        <v>23086</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C141" s="4">
-        <v>3647</v>
-      </c>
-      <c r="D141" s="3" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C142" s="4">
-        <v>57756</v>
-      </c>
-      <c r="D142" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C143" s="4">
-        <v>29142</v>
-      </c>
-      <c r="D143" s="3" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C144" s="4">
-        <v>34092</v>
-      </c>
-      <c r="D144" s="3" t="s">
+        <v>57756</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C145" s="4">
-        <v>31413</v>
-      </c>
-      <c r="D145" s="3" t="s">
+        <v>28782</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C146" s="4">
-        <v>1163</v>
-      </c>
-      <c r="D146" s="3" t="s">
+        <v>33912</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C147" s="4">
-        <v>3373</v>
-      </c>
-      <c r="D147" s="3" t="s">
+        <v>31143</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C148" s="4">
-        <v>4394</v>
-      </c>
-      <c r="D148" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C149" s="4">
-        <v>17816</v>
-      </c>
-      <c r="D149" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C150" s="4">
-        <v>9700</v>
-      </c>
-      <c r="D150" s="3" t="s">
+        <v>4394</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C151" s="4">
-        <v>14186</v>
-      </c>
-      <c r="D151" s="3" t="s">
+        <v>17816</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C152" s="4">
-        <v>33869</v>
-      </c>
-      <c r="D152" s="3" t="s">
+        <v>9340</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C153" s="4">
-        <v>33554</v>
-      </c>
-      <c r="D153" s="3" t="s">
+        <v>14096</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C154" s="4">
-        <v>56464</v>
-      </c>
-      <c r="D154" s="3" t="s">
+        <v>33869</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C155" s="4">
-        <v>355086</v>
-      </c>
-      <c r="D155" s="3" t="s">
+        <v>33554</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C156" s="4">
-        <v>12866</v>
-      </c>
-      <c r="D156" s="3" t="s">
+        <v>56248</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C157" s="4">
-        <v>6518</v>
-      </c>
-      <c r="D157" s="3" t="s">
+        <v>354474</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C158" s="4">
-        <v>24229</v>
-      </c>
-      <c r="D158" s="3" t="s">
+        <v>12686</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C159" s="4">
-        <v>33936</v>
-      </c>
-      <c r="D159" s="3" t="s">
+        <v>6518</v>
+      </c>
+      <c r="D159" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C160" s="4">
-        <v>71664</v>
-      </c>
-      <c r="D160" s="3" t="s">
+        <v>23761</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C161" s="4">
-        <v>23102</v>
-      </c>
-      <c r="D161" s="3" t="s">
+        <v>33828</v>
+      </c>
+      <c r="D161" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C162" s="4">
-        <v>8742</v>
-      </c>
-      <c r="D162" s="3" t="s">
+        <v>71124</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C163" s="4">
-        <v>17442</v>
-      </c>
-      <c r="D163" s="3" t="s">
+        <v>23102</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C164" s="4">
-        <v>33756</v>
-      </c>
-      <c r="D164" s="3" t="s">
+        <v>8670</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C165" s="4">
-        <v>12946</v>
-      </c>
-      <c r="D165" s="3" t="s">
+        <v>17442</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C166" s="4">
-        <v>10549</v>
-      </c>
-      <c r="D166" s="3" t="s">
+        <v>33000</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C167" s="4">
-        <v>5997</v>
-      </c>
-      <c r="D167" s="3" t="s">
+        <v>12946</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C168" s="4">
-        <v>5615</v>
-      </c>
-      <c r="D168" s="3" t="s">
+        <v>10549</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C169" s="4">
-        <v>13055</v>
-      </c>
-      <c r="D169" s="3" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C170" s="4">
-        <v>8712</v>
-      </c>
-      <c r="D170" s="3" t="s">
+        <v>5615</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C171" s="4">
-        <v>30651</v>
-      </c>
-      <c r="D171" s="3" t="s">
+        <v>12425</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C172" s="4">
-        <v>23836</v>
-      </c>
-      <c r="D172" s="3" t="s">
+        <v>8712</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C173" s="4">
-        <v>54738</v>
-      </c>
-      <c r="D173" s="3" t="s">
+        <v>30651</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C174" s="4">
-        <v>35064</v>
-      </c>
-      <c r="D174" s="3" t="s">
+        <v>23836</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C175" s="4">
-        <v>16224</v>
-      </c>
-      <c r="D175" s="3" t="s">
+        <v>54738</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C176" s="4">
-        <v>14756</v>
-      </c>
-      <c r="D176" s="3" t="s">
+        <v>35064</v>
+      </c>
+      <c r="D176" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C177" s="4">
-        <v>15478</v>
-      </c>
-      <c r="D177" s="3" t="s">
+        <v>16224</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C178" s="4">
-        <v>8373</v>
-      </c>
-      <c r="D178" s="3" t="s">
+        <v>14756</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C179" s="4">
-        <v>33215</v>
-      </c>
-      <c r="D179" s="3" t="s">
+        <v>15478</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C180" s="4">
-        <v>13810</v>
-      </c>
-      <c r="D180" s="3" t="s">
+        <v>8191</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C181" s="4">
-        <v>17076</v>
-      </c>
-      <c r="D181" s="3" t="s">
+        <v>33131</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C182" s="4">
+        <v>13782</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C183" s="4">
+        <v>17076</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C184" s="4">
         <v>8768</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D184" s="6" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E6D9B-ED0D-CF45-B329-23C5BC5C92B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17520"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -394,21 +384,17 @@
     <t>Стоматофит® эксперт, спрей для местного применения, флакон 50 мл</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,29 +413,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -457,51 +434,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="60"/>
-      </left>
-      <right style="thin">
-        <color indexed="60"/>
-      </right>
-      <top style="thin">
-        <color indexed="60"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="60"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,22 +724,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A150" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -807,2559 +753,2559 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>5082</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>6594</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>14021</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>9656</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>19194</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>33651</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>14952</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>10038</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>10438</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>12964</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>11290</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>26502</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>91949</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>16436</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>5202</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>15162</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>29582</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>19684</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>14126</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>12707</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>43590</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>2358</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>2394</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>2412</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>5480</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>7272</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>45612</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>17604</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>3230</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>4856</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>14598</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>11088</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>26422</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>9531</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>8742</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>20568</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>19872</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>4806</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>14760</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>37748</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="4">
-        <v>21150</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <v>20798</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>803268</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>98406</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>98874</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>6336</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="4">
-        <v>10021</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="3">
+        <v>20029</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>38898</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>36267</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>146983</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>24552</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>49156</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>19491</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>90029</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>14795</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>14130</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>9666</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>11412</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="4">
-        <v>29736</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="3">
+        <v>43247</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>30438</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>13398</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>17316</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>14798</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="4">
-        <v>13789</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="3">
+        <v>41925</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>19684</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>15162</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="4">
-        <v>6907</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="3">
+        <v>6949</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>5865</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="4">
-        <v>14049</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="3">
+        <v>14077</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>14194</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>19810</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="4">
-        <v>24166</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="3">
+        <v>24208</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>45312</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="4">
-        <v>21512</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="3">
+        <v>21526</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="4">
-        <v>24136</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="3">
+        <v>24178</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" s="4">
+        <v>119</v>
+      </c>
+      <c r="C79" s="3">
         <v>21312</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>14290</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="4">
-        <v>65831</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="3">
+        <v>67511</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>29760</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="4">
-        <v>16816</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="3">
+        <v>16956</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>4049</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="4">
-        <v>26516</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="3">
+        <v>26656</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>7532</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>37119</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>36162</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="4">
-        <v>20243</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="3">
+        <v>20383</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>9232</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="4">
-        <v>18334</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="3">
+        <v>18614</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="4">
-        <v>22332</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="3">
+        <v>22416</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="3">
         <v>83</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>9189</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>1731</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>25382</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>14784</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>50928</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C99" s="4">
-        <v>4522</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="3">
+        <v>4550</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>32367</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>12036</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>30688</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>7570</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>7569</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>21835</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C106" s="4">
-        <v>7670</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="3">
+        <v>7810</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>7023</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>656458</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>631237</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>104630</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>62737</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>4325</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>9635</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>45874</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C115" s="4">
-        <v>1570</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="3">
+        <v>1590</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C116" s="4">
-        <v>1140</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="3">
+        <v>1160</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>3070</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>2700</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>1080</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C120" s="4">
-        <v>2700</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="3">
+        <v>2718</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C121" s="4">
-        <v>1872</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="3">
+        <v>1890</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>2484</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="4">
-        <v>1962</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="3">
         <v>1836</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>5246</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <v>3900</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C127" s="4">
-        <v>2612</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="3">
+        <v>2648</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>4780</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <v>27633</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="3">
         <v>15314</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="3">
         <v>10647</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C132" s="4">
-        <v>4950</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C132" s="3">
+        <v>4970</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C133" s="4">
-        <v>3130</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="3">
+        <v>3140</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>1740</v>
       </c>
-      <c r="D134" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C135" s="4">
-        <v>3820</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="3">
+        <v>3840</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <v>17569</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="4">
-        <v>10527</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="3">
+        <v>10707</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C138" s="4">
-        <v>20161</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="3">
+        <v>20197</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>5065</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>23086</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>3233</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C142" s="4">
-        <v>4101</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="3">
+        <v>4191</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>3647</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="3">
         <v>57756</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C145" s="4">
-        <v>28782</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="3">
+        <v>29142</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C146" s="4">
-        <v>33912</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="3">
+        <v>34092</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C147" s="4">
-        <v>31143</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="3">
+        <v>31413</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="3">
         <v>1163</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C149" s="4">
-        <v>3355</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="3">
+        <v>3373</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>4394</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <v>17816</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C152" s="4">
-        <v>9340</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="3">
+        <v>9700</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C153" s="4">
-        <v>14096</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="3">
+        <v>14186</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="3">
         <v>33869</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="3">
         <v>33554</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C156" s="4">
-        <v>56248</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="3">
+        <v>56464</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C157" s="4">
-        <v>354474</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="3">
+        <v>355086</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C158" s="4">
-        <v>12686</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="3">
+        <v>12866</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="3">
         <v>6518</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C160" s="4">
-        <v>23761</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C160" s="3">
+        <v>24229</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="4">
-        <v>33828</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C161" s="3">
+        <v>33936</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C162" s="4">
-        <v>71124</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="3">
+        <v>71664</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="3">
         <v>23102</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C164" s="4">
-        <v>8670</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="3">
+        <v>8742</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="3">
         <v>17442</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C166" s="4">
-        <v>33000</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="3">
+        <v>33756</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="3">
         <v>12946</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="3">
         <v>10549</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="3">
         <v>5997</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="3">
         <v>5615</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C171" s="4">
-        <v>12425</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C171" s="3">
+        <v>13055</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>8712</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>30651</v>
       </c>
-      <c r="D173" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>23836</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="3">
         <v>54738</v>
       </c>
-      <c r="D175" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="3">
         <v>35064</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="3">
         <v>16224</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="3">
         <v>14756</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="3">
         <v>15478</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C180" s="4">
-        <v>8191</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="3">
+        <v>8373</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C181" s="4">
-        <v>33131</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="3">
+        <v>33215</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C182" s="4">
-        <v>13782</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="3">
+        <v>13810</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="3">
         <v>17076</v>
       </c>
-      <c r="D183" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="3">
         <v>8768</v>
       </c>
-      <c r="D184" s="6" t="s">
+      <c r="D184" s="3" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E6D9B-ED0D-CF45-B329-23C5BC5C92B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D218EB-FA2C-894B-B68D-9EAF903B0BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,10 +384,10 @@
     <t>Стоматофит® эксперт, спрей для местного применения, флакон 50 мл</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A150" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1830,7 +1830,7 @@
         <v>45668</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" s="3">
         <v>21312</v>
@@ -2572,7 +2572,7 @@
         <v>45668</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C132" s="3">
         <v>4970</v>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D218EB-FA2C-894B-B68D-9EAF903B0BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4285363-3ACB-6644-BA8D-8B6FE57C8488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,10 +384,10 @@
     <t>Стоматофит® эксперт, спрей для местного применения, флакон 50 мл</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5 г</t>
-  </si>
-  <si>
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1830,7 +1830,7 @@
         <v>45668</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C79" s="3">
         <v>21312</v>
@@ -2572,7 +2572,7 @@
         <v>45668</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C132" s="3">
         <v>4970</v>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -876,19 +876,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4">
+        <v>51610</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -900,13 +902,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
-        <v>9656</v>
+        <v>19442</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>111</v>
@@ -914,7 +916,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
@@ -928,7 +930,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
@@ -942,7 +944,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -956,7 +958,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -970,7 +972,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
@@ -984,7 +986,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
@@ -998,13 +1000,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="4">
-        <v>11290</v>
+        <v>22390</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>111</v>
@@ -1012,13 +1014,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="4">
-        <v>21574</v>
+        <v>20384</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>111</v>
@@ -1026,7 +1028,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
@@ -1040,7 +1042,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
@@ -1052,7 +1054,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>34</v>
@@ -1066,7 +1068,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -1080,13 +1082,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="4">
-        <v>29582</v>
+        <v>14938</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>111</v>
@@ -1094,13 +1096,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="4">
-        <v>19684</v>
+        <v>12110</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>111</v>
@@ -1108,7 +1110,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>38</v>
@@ -1122,7 +1124,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>39</v>
@@ -1136,7 +1138,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>40</v>
@@ -1150,7 +1152,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
@@ -1164,7 +1166,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>45</v>
@@ -1178,7 +1180,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>50</v>
@@ -1192,7 +1194,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>51</v>
@@ -1206,7 +1208,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>54</v>
@@ -1220,21 +1222,19 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="4">
-        <v>45612</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>56</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>57</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>59</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>60</v>
@@ -1288,27 +1288,25 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="4">
-        <v>14598</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4">
-        <v>11088</v>
+        <v>14598</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>111</v>
@@ -1316,13 +1314,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="4">
-        <v>26422</v>
+        <v>11088</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>111</v>
@@ -1330,13 +1328,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="4">
-        <v>9531</v>
+        <v>26422</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>111</v>
@@ -1344,13 +1342,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="4">
-        <v>8742</v>
+        <v>9531</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>111</v>
@@ -1358,39 +1356,39 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C43" s="4">
+        <v>8742</v>
+      </c>
       <c r="D43" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="4">
-        <v>20568</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4">
-        <v>19872</v>
+        <v>20568</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>111</v>
@@ -1398,13 +1396,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="4">
-        <v>4806</v>
+        <v>19872</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>111</v>
@@ -1412,13 +1410,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="4">
-        <v>14760</v>
+        <v>4806</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>111</v>
@@ -1426,13 +1424,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4">
-        <v>57710</v>
+        <v>14760</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>111</v>
@@ -1440,39 +1438,39 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C49" s="4">
+        <v>57710</v>
+      </c>
       <c r="D49" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="4">
-        <v>803268</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="4">
-        <v>98406</v>
+        <v>803268</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>111</v>
@@ -1480,39 +1478,39 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="4">
-        <v>98874</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C53" s="4">
+        <v>197889</v>
+      </c>
       <c r="D53" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4">
-        <v>20029</v>
+        <v>98874</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>111</v>
@@ -1520,27 +1518,25 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="4">
-        <v>38898</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C55" s="5"/>
       <c r="D55" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C56" s="4">
-        <v>36267</v>
+        <v>19975</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>111</v>
@@ -1548,13 +1544,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="4">
-        <v>146983</v>
+        <v>38898</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>111</v>
@@ -1562,13 +1558,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="4">
-        <v>24552</v>
+        <v>36213</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>111</v>
@@ -1576,13 +1572,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" s="4">
-        <v>49156</v>
+        <v>146983</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>111</v>
@@ -1590,13 +1586,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="4">
-        <v>19491</v>
+        <v>24552</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>111</v>
@@ -1604,13 +1600,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="4">
-        <v>90029</v>
+        <v>49102</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>111</v>
@@ -1618,13 +1614,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C62" s="4">
-        <v>14795</v>
+        <v>19491</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>111</v>
@@ -1632,13 +1628,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="4">
-        <v>14130</v>
+        <v>90029</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>111</v>
@@ -1646,13 +1642,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C64" s="4">
-        <v>9666</v>
+        <v>14741</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>111</v>
@@ -1660,27 +1656,25 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="4">
-        <v>11412</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="4">
-        <v>43247</v>
+        <v>9666</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>111</v>
@@ -1688,25 +1682,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="C67" s="4">
+        <v>11412</v>
+      </c>
       <c r="D67" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C68" s="4">
-        <v>30438</v>
+        <v>13511</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>111</v>
@@ -1714,10 +1710,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="s">
@@ -1726,41 +1722,37 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="4">
-        <v>13398</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C70" s="5"/>
       <c r="D70" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="4">
-        <v>17316</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C71" s="5"/>
       <c r="D71" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C72" s="4">
-        <v>14798</v>
+        <v>13398</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>111</v>
@@ -1768,13 +1760,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C73" s="4">
-        <v>41925</v>
+        <v>17316</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>111</v>
@@ -1782,13 +1774,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C74" s="4">
-        <v>19684</v>
+        <v>14798</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>111</v>
@@ -1796,13 +1788,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="4">
-        <v>15162</v>
+        <v>41925</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>111</v>
@@ -1810,41 +1802,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C76" s="4">
-        <v>6165</v>
+        <v>19684</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4">
-        <v>5767</v>
+        <v>15162</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C78" s="4">
-        <v>13447</v>
+        <v>5885</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>112</v>
@@ -1852,13 +1844,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4">
-        <v>13298</v>
+        <v>5767</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>112</v>
@@ -1866,13 +1858,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" s="4">
-        <v>19278</v>
+        <v>12915</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>112</v>
@@ -1880,13 +1872,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" s="4">
-        <v>22458</v>
+        <v>13102</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>112</v>
@@ -1894,13 +1886,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C82" s="4">
-        <v>45312</v>
+        <v>19040</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>112</v>
@@ -1908,13 +1900,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="4">
-        <v>21078</v>
+        <v>21646</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>112</v>
@@ -1922,13 +1914,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C84" s="4">
-        <v>22722</v>
+        <v>45312</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>112</v>
@@ -1936,13 +1928,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="C85" s="4">
-        <v>20896</v>
+        <v>20602</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>112</v>
@@ -1950,13 +1942,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="4">
-        <v>13240</v>
+        <v>21728</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>112</v>
@@ -1964,13 +1956,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4">
-        <v>64053</v>
+        <v>20896</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>112</v>
@@ -1978,13 +1970,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88" s="4">
-        <v>27268</v>
+        <v>12036</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>112</v>
@@ -1992,13 +1984,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C89" s="4">
-        <v>16354</v>
+        <v>62443</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>112</v>
@@ -2006,13 +1998,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C90" s="4">
-        <v>3629</v>
+        <v>26414</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>112</v>
@@ -2020,13 +2012,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C91" s="4">
-        <v>24696</v>
+        <v>15836</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>112</v>
@@ -2034,13 +2026,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C92" s="4">
-        <v>6594</v>
+        <v>2957</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>112</v>
@@ -2048,13 +2040,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C93" s="4">
-        <v>35873</v>
+        <v>24024</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>112</v>
@@ -2062,13 +2054,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C94" s="4">
-        <v>35658</v>
+        <v>6412</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>112</v>
@@ -2076,13 +2068,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C95" s="4">
-        <v>18059</v>
+        <v>34851</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>112</v>
@@ -2090,13 +2082,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C96" s="4">
-        <v>8728</v>
+        <v>35014</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>112</v>
@@ -2104,13 +2096,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97" s="4">
-        <v>18054</v>
+        <v>17233</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>112</v>
@@ -2118,13 +2110,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C98" s="4">
-        <v>21632</v>
+        <v>7888</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>112</v>
@@ -2132,13 +2124,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="7">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="C99" s="4">
+        <v>17550</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>112</v>
@@ -2146,13 +2138,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C100" s="4">
-        <v>8391</v>
+        <v>21324</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>112</v>
@@ -2160,13 +2152,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="4">
-        <v>1493</v>
+        <v>114</v>
+      </c>
+      <c r="C101" s="7">
+        <v>83</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>112</v>
@@ -2174,13 +2166,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C102" s="4">
-        <v>23142</v>
+        <v>7971</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>112</v>
@@ -2188,13 +2180,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="4">
-        <v>14448</v>
+        <v>25</v>
+      </c>
+      <c r="C103" s="7">
+        <v>891</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>112</v>
@@ -2202,13 +2194,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C104" s="4">
-        <v>49444</v>
+        <v>28070</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>112</v>
@@ -2216,13 +2208,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C105" s="4">
-        <v>4452</v>
+        <v>13510</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>112</v>
@@ -2230,13 +2222,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C106" s="4">
-        <v>46241</v>
+        <v>48268</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>112</v>
@@ -2244,13 +2236,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C107" s="4">
-        <v>11700</v>
+        <v>4424</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>112</v>
@@ -2258,13 +2250,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C108" s="4">
-        <v>30226</v>
+        <v>45863</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>112</v>
@@ -2272,13 +2264,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C109" s="4">
-        <v>7164</v>
+        <v>11056</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>112</v>
@@ -2286,13 +2278,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C110" s="4">
-        <v>7471</v>
+        <v>29890</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>112</v>
@@ -2300,13 +2292,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C111" s="4">
-        <v>20057</v>
+        <v>6996</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>112</v>
@@ -2314,13 +2306,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C112" s="4">
-        <v>5472</v>
+        <v>7387</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>112</v>
@@ -2328,13 +2320,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C113" s="4">
-        <v>6589</v>
+        <v>19553</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>112</v>
@@ -2342,13 +2334,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="C114" s="4">
-        <v>654113</v>
+        <v>19486</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>112</v>
@@ -2356,13 +2348,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C115" s="4">
-        <v>627877</v>
+        <v>13463</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>112</v>
@@ -2370,13 +2362,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C116" s="4">
-        <v>103510</v>
+        <v>653518</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>112</v>
@@ -2384,13 +2376,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C117" s="4">
-        <v>62527</v>
+        <v>627781</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>112</v>
@@ -2398,13 +2390,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="C118" s="4">
-        <v>4003</v>
+        <v>103430</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>112</v>
@@ -2412,13 +2404,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C119" s="4">
-        <v>9439</v>
+        <v>62422</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>112</v>
@@ -2426,13 +2418,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C120" s="4">
-        <v>45230</v>
+        <v>3485</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>112</v>
@@ -2440,13 +2432,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C121" s="4">
-        <v>1470</v>
+        <v>8613</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>112</v>
@@ -2454,13 +2446,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C122" s="4">
-        <v>1050</v>
+        <v>44334</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>112</v>
@@ -2468,13 +2460,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C123" s="4">
-        <v>3070</v>
+        <v>1470</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>112</v>
@@ -2482,13 +2474,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C124" s="4">
-        <v>2304</v>
+        <v>1050</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>112</v>
@@ -2496,13 +2488,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C125" s="4">
-        <v>1044</v>
+        <v>3070</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>112</v>
@@ -2510,13 +2502,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C126" s="4">
-        <v>2664</v>
+        <v>2304</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>112</v>
@@ -2524,13 +2516,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C127" s="4">
-        <v>1836</v>
+        <v>1044</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>112</v>
@@ -2538,13 +2530,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C128" s="4">
-        <v>2340</v>
+        <v>2664</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>112</v>
@@ -2552,10 +2544,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C129" s="4">
         <v>1836</v>
@@ -2566,13 +2558,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C130" s="4">
-        <v>1620</v>
+        <v>2340</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>112</v>
@@ -2580,13 +2572,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C131" s="4">
-        <v>4904</v>
+        <v>1836</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>112</v>
@@ -2594,13 +2586,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C132" s="4">
-        <v>3702</v>
+        <v>1620</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>112</v>
@@ -2608,13 +2600,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C133" s="4">
-        <v>2468</v>
+        <v>4670</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>112</v>
@@ -2622,13 +2614,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C134" s="4">
-        <v>4312</v>
+        <v>3594</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>112</v>
@@ -2636,13 +2628,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C135" s="4">
-        <v>27129</v>
+        <v>2378</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>112</v>
@@ -2650,13 +2642,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C136" s="4">
-        <v>12902</v>
+        <v>3610</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>112</v>
@@ -2664,13 +2656,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C137" s="4">
-        <v>9567</v>
+        <v>71913</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>112</v>
@@ -2678,13 +2670,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C138" s="4">
-        <v>4800</v>
+        <v>12542</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>112</v>
@@ -2692,13 +2684,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C139" s="4">
-        <v>3020</v>
+        <v>8433</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>112</v>
@@ -2706,13 +2698,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C140" s="4">
-        <v>1620</v>
+        <v>4800</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>112</v>
@@ -2720,13 +2712,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C141" s="4">
-        <v>3570</v>
+        <v>3020</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>112</v>
@@ -2734,13 +2726,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C142" s="4">
-        <v>16417</v>
+        <v>1620</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>112</v>
@@ -2748,13 +2740,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C143" s="4">
-        <v>9159</v>
+        <v>3570</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>112</v>
@@ -2762,13 +2754,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C144" s="4">
-        <v>18919</v>
+        <v>15877</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>112</v>
@@ -2776,13 +2768,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C145" s="4">
-        <v>5029</v>
+        <v>8709</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>112</v>
@@ -2790,13 +2782,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C146" s="4">
-        <v>18532</v>
+        <v>17965</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>112</v>
@@ -2804,13 +2796,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C147" s="4">
-        <v>2207</v>
+        <v>4885</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>112</v>
@@ -2818,13 +2810,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C148" s="4">
-        <v>2193</v>
+        <v>17362</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>112</v>
@@ -2832,13 +2824,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C149" s="4">
-        <v>3467</v>
+        <v>1901</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>112</v>
@@ -2846,13 +2838,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C150" s="4">
-        <v>56982</v>
+        <v>1617</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>112</v>
@@ -2860,13 +2852,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C151" s="4">
-        <v>28206</v>
+        <v>3215</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>112</v>
@@ -2874,13 +2866,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C152" s="4">
-        <v>32868</v>
+        <v>56406</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>112</v>
@@ -2888,13 +2880,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C153" s="4">
-        <v>28713</v>
+        <v>27648</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>112</v>
@@ -2902,13 +2894,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C154" s="4">
-        <v>1073</v>
+        <v>31806</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>112</v>
@@ -2916,13 +2908,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C155" s="4">
-        <v>2743</v>
+        <v>27795</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>112</v>
@@ -2930,13 +2922,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C156" s="4">
-        <v>4196</v>
+        <v>73</v>
+      </c>
+      <c r="C156" s="7">
+        <v>947</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>112</v>
@@ -2944,13 +2936,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C157" s="4">
-        <v>16322</v>
+        <v>2545</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>112</v>
@@ -2958,13 +2950,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C158" s="4">
-        <v>5362</v>
+        <v>3908</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>112</v>
@@ -2972,13 +2964,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C159" s="4">
-        <v>33464</v>
+        <v>15836</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>112</v>
@@ -2986,13 +2978,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C160" s="4">
-        <v>27173</v>
+        <v>3634</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>112</v>
@@ -3000,13 +2992,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C161" s="4">
-        <v>32744</v>
+        <v>32348</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>112</v>
@@ -3014,13 +3006,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C162" s="4">
-        <v>50920</v>
+        <v>12323</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>112</v>
@@ -3028,13 +3020,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C163" s="4">
-        <v>353016</v>
+        <v>31862</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>112</v>
@@ -3042,13 +3034,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C164" s="4">
-        <v>18446</v>
+        <v>47068</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>112</v>
@@ -3056,13 +3048,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C165" s="4">
-        <v>5744</v>
+        <v>351144</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>112</v>
@@ -3070,13 +3062,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C166" s="4">
-        <v>17209</v>
+        <v>18090</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>112</v>
@@ -3084,13 +3076,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C167" s="4">
-        <v>29436</v>
+        <v>4898</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>112</v>
@@ -3098,13 +3090,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C168" s="4">
-        <v>64770</v>
+        <v>16057</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>112</v>
@@ -3112,13 +3104,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C169" s="4">
-        <v>20384</v>
+        <v>27960</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>112</v>
@@ -3126,13 +3118,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C170" s="4">
-        <v>6528</v>
+        <v>61062</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>112</v>
@@ -3140,13 +3132,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C171" s="4">
-        <v>14670</v>
+        <v>19451</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>112</v>
@@ -3154,13 +3146,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C172" s="4">
-        <v>31938</v>
+        <v>5970</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>112</v>
@@ -3168,13 +3160,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C173" s="4">
-        <v>12082</v>
+        <v>13986</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>112</v>
@@ -3182,13 +3174,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C174" s="4">
-        <v>9955</v>
+        <v>29724</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>112</v>
@@ -3196,13 +3188,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C175" s="4">
-        <v>5835</v>
+        <v>11326</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>112</v>
@@ -3210,13 +3202,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C176" s="4">
-        <v>4465</v>
+        <v>23275</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>112</v>
@@ -3224,13 +3216,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C177" s="4">
-        <v>9905</v>
+        <v>5709</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>112</v>
@@ -3238,13 +3230,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C178" s="4">
-        <v>8352</v>
+        <v>4435</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>112</v>
@@ -3252,13 +3244,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C179" s="4">
-        <v>28797</v>
+        <v>9095</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>112</v>
@@ -3266,13 +3258,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C180" s="4">
-        <v>22198</v>
+        <v>37080</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>112</v>
@@ -3280,13 +3272,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C181" s="4">
-        <v>53226</v>
+        <v>27627</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>112</v>
@@ -3294,13 +3286,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C182" s="4">
-        <v>34722</v>
+        <v>21388</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>112</v>
@@ -3308,13 +3300,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C183" s="4">
-        <v>15650</v>
+        <v>82152</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>112</v>
@@ -3322,13 +3314,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C184" s="4">
-        <v>13804</v>
+        <v>34308</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>112</v>
@@ -3336,13 +3328,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C185" s="4">
-        <v>15268</v>
+        <v>15146</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>112</v>
@@ -3350,13 +3342,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C186" s="4">
-        <v>6539</v>
+        <v>13286</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>112</v>
@@ -3364,13 +3356,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C187" s="4">
-        <v>32809</v>
+        <v>14666</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>112</v>
@@ -3378,13 +3370,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C188" s="4">
-        <v>12270</v>
+        <v>5839</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>112</v>
@@ -3392,13 +3384,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C189" s="4">
-        <v>16432</v>
+        <v>32207</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>112</v>
@@ -3406,15 +3398,43 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C190" s="4">
+        <v>11402</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45672</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C191" s="4">
+        <v>15676</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45672</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C190" s="4">
-        <v>7130</v>
-      </c>
-      <c r="D190" s="6" t="s">
+      <c r="C192" s="4">
+        <v>6752</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -850,19 +850,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4">
+        <v>10094</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -876,7 +878,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -890,39 +892,39 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4">
+        <v>25900</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>19442</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4">
-        <v>19194</v>
+        <v>19484</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>111</v>
@@ -930,27 +932,25 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4">
-        <v>33651</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
-        <v>14952</v>
+        <v>19194</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>111</v>
@@ -958,13 +958,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
-        <v>10038</v>
+        <v>33651</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>111</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>10438</v>
+        <v>14952</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>111</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>12964</v>
+        <v>10038</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>111</v>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4">
-        <v>22390</v>
+        <v>10438</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>111</v>
@@ -1014,27 +1014,25 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4">
-        <v>20384</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4">
-        <v>91949</v>
+        <v>22390</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>111</v>
@@ -1042,25 +1040,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C20" s="4">
+        <v>20384</v>
+      </c>
       <c r="D20" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
-        <v>5202</v>
+        <v>39617</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>111</v>
@@ -1068,27 +1068,25 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4">
-        <v>15162</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4">
-        <v>14938</v>
+        <v>5202</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>111</v>
@@ -1096,13 +1094,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4">
-        <v>12110</v>
+        <v>15162</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>111</v>
@@ -1110,13 +1108,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4">
-        <v>14126</v>
+        <v>14938</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>111</v>
@@ -1124,13 +1122,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4">
-        <v>12707</v>
+        <v>12110</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>111</v>
@@ -1138,13 +1136,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4">
-        <v>43590</v>
+        <v>14126</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>111</v>
@@ -1152,13 +1150,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4">
-        <v>2358</v>
+        <v>12707</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>111</v>
@@ -1166,13 +1164,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4">
-        <v>2394</v>
+        <v>43590</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>111</v>
@@ -1180,13 +1178,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4">
-        <v>2412</v>
+        <v>2358</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>111</v>
@@ -1194,13 +1192,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4">
-        <v>5480</v>
+        <v>2394</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>111</v>
@@ -1208,13 +1206,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C32" s="4">
-        <v>7272</v>
+        <v>2412</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>111</v>
@@ -1222,65 +1220,65 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5480</v>
+      </c>
       <c r="D33" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7272</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="4">
-        <v>17604</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3230</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" s="4">
-        <v>4856</v>
+        <v>17604</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>111</v>
@@ -1288,25 +1286,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3230</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4">
-        <v>14598</v>
+        <v>4856</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>111</v>
@@ -1314,55 +1314,49 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="4">
-        <v>11088</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="4">
-        <v>26422</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="4">
-        <v>9531</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" s="4">
-        <v>8742</v>
+        <v>44800</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>111</v>
@@ -1370,25 +1364,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="C44" s="4">
+        <v>9531</v>
+      </c>
       <c r="D44" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C45" s="4">
-        <v>20568</v>
+        <v>19249</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>111</v>
@@ -1396,27 +1392,25 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="4">
-        <v>19872</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C47" s="4">
-        <v>4806</v>
+        <v>20568</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>111</v>
@@ -1424,13 +1418,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4">
-        <v>14760</v>
+        <v>19872</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>111</v>
@@ -1438,13 +1432,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C49" s="4">
-        <v>57710</v>
+        <v>4806</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>111</v>
@@ -1452,10 +1446,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6" t="s">
@@ -1464,13 +1458,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C51" s="4">
-        <v>803268</v>
+        <v>14760</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>111</v>
@@ -1478,39 +1472,39 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C52" s="4">
+        <v>57710</v>
+      </c>
       <c r="D52" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="4">
-        <v>197889</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C53" s="5"/>
       <c r="D53" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C54" s="4">
-        <v>98874</v>
+        <v>950467</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>111</v>
@@ -1518,10 +1512,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6" t="s">
@@ -1530,13 +1524,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C56" s="4">
-        <v>19975</v>
+        <v>197889</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>111</v>
@@ -1544,13 +1538,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C57" s="4">
-        <v>38898</v>
+        <v>98874</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>111</v>
@@ -1558,27 +1552,25 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="4">
-        <v>36213</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C59" s="4">
-        <v>146983</v>
+        <v>20029</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>111</v>
@@ -1586,13 +1578,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C60" s="4">
-        <v>24552</v>
+        <v>38898</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>111</v>
@@ -1600,13 +1592,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C61" s="4">
-        <v>49102</v>
+        <v>36267</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>111</v>
@@ -1614,13 +1606,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C62" s="4">
-        <v>19491</v>
+        <v>146983</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>111</v>
@@ -1628,13 +1620,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C63" s="4">
-        <v>90029</v>
+        <v>24552</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>111</v>
@@ -1642,13 +1634,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C64" s="4">
-        <v>14741</v>
+        <v>49156</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>111</v>
@@ -1656,25 +1648,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="C65" s="4">
+        <v>19491</v>
+      </c>
       <c r="D65" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C66" s="4">
-        <v>9666</v>
+        <v>90029</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>111</v>
@@ -1682,13 +1676,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C67" s="4">
-        <v>11412</v>
+        <v>14795</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>111</v>
@@ -1696,77 +1690,79 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="4">
-        <v>13511</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C69" s="4">
+        <v>9666</v>
+      </c>
       <c r="D69" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="C70" s="4">
+        <v>11412</v>
+      </c>
       <c r="D70" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="C71" s="4">
+        <v>13511</v>
+      </c>
       <c r="D71" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="4">
-        <v>13398</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C72" s="5"/>
       <c r="D72" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C73" s="4">
-        <v>17316</v>
+        <v>32508</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>111</v>
@@ -1774,27 +1770,25 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="4">
-        <v>14798</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C74" s="5"/>
       <c r="D74" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C75" s="4">
-        <v>41925</v>
+        <v>13398</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>111</v>
@@ -1802,13 +1796,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C76" s="4">
-        <v>19684</v>
+        <v>32078</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>111</v>
@@ -1816,13 +1810,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C77" s="4">
-        <v>15162</v>
+        <v>14798</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>111</v>
@@ -1830,55 +1824,53 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C78" s="4">
-        <v>5885</v>
+        <v>41925</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C79" s="4">
-        <v>5767</v>
+        <v>19684</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="4">
-        <v>12915</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C80" s="5"/>
       <c r="D80" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C81" s="4">
-        <v>13102</v>
+        <v>5885</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>112</v>
@@ -1886,13 +1878,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4">
-        <v>19040</v>
+        <v>5767</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>112</v>
@@ -1900,13 +1892,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" s="4">
-        <v>21646</v>
+        <v>12887</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>112</v>
@@ -1914,13 +1906,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C84" s="4">
-        <v>45312</v>
+        <v>13060</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>112</v>
@@ -1928,13 +1920,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C85" s="4">
-        <v>20602</v>
+        <v>18998</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>112</v>
@@ -1942,13 +1934,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C86" s="4">
-        <v>21728</v>
+        <v>21604</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>112</v>
@@ -1956,13 +1948,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C87" s="4">
-        <v>20896</v>
+        <v>45312</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>112</v>
@@ -1970,13 +1962,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C88" s="4">
-        <v>12036</v>
+        <v>20574</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>112</v>
@@ -1984,13 +1976,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C89" s="4">
-        <v>62443</v>
+        <v>21714</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>112</v>
@@ -1998,13 +1990,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C90" s="4">
-        <v>26414</v>
+        <v>20896</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>112</v>
@@ -2012,13 +2004,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4">
-        <v>15836</v>
+        <v>12106</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>112</v>
@@ -2026,13 +2018,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C92" s="4">
-        <v>2957</v>
+        <v>62345</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>112</v>
@@ -2040,13 +2032,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C93" s="4">
-        <v>24024</v>
+        <v>26372</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>112</v>
@@ -2054,13 +2046,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C94" s="4">
-        <v>6412</v>
+        <v>15836</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>112</v>
@@ -2068,13 +2060,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C95" s="4">
-        <v>34851</v>
+        <v>2999</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>112</v>
@@ -2082,13 +2074,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C96" s="4">
-        <v>35014</v>
+        <v>23982</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>112</v>
@@ -2096,13 +2088,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C97" s="4">
-        <v>17233</v>
+        <v>6412</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>112</v>
@@ -2110,13 +2102,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C98" s="4">
-        <v>7888</v>
+        <v>34417</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>112</v>
@@ -2124,13 +2116,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C99" s="4">
-        <v>17550</v>
+        <v>35000</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>112</v>
@@ -2138,13 +2130,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C100" s="4">
-        <v>21324</v>
+        <v>17233</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>112</v>
@@ -2152,13 +2144,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="7">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="C101" s="4">
+        <v>7874</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>112</v>
@@ -2166,13 +2158,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C102" s="4">
-        <v>7971</v>
+        <v>17522</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>112</v>
@@ -2180,13 +2172,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="7">
-        <v>891</v>
+        <v>23</v>
+      </c>
+      <c r="C103" s="4">
+        <v>21324</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>112</v>
@@ -2194,13 +2186,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="4">
-        <v>28070</v>
+        <v>114</v>
+      </c>
+      <c r="C104" s="7">
+        <v>83</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>112</v>
@@ -2208,13 +2200,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C105" s="4">
-        <v>13510</v>
+        <v>20935</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>112</v>
@@ -2222,13 +2214,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="4">
-        <v>48268</v>
+        <v>25</v>
+      </c>
+      <c r="C106" s="7">
+        <v>891</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>112</v>
@@ -2236,13 +2228,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C107" s="4">
-        <v>4424</v>
+        <v>28070</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>112</v>
@@ -2250,13 +2242,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C108" s="4">
-        <v>45863</v>
+        <v>13510</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>112</v>
@@ -2264,13 +2256,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C109" s="4">
-        <v>11056</v>
+        <v>100418</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>112</v>
@@ -2278,13 +2270,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C110" s="4">
-        <v>29890</v>
+        <v>4424</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>112</v>
@@ -2292,13 +2284,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C111" s="4">
-        <v>6996</v>
+        <v>45821</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>112</v>
@@ -2306,13 +2298,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C112" s="4">
-        <v>7387</v>
+        <v>11056</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>112</v>
@@ -2320,13 +2312,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C113" s="4">
-        <v>19553</v>
+        <v>29890</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>112</v>
@@ -2334,13 +2326,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C114" s="4">
-        <v>19486</v>
+        <v>6996</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>112</v>
@@ -2348,13 +2340,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C115" s="4">
-        <v>13463</v>
+        <v>7429</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>112</v>
@@ -2362,13 +2354,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="C116" s="4">
-        <v>653518</v>
+        <v>19511</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>112</v>
@@ -2376,13 +2368,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C117" s="4">
-        <v>627781</v>
+        <v>19542</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>112</v>
@@ -2390,13 +2382,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C118" s="4">
-        <v>103430</v>
+        <v>13463</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>112</v>
@@ -2404,13 +2396,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C119" s="4">
-        <v>62422</v>
+        <v>654113</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>112</v>
@@ -2418,13 +2410,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C120" s="4">
-        <v>3485</v>
+        <v>627877</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>112</v>
@@ -2432,13 +2424,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C121" s="4">
-        <v>8613</v>
+        <v>103510</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>112</v>
@@ -2446,13 +2438,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C122" s="4">
-        <v>44334</v>
+        <v>62527</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>112</v>
@@ -2460,13 +2452,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C123" s="4">
-        <v>1470</v>
+        <v>3485</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>112</v>
@@ -2474,13 +2466,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C124" s="4">
-        <v>1050</v>
+        <v>8585</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>112</v>
@@ -2488,13 +2480,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C125" s="4">
-        <v>3070</v>
+        <v>44292</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>112</v>
@@ -2502,13 +2494,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C126" s="4">
-        <v>2304</v>
+        <v>1470</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>112</v>
@@ -2516,13 +2508,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C127" s="4">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>112</v>
@@ -2530,13 +2522,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C128" s="4">
-        <v>2664</v>
+        <v>3070</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>112</v>
@@ -2544,13 +2536,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C129" s="4">
-        <v>1836</v>
+        <v>2052</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>112</v>
@@ -2558,13 +2550,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C130" s="4">
-        <v>2340</v>
+        <v>1026</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>112</v>
@@ -2572,13 +2564,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C131" s="4">
-        <v>1836</v>
+        <v>2646</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>112</v>
@@ -2586,13 +2578,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C132" s="4">
-        <v>1620</v>
+        <v>1818</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>112</v>
@@ -2600,13 +2592,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C133" s="4">
-        <v>4670</v>
+        <v>2304</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>112</v>
@@ -2614,13 +2606,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C134" s="4">
-        <v>3594</v>
+        <v>1800</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>112</v>
@@ -2628,13 +2620,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C135" s="4">
-        <v>2378</v>
+        <v>1620</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>112</v>
@@ -2642,13 +2634,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C136" s="4">
-        <v>3610</v>
+        <v>4652</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>112</v>
@@ -2656,13 +2648,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C137" s="4">
-        <v>71913</v>
+        <v>3594</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>112</v>
@@ -2670,13 +2662,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C138" s="4">
-        <v>12542</v>
+        <v>2378</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>112</v>
@@ -2684,13 +2676,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C139" s="4">
-        <v>8433</v>
+        <v>3574</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>112</v>
@@ -2698,13 +2690,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C140" s="4">
-        <v>4800</v>
+        <v>71769</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>112</v>
@@ -2712,13 +2704,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C141" s="4">
-        <v>3020</v>
+        <v>12506</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>112</v>
@@ -2726,13 +2718,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C142" s="4">
-        <v>1620</v>
+        <v>8487</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>112</v>
@@ -2740,13 +2732,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C143" s="4">
-        <v>3570</v>
+        <v>4740</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>112</v>
@@ -2754,13 +2746,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C144" s="4">
-        <v>15877</v>
+        <v>3010</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>112</v>
@@ -2768,13 +2760,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C145" s="4">
-        <v>8709</v>
+        <v>1610</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>112</v>
@@ -2782,13 +2774,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C146" s="4">
-        <v>17965</v>
+        <v>3520</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>112</v>
@@ -2796,13 +2788,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C147" s="4">
-        <v>4885</v>
+        <v>15751</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>112</v>
@@ -2810,13 +2802,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C148" s="4">
-        <v>17362</v>
+        <v>23307</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>112</v>
@@ -2824,13 +2816,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C149" s="4">
-        <v>1901</v>
+        <v>28963</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>112</v>
@@ -2838,13 +2830,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C150" s="4">
-        <v>1617</v>
+        <v>4885</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>112</v>
@@ -2852,13 +2844,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C151" s="4">
-        <v>3215</v>
+        <v>17254</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>112</v>
@@ -2866,13 +2858,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C152" s="4">
-        <v>56406</v>
+        <v>1865</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>112</v>
@@ -2880,13 +2872,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C153" s="4">
-        <v>27648</v>
+        <v>1545</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>112</v>
@@ -2894,13 +2886,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C154" s="4">
-        <v>31806</v>
+        <v>3197</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>112</v>
@@ -2908,13 +2900,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C155" s="4">
-        <v>27795</v>
+        <v>56352</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>112</v>
@@ -2922,13 +2914,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C156" s="7">
-        <v>947</v>
+        <v>70</v>
+      </c>
+      <c r="C156" s="4">
+        <v>27576</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>112</v>
@@ -2936,13 +2928,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C157" s="4">
-        <v>2545</v>
+        <v>31680</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>112</v>
@@ -2950,13 +2942,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C158" s="4">
-        <v>3908</v>
+        <v>27633</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>112</v>
@@ -2964,13 +2956,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C159" s="4">
-        <v>15836</v>
+        <v>73</v>
+      </c>
+      <c r="C159" s="7">
+        <v>947</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>112</v>
@@ -2978,13 +2970,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C160" s="4">
-        <v>3634</v>
+        <v>2545</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>112</v>
@@ -2992,13 +2984,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C161" s="4">
-        <v>32348</v>
+        <v>3908</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>112</v>
@@ -3006,13 +2998,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C162" s="4">
-        <v>12323</v>
+        <v>15764</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>112</v>
@@ -3020,13 +3012,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C163" s="4">
-        <v>31862</v>
+        <v>3580</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>112</v>
@@ -3034,13 +3026,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C164" s="4">
-        <v>47068</v>
+        <v>32312</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>112</v>
@@ -3048,13 +3040,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C165" s="4">
-        <v>351144</v>
+        <v>10595</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>112</v>
@@ -3062,13 +3054,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C166" s="4">
-        <v>18090</v>
+        <v>31790</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>112</v>
@@ -3076,13 +3068,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C167" s="4">
-        <v>4898</v>
+        <v>46744</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>112</v>
@@ -3090,13 +3082,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C168" s="4">
-        <v>16057</v>
+        <v>350568</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>112</v>
@@ -3104,13 +3096,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C169" s="4">
-        <v>27960</v>
+        <v>17946</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>112</v>
@@ -3118,13 +3110,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C170" s="4">
-        <v>61062</v>
+        <v>4826</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>112</v>
@@ -3132,13 +3124,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C171" s="4">
-        <v>19451</v>
+        <v>15895</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>112</v>
@@ -3146,13 +3138,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C172" s="4">
-        <v>5970</v>
+        <v>27816</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>112</v>
@@ -3160,13 +3152,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C173" s="4">
-        <v>13986</v>
+        <v>60882</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>112</v>
@@ -3174,13 +3166,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C174" s="4">
-        <v>29724</v>
+        <v>19397</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>112</v>
@@ -3188,13 +3180,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C175" s="4">
-        <v>11326</v>
+        <v>5916</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>112</v>
@@ -3202,13 +3194,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C176" s="4">
-        <v>23275</v>
+        <v>13968</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>112</v>
@@ -3216,13 +3208,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C177" s="4">
-        <v>5709</v>
+        <v>29544</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>112</v>
@@ -3230,13 +3222,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C178" s="4">
-        <v>4435</v>
+        <v>11326</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>112</v>
@@ -3244,13 +3236,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C179" s="4">
-        <v>9095</v>
+        <v>23203</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>112</v>
@@ -3258,13 +3250,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C180" s="4">
-        <v>37080</v>
+        <v>5709</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>112</v>
@@ -3272,13 +3264,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C181" s="4">
-        <v>27627</v>
+        <v>4435</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>112</v>
@@ -3286,13 +3278,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C182" s="4">
-        <v>21388</v>
+        <v>9113</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>112</v>
@@ -3300,13 +3292,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C183" s="4">
-        <v>82152</v>
+        <v>36990</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>112</v>
@@ -3314,13 +3306,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C184" s="4">
-        <v>34308</v>
+        <v>27555</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>112</v>
@@ -3328,13 +3320,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C185" s="4">
-        <v>15146</v>
+        <v>21298</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>112</v>
@@ -3342,13 +3334,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C186" s="4">
-        <v>13286</v>
+        <v>82242</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>112</v>
@@ -3356,13 +3348,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C187" s="4">
-        <v>14666</v>
+        <v>34218</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>112</v>
@@ -3370,13 +3362,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C188" s="4">
-        <v>5839</v>
+        <v>15146</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>112</v>
@@ -3384,13 +3376,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C189" s="4">
-        <v>32207</v>
+        <v>13160</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>112</v>
@@ -3398,13 +3390,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C190" s="4">
-        <v>11402</v>
+        <v>14638</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>112</v>
@@ -3412,13 +3404,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C191" s="4">
-        <v>15676</v>
+        <v>5839</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>112</v>
@@ -3426,15 +3418,57 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C192" s="4">
+        <v>32165</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45673</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" s="4">
+        <v>11472</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>45673</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C194" s="4">
+        <v>15732</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>45673</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C192" s="4">
-        <v>6752</v>
-      </c>
-      <c r="D192" s="6" t="s">
+      <c r="C195" s="4">
+        <v>21914</v>
+      </c>
+      <c r="D195" s="6" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3838769-C1A0-974D-892C-2677E8E92668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17520"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -383,21 +384,17 @@
     <t>Стоматофит® эксперт, спрей для местного применения, флакон 50 мл</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,29 +413,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -446,51 +434,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="60"/>
-      </left>
-      <right style="thin">
-        <color indexed="60"/>
-      </right>
-      <top style="thin">
-        <color indexed="60"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="60"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -767,22 +724,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -796,2679 +753,2683 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45673</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>5082</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45673</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>6594</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45673</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45673</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>16904</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45673</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>10094</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45673</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>14021</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45673</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>51610</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45673</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>25900</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45673</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45673</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>19484</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45673</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45673</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>19194</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45673</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
-        <v>33651</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>67111</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45673</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>14952</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45673</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>10038</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45673</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>10438</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45673</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45673</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4">
-        <v>22390</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>11302</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45673</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="4">
-        <v>20384</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>46144</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45673</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>39617</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45673</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45673</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>5202</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45673</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>15162</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45673</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>14938</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45673</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>12110</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45673</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>14126</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45673</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>12707</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45673</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>43590</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45673</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>2358</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45673</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>2394</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45673</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>2412</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45673</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>5480</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45673</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>7272</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45673</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45673</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45673</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>17604</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45673</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>3230</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45673</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>4856</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45673</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45673</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45673</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45673</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>44800</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45673</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>9531</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45673</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>19249</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45673</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45673</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>20568</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45673</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>19872</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45673</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>4806</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45673</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45673</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>14760</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45673</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="4">
-        <v>57710</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="3">
+        <v>40286</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45673</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45673</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="4">
-        <v>950467</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="3">
+        <v>811075</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45673</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45673</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>197889</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45673</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>98874</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45673</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45673</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>20029</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45673</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="4">
-        <v>38898</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="3">
+        <v>61254</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45673</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>36267</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45673</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>146983</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45673</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>24552</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45673</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>49156</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45673</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>19491</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45673</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>90029</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45673</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>14795</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45673</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45673</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>9666</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45673</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>11412</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45673</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>13511</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45673</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="3">
+        <v>14760</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45673</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>32508</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45673</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45673</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>13398</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45673</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>32078</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45673</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>14798</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45673</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>41925</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45673</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>19684</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45673</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45673</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="4">
-        <v>5885</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="3">
+        <v>5479</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45673</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="4">
-        <v>5767</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="3">
+        <v>5571</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45673</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="4">
-        <v>12887</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="3">
+        <v>12551</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45673</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="4">
-        <v>13060</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="3">
+        <v>12248</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45673</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="4">
-        <v>18998</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="3">
+        <v>17976</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45673</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="4">
-        <v>21604</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="3">
+        <v>20918</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45673</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>45312</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45673</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="4">
-        <v>20574</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="3">
+        <v>18530</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45673</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="4">
-        <v>21714</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="3">
+        <v>21252</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45673</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>20896</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45673</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="4">
-        <v>12106</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="3">
+        <v>11462</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45673</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="4">
-        <v>62345</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="3">
+        <v>58565</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45673</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="4">
-        <v>26372</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="3">
+        <v>25686</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45673</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="4">
-        <v>15836</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="3">
+        <v>13316</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45673</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="4">
-        <v>2999</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="3">
+        <v>2635</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45673</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="4">
-        <v>23982</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="3">
+        <v>22218</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45673</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="4">
-        <v>6412</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="3">
+        <v>6216</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45673</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="4">
-        <v>34417</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="3">
+        <v>30037</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45673</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="4">
-        <v>35000</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="3">
+        <v>34146</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45673</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="4">
-        <v>17233</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="3">
+        <v>15147</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45673</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="4">
-        <v>7874</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="3">
+        <v>6488</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45673</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="4">
-        <v>17522</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="3">
+        <v>16472</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45673</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="4">
-        <v>21324</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="3">
+        <v>19406</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45673</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="3">
         <v>83</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45673</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="4">
-        <v>20935</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="3">
+        <v>20613</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45673</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="7">
-        <v>891</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="3">
+        <v>10173</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45673</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="4">
-        <v>28070</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="3">
+        <v>26656</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45673</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="4">
-        <v>13510</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="3">
+        <v>12824</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45673</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="4">
-        <v>100418</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="3">
+        <v>96414</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45673</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>4424</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45673</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C111" s="4">
-        <v>45821</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="3">
+        <v>45233</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45673</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="4">
-        <v>11056</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="3">
+        <v>10622</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45673</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="4">
-        <v>29890</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="3">
+        <v>28742</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45673</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="4">
-        <v>6996</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="3">
+        <v>6716</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45673</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>7429</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45673</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="4">
-        <v>19511</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="3">
+        <v>19371</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45673</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C117" s="4">
-        <v>19542</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="3">
+        <v>19150</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45673</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C118" s="4">
-        <v>13463</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="3">
+        <v>11545</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45673</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="4">
-        <v>654113</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="3">
+        <v>650298</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45673</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>627877</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45673</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>103510</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45673</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>62527</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45673</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C123" s="4">
-        <v>3485</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="3">
+        <v>3289</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45673</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C124" s="4">
-        <v>8585</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="3">
+        <v>5603</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45673</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="4">
-        <v>44292</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="3">
+        <v>43438</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45673</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C126" s="4">
-        <v>1470</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="3">
+        <v>1410</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45673</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C127" s="4">
-        <v>1050</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="3">
+        <v>910</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45673</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>3070</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45673</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <v>2052</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45673</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C130" s="4">
-        <v>1026</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="3">
+        <v>900</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45673</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C131" s="4">
-        <v>2646</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="3">
+        <v>2484</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45673</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="4">
-        <v>1818</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="3">
+        <v>1692</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45673</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C133" s="4">
-        <v>2304</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="3">
+        <v>2232</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45673</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>1800</v>
       </c>
-      <c r="D134" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45673</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <v>1620</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45673</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C136" s="4">
-        <v>4652</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="3">
+        <v>4436</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45673</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C137" s="4">
-        <v>3594</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="3">
+        <v>3396</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45673</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="4">
-        <v>2378</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="3">
+        <v>2234</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45673</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C139" s="4">
-        <v>3574</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="3">
+        <v>2980</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45673</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C140" s="4">
-        <v>71769</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="3">
+        <v>65883</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45673</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="4">
-        <v>12506</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="3">
+        <v>11534</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45673</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C142" s="4">
-        <v>8487</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="3">
+        <v>8037</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45673</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C143" s="4">
-        <v>4740</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="3">
+        <v>4530</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45673</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="3">
         <v>3010</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45673</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="3">
         <v>1610</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45673</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="4">
-        <v>3520</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="3">
+        <v>2670</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45673</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C147" s="4">
-        <v>15751</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="3">
+        <v>10405</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45673</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C148" s="4">
-        <v>23307</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="3">
+        <v>21561</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>45673</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C149" s="4">
-        <v>28963</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="3">
+        <v>27685</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>45673</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>4885</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>45673</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C151" s="4">
-        <v>17254</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="3">
+        <v>15868</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>45673</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C152" s="4">
-        <v>1865</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="3">
+        <v>1613</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>45673</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C153" s="4">
-        <v>1545</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="3">
+        <v>951</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>45673</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C154" s="4">
-        <v>3197</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="3">
+        <v>3107</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>45673</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C155" s="4">
-        <v>56352</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="3">
+        <v>55488</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>45673</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C156" s="4">
-        <v>27576</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="3">
+        <v>23724</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>45673</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C157" s="4">
-        <v>31680</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="3">
+        <v>27180</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>45673</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C158" s="4">
-        <v>27633</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="3">
+        <v>25779</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>45673</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C159" s="7">
-        <v>947</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="3">
+        <v>857</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>45673</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C160" s="4">
-        <v>2545</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C160" s="3">
+        <v>2311</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>45673</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C161" s="4">
-        <v>3908</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C161" s="3">
+        <v>3710</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>45673</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C162" s="4">
-        <v>15764</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="3">
+        <v>13262</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>45673</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C163" s="4">
-        <v>3580</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="3">
+        <v>8846</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>45673</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C164" s="4">
-        <v>32312</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="3">
+        <v>29072</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>45673</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C165" s="4">
-        <v>10595</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C165" s="3">
+        <v>133697</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>45673</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C166" s="4">
-        <v>31790</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="3">
+        <v>29934</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>45673</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C167" s="4">
-        <v>46744</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="3">
+        <v>34848</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>45673</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C168" s="4">
-        <v>350568</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="3">
+        <v>330894</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>45673</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C169" s="4">
-        <v>17946</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C169" s="3">
+        <v>15606</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>45673</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C170" s="4">
-        <v>4826</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C170" s="3">
+        <v>4122</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>45673</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C171" s="4">
-        <v>15895</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C171" s="3">
+        <v>12978</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>45673</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C172" s="4">
-        <v>27816</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C172" s="3">
+        <v>23114</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>45673</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C173" s="4">
-        <v>60882</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C173" s="3">
+        <v>53304</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>45673</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C174" s="4">
-        <v>19397</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C174" s="3">
+        <v>17885</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>45673</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C175" s="4">
-        <v>5916</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C175" s="3">
+        <v>2058</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>45673</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C176" s="4">
-        <v>13968</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C176" s="3">
+        <v>12204</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>45673</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C177" s="4">
-        <v>29544</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C177" s="3">
+        <v>24144</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>45673</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C178" s="4">
-        <v>11326</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C178" s="3">
+        <v>9440</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>45673</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="4">
-        <v>23203</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C179" s="3">
+        <v>22771</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>45673</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C180" s="4">
-        <v>5709</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="3">
+        <v>5461</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>45673</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C181" s="4">
-        <v>4435</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="3">
+        <v>4275</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>45673</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C182" s="4">
-        <v>9113</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="3">
+        <v>8519</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>45673</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C183" s="4">
-        <v>36990</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C183" s="3">
+        <v>36324</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>45673</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C184" s="4">
-        <v>27555</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C184" s="3">
+        <v>25989</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>45673</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C185" s="4">
-        <v>21298</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C185" s="3">
+        <v>19174</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>45673</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C186" s="4">
-        <v>82242</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C186" s="3">
+        <v>80442</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>45673</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C187" s="4">
-        <v>34218</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C187" s="3">
+        <v>30456</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>45673</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C188" s="4">
-        <v>15146</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C188" s="3">
+        <v>14404</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>45673</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C189" s="4">
-        <v>13160</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C189" s="3">
+        <v>7042</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>45673</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C190" s="4">
-        <v>14638</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C190" s="3">
+        <v>14386</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>45673</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C191" s="4">
-        <v>5839</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C191" s="3">
+        <v>4341</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>45673</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C192" s="4">
-        <v>32165</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C192" s="3">
+        <v>29211</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>45673</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C193" s="4">
-        <v>11472</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C193" s="3">
+        <v>11024</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>45673</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C194" s="4">
-        <v>15732</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="3">
+        <v>15438</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>45673</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C195" s="4">
-        <v>21914</v>
-      </c>
-      <c r="D195" s="6" t="s">
+      <c r="C195" s="3">
+        <v>20528</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3838769-C1A0-974D-892C-2677E8E92668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="27240"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -384,17 +383,21 @@
     <t>Стоматофит® эксперт, спрей для местного применения, флакон 50 мл</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5 г</t>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,20 +416,29 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -434,20 +446,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="60"/>
+      </left>
+      <right style="thin">
+        <color indexed="60"/>
+      </right>
+      <top style="thin">
+        <color indexed="60"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="60"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,22 +767,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="62.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -753,2683 +796,2683 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>5082</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>6594</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>16904</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>10094</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>14021</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>51610</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>25900</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>19484</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>19194</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>67111</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>14952</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>10038</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>10438</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>11302</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>46144</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>39617</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>5202</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>15162</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>14938</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>12110</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>14126</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>12707</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>43590</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>2358</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>2394</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>2412</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>5480</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>7272</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+      <c r="D36" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>17604</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>3230</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>4856</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="5"/>
+      <c r="D40" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+      <c r="D41" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+      <c r="D42" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>44800</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>9531</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>19249</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+      <c r="D46" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>20568</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>19872</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>4806</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+      <c r="D50" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>14760</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <v>40286</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="5"/>
+      <c r="D53" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>811075</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+      <c r="D55" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>197889</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>98874</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+      <c r="D58" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>20029</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <v>61254</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D60" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <v>36267</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <v>146983</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D62" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>24552</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>49156</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <v>19491</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <v>90029</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <v>14795</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="5"/>
+      <c r="D68" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <v>9666</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <v>11412</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <v>13511</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="4">
         <v>14760</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4">
         <v>32508</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="5"/>
+      <c r="D74" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="4">
         <v>13398</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="4">
         <v>32078</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="4">
         <v>14798</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="4">
         <v>41925</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="4">
         <v>19684</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="5"/>
+      <c r="D80" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4">
         <v>5479</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4">
         <v>5571</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4">
         <v>12551</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="4">
         <v>12248</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="4">
         <v>17976</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="4">
         <v>20918</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="4">
         <v>45312</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="4">
         <v>18530</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="4">
         <v>21252</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="4">
         <v>20896</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="4">
         <v>11462</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="4">
         <v>58565</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="4">
         <v>25686</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="4">
         <v>13316</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="4">
         <v>2635</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="4">
         <v>22218</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="4">
         <v>6216</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="4">
         <v>30037</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="4">
         <v>34146</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="4">
         <v>15147</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="4">
         <v>6488</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="4">
         <v>16472</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="4">
         <v>19406</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="7">
         <v>83</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="4">
         <v>20613</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="4">
         <v>10173</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="4">
         <v>26656</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D107" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="4">
         <v>12824</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D108" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="4">
         <v>96414</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D109" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="4">
         <v>4424</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D110" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="4">
         <v>45233</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="4">
         <v>10622</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="4">
         <v>28742</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="4">
         <v>6716</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D114" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="4">
         <v>7429</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D115" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="4">
         <v>19371</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D116" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="4">
         <v>19150</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="4">
         <v>11545</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="4">
         <v>650298</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D119" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="4">
         <v>627877</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D120" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="4">
         <v>103510</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D121" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="4">
         <v>62527</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D122" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="4">
         <v>3289</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="4">
         <v>5603</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="4">
         <v>43438</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D125" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="4">
         <v>1410</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D126" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="7">
         <v>910</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D127" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="4">
         <v>3070</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D128" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="4">
         <v>2052</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D129" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="7">
         <v>900</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="4">
         <v>2484</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="4">
         <v>1692</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D132" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="4">
         <v>2232</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D133" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="4">
         <v>1800</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D134" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="4">
         <v>1620</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D135" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="4">
         <v>4436</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D136" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="4">
         <v>3396</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="4">
         <v>2234</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D138" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="4">
         <v>2980</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D139" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="4">
         <v>65883</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D140" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="4">
         <v>11534</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D141" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="4">
         <v>8037</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D142" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="4">
         <v>4530</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D143" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="4">
         <v>3010</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="4">
         <v>1610</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="4">
         <v>2670</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D146" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="4">
         <v>10405</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D147" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="4">
         <v>21561</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D148" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="4">
         <v>27685</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D149" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="4">
         <v>4885</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D150" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="4">
         <v>15868</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D151" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="4">
         <v>1613</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D152" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="7">
         <v>951</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D153" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="4">
         <v>3107</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D154" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="4">
         <v>55488</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D155" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="4">
         <v>23724</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D156" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="4">
         <v>27180</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D157" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="4">
         <v>25779</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D158" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="7">
         <v>857</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D159" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="4">
         <v>2311</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D160" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="4">
         <v>3710</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D161" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="4">
         <v>13262</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D162" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="4">
         <v>8846</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D163" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="4">
         <v>29072</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D164" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="4">
         <v>133697</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D165" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="4">
         <v>29934</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D166" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="4">
         <v>34848</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D167" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="4">
         <v>330894</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D168" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="4">
         <v>15606</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D169" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="4">
         <v>4122</v>
       </c>
-      <c r="D170" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D170" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="4">
         <v>12978</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D171" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="4">
         <v>23114</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D172" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="4">
         <v>53304</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D173" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="4">
         <v>17885</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D174" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="4">
         <v>2058</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D175" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="4">
         <v>12204</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D176" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="4">
         <v>24144</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D177" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="4">
         <v>9440</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D178" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="4">
         <v>22771</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D179" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="4">
         <v>5461</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D180" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="4">
         <v>4275</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D181" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="4">
         <v>8519</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D182" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="4">
         <v>36324</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D183" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="4">
         <v>25989</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D184" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="4">
         <v>19174</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D185" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="4">
         <v>80442</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D186" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="4">
         <v>30456</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D187" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="4">
         <v>14404</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D188" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="4">
         <v>7042</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D189" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="4">
         <v>14386</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D190" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="4">
         <v>4341</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D191" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="4">
         <v>29211</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D192" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="4">
         <v>11024</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D193" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="4">
         <v>15438</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D194" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="4">
         <v>20528</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="6" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -826,19 +826,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4">
+        <v>9755</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -852,7 +854,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -866,7 +868,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -880,7 +882,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -894,7 +896,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -908,19 +910,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4">
+        <v>10710</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -934,7 +938,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -946,7 +950,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
@@ -960,7 +964,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>18</v>
@@ -974,7 +978,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -988,7 +992,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -1002,7 +1006,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -1016,25 +1020,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>11302</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4">
-        <v>11302</v>
+        <v>46144</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>111</v>
@@ -1042,13 +1048,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4">
-        <v>46144</v>
+        <v>39617</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>111</v>
@@ -1056,13 +1062,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4">
-        <v>39617</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="7">
+        <v>274</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>111</v>
@@ -1070,25 +1076,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C22" s="4">
+        <v>15162</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4">
-        <v>5202</v>
+        <v>14938</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>111</v>
@@ -1096,13 +1104,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4">
-        <v>15162</v>
+        <v>12110</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>111</v>
@@ -1110,13 +1118,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4">
-        <v>14938</v>
+        <v>14126</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>111</v>
@@ -1124,13 +1132,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4">
-        <v>12110</v>
+        <v>12707</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>111</v>
@@ -1138,13 +1146,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4">
-        <v>14126</v>
+        <v>43590</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>111</v>
@@ -1152,13 +1160,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4">
-        <v>12707</v>
+        <v>2358</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>111</v>
@@ -1166,13 +1174,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4">
-        <v>43590</v>
+        <v>2394</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>111</v>
@@ -1180,13 +1188,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C30" s="4">
-        <v>2358</v>
+        <v>2412</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>111</v>
@@ -1194,13 +1202,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C31" s="4">
-        <v>2394</v>
+        <v>5480</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>111</v>
@@ -1208,13 +1216,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4">
-        <v>2412</v>
+        <v>7272</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>111</v>
@@ -1222,13 +1230,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C33" s="4">
-        <v>5480</v>
+        <v>15561</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>111</v>
@@ -1236,13 +1244,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4">
-        <v>7272</v>
+        <v>17604</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>111</v>
@@ -1250,51 +1258,53 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3230</v>
+      </c>
       <c r="D35" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C36" s="4">
+        <v>4856</v>
+      </c>
       <c r="D36" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="4">
-        <v>17604</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4">
-        <v>3230</v>
+        <v>16902</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>111</v>
@@ -1302,13 +1312,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C39" s="4">
-        <v>4856</v>
+        <v>19456</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>111</v>
@@ -1316,34 +1326,38 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9531</v>
+      </c>
       <c r="D40" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C41" s="4">
+        <v>11329</v>
+      </c>
       <c r="D41" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6" t="s">
@@ -1352,13 +1366,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C43" s="4">
-        <v>44800</v>
+        <v>20568</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>111</v>
@@ -1366,13 +1380,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C44" s="4">
-        <v>9531</v>
+        <v>19872</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>111</v>
@@ -1380,13 +1394,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C45" s="4">
-        <v>19249</v>
+        <v>4806</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>111</v>
@@ -1394,25 +1408,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5562</v>
+      </c>
       <c r="D46" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C47" s="4">
-        <v>20568</v>
+        <v>14760</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>111</v>
@@ -1420,13 +1436,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4">
-        <v>19872</v>
+        <v>40286</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>111</v>
@@ -1434,13 +1450,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C49" s="4">
-        <v>4806</v>
+        <v>811075</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>111</v>
@@ -1448,10 +1464,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6" t="s">
@@ -1460,13 +1476,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C51" s="4">
-        <v>14760</v>
+        <v>197889</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>111</v>
@@ -1474,13 +1490,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C52" s="4">
-        <v>40286</v>
+        <v>246096</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>111</v>
@@ -1488,10 +1504,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6" t="s">
@@ -1500,13 +1516,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C54" s="4">
-        <v>811075</v>
+        <v>10525</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>111</v>
@@ -1514,25 +1530,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C55" s="4">
+        <v>61254</v>
+      </c>
       <c r="D55" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C56" s="4">
-        <v>197889</v>
+        <v>36267</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>111</v>
@@ -1540,13 +1558,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C57" s="4">
-        <v>98874</v>
+        <v>146983</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>111</v>
@@ -1554,25 +1572,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C58" s="4">
+        <v>24552</v>
+      </c>
       <c r="D58" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C59" s="4">
-        <v>20029</v>
+        <v>1636</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>111</v>
@@ -1580,13 +1600,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C60" s="4">
-        <v>61254</v>
+        <v>19491</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>111</v>
@@ -1594,13 +1614,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C61" s="4">
-        <v>36267</v>
+        <v>64685</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>111</v>
@@ -1608,13 +1628,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="4">
-        <v>146983</v>
+        <v>92</v>
+      </c>
+      <c r="C62" s="7">
+        <v>539</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>111</v>
@@ -1622,13 +1642,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C63" s="4">
-        <v>24552</v>
+        <v>9666</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>111</v>
@@ -1636,13 +1656,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C64" s="4">
-        <v>49156</v>
+        <v>11412</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>111</v>
@@ -1650,13 +1670,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C65" s="4">
-        <v>19491</v>
+        <v>13511</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>111</v>
@@ -1664,13 +1684,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C66" s="4">
-        <v>90029</v>
+        <v>14760</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>111</v>
@@ -1678,53 +1698,51 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="4">
-        <v>14795</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C67" s="5"/>
       <c r="D67" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="C68" s="4">
+        <v>32508</v>
+      </c>
       <c r="D68" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="4">
-        <v>9666</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C69" s="5"/>
       <c r="D69" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C70" s="4">
-        <v>11412</v>
+        <v>13398</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>111</v>
@@ -1732,13 +1750,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C71" s="4">
-        <v>13511</v>
+        <v>32078</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>111</v>
@@ -1746,13 +1764,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C72" s="4">
-        <v>14760</v>
+        <v>14798</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>111</v>
@@ -1760,39 +1778,39 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="4">
-        <v>32508</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C73" s="5"/>
       <c r="D73" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C74" s="4">
+        <v>28373</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4">
-        <v>13398</v>
+        <v>19684</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>111</v>
@@ -1800,81 +1818,83 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C76" s="4">
-        <v>32078</v>
+        <v>5129</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4">
-        <v>14798</v>
+        <v>5347</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C78" s="4">
-        <v>41925</v>
+        <v>11809</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C79" s="4">
-        <v>19684</v>
+        <v>11436</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C80" s="4">
+        <v>16744</v>
+      </c>
       <c r="D80" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C81" s="4">
-        <v>5479</v>
+        <v>19966</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>112</v>
@@ -1882,13 +1902,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="C82" s="4">
-        <v>5571</v>
+        <v>45272</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>112</v>
@@ -1896,13 +1916,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C83" s="4">
-        <v>12551</v>
+        <v>17984</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>112</v>
@@ -1910,13 +1930,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C84" s="4">
-        <v>12248</v>
+        <v>20426</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>112</v>
@@ -1924,13 +1944,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="C85" s="4">
-        <v>17976</v>
+        <v>20896</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>112</v>
@@ -1938,13 +1958,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C86" s="4">
-        <v>20918</v>
+        <v>10510</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>112</v>
@@ -1952,13 +1972,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C87" s="4">
-        <v>45312</v>
+        <v>55821</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>112</v>
@@ -1966,13 +1986,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C88" s="4">
-        <v>18530</v>
+        <v>24104</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>112</v>
@@ -1980,13 +2000,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C89" s="4">
-        <v>21252</v>
+        <v>12602</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>112</v>
@@ -1994,13 +2014,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C90" s="4">
-        <v>20896</v>
+        <v>2075</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>112</v>
@@ -2008,13 +2028,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C91" s="4">
-        <v>11462</v>
+        <v>21574</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>112</v>
@@ -2022,13 +2042,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C92" s="4">
-        <v>58565</v>
+        <v>5614</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>112</v>
@@ -2036,13 +2056,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C93" s="4">
-        <v>25686</v>
+        <v>27291</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>112</v>
@@ -2050,13 +2070,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C94" s="4">
-        <v>13316</v>
+        <v>33740</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>112</v>
@@ -2064,13 +2084,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C95" s="4">
-        <v>2635</v>
+        <v>13635</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>112</v>
@@ -2078,13 +2098,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96" s="4">
-        <v>22218</v>
+        <v>5970</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>112</v>
@@ -2092,13 +2112,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C97" s="4">
-        <v>6216</v>
+        <v>15520</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>112</v>
@@ -2106,13 +2126,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C98" s="4">
-        <v>30037</v>
+        <v>18664</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>112</v>
@@ -2120,13 +2140,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="4">
-        <v>34146</v>
+        <v>114</v>
+      </c>
+      <c r="C99" s="7">
+        <v>83</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>112</v>
@@ -2134,13 +2154,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C100" s="4">
-        <v>15147</v>
+        <v>19731</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>112</v>
@@ -2148,13 +2168,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C101" s="4">
-        <v>6488</v>
+        <v>9655</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>112</v>
@@ -2162,13 +2182,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C102" s="4">
-        <v>16472</v>
+        <v>23772</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>112</v>
@@ -2176,13 +2196,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C103" s="4">
-        <v>19406</v>
+        <v>12446</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>112</v>
@@ -2190,13 +2210,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C104" s="7">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="C104" s="4">
+        <v>92718</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>112</v>
@@ -2204,13 +2224,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C105" s="4">
-        <v>20613</v>
+        <v>4368</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>112</v>
@@ -2218,13 +2238,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C106" s="4">
-        <v>10173</v>
+        <v>45233</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>112</v>
@@ -2232,13 +2252,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C107" s="4">
-        <v>26656</v>
+        <v>10412</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>112</v>
@@ -2246,13 +2266,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="4">
-        <v>12824</v>
+        <v>28224</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>112</v>
@@ -2260,13 +2280,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C109" s="4">
-        <v>96414</v>
+        <v>6576</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>112</v>
@@ -2274,13 +2294,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="4">
-        <v>4424</v>
+        <v>12217</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>112</v>
@@ -2288,13 +2308,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C111" s="4">
-        <v>45233</v>
+        <v>17859</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>112</v>
@@ -2302,13 +2322,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C112" s="4">
-        <v>10622</v>
+        <v>17708</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>112</v>
@@ -2316,13 +2336,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C113" s="4">
-        <v>28742</v>
+        <v>11055</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>112</v>
@@ -2330,13 +2350,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C114" s="4">
-        <v>6716</v>
+        <v>647288</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>112</v>
@@ -2344,13 +2364,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C115" s="4">
-        <v>7429</v>
+        <v>626341</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>112</v>
@@ -2358,13 +2378,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C116" s="4">
-        <v>19371</v>
+        <v>102950</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>112</v>
@@ -2372,13 +2392,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="C117" s="4">
-        <v>19150</v>
+        <v>62317</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>112</v>
@@ -2386,13 +2406,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C118" s="4">
-        <v>11545</v>
+        <v>2841</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>112</v>
@@ -2400,13 +2420,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C119" s="4">
-        <v>650298</v>
+        <v>4959</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>112</v>
@@ -2414,13 +2434,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="C120" s="4">
-        <v>627877</v>
+        <v>43158</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>112</v>
@@ -2428,13 +2448,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="C121" s="4">
-        <v>103510</v>
+        <v>1410</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>112</v>
@@ -2442,13 +2462,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C122" s="4">
-        <v>62527</v>
+        <v>42</v>
+      </c>
+      <c r="C122" s="7">
+        <v>910</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>112</v>
@@ -2456,13 +2476,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C123" s="4">
-        <v>3289</v>
+        <v>3070</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>112</v>
@@ -2470,13 +2490,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C124" s="4">
-        <v>5603</v>
+        <v>2052</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>112</v>
@@ -2484,13 +2504,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125" s="4">
-        <v>43438</v>
+        <v>45</v>
+      </c>
+      <c r="C125" s="7">
+        <v>900</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>112</v>
@@ -2498,13 +2518,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C126" s="4">
-        <v>1410</v>
+        <v>2484</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>112</v>
@@ -2512,13 +2532,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" s="7">
-        <v>910</v>
+        <v>47</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1692</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>112</v>
@@ -2526,13 +2546,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C128" s="4">
-        <v>3070</v>
+        <v>2232</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>112</v>
@@ -2540,13 +2560,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C129" s="4">
-        <v>2052</v>
+        <v>1800</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>112</v>
@@ -2554,13 +2574,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C130" s="7">
-        <v>900</v>
+        <v>50</v>
+      </c>
+      <c r="C130" s="4">
+        <v>1620</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>112</v>
@@ -2568,13 +2588,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C131" s="4">
-        <v>2484</v>
+        <v>4256</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>112</v>
@@ -2582,13 +2602,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C132" s="4">
-        <v>1692</v>
+        <v>3378</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>112</v>
@@ -2596,13 +2616,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C133" s="4">
-        <v>2232</v>
+        <v>2108</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>112</v>
@@ -2610,13 +2630,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C134" s="4">
-        <v>1800</v>
+        <v>2620</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>112</v>
@@ -2624,13 +2644,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C135" s="4">
-        <v>1620</v>
+        <v>64299</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>112</v>
@@ -2638,13 +2658,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C136" s="4">
-        <v>4436</v>
+        <v>10922</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>112</v>
@@ -2652,13 +2672,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C137" s="4">
-        <v>3396</v>
+        <v>7119</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>112</v>
@@ -2666,13 +2686,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C138" s="4">
-        <v>2234</v>
+        <v>4510</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>112</v>
@@ -2680,13 +2700,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C139" s="4">
-        <v>2980</v>
+        <v>3010</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>112</v>
@@ -2694,13 +2714,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C140" s="4">
-        <v>65883</v>
+        <v>1590</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>112</v>
@@ -2708,13 +2728,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C141" s="4">
-        <v>11534</v>
+        <v>2650</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>112</v>
@@ -2722,13 +2742,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C142" s="4">
-        <v>8037</v>
+        <v>8551</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>112</v>
@@ -2736,13 +2756,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C143" s="4">
-        <v>4530</v>
+        <v>20607</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>112</v>
@@ -2750,13 +2770,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C144" s="4">
-        <v>3010</v>
+        <v>25921</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>112</v>
@@ -2764,13 +2784,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C145" s="4">
-        <v>1610</v>
+        <v>4795</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>112</v>
@@ -2778,13 +2798,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C146" s="4">
-        <v>2670</v>
+        <v>39574</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>112</v>
@@ -2792,13 +2812,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C147" s="4">
-        <v>10405</v>
+        <v>1397</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>112</v>
@@ -2806,13 +2826,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C148" s="4">
-        <v>21561</v>
+        <v>7899</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>112</v>
@@ -2820,13 +2840,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C149" s="4">
-        <v>27685</v>
+        <v>3071</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>112</v>
@@ -2834,13 +2854,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C150" s="4">
-        <v>4885</v>
+        <v>53724</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>112</v>
@@ -2848,13 +2868,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C151" s="4">
-        <v>15868</v>
+        <v>22842</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>112</v>
@@ -2862,13 +2882,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C152" s="4">
-        <v>1613</v>
+        <v>25326</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>112</v>
@@ -2876,13 +2896,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C153" s="7">
-        <v>951</v>
+        <v>72</v>
+      </c>
+      <c r="C153" s="4">
+        <v>22611</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>112</v>
@@ -2890,13 +2910,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C154" s="4">
-        <v>3107</v>
+        <v>73</v>
+      </c>
+      <c r="C154" s="7">
+        <v>839</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>112</v>
@@ -2904,13 +2924,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C155" s="4">
-        <v>55488</v>
+        <v>2023</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>112</v>
@@ -2918,13 +2938,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C156" s="4">
-        <v>23724</v>
+        <v>3440</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>112</v>
@@ -2932,13 +2952,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C157" s="4">
-        <v>27180</v>
+        <v>12218</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>112</v>
@@ -2946,13 +2966,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C158" s="4">
-        <v>25779</v>
+        <v>4084</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>112</v>
@@ -2960,13 +2980,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C159" s="7">
-        <v>857</v>
+        <v>78</v>
+      </c>
+      <c r="C159" s="4">
+        <v>27974</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>112</v>
@@ -2974,13 +2994,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C160" s="4">
-        <v>2311</v>
+        <v>127361</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>112</v>
@@ -2988,13 +3008,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C161" s="4">
-        <v>3710</v>
+        <v>29124</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>112</v>
@@ -3002,13 +3022,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C162" s="4">
-        <v>13262</v>
+        <v>31500</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>112</v>
@@ -3016,13 +3036,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C163" s="4">
-        <v>8846</v>
+        <v>325422</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>112</v>
@@ -3030,13 +3050,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C164" s="4">
-        <v>29072</v>
+        <v>15336</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>112</v>
@@ -3044,13 +3064,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C165" s="4">
-        <v>133697</v>
+        <v>13230</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>112</v>
@@ -3058,13 +3078,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C166" s="4">
-        <v>29934</v>
+        <v>11718</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>112</v>
@@ -3072,13 +3092,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C167" s="4">
-        <v>34848</v>
+        <v>21350</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>112</v>
@@ -3086,13 +3106,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C168" s="4">
-        <v>330894</v>
+        <v>51720</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>112</v>
@@ -3100,13 +3120,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C169" s="4">
-        <v>15606</v>
+        <v>17525</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>112</v>
@@ -3114,13 +3134,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C170" s="4">
-        <v>4122</v>
+        <v>48762</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>112</v>
@@ -3128,13 +3148,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C171" s="4">
-        <v>12978</v>
+        <v>11322</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>112</v>
@@ -3142,13 +3162,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C172" s="4">
-        <v>23114</v>
+        <v>44736</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>112</v>
@@ -3156,13 +3176,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C173" s="4">
-        <v>53304</v>
+        <v>22576</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>112</v>
@@ -3170,13 +3190,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C174" s="4">
-        <v>17885</v>
+        <v>21043</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>112</v>
@@ -3184,13 +3204,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C175" s="4">
-        <v>2058</v>
+        <v>5367</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>112</v>
@@ -3198,13 +3218,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C176" s="4">
-        <v>12204</v>
+        <v>3675</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>112</v>
@@ -3212,13 +3232,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C177" s="4">
-        <v>24144</v>
+        <v>7745</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>112</v>
@@ -3226,13 +3246,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C178" s="4">
-        <v>9440</v>
+        <v>35334</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>112</v>
@@ -3240,13 +3260,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C179" s="4">
-        <v>22771</v>
+        <v>22821</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>112</v>
@@ -3254,13 +3274,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C180" s="4">
-        <v>5461</v>
+        <v>18364</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>112</v>
@@ -3268,13 +3288,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C181" s="4">
-        <v>4275</v>
+        <v>73656</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>112</v>
@@ -3282,13 +3302,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C182" s="4">
-        <v>8519</v>
+        <v>28512</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>112</v>
@@ -3296,13 +3316,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C183" s="4">
-        <v>36324</v>
+        <v>13620</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>112</v>
@@ -3310,13 +3330,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C184" s="4">
-        <v>25989</v>
+        <v>5740</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>112</v>
@@ -3324,13 +3344,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C185" s="4">
-        <v>19174</v>
+        <v>13798</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>112</v>
@@ -3338,13 +3358,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C186" s="4">
-        <v>80442</v>
+        <v>3459</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>112</v>
@@ -3352,13 +3372,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C187" s="4">
-        <v>30456</v>
+        <v>27699</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>112</v>
@@ -3366,13 +3386,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C188" s="4">
-        <v>14404</v>
+        <v>23288</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>112</v>
@@ -3380,13 +3400,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C189" s="4">
-        <v>7042</v>
+        <v>14276</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>112</v>
@@ -3394,85 +3414,15 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C190" s="4">
-        <v>14386</v>
+        <v>19912</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C191" s="4">
-        <v>4341</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C192" s="4">
-        <v>29211</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C193" s="4">
-        <v>11024</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C194" s="4">
-        <v>15438</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C195" s="4">
-        <v>20528</v>
-      </c>
-      <c r="D195" s="6" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,35 +798,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <v>5082</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>6594</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -840,7 +836,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -854,7 +850,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -868,7 +864,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -882,7 +878,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -896,7 +892,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -910,7 +906,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -924,13 +920,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4">
-        <v>19484</v>
+        <v>10860</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>111</v>
@@ -938,7 +934,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -950,7 +946,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
@@ -964,7 +960,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>18</v>
@@ -978,7 +974,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -992,7 +988,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -1006,7 +1002,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -1020,7 +1016,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -1034,7 +1030,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
@@ -1048,7 +1044,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>28</v>
@@ -1062,7 +1058,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>34</v>
@@ -1076,7 +1072,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -1090,7 +1086,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>36</v>
@@ -1104,7 +1100,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -1118,7 +1114,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>38</v>
@@ -1132,13 +1128,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="4">
-        <v>12707</v>
+      <c r="C26" s="7">
+        <v>387</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>111</v>
@@ -1146,7 +1142,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>40</v>
@@ -1160,7 +1156,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
@@ -1174,7 +1170,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>45</v>
@@ -1188,7 +1184,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>50</v>
@@ -1202,7 +1198,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>51</v>
@@ -1216,7 +1212,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>54</v>
@@ -1230,27 +1226,25 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="4">
-        <v>15561</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4">
-        <v>17604</v>
+        <v>15561</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>111</v>
@@ -1258,13 +1252,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="4">
-        <v>3230</v>
+        <v>17604</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>111</v>
@@ -1272,13 +1266,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4">
-        <v>4856</v>
+        <v>3230</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>111</v>
@@ -1286,25 +1280,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4856</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4">
-        <v>16902</v>
+        <v>10616</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>111</v>
@@ -1312,13 +1308,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4">
-        <v>19456</v>
+        <v>16902</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>111</v>
@@ -1326,13 +1322,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="4">
-        <v>9531</v>
+        <v>19456</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>111</v>
@@ -1340,13 +1336,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4">
-        <v>11329</v>
+        <v>9531</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>111</v>
@@ -1354,39 +1350,39 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C42" s="4">
+        <v>11329</v>
+      </c>
       <c r="D42" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="4">
-        <v>20568</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="4">
-        <v>19872</v>
+        <v>20568</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>111</v>
@@ -1394,13 +1390,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4">
-        <v>4806</v>
+        <v>19872</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>111</v>
@@ -1408,13 +1404,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="4">
-        <v>5562</v>
+        <v>4806</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>111</v>
@@ -1422,13 +1418,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="4">
-        <v>14760</v>
+        <v>5562</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>111</v>
@@ -1436,13 +1432,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4">
-        <v>40286</v>
+        <v>14760</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>111</v>
@@ -1450,13 +1446,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="4">
-        <v>811075</v>
+        <v>21278</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>111</v>
@@ -1464,25 +1460,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C50" s="4">
+        <v>594805</v>
+      </c>
       <c r="D50" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="4">
-        <v>197889</v>
+        <v>24714</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>111</v>
@@ -1490,13 +1488,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4">
-        <v>246096</v>
+        <v>197889</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>111</v>
@@ -1504,39 +1502,39 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C53" s="4">
+        <v>246096</v>
+      </c>
       <c r="D53" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="4">
-        <v>10525</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="4">
-        <v>61254</v>
+        <v>10525</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>111</v>
@@ -1544,13 +1542,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="4">
-        <v>36267</v>
+        <v>61254</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>111</v>
@@ -1558,13 +1556,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="4">
-        <v>146983</v>
+        <v>1419</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>111</v>
@@ -1572,13 +1570,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="4">
-        <v>24552</v>
+        <v>146983</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>111</v>
@@ -1586,13 +1584,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="4">
-        <v>1636</v>
+        <v>24552</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>111</v>
@@ -1600,13 +1598,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="4">
-        <v>19491</v>
+        <v>1636</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>111</v>
@@ -1614,13 +1612,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="4">
-        <v>64685</v>
+        <v>19491</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>111</v>
@@ -1628,13 +1626,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="7">
-        <v>539</v>
+        <v>91</v>
+      </c>
+      <c r="C62" s="4">
+        <v>103511</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>111</v>
@@ -1642,13 +1640,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C63" s="4">
-        <v>9666</v>
+        <v>16037</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>111</v>
@@ -1656,13 +1654,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="4">
-        <v>11412</v>
+        <v>9666</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>111</v>
@@ -1670,13 +1668,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="4">
-        <v>13511</v>
+        <v>25056</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>111</v>
@@ -1684,13 +1682,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="4">
-        <v>14760</v>
+        <v>13511</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>111</v>
@@ -1698,65 +1696,65 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="C67" s="4">
+        <v>14760</v>
+      </c>
       <c r="D67" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="4">
-        <v>32508</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="C69" s="4">
+        <v>32508</v>
+      </c>
       <c r="D69" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="4">
-        <v>13398</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C70" s="5"/>
       <c r="D70" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="4">
-        <v>32078</v>
+        <v>13398</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>111</v>
@@ -1764,13 +1762,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C72" s="4">
-        <v>14798</v>
+        <v>50164</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>111</v>
@@ -1778,39 +1776,39 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="C73" s="4">
+        <v>14344</v>
+      </c>
       <c r="D73" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="4">
-        <v>28373</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C74" s="5"/>
       <c r="D74" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="4">
-        <v>19684</v>
+        <v>28373</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>111</v>
@@ -1818,27 +1816,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C76" s="4">
-        <v>5129</v>
+        <v>19684</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="4">
-        <v>5347</v>
+        <v>10057</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>112</v>
@@ -1846,13 +1844,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4">
-        <v>11809</v>
+        <v>11759</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>112</v>
@@ -1860,13 +1858,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="4">
-        <v>11436</v>
+        <v>11851</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>112</v>
@@ -1874,13 +1872,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="4">
-        <v>16744</v>
+        <v>11464</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>112</v>
@@ -1888,13 +1886,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" s="4">
-        <v>19966</v>
+        <v>16674</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>112</v>
@@ -1902,13 +1900,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C82" s="4">
-        <v>45272</v>
+        <v>19896</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>112</v>
@@ -1916,13 +1914,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C83" s="4">
-        <v>17984</v>
+        <v>45312</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>112</v>
@@ -1930,13 +1928,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="4">
-        <v>20426</v>
+        <v>18040</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>112</v>
@@ -1944,13 +1942,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="C85" s="4">
-        <v>20896</v>
+        <v>20160</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>112</v>
@@ -1958,13 +1956,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C86" s="4">
-        <v>10510</v>
+        <v>20832</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>112</v>
@@ -1972,13 +1970,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4">
-        <v>55821</v>
+        <v>10608</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>112</v>
@@ -1986,13 +1984,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="4">
-        <v>24104</v>
+        <v>56227</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>112</v>
@@ -2000,13 +1998,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="4">
-        <v>12602</v>
+        <v>24300</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>112</v>
@@ -2014,13 +2012,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="4">
-        <v>2075</v>
+        <v>12420</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>112</v>
@@ -2028,13 +2026,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="4">
-        <v>21574</v>
+        <v>10265</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>112</v>
@@ -2042,13 +2040,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="4">
-        <v>5614</v>
+        <v>21672</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>112</v>
@@ -2056,13 +2054,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" s="4">
-        <v>27291</v>
+        <v>5474</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>112</v>
@@ -2070,13 +2068,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94" s="4">
-        <v>33740</v>
+        <v>27431</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>112</v>
@@ -2084,13 +2082,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95" s="4">
-        <v>13635</v>
+        <v>33796</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>112</v>
@@ -2098,13 +2096,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" s="4">
-        <v>5970</v>
+        <v>13873</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>112</v>
@@ -2112,13 +2110,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="4">
-        <v>15520</v>
+        <v>4780</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>112</v>
@@ -2126,13 +2124,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="4">
-        <v>18664</v>
+        <v>15912</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>112</v>
@@ -2140,13 +2138,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="7">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="C99" s="4">
+        <v>18412</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>112</v>
@@ -2154,13 +2152,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="4">
-        <v>19731</v>
+        <v>114</v>
+      </c>
+      <c r="C100" s="7">
+        <v>83</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>112</v>
@@ -2168,13 +2166,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101" s="4">
-        <v>9655</v>
+        <v>19563</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>112</v>
@@ -2182,13 +2180,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C102" s="4">
-        <v>23772</v>
+        <v>9137</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>112</v>
@@ -2196,13 +2194,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C103" s="4">
-        <v>12446</v>
+        <v>22554</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>112</v>
@@ -2210,13 +2208,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C104" s="4">
-        <v>92718</v>
+        <v>12110</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>112</v>
@@ -2224,13 +2222,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C105" s="4">
-        <v>4368</v>
+        <v>93768</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>112</v>
@@ -2238,13 +2236,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C106" s="4">
-        <v>45233</v>
+        <v>4284</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>112</v>
@@ -2252,13 +2250,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C107" s="4">
-        <v>10412</v>
+        <v>45303</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>112</v>
@@ -2266,13 +2264,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C108" s="4">
-        <v>28224</v>
+        <v>9614</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>112</v>
@@ -2280,13 +2278,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="4">
-        <v>6576</v>
+        <v>27706</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>112</v>
@@ -2294,13 +2292,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C110" s="4">
-        <v>12217</v>
+        <v>6450</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>112</v>
@@ -2308,13 +2306,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="4">
-        <v>17859</v>
+        <v>12203</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>112</v>
@@ -2322,13 +2320,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C112" s="4">
-        <v>17708</v>
+        <v>17943</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>112</v>
@@ -2336,13 +2334,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C113" s="4">
-        <v>11055</v>
+        <v>17232</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>112</v>
@@ -2350,13 +2348,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="C114" s="4">
-        <v>647288</v>
+        <v>10985</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>112</v>
@@ -2364,13 +2362,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" s="4">
-        <v>626341</v>
+        <v>646098</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>112</v>
@@ -2378,13 +2376,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" s="4">
-        <v>102950</v>
+        <v>624799</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>112</v>
@@ -2392,13 +2390,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="4">
-        <v>62317</v>
+        <v>102790</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>112</v>
@@ -2406,13 +2404,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C118" s="4">
-        <v>2841</v>
+        <v>62072</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>112</v>
@@ -2420,13 +2418,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" s="4">
-        <v>4959</v>
+        <v>2421</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>112</v>
@@ -2434,13 +2432,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120" s="4">
-        <v>43158</v>
+        <v>16537</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>112</v>
@@ -2448,13 +2446,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C121" s="4">
-        <v>1410</v>
+        <v>43522</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>112</v>
@@ -2462,13 +2460,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="7">
-        <v>910</v>
+        <v>41</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1250</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>112</v>
@@ -2476,13 +2474,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C123" s="4">
-        <v>3070</v>
+        <v>42</v>
+      </c>
+      <c r="C123" s="7">
+        <v>840</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>112</v>
@@ -2490,13 +2488,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C124" s="4">
-        <v>2052</v>
+        <v>3070</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>112</v>
@@ -2504,13 +2502,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C125" s="7">
-        <v>900</v>
+        <v>44</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1476</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>112</v>
@@ -2518,13 +2516,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C126" s="4">
-        <v>2484</v>
+        <v>45</v>
+      </c>
+      <c r="C126" s="7">
+        <v>900</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>112</v>
@@ -2532,13 +2530,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C127" s="4">
-        <v>1692</v>
+        <v>2340</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>112</v>
@@ -2546,13 +2544,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C128" s="4">
-        <v>2232</v>
+        <v>1404</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>112</v>
@@ -2560,13 +2558,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" s="4">
-        <v>1800</v>
+        <v>2088</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>112</v>
@@ -2574,13 +2572,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C130" s="4">
-        <v>1620</v>
+        <v>1800</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>112</v>
@@ -2588,13 +2586,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="4">
-        <v>4256</v>
+        <v>1332</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>112</v>
@@ -2602,13 +2600,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C132" s="4">
-        <v>3378</v>
+        <v>4202</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>112</v>
@@ -2616,13 +2614,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C133" s="4">
-        <v>2108</v>
+        <v>3306</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>112</v>
@@ -2630,13 +2628,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C134" s="4">
-        <v>2620</v>
+        <v>2018</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>112</v>
@@ -2644,13 +2642,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C135" s="4">
-        <v>64299</v>
+        <v>2602</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>112</v>
@@ -2658,13 +2656,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C136" s="4">
-        <v>10922</v>
+        <v>64731</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>112</v>
@@ -2672,13 +2670,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C137" s="4">
-        <v>7119</v>
+        <v>11084</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>112</v>
@@ -2686,13 +2684,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C138" s="4">
-        <v>4510</v>
+        <v>7407</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>112</v>
@@ -2700,13 +2698,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C139" s="4">
-        <v>3010</v>
+        <v>4450</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>112</v>
@@ -2714,13 +2712,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C140" s="4">
-        <v>1590</v>
+        <v>2890</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>112</v>
@@ -2728,13 +2726,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C141" s="4">
-        <v>2650</v>
+        <v>1540</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>112</v>
@@ -2742,13 +2740,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C142" s="4">
-        <v>8551</v>
+        <v>2430</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>112</v>
@@ -2756,13 +2754,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C143" s="4">
-        <v>20607</v>
+        <v>8470</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>112</v>
@@ -2770,13 +2768,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C144" s="4">
-        <v>25921</v>
+        <v>20697</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>112</v>
@@ -2784,13 +2782,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C145" s="4">
-        <v>4795</v>
+        <v>26263</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>112</v>
@@ -2798,13 +2796,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C146" s="4">
-        <v>39574</v>
+        <v>4561</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>112</v>
@@ -2812,13 +2810,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C147" s="4">
-        <v>1397</v>
+        <v>39862</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>112</v>
@@ -2826,13 +2824,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C148" s="4">
-        <v>7899</v>
+        <v>1145</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>112</v>
@@ -2840,13 +2838,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C149" s="4">
-        <v>3071</v>
+        <v>7917</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>112</v>
@@ -2854,13 +2852,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C150" s="4">
-        <v>53724</v>
+        <v>2945</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>112</v>
@@ -2868,13 +2866,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C151" s="4">
-        <v>22842</v>
+        <v>53706</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>112</v>
@@ -2882,13 +2880,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C152" s="4">
-        <v>25326</v>
+        <v>22806</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>112</v>
@@ -2896,13 +2894,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C153" s="4">
-        <v>22611</v>
+        <v>25758</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>112</v>
@@ -2910,13 +2908,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C154" s="7">
-        <v>839</v>
+        <v>72</v>
+      </c>
+      <c r="C154" s="4">
+        <v>22773</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>112</v>
@@ -2924,13 +2922,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C155" s="4">
-        <v>2023</v>
+        <v>73</v>
+      </c>
+      <c r="C155" s="7">
+        <v>875</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>112</v>
@@ -2938,13 +2936,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C156" s="4">
-        <v>3440</v>
+        <v>1393</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>112</v>
@@ -2952,13 +2950,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C157" s="4">
-        <v>12218</v>
+        <v>3080</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>112</v>
@@ -2966,13 +2964,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C158" s="4">
-        <v>4084</v>
+        <v>12002</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>112</v>
@@ -2980,13 +2978,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C159" s="4">
-        <v>27974</v>
+        <v>21418</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>112</v>
@@ -2994,13 +2992,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C160" s="4">
-        <v>127361</v>
+        <v>27146</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>112</v>
@@ -3008,13 +3006,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C161" s="4">
-        <v>29124</v>
+        <v>334487</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>112</v>
@@ -3022,13 +3020,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C162" s="4">
-        <v>31500</v>
+        <v>29016</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>112</v>
@@ -3036,13 +3034,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C163" s="4">
-        <v>325422</v>
+        <v>30006</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>112</v>
@@ -3050,13 +3048,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C164" s="4">
-        <v>15336</v>
+        <v>324288</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>112</v>
@@ -3064,13 +3062,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C165" s="4">
-        <v>13230</v>
+        <v>15444</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>112</v>
@@ -3078,13 +3076,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C166" s="4">
-        <v>11718</v>
+        <v>12798</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>112</v>
@@ -3092,13 +3090,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C167" s="4">
-        <v>21350</v>
+        <v>11754</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>112</v>
@@ -3106,13 +3104,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C168" s="4">
-        <v>51720</v>
+        <v>55082</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>112</v>
@@ -3120,13 +3118,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C169" s="4">
-        <v>17525</v>
+        <v>52786</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>112</v>
@@ -3134,13 +3132,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C170" s="4">
-        <v>48762</v>
+        <v>17327</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>112</v>
@@ -3148,13 +3146,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C171" s="4">
-        <v>11322</v>
+        <v>48546</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>112</v>
@@ -3162,13 +3160,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C172" s="4">
-        <v>44736</v>
+        <v>11394</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>112</v>
@@ -3176,13 +3174,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C173" s="4">
-        <v>22576</v>
+        <v>44988</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>112</v>
@@ -3190,13 +3188,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C174" s="4">
-        <v>21043</v>
+        <v>22288</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>112</v>
@@ -3204,13 +3202,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C175" s="4">
-        <v>5367</v>
+        <v>21097</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>112</v>
@@ -3218,13 +3216,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C176" s="4">
-        <v>3675</v>
+        <v>5259</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>112</v>
@@ -3232,13 +3230,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C177" s="4">
-        <v>7745</v>
+        <v>3015</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>112</v>
@@ -3246,13 +3244,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C178" s="4">
-        <v>35334</v>
+        <v>7475</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>112</v>
@@ -3260,13 +3258,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C179" s="4">
-        <v>22821</v>
+        <v>35532</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>112</v>
@@ -3274,13 +3272,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C180" s="4">
-        <v>18364</v>
+        <v>23613</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>112</v>
@@ -3288,13 +3286,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C181" s="4">
-        <v>73656</v>
+        <v>18238</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>112</v>
@@ -3302,13 +3300,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C182" s="4">
-        <v>28512</v>
+        <v>74412</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>112</v>
@@ -3316,13 +3314,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C183" s="4">
-        <v>13620</v>
+        <v>28512</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>112</v>
@@ -3330,13 +3328,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C184" s="4">
-        <v>5740</v>
+        <v>13900</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>112</v>
@@ -3344,13 +3342,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C185" s="4">
-        <v>13798</v>
+        <v>5712</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>112</v>
@@ -3358,13 +3356,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C186" s="4">
-        <v>3459</v>
+        <v>13686</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>112</v>
@@ -3372,13 +3370,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C187" s="4">
-        <v>27699</v>
+        <v>18215</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>112</v>
@@ -3386,13 +3384,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C188" s="4">
-        <v>23288</v>
+        <v>27769</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>112</v>
@@ -3400,13 +3398,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C189" s="4">
-        <v>14276</v>
+        <v>23330</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>112</v>
@@ -3414,15 +3412,29 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C190" s="4">
+        <v>14360</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45678</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C190" s="4">
-        <v>19912</v>
-      </c>
-      <c r="D190" s="6" t="s">
+      <c r="C191" s="4">
+        <v>20024</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -810,25 +810,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9755</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>9755</v>
+        <v>16904</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>111</v>
@@ -836,13 +838,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
-        <v>16904</v>
+        <v>10094</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>111</v>
@@ -850,13 +852,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>10094</v>
+        <v>14021</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>111</v>
@@ -864,13 +866,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>14021</v>
+        <v>51610</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>111</v>
@@ -878,13 +880,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
-        <v>51610</v>
+        <v>25900</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>111</v>
@@ -892,13 +894,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>25900</v>
+        <v>10710</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>111</v>
@@ -906,13 +908,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
-        <v>10710</v>
+        <v>10860</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>111</v>
@@ -920,39 +922,39 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10860</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19194</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
-        <v>19194</v>
+        <v>67111</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>111</v>
@@ -960,13 +962,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4">
-        <v>67111</v>
+        <v>14952</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>111</v>
@@ -974,13 +976,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4">
-        <v>14952</v>
+        <v>10038</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>111</v>
@@ -988,13 +990,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
-        <v>10038</v>
+        <v>10438</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>111</v>
@@ -1002,13 +1004,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
-        <v>10438</v>
+        <v>11302</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>111</v>
@@ -1016,13 +1018,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
-        <v>11302</v>
+        <v>46144</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>111</v>
@@ -1030,21 +1032,19 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4">
-        <v>46144</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>28</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>34</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="4">
-        <v>15162</v>
+        <v>34720</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>111</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>36</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>38</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>39</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>40</v>
@@ -1156,41 +1156,37 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="4">
-        <v>2394</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4">
-        <v>2412</v>
+        <v>2358</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>111</v>
@@ -1198,13 +1194,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4">
-        <v>5480</v>
+        <v>2394</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>111</v>
@@ -1212,39 +1208,39 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4">
-        <v>7272</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2412</v>
+      </c>
       <c r="D33" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4">
-        <v>15561</v>
+        <v>5480</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>111</v>
@@ -1252,13 +1248,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C35" s="4">
-        <v>17604</v>
+        <v>7272</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>111</v>
@@ -1266,27 +1262,25 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3230</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C37" s="4">
-        <v>4856</v>
+        <v>15561</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>111</v>
@@ -1294,13 +1288,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4">
-        <v>10616</v>
+        <v>17604</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>111</v>
@@ -1308,13 +1302,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="4">
-        <v>16902</v>
+        <v>3230</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>111</v>
@@ -1322,13 +1316,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4">
-        <v>19456</v>
+        <v>4856</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>111</v>
@@ -1336,13 +1330,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C41" s="4">
-        <v>9531</v>
+        <v>10616</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>111</v>
@@ -1350,13 +1344,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4">
-        <v>11329</v>
+        <v>16902</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>111</v>
@@ -1364,25 +1358,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C43" s="4">
+        <v>19456</v>
+      </c>
       <c r="D43" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4">
-        <v>20568</v>
+        <v>9531</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>111</v>
@@ -1390,13 +1386,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C45" s="4">
-        <v>19872</v>
+        <v>11329</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>111</v>
@@ -1404,41 +1400,37 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4806</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="4">
-        <v>5562</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C48" s="4">
-        <v>14760</v>
+        <v>20568</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>111</v>
@@ -1446,13 +1438,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C49" s="4">
-        <v>21278</v>
+        <v>19872</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>111</v>
@@ -1460,13 +1452,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C50" s="4">
-        <v>594805</v>
+        <v>4806</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>111</v>
@@ -1474,13 +1466,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C51" s="4">
-        <v>24714</v>
+        <v>5562</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>111</v>
@@ -1488,13 +1480,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C52" s="4">
-        <v>197889</v>
+        <v>14760</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>111</v>
@@ -1502,13 +1494,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C53" s="4">
-        <v>246096</v>
+        <v>21278</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>111</v>
@@ -1516,25 +1508,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C54" s="4">
+        <v>456421</v>
+      </c>
       <c r="D54" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="4">
-        <v>10525</v>
+        <v>24714</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>111</v>
@@ -1542,13 +1536,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C56" s="4">
-        <v>61254</v>
+        <v>197889</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>111</v>
@@ -1556,13 +1550,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C57" s="4">
-        <v>1419</v>
+        <v>246096</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>111</v>
@@ -1570,27 +1564,25 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="4">
-        <v>146983</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C59" s="4">
-        <v>24552</v>
+        <v>10525</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>111</v>
@@ -1598,13 +1590,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C60" s="4">
-        <v>1636</v>
+        <v>61254</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>111</v>
@@ -1612,13 +1604,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C61" s="4">
-        <v>19491</v>
+        <v>34935</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>111</v>
@@ -1626,13 +1618,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C62" s="4">
-        <v>103511</v>
+        <v>146983</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>111</v>
@@ -1640,13 +1632,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C63" s="4">
-        <v>16037</v>
+        <v>24552</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>111</v>
@@ -1654,13 +1646,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C64" s="4">
-        <v>9666</v>
+        <v>1636</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>111</v>
@@ -1668,13 +1660,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C65" s="4">
-        <v>25056</v>
+        <v>19491</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>111</v>
@@ -1682,13 +1674,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C66" s="4">
-        <v>13511</v>
+        <v>103511</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>111</v>
@@ -1696,13 +1688,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C67" s="4">
-        <v>14760</v>
+        <v>16037</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>111</v>
@@ -1710,25 +1702,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9666</v>
+      </c>
       <c r="D68" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C69" s="4">
-        <v>32508</v>
+        <v>25056</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>111</v>
@@ -1736,25 +1730,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="C70" s="4">
+        <v>13511</v>
+      </c>
       <c r="D70" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C71" s="4">
-        <v>13398</v>
+        <v>14760</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>111</v>
@@ -1762,27 +1758,25 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="4">
-        <v>50164</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C72" s="5"/>
       <c r="D72" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C73" s="4">
-        <v>14344</v>
+        <v>32508</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>111</v>
@@ -1790,10 +1784,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6" t="s">
@@ -1802,13 +1796,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C75" s="4">
-        <v>28373</v>
+        <v>13398</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>111</v>
@@ -1816,13 +1810,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C76" s="4">
-        <v>19684</v>
+        <v>50164</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>111</v>
@@ -1830,83 +1824,81 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="4">
-        <v>10057</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C77" s="5"/>
       <c r="D77" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C78" s="4">
-        <v>11759</v>
+        <v>14344</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C79" s="4">
-        <v>11851</v>
+        <v>33145</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C80" s="4">
-        <v>11464</v>
+        <v>28373</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C81" s="4">
-        <v>16674</v>
+        <v>19684</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C82" s="4">
-        <v>19896</v>
+        <v>8923</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>112</v>
@@ -1914,13 +1906,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4">
-        <v>45312</v>
+        <v>11619</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>112</v>
@@ -1928,13 +1920,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C84" s="4">
-        <v>18040</v>
+        <v>10955</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>112</v>
@@ -1942,13 +1934,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4">
-        <v>20160</v>
+        <v>10960</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>112</v>
@@ -1956,13 +1948,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C86" s="4">
-        <v>20832</v>
+        <v>15498</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>112</v>
@@ -1970,13 +1962,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C87" s="4">
-        <v>10608</v>
+        <v>18066</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>112</v>
@@ -1984,13 +1976,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="C88" s="4">
-        <v>56227</v>
+        <v>45312</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>112</v>
@@ -1998,13 +1990,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C89" s="4">
-        <v>24300</v>
+        <v>17284</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>112</v>
@@ -2012,13 +2004,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C90" s="4">
-        <v>12420</v>
+        <v>19110</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>112</v>
@@ -2026,13 +2018,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C91" s="4">
-        <v>10265</v>
+        <v>20768</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>112</v>
@@ -2040,13 +2032,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C92" s="4">
-        <v>21672</v>
+        <v>9572</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>112</v>
@@ -2054,13 +2046,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C93" s="4">
-        <v>5474</v>
+        <v>54631</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>112</v>
@@ -2068,13 +2060,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C94" s="4">
-        <v>27431</v>
+        <v>22200</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>112</v>
@@ -2082,13 +2074,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C95" s="4">
-        <v>33796</v>
+        <v>11538</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>112</v>
@@ -2096,13 +2088,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C96" s="4">
-        <v>13873</v>
+        <v>8837</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>112</v>
@@ -2110,13 +2102,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C97" s="4">
-        <v>4780</v>
+        <v>19978</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>112</v>
@@ -2124,13 +2116,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C98" s="4">
-        <v>15912</v>
+        <v>5054</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>112</v>
@@ -2138,13 +2130,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C99" s="4">
-        <v>18412</v>
+        <v>24981</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>112</v>
@@ -2152,13 +2144,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" s="7">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="C100" s="4">
+        <v>33026</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>112</v>
@@ -2166,13 +2158,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C101" s="4">
-        <v>19563</v>
+        <v>11983</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>112</v>
@@ -2180,13 +2172,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C102" s="4">
-        <v>9137</v>
+        <v>3380</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>112</v>
@@ -2194,13 +2186,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C103" s="4">
-        <v>22554</v>
+        <v>13630</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>112</v>
@@ -2208,13 +2200,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C104" s="4">
-        <v>12110</v>
+        <v>17404</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>112</v>
@@ -2222,13 +2214,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C105" s="4">
-        <v>93768</v>
+        <v>114</v>
+      </c>
+      <c r="C105" s="7">
+        <v>83</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>112</v>
@@ -2236,13 +2228,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C106" s="4">
-        <v>4284</v>
+        <v>18471</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>112</v>
@@ -2250,13 +2242,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C107" s="4">
-        <v>45303</v>
+        <v>7863</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>112</v>
@@ -2264,13 +2256,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C108" s="4">
-        <v>9614</v>
+        <v>19656</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>112</v>
@@ -2278,13 +2270,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C109" s="4">
-        <v>27706</v>
+        <v>10892</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>112</v>
@@ -2292,13 +2284,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C110" s="4">
-        <v>6450</v>
+        <v>91024</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>112</v>
@@ -2306,13 +2298,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C111" s="4">
-        <v>12203</v>
+        <v>4214</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>112</v>
@@ -2320,13 +2312,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C112" s="4">
-        <v>17943</v>
+        <v>45275</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>112</v>
@@ -2334,13 +2326,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C113" s="4">
-        <v>17232</v>
+        <v>8116</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>112</v>
@@ -2348,13 +2340,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C114" s="4">
-        <v>10985</v>
+        <v>26516</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>112</v>
@@ -2362,13 +2354,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C115" s="4">
-        <v>646098</v>
+        <v>6044</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>112</v>
@@ -2376,13 +2368,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="C116" s="4">
-        <v>624799</v>
+        <v>11643</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>112</v>
@@ -2390,13 +2382,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="C117" s="4">
-        <v>102790</v>
+        <v>16837</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>112</v>
@@ -2404,13 +2396,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C118" s="4">
-        <v>62072</v>
+        <v>16156</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>112</v>
@@ -2418,13 +2410,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C119" s="4">
-        <v>2421</v>
+        <v>9595</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>112</v>
@@ -2432,13 +2424,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C120" s="4">
-        <v>16537</v>
+        <v>645013</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>112</v>
@@ -2446,13 +2438,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C121" s="4">
-        <v>43522</v>
+        <v>623935</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>112</v>
@@ -2460,13 +2452,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C122" s="4">
-        <v>1250</v>
+        <v>102470</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>112</v>
@@ -2474,13 +2466,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C123" s="7">
-        <v>840</v>
+        <v>118</v>
+      </c>
+      <c r="C123" s="4">
+        <v>62037</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>112</v>
@@ -2488,13 +2480,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C124" s="4">
-        <v>3070</v>
+        <v>1385</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>112</v>
@@ -2502,13 +2494,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C125" s="4">
-        <v>1476</v>
+        <v>15165</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>112</v>
@@ -2516,13 +2508,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C126" s="7">
-        <v>900</v>
+        <v>40</v>
+      </c>
+      <c r="C126" s="4">
+        <v>42038</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>112</v>
@@ -2530,13 +2522,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C127" s="4">
-        <v>2340</v>
+        <v>1230</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>112</v>
@@ -2544,13 +2536,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C128" s="4">
-        <v>1404</v>
+        <v>42</v>
+      </c>
+      <c r="C128" s="7">
+        <v>830</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>112</v>
@@ -2558,13 +2550,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C129" s="4">
-        <v>2088</v>
+        <v>3070</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>112</v>
@@ -2572,13 +2564,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C130" s="4">
-        <v>1800</v>
+        <v>1242</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>112</v>
@@ -2586,13 +2578,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C131" s="4">
-        <v>1332</v>
+        <v>45</v>
+      </c>
+      <c r="C131" s="7">
+        <v>792</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>112</v>
@@ -2600,13 +2592,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C132" s="4">
-        <v>4202</v>
+        <v>2340</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>112</v>
@@ -2614,13 +2606,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C133" s="4">
-        <v>3306</v>
+        <v>1404</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>112</v>
@@ -2628,13 +2620,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C134" s="4">
-        <v>2018</v>
+        <v>1872</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>112</v>
@@ -2642,13 +2634,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C135" s="4">
-        <v>2602</v>
+        <v>1800</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>112</v>
@@ -2656,13 +2648,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C136" s="4">
-        <v>64731</v>
+        <v>1008</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>112</v>
@@ -2670,13 +2662,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C137" s="4">
-        <v>11084</v>
+        <v>4076</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>112</v>
@@ -2684,13 +2676,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C138" s="4">
-        <v>7407</v>
+        <v>3162</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>112</v>
@@ -2698,13 +2690,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C139" s="4">
-        <v>4450</v>
+        <v>1460</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>112</v>
@@ -2712,13 +2704,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C140" s="4">
-        <v>2890</v>
+        <v>1774</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>112</v>
@@ -2726,13 +2718,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C141" s="4">
-        <v>1540</v>
+        <v>63471</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>112</v>
@@ -2740,13 +2732,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C142" s="4">
-        <v>2430</v>
+        <v>10148</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>112</v>
@@ -2754,13 +2746,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C143" s="4">
-        <v>8470</v>
+        <v>6345</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>112</v>
@@ -2768,13 +2760,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C144" s="4">
-        <v>20697</v>
+        <v>4210</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>112</v>
@@ -2782,13 +2774,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C145" s="4">
-        <v>26263</v>
+        <v>2890</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>112</v>
@@ -2796,13 +2788,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C146" s="4">
-        <v>4561</v>
+        <v>1510</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>112</v>
@@ -2810,13 +2802,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C147" s="4">
-        <v>39862</v>
+        <v>2280</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>112</v>
@@ -2824,13 +2816,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C148" s="4">
-        <v>1145</v>
+        <v>7768</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>112</v>
@@ -2838,13 +2830,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C149" s="4">
-        <v>7917</v>
+        <v>19692</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>112</v>
@@ -2852,13 +2844,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C150" s="4">
-        <v>2945</v>
+        <v>25363</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>112</v>
@@ -2866,13 +2858,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C151" s="4">
-        <v>53706</v>
+        <v>4507</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>112</v>
@@ -2880,13 +2872,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C152" s="4">
-        <v>22806</v>
+        <v>38062</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>112</v>
@@ -2894,13 +2886,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C153" s="4">
-        <v>25758</v>
+        <v>66</v>
+      </c>
+      <c r="C153" s="7">
+        <v>533</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>112</v>
@@ -2908,13 +2900,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C154" s="4">
-        <v>22773</v>
+        <v>6783</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>112</v>
@@ -2922,13 +2914,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C155" s="7">
-        <v>875</v>
+        <v>68</v>
+      </c>
+      <c r="C155" s="4">
+        <v>2441</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>112</v>
@@ -2936,13 +2928,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C156" s="4">
-        <v>1393</v>
+        <v>52626</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>112</v>
@@ -2950,13 +2942,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C157" s="4">
-        <v>3080</v>
+        <v>20592</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>112</v>
@@ -2964,13 +2956,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C158" s="4">
-        <v>12002</v>
+        <v>23922</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>112</v>
@@ -2978,13 +2970,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C159" s="4">
-        <v>21418</v>
+        <v>21207</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>112</v>
@@ -2992,13 +2984,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C160" s="4">
-        <v>27146</v>
+        <v>73</v>
+      </c>
+      <c r="C160" s="7">
+        <v>857</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>112</v>
@@ -3006,13 +2998,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C161" s="4">
-        <v>334487</v>
+        <v>1321</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>112</v>
@@ -3020,13 +3012,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C162" s="4">
-        <v>29016</v>
+        <v>2360</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>112</v>
@@ -3034,13 +3026,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C163" s="4">
-        <v>30006</v>
+        <v>10598</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>112</v>
@@ -3048,13 +3040,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C164" s="4">
-        <v>324288</v>
+        <v>16726</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>112</v>
@@ -3062,13 +3054,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C165" s="4">
-        <v>15444</v>
+        <v>25758</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>112</v>
@@ -3076,13 +3068,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C166" s="4">
-        <v>12798</v>
+        <v>447887</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>112</v>
@@ -3090,13 +3082,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C167" s="4">
-        <v>11754</v>
+        <v>27396</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>112</v>
@@ -3104,13 +3096,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C168" s="4">
-        <v>55082</v>
+        <v>25144</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>112</v>
@@ -3118,13 +3110,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C169" s="4">
-        <v>52786</v>
+        <v>323262</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>112</v>
@@ -3132,13 +3124,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C170" s="4">
-        <v>17327</v>
+        <v>14418</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>112</v>
@@ -3146,13 +3138,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C171" s="4">
-        <v>48546</v>
+        <v>11124</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>112</v>
@@ -3160,13 +3152,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C172" s="4">
-        <v>11394</v>
+        <v>9108</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>112</v>
@@ -3174,13 +3166,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C173" s="4">
-        <v>44988</v>
+        <v>52436</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>112</v>
@@ -3188,13 +3180,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C174" s="4">
-        <v>22288</v>
+        <v>47134</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>112</v>
@@ -3202,13 +3194,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C175" s="4">
-        <v>21097</v>
+        <v>16121</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>112</v>
@@ -3216,13 +3208,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C176" s="4">
-        <v>5259</v>
+        <v>47214</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>112</v>
@@ -3230,13 +3222,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C177" s="4">
-        <v>3015</v>
+        <v>10368</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>112</v>
@@ -3244,13 +3236,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C178" s="4">
-        <v>7475</v>
+        <v>41856</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>112</v>
@@ -3258,13 +3250,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C179" s="4">
-        <v>35532</v>
+        <v>20020</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>112</v>
@@ -3272,13 +3264,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C180" s="4">
-        <v>23613</v>
+        <v>18685</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>112</v>
@@ -3286,13 +3278,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C181" s="4">
-        <v>18238</v>
+        <v>4809</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>112</v>
@@ -3300,13 +3292,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C182" s="4">
-        <v>74412</v>
+        <v>2835</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>112</v>
@@ -3314,13 +3306,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C183" s="4">
-        <v>28512</v>
+        <v>5977</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>112</v>
@@ -3328,13 +3320,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C184" s="4">
-        <v>13900</v>
+        <v>33894</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>112</v>
@@ -3342,13 +3334,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C185" s="4">
-        <v>5712</v>
+        <v>22083</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>112</v>
@@ -3356,13 +3348,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C186" s="4">
-        <v>13686</v>
+        <v>17014</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>112</v>
@@ -3370,13 +3362,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C187" s="4">
-        <v>18215</v>
+        <v>70110</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>112</v>
@@ -3384,13 +3376,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C188" s="4">
-        <v>27769</v>
+        <v>27468</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>112</v>
@@ -3398,13 +3390,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C189" s="4">
-        <v>23330</v>
+        <v>12500</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>112</v>
@@ -3412,13 +3404,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C190" s="4">
-        <v>14360</v>
+        <v>4522</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>112</v>
@@ -3426,15 +3418,85 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C191" s="4">
+        <v>12566</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C192" s="4">
+        <v>16759</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C193" s="4">
+        <v>25711</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C194" s="4">
+        <v>20894</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C195" s="4">
+        <v>12820</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C191" s="4">
-        <v>20024</v>
-      </c>
-      <c r="D191" s="6" t="s">
+      <c r="C196" s="4">
+        <v>18428</v>
+      </c>
+      <c r="D196" s="6" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9ECF84-E677-5B46-9DAB-76CEA1C0C214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="27240"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -393,7 +392,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,15 +415,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -433,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -441,21 +443,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="60"/>
+      </left>
+      <right style="thin">
+        <color indexed="60"/>
+      </right>
+      <top style="thin">
+        <color indexed="60"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="60"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,2776 +863,2776 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>5079</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>9755</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>16904</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>10094</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>51610</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>25900</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>10710</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>10860</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>17454</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>19194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>33847</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>10038</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>10438</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>11302</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>46144</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>39617</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>34720</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>14938</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>12110</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>14126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>13063</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>43590</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>2358</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>2394</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>2412</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="5">
         <v>5480</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <v>7272</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>15561</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="5">
         <v>17604</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="5">
         <v>3230</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>4856</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="5">
         <v>10616</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>16902</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>19456</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>9531</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>11329</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>12924</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="5">
         <v>43185</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="5">
         <v>4806</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="5">
         <v>5562</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="5">
         <v>14760</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="5">
         <v>21278</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="5">
         <v>757219</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="5">
         <v>24714</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="5">
         <v>197889</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="5">
         <v>246096</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="5">
         <v>10525</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="5">
         <v>61254</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="5">
         <v>34935</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="5">
         <v>146983</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="5">
         <v>24552</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="5">
         <v>1636</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="5">
         <v>19491</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="5">
         <v>103511</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="5">
         <v>16037</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="5">
         <v>9666</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="5">
         <v>25056</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="5">
         <v>13511</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C74" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="5">
         <v>14760</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="5">
         <v>18354</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="5">
         <v>32508</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="5">
         <v>13398</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="5">
         <v>50164</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="5">
         <v>14344</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="5">
         <v>33145</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="5">
         <v>28373</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="5">
         <v>19684</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="5">
         <v>8349</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="5">
         <v>11619</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C87" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="5">
         <v>10773</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="5">
         <v>10806</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="5">
         <v>14966</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="5">
         <v>17072</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="5">
         <v>45312</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="5">
         <v>15786</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="5">
         <v>18970</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="5">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C95" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="5">
         <v>23124</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="5">
         <v>52671</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="5">
         <v>20702</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="5">
         <v>10754</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="5">
         <v>8557</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="5">
         <v>19600</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C101" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="5">
         <v>4956</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="5">
         <v>57685</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="5">
         <v>32620</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="5">
         <v>25955</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="5">
         <v>3240</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="5">
         <v>13686</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="5">
         <v>15906</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="5">
         <v>18485</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="5">
         <v>7513</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="5">
         <v>18340</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="5">
         <v>10346</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="5">
         <v>83996</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="5">
         <v>4200</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C115" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="5">
         <v>45275</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C116" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="5">
         <v>7836</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C117" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="5">
         <v>26572</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="5">
         <v>5974</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C119" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="5">
         <v>11643</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C120" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="5">
         <v>15129</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C121" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="5">
         <v>15988</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="5">
         <v>9315</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="5">
         <v>644733</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="5">
         <v>619231</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C125" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="5">
         <v>102550</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C126" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="5">
         <v>61897</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C127" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="5">
         <v>1385</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C128" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="5">
         <v>15165</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C129" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="5">
         <v>42038</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C130" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="5">
         <v>1080</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C131" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="6">
         <v>780</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C132" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="5">
         <v>3070</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C133" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="6">
         <v>882</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C134" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="6">
         <v>504</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C135" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="5">
         <v>2214</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C136" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="5">
         <v>1404</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C137" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="5">
         <v>1530</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C138" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="5">
         <v>1692</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C139" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="6">
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C140" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="5">
         <v>3986</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C141" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="5">
         <v>3144</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C142" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="5">
         <v>1388</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C143" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="5">
         <v>1684</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C144" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="5">
         <v>57909</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C145" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="5">
         <v>9536</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C146" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="5">
         <v>6345</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C147" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="5">
         <v>3870</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C148" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="5">
         <v>2890</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C149" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="5">
         <v>1510</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C150" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="5">
         <v>2300</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C151" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="5">
         <v>7777</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C152" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="5">
         <v>18756</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C153" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="5">
         <v>25093</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C154" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="5">
         <v>4507</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C155" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="5">
         <v>37630</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C156" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="6">
         <v>497</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C157" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="5">
         <v>6783</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C158" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="5">
         <v>2333</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C159" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="5">
         <v>51168</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C160" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="5">
         <v>19674</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C161" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="5">
         <v>22392</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C162" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="5">
         <v>40287</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C163" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="6">
         <v>821</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C164" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="5">
         <v>1177</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C165" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="5">
         <v>2306</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C166" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="5">
         <v>9860</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C167" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="5">
         <v>13360</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C168" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="5">
         <v>25758</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C169" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="5">
         <v>433487</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C170" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="5">
         <v>25488</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C171" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="5">
         <v>20896</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C172" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="5">
         <v>307782</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C173" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="5">
         <v>13518</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C174" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="5">
         <v>11034</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C175" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="5">
         <v>3852</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C176" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="5">
         <v>48278</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C177" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="5">
         <v>38098</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C178" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="5">
         <v>15761</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C179" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="5">
         <v>45558</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C180" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="5">
         <v>9738</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C181" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="5">
         <v>38328</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C182" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="5">
         <v>19876</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C183" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="5">
         <v>17371</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C184" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="5">
         <v>4773</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C185" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="5">
         <v>2835</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C186" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="5">
         <v>5671</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C187" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="5">
         <v>32796</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C188" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="5">
         <v>21633</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C189" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="5">
         <v>16618</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C190" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="5">
         <v>66258</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C191" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="5">
         <v>24642</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C192" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="5">
         <v>11562</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C193" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="5">
         <v>4382</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C194" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="5">
         <v>11754</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C195" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="5">
         <v>16311</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C196" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="5">
         <v>24267</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C197" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="5">
         <v>20306</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C198" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="5">
         <v>12148</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C199" s="3" t="s">
+        <v>45680</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="5">
         <v>17938</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -864,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A190" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,11 +928,9 @@
         <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>16904</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -942,10 +940,10 @@
         <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>10094</v>
+        <v>16904</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,10 +954,10 @@
         <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6">
-        <v>469</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10094</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,10 +968,10 @@
         <v>111</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5">
-        <v>51610</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="6">
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,10 +982,10 @@
         <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
-        <v>25900</v>
+        <v>51610</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,10 +996,10 @@
         <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5">
-        <v>10710</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1012,10 +1010,10 @@
         <v>111</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5">
-        <v>10860</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1026,10 +1024,10 @@
         <v>111</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5">
-        <v>17454</v>
+        <v>10860</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1040,10 +1038,10 @@
         <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5">
-        <v>19194</v>
+        <v>17454</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1054,10 +1052,10 @@
         <v>111</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5">
-        <v>33847</v>
+        <v>19194</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,10 +1066,10 @@
         <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5">
-        <v>10038</v>
+        <v>33847</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,10 +1080,10 @@
         <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5">
-        <v>10438</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,9 +1094,11 @@
         <v>111</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D16" s="5">
+        <v>10438</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1108,7 +1108,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -1120,11 +1120,9 @@
         <v>111</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5">
-        <v>11302</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1134,10 +1132,10 @@
         <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5">
-        <v>46144</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,9 +1146,11 @@
         <v>111</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D20" s="5">
+        <v>46144</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1160,11 +1160,9 @@
         <v>111</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="5">
-        <v>39617</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1174,10 +1172,10 @@
         <v>111</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="6">
-        <v>274</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="5">
+        <v>69166</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,10 +1186,10 @@
         <v>111</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="5">
-        <v>34720</v>
+        <v>34</v>
+      </c>
+      <c r="D23" s="6">
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,10 +1200,10 @@
         <v>111</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="5">
-        <v>14938</v>
+        <v>34720</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,10 +1214,10 @@
         <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5">
-        <v>12110</v>
+        <v>14938</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,10 +1228,10 @@
         <v>111</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5">
-        <v>14126</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,10 +1242,10 @@
         <v>111</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5">
-        <v>13063</v>
+        <v>14126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,23 +1256,25 @@
         <v>111</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="5">
+        <v>13063</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="5">
         <v>43590</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>45680</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1284,23 +1284,21 @@
         <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>45680</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2358</v>
-      </c>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1310,10 +1308,10 @@
         <v>111</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5">
-        <v>2394</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1324,9 +1322,11 @@
         <v>111</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2394</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1336,10 +1336,10 @@
         <v>111</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" s="5">
-        <v>2412</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,10 +1350,10 @@
         <v>111</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="5">
-        <v>5480</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,10 +1364,10 @@
         <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="5">
-        <v>7272</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>111</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="7"/>
     </row>
@@ -1390,10 +1390,10 @@
         <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38" s="5">
-        <v>15561</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,10 +1404,10 @@
         <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="5">
-        <v>17604</v>
+        <v>29916</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D40" s="5">
-        <v>3230</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,10 +1432,10 @@
         <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D41" s="5">
-        <v>4856</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,10 +1446,10 @@
         <v>111</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" s="5">
-        <v>10616</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,9 +1460,11 @@
         <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4856</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -1472,10 +1474,10 @@
         <v>111</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="5">
-        <v>16902</v>
+        <v>10616</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,11 +1488,9 @@
         <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="5">
-        <v>19456</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -1500,10 +1500,10 @@
         <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D46" s="5">
-        <v>9531</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,10 +1514,10 @@
         <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" s="5">
-        <v>11329</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,9 +1528,11 @@
         <v>111</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D48" s="5">
+        <v>9531</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -1540,10 +1542,10 @@
         <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D49" s="5">
-        <v>12924</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,11 +1556,9 @@
         <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="5">
-        <v>43185</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -1568,9 +1568,11 @@
         <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12924</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -1580,10 +1582,10 @@
         <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D52" s="5">
-        <v>4806</v>
+        <v>43185</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,11 +1596,9 @@
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="5">
-        <v>5562</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -1608,10 +1608,10 @@
         <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D54" s="5">
-        <v>14760</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,10 +1622,10 @@
         <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D55" s="5">
-        <v>21278</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,9 +1636,11 @@
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="D56" s="5">
+        <v>14760</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -1648,10 +1650,10 @@
         <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D57" s="5">
-        <v>757219</v>
+        <v>41394</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,11 +1664,9 @@
         <v>111</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="5">
-        <v>24714</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -1676,10 +1676,10 @@
         <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59" s="5">
-        <v>197889</v>
+        <v>757219</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,10 +1690,10 @@
         <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D60" s="5">
-        <v>246096</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,9 +1704,11 @@
         <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="D61" s="5">
+        <v>197889</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -1716,10 +1718,10 @@
         <v>111</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D62" s="5">
-        <v>10525</v>
+        <v>246096</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,10 +1732,10 @@
         <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D63" s="5">
-        <v>61254</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,10 +1746,10 @@
         <v>111</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" s="5">
-        <v>34935</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1758,10 +1760,10 @@
         <v>111</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D65" s="5">
-        <v>146983</v>
+        <v>61254</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,10 +1774,10 @@
         <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D66" s="5">
-        <v>24552</v>
+        <v>34935</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,10 +1788,10 @@
         <v>111</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D67" s="5">
-        <v>1636</v>
+        <v>146983</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,10 +1802,10 @@
         <v>111</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" s="5">
-        <v>19491</v>
+        <v>24552</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,10 +1816,10 @@
         <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D69" s="5">
-        <v>103511</v>
+        <v>24928</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,10 +1830,10 @@
         <v>111</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D70" s="5">
-        <v>16037</v>
+        <v>19491</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,10 +1844,10 @@
         <v>111</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D71" s="5">
-        <v>9666</v>
+        <v>103511</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,10 +1858,10 @@
         <v>111</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D72" s="5">
-        <v>25056</v>
+        <v>16037</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,11 +1872,9 @@
         <v>111</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="5">
-        <v>13511</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -1884,10 +1884,10 @@
         <v>111</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D74" s="5">
-        <v>14760</v>
+        <v>9666</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,10 +1898,10 @@
         <v>111</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D75" s="5">
-        <v>18354</v>
+        <v>25056</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,10 +1912,10 @@
         <v>111</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D76" s="5">
-        <v>32508</v>
+        <v>13511</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,9 +1926,11 @@
         <v>111</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="D77" s="5">
+        <v>14760</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -1938,10 +1940,10 @@
         <v>111</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D78" s="5">
-        <v>13398</v>
+        <v>18354</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,10 +1954,10 @@
         <v>111</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D79" s="5">
-        <v>50164</v>
+        <v>32508</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,9 +1968,11 @@
         <v>111</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="D80" s="5">
+        <v>20223</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -1978,10 +1982,10 @@
         <v>111</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D81" s="5">
-        <v>14344</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,10 +1996,10 @@
         <v>111</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D82" s="5">
-        <v>33145</v>
+        <v>50164</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,11 +2010,9 @@
         <v>111</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="5">
-        <v>28373</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -2020,10 +2022,10 @@
         <v>111</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D84" s="5">
-        <v>19684</v>
+        <v>14344</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,13 +2033,13 @@
         <v>45680</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="D85" s="5">
-        <v>8349</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,13 +2047,13 @@
         <v>45680</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="D86" s="5">
-        <v>11619</v>
+        <v>28373</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,13 +2061,13 @@
         <v>45680</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D87" s="5">
-        <v>10773</v>
+        <v>19684</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,10 +2078,10 @@
         <v>112</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" s="5">
-        <v>10806</v>
+        <v>8349</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,10 +2092,10 @@
         <v>112</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D89" s="5">
-        <v>14966</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,10 +2106,10 @@
         <v>112</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D90" s="5">
-        <v>17072</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,10 +2120,10 @@
         <v>112</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="D91" s="5">
-        <v>45312</v>
+        <v>10624</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,10 +2134,10 @@
         <v>112</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D92" s="5">
-        <v>15786</v>
+        <v>13720</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,13 +2148,13 @@
         <v>112</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D93" s="5">
-        <v>18970</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>17080</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45680</v>
       </c>
@@ -2160,10 +2162,10 @@
         <v>112</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D94" s="5">
-        <v>20800</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,10 +2176,10 @@
         <v>112</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" s="5">
-        <v>23124</v>
+        <v>15786</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,13 +2190,13 @@
         <v>112</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D96" s="5">
-        <v>52671</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18970</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45680</v>
       </c>
@@ -2202,10 +2204,10 @@
         <v>112</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="D97" s="5">
-        <v>20702</v>
+        <v>20704</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,10 +2218,10 @@
         <v>112</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D98" s="5">
-        <v>10754</v>
+        <v>23124</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,10 +2232,10 @@
         <v>112</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D99" s="5">
-        <v>8557</v>
+        <v>51019</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,10 +2246,10 @@
         <v>112</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D100" s="5">
-        <v>19600</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,10 +2260,10 @@
         <v>112</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D101" s="5">
-        <v>4956</v>
+        <v>10754</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,10 +2274,10 @@
         <v>112</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D102" s="5">
-        <v>57685</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,10 +2288,10 @@
         <v>112</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D103" s="5">
-        <v>32620</v>
+        <v>18956</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,10 +2302,10 @@
         <v>112</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D104" s="5">
-        <v>25955</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,10 +2316,10 @@
         <v>112</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D105" s="5">
-        <v>3240</v>
+        <v>55039</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,10 +2330,10 @@
         <v>112</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D106" s="5">
-        <v>13686</v>
+        <v>32354</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,10 +2344,10 @@
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D107" s="5">
-        <v>15906</v>
+        <v>25955</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,10 +2358,10 @@
         <v>112</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D108" s="6">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="D108" s="5">
+        <v>3240</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2370,10 +2372,10 @@
         <v>112</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D109" s="5">
-        <v>18485</v>
+        <v>13686</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,10 +2386,10 @@
         <v>112</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D110" s="5">
-        <v>7513</v>
+        <v>15598</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,10 +2400,10 @@
         <v>112</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" s="5">
-        <v>18340</v>
+        <v>114</v>
+      </c>
+      <c r="D111" s="6">
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,10 +2414,10 @@
         <v>112</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D112" s="5">
-        <v>10346</v>
+        <v>18135</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,10 +2428,10 @@
         <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D113" s="5">
-        <v>83996</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,10 +2442,10 @@
         <v>112</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D114" s="5">
-        <v>4200</v>
+        <v>17066</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,10 +2456,10 @@
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D115" s="5">
-        <v>45275</v>
+        <v>10346</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,10 +2470,10 @@
         <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D116" s="5">
-        <v>7836</v>
+        <v>80146</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,10 +2484,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D117" s="5">
-        <v>26572</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,10 +2498,10 @@
         <v>112</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D118" s="5">
-        <v>5974</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,10 +2512,10 @@
         <v>112</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D119" s="5">
-        <v>11643</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,10 +2526,10 @@
         <v>112</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D120" s="5">
-        <v>15129</v>
+        <v>26572</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,10 +2540,10 @@
         <v>112</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D121" s="5">
-        <v>15988</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,10 +2554,10 @@
         <v>112</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D122" s="5">
-        <v>9315</v>
+        <v>11643</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,10 +2568,10 @@
         <v>112</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="D123" s="5">
-        <v>644733</v>
+        <v>13715</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,10 +2582,10 @@
         <v>112</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="D124" s="5">
-        <v>619231</v>
+        <v>15988</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,10 +2596,10 @@
         <v>112</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="D125" s="5">
-        <v>102550</v>
+        <v>9315</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,10 +2610,10 @@
         <v>112</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D126" s="5">
-        <v>61897</v>
+        <v>635423</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,10 +2624,10 @@
         <v>112</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D127" s="5">
-        <v>1385</v>
+        <v>614815</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,10 +2638,10 @@
         <v>112</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="D128" s="5">
-        <v>15165</v>
+        <v>101350</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,13 +2652,13 @@
         <v>112</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="D129" s="5">
-        <v>42038</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>61617</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45680</v>
       </c>
@@ -2664,13 +2666,13 @@
         <v>112</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D130" s="5">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45680</v>
       </c>
@@ -2678,10 +2680,10 @@
         <v>112</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D131" s="6">
-        <v>780</v>
+        <v>39</v>
+      </c>
+      <c r="D131" s="5">
+        <v>15165</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,13 +2694,13 @@
         <v>112</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D132" s="5">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39658</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45680</v>
       </c>
@@ -2706,13 +2708,13 @@
         <v>112</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D133" s="6">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45680</v>
       </c>
@@ -2720,10 +2722,10 @@
         <v>112</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D134" s="6">
-        <v>504</v>
+        <v>780</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,10 +2736,10 @@
         <v>112</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D135" s="5">
-        <v>2214</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,10 +2750,10 @@
         <v>112</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" s="5">
-        <v>1404</v>
+        <v>44</v>
+      </c>
+      <c r="D136" s="6">
+        <v>702</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,10 +2764,10 @@
         <v>112</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D137" s="5">
-        <v>1530</v>
+        <v>45</v>
+      </c>
+      <c r="D137" s="6">
+        <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,10 +2778,10 @@
         <v>112</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D138" s="5">
-        <v>1692</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,10 +2792,10 @@
         <v>112</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D139" s="6">
-        <v>648</v>
+        <v>47</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1404</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,10 +2806,10 @@
         <v>112</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D140" s="5">
-        <v>3986</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,10 +2820,10 @@
         <v>112</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D141" s="5">
-        <v>3144</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,10 +2834,10 @@
         <v>112</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D142" s="5">
-        <v>1388</v>
+        <v>50</v>
+      </c>
+      <c r="D142" s="6">
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,10 +2848,10 @@
         <v>112</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D143" s="5">
-        <v>1684</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,10 +2862,10 @@
         <v>112</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D144" s="5">
-        <v>57909</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,10 +2876,10 @@
         <v>112</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D145" s="5">
-        <v>9536</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,10 +2890,10 @@
         <v>112</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D146" s="5">
-        <v>6345</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,10 +2904,10 @@
         <v>112</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="D147" s="5">
-        <v>3870</v>
+        <v>52131</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,10 +2918,10 @@
         <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D148" s="5">
-        <v>2890</v>
+        <v>9194</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,10 +2932,10 @@
         <v>112</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D149" s="5">
-        <v>1510</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,10 +2946,10 @@
         <v>112</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D150" s="5">
-        <v>2300</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,10 +2960,10 @@
         <v>112</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D151" s="5">
-        <v>7777</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,10 +2974,10 @@
         <v>112</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D152" s="5">
-        <v>18756</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,10 +2988,10 @@
         <v>112</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D153" s="5">
-        <v>25093</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,10 +3002,10 @@
         <v>112</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D154" s="5">
-        <v>4507</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,10 +3016,10 @@
         <v>112</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D155" s="5">
-        <v>37630</v>
+        <v>18756</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,10 +3030,10 @@
         <v>112</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D156" s="6">
-        <v>497</v>
+        <v>63</v>
+      </c>
+      <c r="D156" s="5">
+        <v>24247</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,10 +3044,10 @@
         <v>112</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D157" s="5">
-        <v>6783</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,10 +3058,10 @@
         <v>112</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D158" s="5">
-        <v>2333</v>
+        <v>35488</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,10 +3072,10 @@
         <v>112</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D159" s="5">
-        <v>51168</v>
+        <v>66</v>
+      </c>
+      <c r="D159" s="6">
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,10 +3086,10 @@
         <v>112</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D160" s="5">
-        <v>19674</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,10 +3100,10 @@
         <v>112</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D161" s="5">
-        <v>22392</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,10 +3114,10 @@
         <v>112</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D162" s="5">
-        <v>40287</v>
+        <v>50304</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,10 +3128,10 @@
         <v>112</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D163" s="6">
-        <v>821</v>
+        <v>70</v>
+      </c>
+      <c r="D163" s="5">
+        <v>18702</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,10 +3142,10 @@
         <v>112</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D164" s="5">
-        <v>1177</v>
+        <v>21150</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,10 +3156,10 @@
         <v>112</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D165" s="5">
-        <v>2306</v>
+        <v>38127</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,10 +3170,10 @@
         <v>112</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D166" s="5">
-        <v>9860</v>
+        <v>73</v>
+      </c>
+      <c r="D166" s="6">
+        <v>821</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,10 +3184,10 @@
         <v>112</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D167" s="5">
-        <v>13360</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,10 +3198,10 @@
         <v>112</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D168" s="5">
-        <v>25758</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,10 +3212,10 @@
         <v>112</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D169" s="5">
-        <v>433487</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,10 +3226,10 @@
         <v>112</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D170" s="5">
-        <v>25488</v>
+        <v>10282</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,10 +3240,10 @@
         <v>112</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D171" s="5">
-        <v>20896</v>
+        <v>25758</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,10 +3254,10 @@
         <v>112</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D172" s="5">
-        <v>307782</v>
+        <v>408719</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3266,10 +3268,10 @@
         <v>112</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D173" s="5">
-        <v>13518</v>
+        <v>25056</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,10 +3282,10 @@
         <v>112</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D174" s="5">
-        <v>11034</v>
+        <v>18214</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3294,10 +3296,10 @@
         <v>112</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D175" s="5">
-        <v>3852</v>
+        <v>293238</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,10 +3310,10 @@
         <v>112</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D176" s="5">
-        <v>48278</v>
+        <v>13518</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3322,10 +3324,10 @@
         <v>112</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D177" s="5">
-        <v>38098</v>
+        <v>11034</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,10 +3338,10 @@
         <v>112</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D178" s="5">
-        <v>15761</v>
+        <v>85</v>
+      </c>
+      <c r="D178" s="6">
+        <v>900</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,10 +3352,10 @@
         <v>112</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D179" s="5">
-        <v>45558</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,10 +3366,10 @@
         <v>112</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D180" s="5">
-        <v>9738</v>
+        <v>38094</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3378,10 +3380,10 @@
         <v>112</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D181" s="5">
-        <v>38328</v>
+        <v>15005</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,10 +3394,10 @@
         <v>112</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D182" s="5">
-        <v>19876</v>
+        <v>42210</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,10 +3408,10 @@
         <v>112</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D183" s="5">
-        <v>17371</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,10 +3422,10 @@
         <v>112</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D184" s="5">
-        <v>4773</v>
+        <v>33792</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,10 +3436,10 @@
         <v>112</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D185" s="5">
-        <v>2835</v>
+        <v>19876</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,10 +3450,10 @@
         <v>112</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D186" s="5">
-        <v>5671</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,10 +3464,10 @@
         <v>112</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D187" s="5">
-        <v>32796</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3476,10 +3478,10 @@
         <v>112</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D188" s="5">
-        <v>21633</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3490,10 +3492,10 @@
         <v>112</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D189" s="5">
-        <v>16618</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,10 +3506,10 @@
         <v>112</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D190" s="5">
-        <v>66258</v>
+        <v>31518</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,10 +3520,10 @@
         <v>112</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D191" s="5">
-        <v>24642</v>
+        <v>21453</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,10 +3534,10 @@
         <v>112</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D192" s="5">
-        <v>11562</v>
+        <v>16618</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,10 +3548,10 @@
         <v>112</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D193" s="5">
-        <v>4382</v>
+        <v>62604</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,10 +3562,10 @@
         <v>112</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D194" s="5">
-        <v>11754</v>
+        <v>23598</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,10 +3576,10 @@
         <v>112</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D195" s="5">
-        <v>16311</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,10 +3590,10 @@
         <v>112</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D196" s="5">
-        <v>24267</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3602,10 +3604,10 @@
         <v>112</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D197" s="5">
-        <v>20306</v>
+        <v>11754</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3616,10 +3618,10 @@
         <v>112</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D198" s="5">
-        <v>12148</v>
+        <v>15667</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,9 +3632,51 @@
         <v>112</v>
       </c>
       <c r="C199" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D199" s="5">
+        <v>23413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D200" s="5">
+        <v>19466</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D201" s="5">
+        <v>12148</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D202" s="5">
         <v>17938</v>
       </c>
     </row>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -502,54 +502,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE33C22-8115-4B5C-B36E-399EC45E832E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="812800" y="0"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -866,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A190" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +846,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>111</v>
@@ -908,7 +860,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>111</v>
@@ -922,7 +874,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
@@ -934,7 +886,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -948,7 +900,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>111</v>
@@ -962,7 +914,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>111</v>
@@ -976,7 +928,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>111</v>
@@ -990,7 +942,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>111</v>
@@ -1004,7 +956,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>111</v>
@@ -1018,7 +970,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>111</v>
@@ -1032,7 +984,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>111</v>
@@ -1046,7 +998,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>111</v>
@@ -1060,7 +1012,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>111</v>
@@ -1074,7 +1026,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>111</v>
@@ -1088,7 +1040,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>111</v>
@@ -1102,7 +1054,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>111</v>
@@ -1114,7 +1066,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>111</v>
@@ -1126,7 +1078,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>111</v>
@@ -1140,7 +1092,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>111</v>
@@ -1154,7 +1106,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>111</v>
@@ -1166,7 +1118,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>111</v>
@@ -1180,7 +1132,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>111</v>
@@ -1194,7 +1146,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>111</v>
@@ -1208,7 +1160,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>111</v>
@@ -1222,7 +1174,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
@@ -1236,7 +1188,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>111</v>
@@ -1250,7 +1202,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>111</v>
@@ -1264,7 +1216,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>111</v>
@@ -1278,7 +1230,7 @@
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>111</v>
@@ -1290,7 +1242,7 @@
     </row>
     <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>111</v>
@@ -1302,7 +1254,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -1316,7 +1268,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>111</v>
@@ -1330,7 +1282,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>111</v>
@@ -1344,7 +1296,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>111</v>
@@ -1358,7 +1310,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>111</v>
@@ -1372,7 +1324,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>111</v>
@@ -1384,7 +1336,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>111</v>
@@ -1398,7 +1350,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>111</v>
@@ -1412,7 +1364,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>111</v>
@@ -1426,7 +1378,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>111</v>
@@ -1440,7 +1392,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>111</v>
@@ -1454,7 +1406,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>111</v>
@@ -1468,7 +1420,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>111</v>
@@ -1482,7 +1434,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>111</v>
@@ -1494,7 +1446,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>111</v>
@@ -1508,7 +1460,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>111</v>
@@ -1522,7 +1474,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>111</v>
@@ -1536,7 +1488,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>111</v>
@@ -1550,7 +1502,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>111</v>
@@ -1562,7 +1514,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>111</v>
@@ -1576,7 +1528,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>111</v>
@@ -1590,7 +1542,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>111</v>
@@ -1602,7 +1554,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>111</v>
@@ -1616,7 +1568,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>111</v>
@@ -1630,7 +1582,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>111</v>
@@ -1644,7 +1596,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>111</v>
@@ -1658,7 +1610,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>111</v>
@@ -1670,7 +1622,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>111</v>
@@ -1684,7 +1636,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>111</v>
@@ -1698,7 +1650,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>111</v>
@@ -1712,7 +1664,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>111</v>
@@ -1726,7 +1678,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>111</v>
@@ -1740,7 +1692,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>111</v>
@@ -1754,7 +1706,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>111</v>
@@ -1768,7 +1720,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>111</v>
@@ -1782,7 +1734,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>111</v>
@@ -1796,7 +1748,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>111</v>
@@ -1810,7 +1762,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>111</v>
@@ -1824,7 +1776,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>111</v>
@@ -1838,7 +1790,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>111</v>
@@ -1852,7 +1804,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>111</v>
@@ -1866,7 +1818,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>111</v>
@@ -1878,7 +1830,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>111</v>
@@ -1892,7 +1844,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>111</v>
@@ -1906,7 +1858,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>111</v>
@@ -1920,7 +1872,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>111</v>
@@ -1934,7 +1886,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>111</v>
@@ -1948,7 +1900,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>111</v>
@@ -1962,7 +1914,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>111</v>
@@ -1976,7 +1928,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>111</v>
@@ -1990,7 +1942,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>111</v>
@@ -2004,7 +1956,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>111</v>
@@ -2016,7 +1968,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>111</v>
@@ -2030,7 +1982,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>111</v>
@@ -2044,7 +1996,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>111</v>
@@ -2058,7 +2010,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>111</v>
@@ -2072,7 +2024,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>112</v>
@@ -2086,7 +2038,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>112</v>
@@ -2100,7 +2052,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>112</v>
@@ -2114,7 +2066,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>112</v>
@@ -2128,7 +2080,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>112</v>
@@ -2142,7 +2094,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>112</v>
@@ -2156,7 +2108,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>112</v>
@@ -2170,7 +2122,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>112</v>
@@ -2184,7 +2136,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>112</v>
@@ -2198,7 +2150,7 @@
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>112</v>
@@ -2212,7 +2164,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>112</v>
@@ -2226,7 +2178,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>112</v>
@@ -2240,7 +2192,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>112</v>
@@ -2254,7 +2206,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>112</v>
@@ -2268,7 +2220,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>112</v>
@@ -2282,7 +2234,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>112</v>
@@ -2296,7 +2248,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>112</v>
@@ -2310,7 +2262,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>112</v>
@@ -2324,7 +2276,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>112</v>
@@ -2338,7 +2290,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>112</v>
@@ -2352,7 +2304,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>112</v>
@@ -2366,7 +2318,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>112</v>
@@ -2380,7 +2332,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>112</v>
@@ -2394,7 +2346,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>112</v>
@@ -2408,7 +2360,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>112</v>
@@ -2422,7 +2374,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>112</v>
@@ -2436,7 +2388,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>112</v>
@@ -2450,7 +2402,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>112</v>
@@ -2464,7 +2416,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>112</v>
@@ -2478,7 +2430,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>112</v>
@@ -2492,7 +2444,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>112</v>
@@ -2506,7 +2458,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>112</v>
@@ -2520,7 +2472,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>112</v>
@@ -2534,7 +2486,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>112</v>
@@ -2548,7 +2500,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>112</v>
@@ -2562,7 +2514,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>112</v>
@@ -2576,7 +2528,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>112</v>
@@ -2590,7 +2542,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>112</v>
@@ -2604,7 +2556,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>112</v>
@@ -2618,7 +2570,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>112</v>
@@ -2632,7 +2584,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>112</v>
@@ -2646,7 +2598,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>112</v>
@@ -2660,7 +2612,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>112</v>
@@ -2674,7 +2626,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>112</v>
@@ -2688,7 +2640,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>112</v>
@@ -2702,7 +2654,7 @@
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>112</v>
@@ -2716,7 +2668,7 @@
     </row>
     <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>112</v>
@@ -2730,7 +2682,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>112</v>
@@ -2744,7 +2696,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>112</v>
@@ -2758,7 +2710,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>112</v>
@@ -2772,7 +2724,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>112</v>
@@ -2786,7 +2738,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>112</v>
@@ -2800,7 +2752,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>112</v>
@@ -2814,7 +2766,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>112</v>
@@ -2828,7 +2780,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>112</v>
@@ -2842,7 +2794,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>112</v>
@@ -2856,7 +2808,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>112</v>
@@ -2870,7 +2822,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>112</v>
@@ -2884,7 +2836,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>112</v>
@@ -2898,7 +2850,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>112</v>
@@ -2912,7 +2864,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>112</v>
@@ -2926,7 +2878,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>112</v>
@@ -2940,7 +2892,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>112</v>
@@ -2954,7 +2906,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>112</v>
@@ -2968,7 +2920,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>112</v>
@@ -2982,7 +2934,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>112</v>
@@ -2996,7 +2948,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>112</v>
@@ -3010,7 +2962,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>112</v>
@@ -3024,7 +2976,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>112</v>
@@ -3038,7 +2990,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>112</v>
@@ -3052,7 +3004,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>112</v>
@@ -3066,7 +3018,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>112</v>
@@ -3080,7 +3032,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>112</v>
@@ -3094,7 +3046,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>112</v>
@@ -3108,7 +3060,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>112</v>
@@ -3122,7 +3074,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>112</v>
@@ -3136,7 +3088,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>112</v>
@@ -3150,7 +3102,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>112</v>
@@ -3164,7 +3116,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>112</v>
@@ -3178,7 +3130,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>112</v>
@@ -3192,7 +3144,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>112</v>
@@ -3206,7 +3158,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>112</v>
@@ -3220,7 +3172,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>112</v>
@@ -3234,7 +3186,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>112</v>
@@ -3248,7 +3200,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>112</v>
@@ -3262,7 +3214,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>112</v>
@@ -3276,7 +3228,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>112</v>
@@ -3290,7 +3242,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>112</v>
@@ -3304,7 +3256,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>112</v>
@@ -3318,7 +3270,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>112</v>
@@ -3332,7 +3284,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>112</v>
@@ -3346,7 +3298,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>112</v>
@@ -3360,7 +3312,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>112</v>
@@ -3374,7 +3326,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>112</v>
@@ -3388,7 +3340,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>112</v>
@@ -3402,7 +3354,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>112</v>
@@ -3416,7 +3368,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>112</v>
@@ -3430,7 +3382,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>112</v>
@@ -3444,7 +3396,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>112</v>
@@ -3458,7 +3410,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>112</v>
@@ -3472,7 +3424,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>112</v>
@@ -3486,7 +3438,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>112</v>
@@ -3500,7 +3452,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>112</v>
@@ -3514,7 +3466,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>112</v>
@@ -3528,7 +3480,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>112</v>
@@ -3542,7 +3494,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>112</v>
@@ -3556,7 +3508,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>112</v>
@@ -3570,7 +3522,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>112</v>
@@ -3584,7 +3536,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>112</v>
@@ -3598,7 +3550,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>112</v>
@@ -3612,7 +3564,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>112</v>
@@ -3626,7 +3578,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>112</v>
@@ -3640,7 +3592,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>112</v>
@@ -3654,7 +3606,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>112</v>
@@ -3668,7 +3620,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>112</v>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -816,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>111</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>111</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>111</v>
@@ -914,21 +914,19 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6">
-        <v>469</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>111</v>
@@ -942,7 +940,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>111</v>
@@ -956,7 +954,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>111</v>
@@ -970,7 +968,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>111</v>
@@ -984,7 +982,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>111</v>
@@ -998,7 +996,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>111</v>
@@ -1012,7 +1010,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>111</v>
@@ -1026,7 +1024,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>111</v>
@@ -1040,7 +1038,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>111</v>
@@ -1054,7 +1052,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>111</v>
@@ -1062,11 +1060,13 @@
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="5">
+        <v>14252</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>111</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>111</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>111</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>111</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>111</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>111</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>111</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>111</v>
@@ -1169,12 +1169,12 @@
         <v>36</v>
       </c>
       <c r="D25" s="5">
-        <v>14938</v>
+        <v>35640</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>111</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>111</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>111</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>111</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>111</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -1263,12 +1263,12 @@
         <v>44</v>
       </c>
       <c r="D32" s="5">
-        <v>2358</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>111</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>111</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>111</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>111</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>111</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>111</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>111</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>111</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>111</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>111</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>111</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>111</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>111</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>111</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>111</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>111</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>111</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>111</v>
@@ -1510,11 +1510,13 @@
       <c r="C50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="5">
+        <v>5054</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>111</v>
@@ -1528,7 +1530,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>111</v>
@@ -1542,7 +1544,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>111</v>
@@ -1554,7 +1556,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>111</v>
@@ -1568,7 +1570,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>111</v>
@@ -1582,7 +1584,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>111</v>
@@ -1596,7 +1598,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>111</v>
@@ -1610,7 +1612,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>111</v>
@@ -1622,7 +1624,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>111</v>
@@ -1636,7 +1638,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>111</v>
@@ -1650,7 +1652,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>111</v>
@@ -1664,7 +1666,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>111</v>
@@ -1678,7 +1680,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>111</v>
@@ -1692,7 +1694,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>111</v>
@@ -1706,7 +1708,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>111</v>
@@ -1715,12 +1717,12 @@
         <v>85</v>
       </c>
       <c r="D65" s="5">
-        <v>61254</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>111</v>
@@ -1729,12 +1731,12 @@
         <v>86</v>
       </c>
       <c r="D66" s="5">
-        <v>34935</v>
+        <v>74650</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>111</v>
@@ -1743,12 +1745,12 @@
         <v>87</v>
       </c>
       <c r="D67" s="5">
-        <v>146983</v>
+        <v>184423</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>111</v>
@@ -1762,7 +1764,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>111</v>
@@ -1776,7 +1778,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>111</v>
@@ -1790,7 +1792,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>111</v>
@@ -1804,7 +1806,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>111</v>
@@ -1818,7 +1820,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>111</v>
@@ -1830,7 +1832,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>111</v>
@@ -1844,7 +1846,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>111</v>
@@ -1858,7 +1860,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>111</v>
@@ -1872,7 +1874,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>111</v>
@@ -1886,7 +1888,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>111</v>
@@ -1900,7 +1902,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>111</v>
@@ -1914,7 +1916,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>111</v>
@@ -1928,7 +1930,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>111</v>
@@ -1942,7 +1944,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>111</v>
@@ -1956,7 +1958,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>111</v>
@@ -1964,11 +1966,13 @@
       <c r="C83" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="5">
+        <v>10248</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>111</v>
@@ -1982,7 +1986,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>111</v>
@@ -1996,7 +2000,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>111</v>
@@ -2010,7 +2014,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>111</v>
@@ -2024,1612 +2028,1624 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="5">
-        <v>8349</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" s="5">
-        <v>11619</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="5">
-        <v>10773</v>
+        <v>11479</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" s="5">
-        <v>10624</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="5">
-        <v>13720</v>
+        <v>10624</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" s="5">
-        <v>17080</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D94" s="5">
-        <v>45312</v>
+        <v>16492</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="D95" s="5">
-        <v>15786</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="5">
+        <v>15198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="5">
-        <v>18970</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>45681</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="5">
+        <v>18452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="5">
-        <v>20704</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>45681</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D98" s="5">
-        <v>23124</v>
+        <v>20672</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" s="5">
-        <v>51019</v>
+        <v>23285</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100" s="5">
-        <v>20002</v>
+        <v>49507</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="5">
-        <v>10754</v>
+        <v>19512</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="5">
-        <v>8557</v>
+        <v>10180</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103" s="5">
-        <v>18956</v>
+        <v>8235</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" s="5">
-        <v>4718</v>
+        <v>18144</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" s="5">
-        <v>55039</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106" s="5">
-        <v>32354</v>
+        <v>53289</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" s="5">
-        <v>25955</v>
+        <v>32256</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D108" s="5">
-        <v>3240</v>
+        <v>25283</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" s="5">
-        <v>13686</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D110" s="5">
-        <v>15598</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111" s="6">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="D111" s="5">
+        <v>14968</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="5">
-        <v>18135</v>
+        <v>114</v>
+      </c>
+      <c r="D112" s="6">
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D113" s="5">
-        <v>7513</v>
+        <v>17827</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D114" s="5">
-        <v>17066</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D115" s="5">
-        <v>10346</v>
+        <v>14602</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="5">
-        <v>80146</v>
+        <v>9688</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D117" s="5">
-        <v>4200</v>
+        <v>79460</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" s="5">
-        <v>45093</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="5">
-        <v>7836</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120" s="5">
-        <v>26572</v>
+        <v>7486</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" s="5">
-        <v>5974</v>
+        <v>26306</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" s="5">
-        <v>11643</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="5">
-        <v>13715</v>
+        <v>11447</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D124" s="5">
-        <v>15988</v>
+        <v>12945</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D125" s="5">
-        <v>9315</v>
+        <v>15526</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D126" s="5">
-        <v>635423</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D127" s="5">
-        <v>614815</v>
+        <v>635143</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D128" s="5">
-        <v>101350</v>
+        <v>614047</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D129" s="5">
-        <v>61617</v>
+        <v>101190</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="D130" s="5">
-        <v>1385</v>
+        <v>61407</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D131" s="5">
-        <v>15165</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="5">
+        <v>14493</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="5">
-        <v>39658</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>45681</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D133" s="5">
-        <v>1080</v>
+        <v>39378</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D134" s="6">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>45681</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="5">
-        <v>3070</v>
+      <c r="D135" s="6">
+        <v>760</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D136" s="6">
-        <v>702</v>
+        <v>43</v>
+      </c>
+      <c r="D136" s="5">
+        <v>3070</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D137" s="6">
-        <v>450</v>
+        <v>702</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D138" s="5">
-        <v>2214</v>
+        <v>45</v>
+      </c>
+      <c r="D138" s="6">
+        <v>450</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D139" s="5">
-        <v>1404</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D140" s="5">
-        <v>1476</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D141" s="5">
-        <v>1692</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D142" s="6">
-        <v>414</v>
+        <v>49</v>
+      </c>
+      <c r="D142" s="5">
+        <v>1692</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D143" s="5">
-        <v>3986</v>
+        <v>50</v>
+      </c>
+      <c r="D143" s="6">
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D144" s="5">
-        <v>3144</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D145" s="5">
-        <v>1388</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D146" s="5">
-        <v>1674</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D147" s="5">
-        <v>52131</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D148" s="5">
-        <v>9194</v>
+        <v>50421</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D149" s="5">
-        <v>6345</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D150" s="5">
-        <v>3780</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D151" s="5">
-        <v>2890</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D152" s="5">
-        <v>1500</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D153" s="5">
-        <v>1660</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D154" s="5">
-        <v>7777</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D155" s="5">
-        <v>18756</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D156" s="5">
-        <v>24247</v>
+        <v>18216</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D157" s="5">
-        <v>4507</v>
+        <v>23545</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D158" s="5">
-        <v>35488</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D159" s="6">
-        <v>497</v>
+        <v>65</v>
+      </c>
+      <c r="D159" s="5">
+        <v>33652</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D160" s="5">
-        <v>6783</v>
+        <v>66</v>
+      </c>
+      <c r="D160" s="6">
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D161" s="5">
-        <v>2333</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D162" s="5">
-        <v>50304</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D163" s="5">
-        <v>18702</v>
+        <v>49530</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D164" s="5">
-        <v>21150</v>
+        <v>17892</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D165" s="5">
-        <v>38127</v>
+        <v>19656</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D166" s="6">
-        <v>821</v>
+        <v>72</v>
+      </c>
+      <c r="D166" s="5">
+        <v>36309</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D167" s="5">
-        <v>1177</v>
+        <v>73</v>
+      </c>
+      <c r="D167" s="6">
+        <v>695</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D168" s="5">
-        <v>2306</v>
+        <v>74</v>
+      </c>
+      <c r="D168" s="6">
+        <v>817</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D169" s="5">
-        <v>10184</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D170" s="5">
-        <v>10282</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D171" s="5">
-        <v>25758</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D172" s="5">
-        <v>408719</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D173" s="5">
-        <v>25056</v>
+        <v>372629</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D174" s="5">
-        <v>18214</v>
+        <v>24102</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D175" s="5">
-        <v>293238</v>
+        <v>12094</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D176" s="5">
-        <v>13518</v>
+        <v>289764</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D177" s="5">
-        <v>11034</v>
+        <v>12888</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D178" s="6">
-        <v>900</v>
+        <v>84</v>
+      </c>
+      <c r="D178" s="5">
+        <v>9972</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D179" s="5">
-        <v>45362</v>
+        <v>15066</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D180" s="5">
-        <v>38094</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D181" s="5">
-        <v>15005</v>
+        <v>35556</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D182" s="5">
-        <v>42210</v>
+        <v>13925</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D183" s="5">
-        <v>8316</v>
+        <v>41094</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D184" s="5">
-        <v>33792</v>
+        <v>7236</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D185" s="5">
-        <v>19876</v>
+        <v>32334</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D186" s="5">
-        <v>17371</v>
+        <v>18796</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D187" s="5">
-        <v>4773</v>
+        <v>16597</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D188" s="5">
-        <v>2535</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D189" s="5">
-        <v>5221</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D190" s="5">
-        <v>31518</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D191" s="5">
-        <v>21453</v>
+        <v>30960</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D192" s="5">
-        <v>16618</v>
+        <v>20535</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D193" s="5">
-        <v>62604</v>
+        <v>15898</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D194" s="5">
-        <v>23598</v>
+        <v>60696</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D195" s="5">
-        <v>11114</v>
+        <v>22608</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D196" s="5">
-        <v>2688</v>
+        <v>10876</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D197" s="5">
-        <v>11754</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D198" s="5">
-        <v>15667</v>
+        <v>11572</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D199" s="5">
-        <v>23413</v>
+        <v>14925</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D200" s="5">
-        <v>19466</v>
+        <v>23101</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D201" s="5">
-        <v>12148</v>
+        <v>18192</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C202" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D202" s="5">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D202" s="5">
-        <v>17938</v>
+      <c r="D203" s="5">
+        <v>17350</v>
       </c>
     </row>
   </sheetData>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="123">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -816,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +852,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>111</v>
@@ -860,7 +866,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>111</v>
@@ -874,7 +880,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
@@ -882,11 +888,13 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="5">
+        <v>11494</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -900,7 +908,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>111</v>
@@ -914,7 +922,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>111</v>
@@ -926,7 +934,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>111</v>
@@ -940,7 +948,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>111</v>
@@ -954,7 +962,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>111</v>
@@ -968,7 +976,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>111</v>
@@ -982,7 +990,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>111</v>
@@ -996,7 +1004,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>111</v>
@@ -1010,7 +1018,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>111</v>
@@ -1024,7 +1032,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>111</v>
@@ -1033,12 +1041,12 @@
         <v>21</v>
       </c>
       <c r="D15" s="5">
-        <v>10038</v>
+        <v>21728</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>111</v>
@@ -1052,7 +1060,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>111</v>
@@ -1066,7 +1074,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>111</v>
@@ -1074,11 +1082,13 @@
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="5">
+        <v>9366</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>111</v>
@@ -1092,7 +1102,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>111</v>
@@ -1106,7 +1116,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>111</v>
@@ -1114,11 +1124,13 @@
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="5">
+        <v>9562</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>111</v>
@@ -1132,7 +1144,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>111</v>
@@ -1146,7 +1158,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>111</v>
@@ -1160,7 +1172,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>111</v>
@@ -1174,7 +1186,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
@@ -1188,7 +1200,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>111</v>
@@ -1202,7 +1214,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>111</v>
@@ -1216,7 +1228,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>111</v>
@@ -1228,2424 +1240,2456 @@
         <v>43590</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>45684</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D32" s="5">
-        <v>5035</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="5">
-        <v>2394</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="5">
-        <v>1755</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" s="5">
-        <v>2412</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="5">
-        <v>5480</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5480</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5">
-        <v>7272</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="5">
-        <v>29916</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="5">
-        <v>15561</v>
+        <v>29916</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="5">
-        <v>17604</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="5">
-        <v>3230</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="5">
-        <v>4856</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="5">
-        <v>10616</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D45" s="5">
+        <v>21074</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="5">
-        <v>16902</v>
+        <v>12072</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D47" s="5">
-        <v>19456</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="5">
-        <v>9531</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="5">
-        <v>11329</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="5">
-        <v>5054</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D51" s="5">
-        <v>12924</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="5">
-        <v>43185</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D53" s="5">
+        <v>43185</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="5">
-        <v>4806</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="5">
-        <v>5562</v>
+        <v>9684</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" s="5">
-        <v>14760</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="5">
-        <v>41394</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="D58" s="5">
+        <v>21432</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="5">
-        <v>757219</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="5">
-        <v>24714</v>
+        <v>832961</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D61" s="5">
-        <v>197889</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="5">
-        <v>246096</v>
+        <v>191553</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" s="5">
-        <v>9972</v>
+        <v>246096</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" s="5">
-        <v>10525</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" s="5">
-        <v>45414</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="5">
-        <v>74650</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" s="5">
-        <v>184423</v>
+        <v>74650</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="5">
-        <v>24552</v>
+        <v>184423</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" s="5">
-        <v>24928</v>
+        <v>24552</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="5">
-        <v>19491</v>
+        <v>24928</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="5">
-        <v>103511</v>
+        <v>19491</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="5">
-        <v>16037</v>
+        <v>103511</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="D73" s="5">
+        <v>16037</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="5">
-        <v>9666</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" s="5">
-        <v>25056</v>
+        <v>9666</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="5">
-        <v>13511</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D77" s="5">
-        <v>14760</v>
+        <v>25056</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D78" s="5">
-        <v>18354</v>
+        <v>13511</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D79" s="5">
-        <v>32508</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D80" s="5">
-        <v>20223</v>
+        <v>18354</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D81" s="5">
-        <v>13398</v>
+        <v>32508</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D82" s="5">
-        <v>50164</v>
+        <v>20223</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D83" s="5">
-        <v>10248</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D84" s="5">
-        <v>14344</v>
+        <v>32848</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D85" s="5">
-        <v>33145</v>
+        <v>10248</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D86" s="5">
-        <v>28373</v>
+        <v>14344</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D87" s="5">
-        <v>19684</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D88" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="D88" s="5">
+        <v>28373</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D89" s="5">
-        <v>7859</v>
+        <v>19684</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="5">
-        <v>11479</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="5">
-        <v>10017</v>
+        <v>6823</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92" s="5">
-        <v>10624</v>
+        <v>11437</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D93" s="5">
-        <v>13300</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D94" s="5">
-        <v>16492</v>
+        <v>9714</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="D95" s="5">
-        <v>45312</v>
+        <v>12278</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="5">
-        <v>15198</v>
+        <v>14966</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D97" s="5">
-        <v>18452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D98" s="5">
-        <v>20672</v>
+        <v>14204</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" s="5">
-        <v>23285</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15904</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="D100" s="5">
-        <v>49507</v>
+        <v>20128</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D101" s="5">
-        <v>19512</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D102" s="5">
-        <v>10180</v>
+        <v>46595</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" s="5">
-        <v>8235</v>
+        <v>17818</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D104" s="5">
-        <v>18144</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D105" s="5">
-        <v>4592</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" s="5">
-        <v>53289</v>
+        <v>17556</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D107" s="5">
-        <v>32256</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D108" s="5">
-        <v>25283</v>
+        <v>50125</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D109" s="5">
-        <v>2610</v>
+        <v>31654</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D110" s="5">
-        <v>13000</v>
+        <v>23183</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D111" s="5">
-        <v>14968</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D112" s="6">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="D112" s="5">
+        <v>11852</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" s="5">
-        <v>17827</v>
+        <v>14296</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="5">
-        <v>6295</v>
+        <v>114</v>
+      </c>
+      <c r="D114" s="6">
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D115" s="5">
-        <v>14602</v>
+        <v>16119</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D116" s="5">
-        <v>9688</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D117" s="5">
-        <v>79460</v>
+        <v>12950</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="5">
-        <v>4116</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D119" s="5">
-        <v>44897</v>
+        <v>76870</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D120" s="5">
-        <v>7486</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D121" s="5">
-        <v>26306</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D122" s="5">
-        <v>5890</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D123" s="5">
-        <v>11447</v>
+        <v>25676</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D124" s="5">
-        <v>12945</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D125" s="5">
-        <v>15526</v>
+        <v>11335</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D126" s="5">
-        <v>8895</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="D127" s="5">
-        <v>635143</v>
+        <v>14196</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="D128" s="5">
-        <v>614047</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D129" s="5">
-        <v>101190</v>
+        <v>623278</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D130" s="5">
-        <v>61407</v>
+        <v>606271</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D131" s="5">
-        <v>1105</v>
+        <v>98150</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D132" s="5">
-        <v>14493</v>
+        <v>60497</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="6">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" s="5">
+        <v>12757</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="5">
-        <v>39378</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>45684</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C134" s="4" t="s">
+      <c r="D135" s="5">
+        <v>38286</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D134" s="5">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>45684</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="D136" s="6">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D135" s="6">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>45684</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D136" s="5">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>45684</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D137" s="6">
-        <v>702</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D138" s="6">
-        <v>450</v>
+        <v>43</v>
+      </c>
+      <c r="D138" s="5">
+        <v>3070</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D139" s="5">
-        <v>2214</v>
+        <v>44</v>
+      </c>
+      <c r="D139" s="6">
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D140" s="5">
-        <v>1404</v>
+        <v>45</v>
+      </c>
+      <c r="D140" s="6">
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D141" s="5">
-        <v>1476</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D142" s="5">
-        <v>1692</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D143" s="6">
-        <v>414</v>
+        <v>918</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D144" s="5">
-        <v>3860</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D145" s="5">
-        <v>3090</v>
+        <v>50</v>
+      </c>
+      <c r="D145" s="6">
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D146" s="5">
-        <v>1244</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D147" s="5">
-        <v>1026</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D148" s="5">
-        <v>50421</v>
+        <v>53</v>
+      </c>
+      <c r="D148" s="6">
+        <v>740</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D149" s="5">
-        <v>8240</v>
+        <v>54</v>
+      </c>
+      <c r="D149" s="6">
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D150" s="5">
-        <v>6345</v>
+        <v>48351</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D151" s="5">
-        <v>3780</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D152" s="5">
-        <v>2890</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="D153" s="5">
-        <v>1500</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D154" s="5">
-        <v>1650</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D155" s="5">
-        <v>6751</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D156" s="5">
-        <v>18216</v>
+        <v>60</v>
+      </c>
+      <c r="D156" s="6">
+        <v>630</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D157" s="5">
-        <v>23545</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D158" s="5">
-        <v>4183</v>
+        <v>17892</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D159" s="5">
-        <v>33652</v>
+        <v>21853</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D160" s="6">
-        <v>497</v>
+        <v>64</v>
+      </c>
+      <c r="D160" s="5">
+        <v>4093</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D161" s="5">
-        <v>6261</v>
+        <v>30664</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D162" s="5">
-        <v>2081</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D163" s="5">
-        <v>49530</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D164" s="5">
-        <v>17892</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D165" s="5">
-        <v>19656</v>
+        <v>48594</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D166" s="5">
-        <v>36309</v>
+        <v>15876</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D167" s="6">
-        <v>695</v>
+        <v>71</v>
+      </c>
+      <c r="D167" s="5">
+        <v>17640</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D168" s="6">
-        <v>817</v>
+        <v>72</v>
+      </c>
+      <c r="D168" s="5">
+        <v>35769</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D169" s="5">
-        <v>1856</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D169" s="7"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D170" s="5">
-        <v>9500</v>
+        <v>74</v>
+      </c>
+      <c r="D170" s="6">
+        <v>547</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D171" s="5">
-        <v>7402</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D172" s="5">
-        <v>24714</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D173" s="5">
-        <v>372629</v>
+        <v>18328</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D174" s="5">
-        <v>24102</v>
+        <v>22338</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D175" s="5">
-        <v>12094</v>
+        <v>432119</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D176" s="5">
-        <v>289764</v>
+        <v>21492</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D177" s="5">
-        <v>12888</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D178" s="5">
-        <v>9972</v>
+        <v>284634</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D179" s="5">
-        <v>15066</v>
+        <v>12366</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D180" s="5">
-        <v>42860</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D181" s="5">
-        <v>35556</v>
+        <v>11718</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D182" s="5">
-        <v>13925</v>
+        <v>38648</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D183" s="5">
-        <v>41094</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D184" s="5">
-        <v>7236</v>
+        <v>12899</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D185" s="5">
-        <v>32334</v>
+        <v>39924</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D186" s="5">
-        <v>18796</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D187" s="5">
-        <v>16597</v>
+        <v>27582</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D188" s="5">
-        <v>4719</v>
+        <v>18112</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D189" s="5">
-        <v>2395</v>
+        <v>13969</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D190" s="5">
-        <v>4249</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D191" s="5">
-        <v>30960</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D192" s="5">
-        <v>20535</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D193" s="5">
-        <v>15898</v>
+        <v>30510</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D194" s="5">
-        <v>60696</v>
+        <v>19725</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D195" s="5">
-        <v>22608</v>
+        <v>13828</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D196" s="5">
-        <v>10876</v>
+        <v>58752</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D197" s="5">
-        <v>1806</v>
+        <v>20970</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D198" s="5">
-        <v>11572</v>
+        <v>10512</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D199" s="5">
-        <v>14925</v>
+        <v>16112</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D200" s="5">
-        <v>23101</v>
+        <v>10522</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D201" s="5">
-        <v>18192</v>
+        <v>13119</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D202" s="5">
-        <v>11700</v>
+        <v>22806</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C203" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D203" s="5">
+        <v>16904</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D204" s="5">
+        <v>9936</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D203" s="5">
-        <v>17350</v>
+      <c r="D205" s="5">
+        <v>16930</v>
       </c>
     </row>
   </sheetData>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="127">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
 </sst>
 </file>
@@ -822,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,2844 +864,2904 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5079</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5">
-        <v>9755</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
-        <v>11494</v>
+        <v>9755</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
-        <v>16904</v>
+        <v>11494</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>10094</v>
+        <v>16904</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10094</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5">
-        <v>51610</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>25900</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5">
-        <v>10710</v>
+        <v>51610</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5">
-        <v>10860</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5">
-        <v>17454</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5">
-        <v>19194</v>
+        <v>10818</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5">
-        <v>33847</v>
+        <v>17454</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5">
-        <v>21728</v>
+        <v>19194</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5">
-        <v>10438</v>
+        <v>33847</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5">
-        <v>14252</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5">
-        <v>9366</v>
+        <v>21728</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5">
-        <v>11302</v>
+        <v>20742</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5">
-        <v>46144</v>
+        <v>14252</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5">
-        <v>9562</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5">
-        <v>69166</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6">
-        <v>274</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>46144</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5">
-        <v>34720</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D25" s="5">
-        <v>35640</v>
+        <v>69166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="5">
-        <v>12110</v>
+        <v>34</v>
+      </c>
+      <c r="D26" s="6">
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5">
-        <v>14126</v>
+        <v>34720</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5">
-        <v>13063</v>
+        <v>35640</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5">
-        <v>43590</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5">
+        <v>13063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
+        <v>43590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>45685</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D33" s="5">
         <v>1160</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>45685</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D34" s="5">
         <v>1950</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>45685</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="5">
-        <v>5035</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>45685</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="5">
-        <v>2394</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1755</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D36" s="5">
-        <v>2412</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D37" s="5">
-        <v>5480</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5">
-        <v>3917</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D39" s="5">
-        <v>7272</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D40" s="5">
-        <v>29916</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D41" s="5">
-        <v>15561</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D42" s="5">
-        <v>17604</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" s="5">
-        <v>3230</v>
+        <v>29916</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D44" s="5">
-        <v>4856</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D45" s="5">
-        <v>21074</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D46" s="5">
-        <v>12072</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D47" s="5">
-        <v>16902</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D48" s="5">
-        <v>19456</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D49" s="5">
-        <v>6363</v>
+        <v>12072</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D50" s="5">
-        <v>11329</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" s="5">
-        <v>5054</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D52" s="5">
-        <v>12924</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D53" s="5">
-        <v>43185</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D54" s="5">
-        <v>4815</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D55" s="5">
-        <v>9684</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D56" s="5">
-        <v>5562</v>
+        <v>43185</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D57" s="5">
-        <v>14760</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D58" s="5">
-        <v>21432</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D59" s="5">
+        <v>5562</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D60" s="5">
-        <v>832961</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D61" s="5">
-        <v>24714</v>
+        <v>21432</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D62" s="5">
-        <v>191553</v>
+        <v>15347</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D63" s="5">
-        <v>246096</v>
+        <v>832961</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D64" s="5">
-        <v>9972</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D65" s="5">
-        <v>10525</v>
+        <v>170763</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D66" s="5">
-        <v>45414</v>
+        <v>246096</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D67" s="5">
-        <v>74650</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D68" s="5">
-        <v>184423</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D69" s="5">
-        <v>24552</v>
+        <v>47124</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D70" s="5">
-        <v>24928</v>
+        <v>74596</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D71" s="5">
-        <v>19491</v>
+        <v>184423</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D72" s="5">
-        <v>103511</v>
+        <v>24552</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D73" s="5">
-        <v>16037</v>
+        <v>24928</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="D74" s="6">
+        <v>483</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D75" s="5">
-        <v>9666</v>
+        <v>103511</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="D76" s="5">
+        <v>16037</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="5">
-        <v>25056</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D78" s="5">
-        <v>13511</v>
+        <v>16223</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="5">
-        <v>14760</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="5">
-        <v>18354</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" s="5">
-        <v>32508</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D82" s="5">
-        <v>20223</v>
+        <v>13644</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D83" s="5">
-        <v>13398</v>
+        <v>27137</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D84" s="5">
-        <v>32848</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D85" s="5">
-        <v>10248</v>
+        <v>18354</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D86" s="5">
-        <v>14344</v>
+        <v>64757</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D87" s="5">
-        <v>33145</v>
+        <v>20223</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D88" s="5">
-        <v>28373</v>
+        <v>24062</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D89" s="5">
-        <v>19684</v>
+        <v>32848</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="D90" s="5">
+        <v>10248</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D91" s="5">
-        <v>6823</v>
+        <v>14344</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D92" s="5">
-        <v>11437</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D93" s="5">
-        <v>9807</v>
+        <v>28373</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="D94" s="5">
-        <v>9714</v>
+        <v>19684</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5">
-        <v>12278</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D96" s="5">
-        <v>14966</v>
+        <v>6823</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="D97" s="5">
-        <v>45312</v>
+        <v>11437</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D98" s="5">
-        <v>14204</v>
+        <v>9527</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D99" s="5">
-        <v>15904</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>9714</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="D100" s="5">
-        <v>20128</v>
+        <v>11578</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>21339</v>
+        <v>14266</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D102" s="5">
-        <v>46595</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="5">
-        <v>17818</v>
+        <v>14204</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D104" s="5">
-        <v>8948</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D105" s="5">
-        <v>7395</v>
+        <v>20128</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D106" s="5">
-        <v>17556</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D107" s="5">
-        <v>4158</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D108" s="5">
-        <v>50125</v>
+        <v>17818</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D109" s="5">
-        <v>31654</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D110" s="5">
-        <v>23183</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D111" s="5">
-        <v>1126</v>
+        <v>16856</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D112" s="5">
-        <v>11852</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D113" s="5">
-        <v>14296</v>
+        <v>48725</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D114" s="6">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="D114" s="5">
+        <v>31234</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D115" s="5">
-        <v>16119</v>
+        <v>22623</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D116" s="5">
-        <v>4363</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D117" s="5">
-        <v>12950</v>
+        <v>11852</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D118" s="5">
-        <v>9030</v>
+        <v>12896</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" s="5">
-        <v>76870</v>
+        <v>114</v>
+      </c>
+      <c r="D119" s="6">
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D120" s="5">
-        <v>4074</v>
+        <v>16119</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D121" s="5">
-        <v>44281</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D122" s="5">
-        <v>7150</v>
+        <v>12950</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D123" s="5">
-        <v>25676</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D124" s="5">
-        <v>5876</v>
+        <v>71466</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D125" s="5">
-        <v>11335</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D126" s="5">
-        <v>10565</v>
+        <v>44281</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D127" s="5">
-        <v>14196</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D128" s="5">
-        <v>8461</v>
+        <v>25676</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="D129" s="5">
-        <v>623278</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D130" s="5">
-        <v>606271</v>
+        <v>11335</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="D131" s="5">
-        <v>98150</v>
+        <v>9165</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="D132" s="5">
-        <v>60497</v>
+        <v>14196</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133" s="6">
-        <v>951</v>
+        <v>37</v>
+      </c>
+      <c r="D133" s="5">
+        <v>8461</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D134" s="5">
-        <v>12757</v>
+        <v>623278</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D135" s="5">
-        <v>38286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>606271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D136" s="6">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="D136" s="5">
+        <v>98150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D137" s="6">
-        <v>600</v>
+        <v>118</v>
+      </c>
+      <c r="D137" s="5">
+        <v>60497</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D138" s="5">
-        <v>3070</v>
+        <v>15077</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D139" s="6">
-        <v>90</v>
+        <v>39</v>
+      </c>
+      <c r="D139" s="5">
+        <v>12757</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D140" s="6">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D140" s="5">
+        <v>36886</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D141" s="5">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D141" s="6">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D142" s="5">
-        <v>1350</v>
+        <v>42</v>
+      </c>
+      <c r="D142" s="6">
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="6">
-        <v>918</v>
+        <v>43</v>
+      </c>
+      <c r="D143" s="5">
+        <v>3070</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D144" s="5">
-        <v>1602</v>
+        <v>44</v>
+      </c>
+      <c r="D144" s="6">
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D145" s="6">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D146" s="5">
-        <v>3302</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D147" s="5">
-        <v>2964</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D148" s="6">
-        <v>740</v>
+        <v>918</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D149" s="6">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1602</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D150" s="5">
-        <v>48351</v>
+        <v>50</v>
+      </c>
+      <c r="D150" s="6">
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D151" s="5">
-        <v>5540</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D152" s="5">
-        <v>5697</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D153" s="5">
-        <v>3480</v>
+        <v>53</v>
+      </c>
+      <c r="D153" s="6">
+        <v>740</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D154" s="5">
-        <v>2740</v>
+        <v>54</v>
+      </c>
+      <c r="D154" s="6">
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D155" s="5">
-        <v>1350</v>
+        <v>47649</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D156" s="6">
-        <v>630</v>
+        <v>56</v>
+      </c>
+      <c r="D156" s="5">
+        <v>4892</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D157" s="5">
-        <v>4375</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="D158" s="5">
-        <v>17892</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D159" s="5">
-        <v>21853</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D160" s="5">
-        <v>4093</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D161" s="5">
-        <v>30664</v>
+        <v>60</v>
+      </c>
+      <c r="D161" s="6">
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D162" s="5">
-        <v>2531</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D163" s="5">
-        <v>4641</v>
+        <v>17892</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D164" s="5">
-        <v>1559</v>
+        <v>21853</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D165" s="5">
-        <v>48594</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D166" s="5">
-        <v>15876</v>
+        <v>29944</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D167" s="5">
-        <v>17640</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D168" s="5">
-        <v>35769</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D169" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D169" s="5">
+        <v>1559</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D170" s="6">
-        <v>547</v>
+        <v>69</v>
+      </c>
+      <c r="D170" s="5">
+        <v>48054</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D171" s="5">
-        <v>1676</v>
+        <v>14076</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D172" s="5">
-        <v>8564</v>
+        <v>16740</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D173" s="5">
-        <v>18328</v>
+        <v>33969</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D174" s="5">
-        <v>22338</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D174" s="7"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D175" s="5">
-        <v>432119</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D176" s="5">
-        <v>21492</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D177" s="5">
-        <v>6604</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D178" s="5">
-        <v>284634</v>
+        <v>16528</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D179" s="5">
-        <v>12366</v>
+        <v>22338</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D180" s="5">
-        <v>7938</v>
+        <v>424914</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D181" s="5">
-        <v>11718</v>
+        <v>20592</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D182" s="5">
-        <v>38648</v>
+        <v>27394</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D183" s="5">
-        <v>29580</v>
+        <v>282834</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D184" s="5">
-        <v>12899</v>
+        <v>12366</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D185" s="5">
-        <v>39924</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D186" s="5">
-        <v>7128</v>
+        <v>32976</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D187" s="5">
-        <v>27582</v>
+        <v>36848</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D188" s="5">
-        <v>18112</v>
+        <v>28680</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D189" s="5">
-        <v>13969</v>
+        <v>12539</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D190" s="5">
-        <v>4647</v>
+        <v>39564</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D191" s="5">
-        <v>1865</v>
+        <v>26136</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D192" s="5">
-        <v>2413</v>
+        <v>25782</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D193" s="5">
-        <v>30510</v>
+        <v>18112</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D194" s="5">
-        <v>19725</v>
+        <v>13057</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D195" s="5">
-        <v>13828</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D196" s="5">
-        <v>58752</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D197" s="5">
-        <v>20970</v>
+        <v>13825</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D198" s="5">
-        <v>10512</v>
+        <v>28710</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D199" s="5">
-        <v>16112</v>
+        <v>18825</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D200" s="5">
-        <v>10522</v>
+        <v>13018</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D201" s="5">
-        <v>13119</v>
+        <v>58176</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D202" s="5">
-        <v>22806</v>
+        <v>20970</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D203" s="5">
-        <v>16904</v>
+        <v>10512</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D204" s="5">
-        <v>9936</v>
+        <v>15412</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C205" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D205" s="5">
+        <v>9822</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D206" s="5">
+        <v>11719</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" s="5">
+        <v>22456</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D208" s="5">
+        <v>15504</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D209" s="5">
+        <v>9894</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D205" s="5">
-        <v>16930</v>
+      <c r="D210" s="5">
+        <v>16884</v>
       </c>
     </row>
   </sheetData>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="127">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -837,7 +837,7 @@
   <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +954,9 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5">
+        <v>9744</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -979,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="5">
-        <v>51610</v>
+        <v>81455</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="5">
-        <v>10818</v>
+        <v>10860</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="5">
-        <v>21728</v>
+        <v>11690</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,10 +1420,10 @@
         <v>111</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" s="5">
-        <v>7272</v>
+        <v>29916</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,10 +1434,10 @@
         <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="5">
-        <v>29916</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,10 +1448,10 @@
         <v>111</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" s="5">
-        <v>15561</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,10 +1462,10 @@
         <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D45" s="5">
-        <v>17604</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,10 +1476,10 @@
         <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="5">
-        <v>3230</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,10 +1490,10 @@
         <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="5">
-        <v>4856</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,10 +1504,10 @@
         <v>111</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="5">
-        <v>21074</v>
+        <v>12072</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,10 +1518,10 @@
         <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="5">
-        <v>12072</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,10 +1532,10 @@
         <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D50" s="5">
-        <v>16902</v>
+        <v>31624</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,10 +1546,10 @@
         <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="5">
-        <v>19456</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,10 +1560,10 @@
         <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="5">
-        <v>6363</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,10 +1574,10 @@
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="5">
-        <v>10507</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,10 +1588,10 @@
         <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" s="5">
-        <v>5054</v>
+        <v>25876</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,10 +1602,10 @@
         <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D55" s="5">
-        <v>12924</v>
+        <v>43185</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,10 +1616,10 @@
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D56" s="5">
-        <v>43185</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,10 +1630,10 @@
         <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="5">
-        <v>4815</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,10 +1644,10 @@
         <v>111</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D58" s="5">
-        <v>4878</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,10 +1658,10 @@
         <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" s="5">
-        <v>5562</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,10 +1672,10 @@
         <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" s="5">
-        <v>14760</v>
+        <v>21432</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,10 +1686,10 @@
         <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="5">
-        <v>21432</v>
+        <v>15347</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D62" s="5">
-        <v>15347</v>
+        <v>832961</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,10 +1714,10 @@
         <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" s="5">
-        <v>832961</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,10 +1728,10 @@
         <v>111</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64" s="5">
-        <v>24714</v>
+        <v>170763</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,10 +1742,10 @@
         <v>111</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D65" s="5">
-        <v>170763</v>
+        <v>246096</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,10 +1756,10 @@
         <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66" s="5">
-        <v>246096</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,10 +1770,10 @@
         <v>111</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D67" s="5">
-        <v>9972</v>
+        <v>20614</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,10 +1784,10 @@
         <v>111</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D68" s="5">
-        <v>10525</v>
+        <v>47124</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,10 +1798,10 @@
         <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D69" s="5">
-        <v>47124</v>
+        <v>74650</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,10 +1812,10 @@
         <v>111</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D70" s="5">
-        <v>74596</v>
+        <v>184423</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,10 +1826,10 @@
         <v>111</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D71" s="5">
-        <v>184423</v>
+        <v>24552</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,10 +1840,10 @@
         <v>111</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D72" s="5">
-        <v>24552</v>
+        <v>24928</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,10 +1854,10 @@
         <v>111</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="5">
-        <v>24928</v>
+        <v>90</v>
+      </c>
+      <c r="D73" s="6">
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,10 +1868,10 @@
         <v>111</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="6">
-        <v>483</v>
+        <v>91</v>
+      </c>
+      <c r="D74" s="5">
+        <v>103511</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,10 +1882,10 @@
         <v>111</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D75" s="5">
-        <v>103511</v>
+        <v>16037</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,11 +1896,9 @@
         <v>111</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="5">
-        <v>16037</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -1908,9 +1908,11 @@
         <v>111</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="D77" s="5">
+        <v>16223</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -1920,10 +1922,10 @@
         <v>111</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D78" s="5">
-        <v>16223</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1934,7 +1936,7 @@
         <v>111</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D79" s="7"/>
     </row>
@@ -1946,7 +1948,7 @@
         <v>111</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D80" s="7"/>
     </row>
@@ -1958,9 +1960,11 @@
         <v>111</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="D81" s="5">
+        <v>13644</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -1970,10 +1974,10 @@
         <v>111</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D82" s="5">
-        <v>13644</v>
+        <v>27137</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,10 +1988,10 @@
         <v>111</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D83" s="5">
-        <v>27137</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,10 +2002,10 @@
         <v>111</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D84" s="5">
-        <v>14760</v>
+        <v>18354</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2012,10 +2016,10 @@
         <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D85" s="5">
-        <v>18354</v>
+        <v>64757</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,10 +2030,10 @@
         <v>111</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D86" s="5">
-        <v>64757</v>
+        <v>20223</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,10 +2044,10 @@
         <v>111</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D87" s="5">
-        <v>20223</v>
+        <v>24062</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,10 +2058,10 @@
         <v>111</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D88" s="5">
-        <v>24062</v>
+        <v>32848</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2068,10 +2072,10 @@
         <v>111</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D89" s="5">
-        <v>32848</v>
+        <v>10248</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2082,10 +2086,10 @@
         <v>111</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D90" s="5">
-        <v>10248</v>
+        <v>14344</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2096,10 +2100,10 @@
         <v>111</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D91" s="5">
-        <v>14344</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2110,10 +2114,10 @@
         <v>111</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D92" s="5">
-        <v>33145</v>
+        <v>28373</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,10 +2128,10 @@
         <v>111</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D93" s="5">
-        <v>28373</v>
+        <v>19684</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2138,23 +2142,23 @@
         <v>111</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="5">
-        <v>19684</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45686</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D95" s="5">
+        <v>6263</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -2164,10 +2168,10 @@
         <v>112</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" s="5">
-        <v>6823</v>
+        <v>11115</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,10 +2182,10 @@
         <v>112</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" s="5">
-        <v>11437</v>
+        <v>8673</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,10 +2196,10 @@
         <v>112</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>9527</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2206,10 +2210,10 @@
         <v>112</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" s="5">
-        <v>9714</v>
+        <v>8596</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2220,10 +2224,10 @@
         <v>112</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>11578</v>
+        <v>12026</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,10 +2238,10 @@
         <v>112</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D101" s="5">
-        <v>14266</v>
+        <v>45192</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2248,10 +2252,10 @@
         <v>112</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D102" s="5">
-        <v>45312</v>
+        <v>12104</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,13 +2266,13 @@
         <v>112</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" s="5">
-        <v>14204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13090</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45686</v>
       </c>
@@ -2276,13 +2280,13 @@
         <v>112</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="D104" s="5">
-        <v>15204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19744</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45686</v>
       </c>
@@ -2290,10 +2294,10 @@
         <v>112</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="D105" s="5">
-        <v>20128</v>
+        <v>21031</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,10 +2308,10 @@
         <v>112</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="5">
-        <v>21339</v>
+        <v>40995</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2318,10 +2322,10 @@
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" s="5">
-        <v>45195</v>
+        <v>15046</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,10 +2336,10 @@
         <v>112</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="5">
-        <v>17818</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2346,10 +2350,10 @@
         <v>112</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="5">
-        <v>8948</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,10 +2364,10 @@
         <v>112</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" s="5">
-        <v>6835</v>
+        <v>15512</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,10 +2378,10 @@
         <v>112</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" s="5">
-        <v>16856</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,10 +2392,10 @@
         <v>112</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" s="5">
-        <v>3878</v>
+        <v>37973</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,10 +2406,10 @@
         <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" s="5">
-        <v>48725</v>
+        <v>30870</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2416,10 +2420,10 @@
         <v>112</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" s="5">
-        <v>31234</v>
+        <v>21979</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,10 +2434,10 @@
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D115" s="5">
-        <v>22623</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,10 +2448,10 @@
         <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D116" s="5">
-        <v>1126</v>
+        <v>10186</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,10 +2462,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D117" s="5">
-        <v>11852</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2472,10 +2476,10 @@
         <v>112</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="5">
-        <v>12896</v>
+        <v>114</v>
+      </c>
+      <c r="D118" s="6">
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,10 +2490,10 @@
         <v>112</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D119" s="6">
-        <v>83</v>
+        <v>24</v>
+      </c>
+      <c r="D119" s="5">
+        <v>15223</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,10 +2504,10 @@
         <v>112</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D120" s="5">
-        <v>16119</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,10 +2518,10 @@
         <v>112</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D121" s="5">
-        <v>4565</v>
+        <v>10542</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,10 +2532,10 @@
         <v>112</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122" s="5">
-        <v>12950</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2542,10 +2546,10 @@
         <v>112</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="5">
-        <v>8120</v>
+        <v>66496</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,10 +2560,10 @@
         <v>112</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" s="5">
-        <v>71466</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,10 +2574,10 @@
         <v>112</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D125" s="5">
-        <v>4074</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,10 +2588,10 @@
         <v>112</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D126" s="5">
-        <v>44281</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,10 +2602,10 @@
         <v>112</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D127" s="5">
-        <v>7150</v>
+        <v>24542</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2612,10 +2616,10 @@
         <v>112</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D128" s="5">
-        <v>25676</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2626,10 +2630,10 @@
         <v>112</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D129" s="5">
-        <v>5876</v>
+        <v>11335</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2640,10 +2644,10 @@
         <v>112</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" s="5">
-        <v>11335</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2654,10 +2658,10 @@
         <v>112</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D131" s="5">
-        <v>9165</v>
+        <v>12754</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2668,10 +2672,10 @@
         <v>112</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D132" s="5">
-        <v>14196</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,10 +2686,10 @@
         <v>112</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D133" s="5">
-        <v>8461</v>
+        <v>621773</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2696,10 +2700,10 @@
         <v>112</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D134" s="5">
-        <v>623278</v>
+        <v>604063</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2710,10 +2714,10 @@
         <v>112</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D135" s="5">
-        <v>606271</v>
+        <v>97350</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2724,10 +2728,10 @@
         <v>112</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D136" s="5">
-        <v>98150</v>
+        <v>59657</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2738,10 +2742,10 @@
         <v>112</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D137" s="5">
-        <v>60497</v>
+        <v>14419</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2752,10 +2756,10 @@
         <v>112</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D138" s="5">
-        <v>15077</v>
+        <v>9789</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2766,13 +2770,13 @@
         <v>112</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D139" s="5">
-        <v>12757</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>45686</v>
       </c>
@@ -2780,10 +2784,10 @@
         <v>112</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D140" s="5">
-        <v>36886</v>
+        <v>41</v>
+      </c>
+      <c r="D140" s="6">
+        <v>910</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2794,13 +2798,13 @@
         <v>112</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D141" s="6">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45686</v>
       </c>
@@ -2808,10 +2812,10 @@
         <v>112</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D142" s="6">
-        <v>600</v>
+        <v>43</v>
+      </c>
+      <c r="D142" s="5">
+        <v>3070</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2822,10 +2826,10 @@
         <v>112</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D143" s="5">
-        <v>3070</v>
+        <v>44</v>
+      </c>
+      <c r="D143" s="6">
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2836,10 +2840,10 @@
         <v>112</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D144" s="6">
-        <v>90</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2850,10 +2854,10 @@
         <v>112</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D145" s="6">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="D145" s="5">
+        <v>2106</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2864,10 +2868,10 @@
         <v>112</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D146" s="5">
-        <v>2160</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2878,10 +2882,10 @@
         <v>112</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D147" s="5">
-        <v>1350</v>
+        <v>48</v>
+      </c>
+      <c r="D147" s="6">
+        <v>756</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,10 +2896,10 @@
         <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="6">
-        <v>918</v>
+        <v>49</v>
+      </c>
+      <c r="D148" s="5">
+        <v>1602</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,10 +2910,10 @@
         <v>112</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D149" s="5">
-        <v>1602</v>
+        <v>50</v>
+      </c>
+      <c r="D149" s="6">
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2920,10 +2924,10 @@
         <v>112</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D150" s="6">
-        <v>252</v>
+        <v>51</v>
+      </c>
+      <c r="D150" s="5">
+        <v>3212</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2934,10 +2938,10 @@
         <v>112</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D151" s="5">
-        <v>3302</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2948,10 +2952,10 @@
         <v>112</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D152" s="5">
-        <v>2964</v>
+        <v>53</v>
+      </c>
+      <c r="D152" s="6">
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,10 +2966,10 @@
         <v>112</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D153" s="6">
-        <v>740</v>
+        <v>54</v>
+      </c>
+      <c r="D153" s="5">
+        <v>6642</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2976,10 +2980,10 @@
         <v>112</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D154" s="6">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="D154" s="5">
+        <v>42213</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,10 +2994,10 @@
         <v>112</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D155" s="5">
-        <v>47649</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,10 +3008,10 @@
         <v>112</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D156" s="5">
-        <v>4892</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,10 +3022,10 @@
         <v>112</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D157" s="5">
-        <v>5697</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3032,10 +3036,10 @@
         <v>112</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="D158" s="5">
-        <v>3480</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3046,10 +3050,10 @@
         <v>112</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D159" s="5">
-        <v>2740</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3060,10 +3064,10 @@
         <v>112</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1350</v>
+        <v>60</v>
+      </c>
+      <c r="D160" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3074,10 +3078,10 @@
         <v>112</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D161" s="6">
-        <v>630</v>
+        <v>61</v>
+      </c>
+      <c r="D161" s="5">
+        <v>2863</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,10 +3092,10 @@
         <v>112</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D162" s="5">
-        <v>4375</v>
+        <v>16794</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,10 +3106,10 @@
         <v>112</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D163" s="5">
-        <v>17892</v>
+        <v>19423</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,10 +3120,10 @@
         <v>112</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D164" s="5">
-        <v>21853</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,10 +3134,10 @@
         <v>112</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D165" s="5">
-        <v>4093</v>
+        <v>26884</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3144,10 +3148,10 @@
         <v>112</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D166" s="5">
-        <v>29944</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3158,10 +3162,10 @@
         <v>112</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D167" s="5">
-        <v>2531</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3172,10 +3176,10 @@
         <v>112</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D168" s="5">
-        <v>5463</v>
+        <v>68</v>
+      </c>
+      <c r="D168" s="6">
+        <v>893</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3186,10 +3190,10 @@
         <v>112</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D169" s="5">
-        <v>1559</v>
+        <v>46506</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3200,10 +3204,10 @@
         <v>112</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D170" s="5">
-        <v>48054</v>
+        <v>12348</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3214,10 +3218,10 @@
         <v>112</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D171" s="5">
-        <v>14076</v>
+        <v>11736</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3228,10 +3232,10 @@
         <v>112</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D172" s="5">
-        <v>16740</v>
+        <v>32151</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3242,11 +3246,9 @@
         <v>112</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D173" s="5">
-        <v>33969</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
@@ -3256,9 +3258,11 @@
         <v>112</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D174" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D174" s="5">
+        <v>5011</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
@@ -3268,10 +3272,10 @@
         <v>112</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D175" s="5">
-        <v>5353</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3282,10 +3286,10 @@
         <v>112</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D176" s="5">
-        <v>1676</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3296,10 +3300,10 @@
         <v>112</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D177" s="5">
-        <v>8564</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3310,10 +3314,10 @@
         <v>112</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D178" s="5">
-        <v>16528</v>
+        <v>20070</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3324,10 +3328,10 @@
         <v>112</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D179" s="5">
-        <v>22338</v>
+        <v>392262</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,10 +3342,10 @@
         <v>112</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D180" s="5">
-        <v>424914</v>
+        <v>18324</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,10 +3356,10 @@
         <v>112</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D181" s="5">
-        <v>20592</v>
+        <v>18034</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3366,10 +3370,10 @@
         <v>112</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D182" s="5">
-        <v>27394</v>
+        <v>282834</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3380,10 +3384,10 @@
         <v>112</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D183" s="5">
-        <v>282834</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3394,10 +3398,10 @@
         <v>112</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D184" s="5">
-        <v>12366</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3408,10 +3412,10 @@
         <v>112</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D185" s="5">
-        <v>7938</v>
+        <v>29196</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,10 +3426,10 @@
         <v>112</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D186" s="5">
-        <v>32976</v>
+        <v>31772</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3436,10 +3440,10 @@
         <v>112</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D187" s="5">
-        <v>36848</v>
+        <v>21858</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,10 +3454,10 @@
         <v>112</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D188" s="5">
-        <v>28680</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3464,10 +3468,10 @@
         <v>112</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D189" s="5">
-        <v>12539</v>
+        <v>36774</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3478,10 +3482,10 @@
         <v>112</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D190" s="5">
-        <v>39564</v>
+        <v>24372</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,10 +3496,10 @@
         <v>112</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D191" s="5">
-        <v>26136</v>
+        <v>23262</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,10 +3510,10 @@
         <v>112</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D192" s="5">
-        <v>25782</v>
+        <v>16060</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3520,10 +3524,10 @@
         <v>112</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D193" s="5">
-        <v>18112</v>
+        <v>10411</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,10 +3538,10 @@
         <v>112</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D194" s="5">
-        <v>13057</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3548,10 +3552,10 @@
         <v>112</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D195" s="5">
-        <v>4647</v>
+        <v>95</v>
+      </c>
+      <c r="D195" s="6">
+        <v>975</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3562,10 +3566,10 @@
         <v>112</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D196" s="5">
-        <v>1865</v>
+        <v>12475</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3576,10 +3580,10 @@
         <v>112</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D197" s="5">
-        <v>13825</v>
+        <v>26982</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,10 +3594,10 @@
         <v>112</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D198" s="5">
-        <v>28710</v>
+        <v>17169</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,10 +3608,10 @@
         <v>112</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D199" s="5">
-        <v>18825</v>
+        <v>11794</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3618,10 +3622,10 @@
         <v>112</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D200" s="5">
-        <v>13018</v>
+        <v>57168</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3632,10 +3636,10 @@
         <v>112</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D201" s="5">
-        <v>58176</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3646,10 +3650,10 @@
         <v>112</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D202" s="5">
-        <v>20970</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3660,10 +3664,10 @@
         <v>112</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D203" s="5">
-        <v>10512</v>
+        <v>12290</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3674,10 +3678,10 @@
         <v>112</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D204" s="5">
-        <v>15412</v>
+        <v>9318</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3688,10 +3692,10 @@
         <v>112</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D205" s="5">
-        <v>9822</v>
+        <v>10613</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,10 +3706,10 @@
         <v>112</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D206" s="5">
-        <v>11719</v>
+        <v>21882</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3716,10 +3720,10 @@
         <v>112</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D207" s="5">
-        <v>22456</v>
+        <v>13908</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3730,10 +3734,10 @@
         <v>112</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D208" s="5">
-        <v>15504</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3744,25 +3748,17 @@
         <v>112</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D209" s="5">
-        <v>9894</v>
+        <v>16534</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>45686</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D210" s="5">
-        <v>16884</v>
-      </c>
+      <c r="A210" s="2"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -837,7 +837,7 @@
   <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>111</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>111</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>111</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>111</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>111</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>111</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>111</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>111</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>111</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>111</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>111</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>111</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>111</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>111</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>111</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>111</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>111</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>111</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>111</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>111</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>111</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>111</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>111</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>111</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>111</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>111</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>111</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>111</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>111</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>111</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>111</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>111</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>111</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>111</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>111</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>111</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>111</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>111</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>111</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>111</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>111</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>111</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>111</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>111</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>111</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>111</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>111</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>111</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>111</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>111</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>111</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>111</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>111</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>111</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>111</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>111</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>111</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>111</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>111</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>111</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>111</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>111</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>111</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>111</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>111</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>111</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>111</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>111</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>111</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>111</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>111</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>111</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>111</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>111</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>111</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>111</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>111</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>111</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>111</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>111</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>111</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>111</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>111</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>111</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>111</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>111</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>111</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>111</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>111</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>112</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>112</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>112</v>
@@ -2185,12 +2185,12 @@
         <v>5</v>
       </c>
       <c r="D97" s="5">
-        <v>8673</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>112</v>
@@ -2199,12 +2199,12 @@
         <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>7796</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>112</v>
@@ -2213,12 +2213,12 @@
         <v>7</v>
       </c>
       <c r="D99" s="5">
-        <v>8596</v>
+        <v>8652</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>112</v>
@@ -2227,12 +2227,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>12026</v>
+        <v>11942</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>112</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>112</v>
@@ -2255,12 +2255,12 @@
         <v>9</v>
       </c>
       <c r="D102" s="5">
-        <v>12104</v>
+        <v>11936</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>112</v>
@@ -2269,12 +2269,12 @@
         <v>10</v>
       </c>
       <c r="D103" s="5">
-        <v>13090</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>112</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>112</v>
@@ -2297,12 +2297,12 @@
         <v>11</v>
       </c>
       <c r="D105" s="5">
-        <v>21031</v>
+        <v>21143</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>112</v>
@@ -2311,12 +2311,12 @@
         <v>12</v>
       </c>
       <c r="D106" s="5">
-        <v>40995</v>
+        <v>40757</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>112</v>
@@ -2325,12 +2325,12 @@
         <v>13</v>
       </c>
       <c r="D107" s="5">
-        <v>15046</v>
+        <v>14268</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>112</v>
@@ -2339,12 +2339,12 @@
         <v>14</v>
       </c>
       <c r="D108" s="5">
-        <v>6512</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>112</v>
@@ -2353,12 +2353,12 @@
         <v>15</v>
       </c>
       <c r="D109" s="5">
-        <v>6456</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>112</v>
@@ -2367,12 +2367,12 @@
         <v>16</v>
       </c>
       <c r="D110" s="5">
-        <v>15512</v>
+        <v>15218</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>112</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>112</v>
@@ -2395,12 +2395,12 @@
         <v>18</v>
       </c>
       <c r="D112" s="5">
-        <v>37973</v>
+        <v>37385</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>112</v>
@@ -2409,12 +2409,12 @@
         <v>19</v>
       </c>
       <c r="D113" s="5">
-        <v>30870</v>
+        <v>30716</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>112</v>
@@ -2423,12 +2423,12 @@
         <v>20</v>
       </c>
       <c r="D114" s="5">
-        <v>21979</v>
+        <v>21615</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>112</v>
@@ -2437,12 +2437,12 @@
         <v>21</v>
       </c>
       <c r="D115" s="5">
-        <v>10674</v>
+        <v>10730</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>112</v>
@@ -2451,12 +2451,12 @@
         <v>22</v>
       </c>
       <c r="D116" s="5">
-        <v>10186</v>
+        <v>10242</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>112</v>
@@ -2465,12 +2465,12 @@
         <v>23</v>
       </c>
       <c r="D117" s="5">
-        <v>10698</v>
+        <v>10418</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>112</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>112</v>
@@ -2493,12 +2493,12 @@
         <v>24</v>
       </c>
       <c r="D119" s="5">
-        <v>15223</v>
+        <v>15377</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>112</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>112</v>
@@ -2521,12 +2521,12 @@
         <v>26</v>
       </c>
       <c r="D121" s="5">
-        <v>10542</v>
+        <v>10276</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>112</v>
@@ -2535,12 +2535,12 @@
         <v>27</v>
       </c>
       <c r="D122" s="5">
-        <v>7000</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>112</v>
@@ -2549,12 +2549,12 @@
         <v>28</v>
       </c>
       <c r="D123" s="5">
-        <v>66496</v>
+        <v>66468</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>112</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>112</v>
@@ -2577,12 +2577,12 @@
         <v>30</v>
       </c>
       <c r="D125" s="5">
-        <v>44183</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>112</v>
@@ -2591,12 +2591,12 @@
         <v>31</v>
       </c>
       <c r="D126" s="5">
-        <v>6730</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>112</v>
@@ -2605,12 +2605,12 @@
         <v>32</v>
       </c>
       <c r="D127" s="5">
-        <v>24542</v>
+        <v>24598</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>112</v>
@@ -2619,12 +2619,12 @@
         <v>33</v>
       </c>
       <c r="D128" s="5">
-        <v>5876</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>112</v>
@@ -2633,12 +2633,12 @@
         <v>34</v>
       </c>
       <c r="D129" s="5">
-        <v>11335</v>
+        <v>11307</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>112</v>
@@ -2647,12 +2647,12 @@
         <v>35</v>
       </c>
       <c r="D130" s="5">
-        <v>8003</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>112</v>
@@ -2661,12 +2661,12 @@
         <v>36</v>
       </c>
       <c r="D131" s="5">
-        <v>12754</v>
+        <v>12534</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>112</v>
@@ -2675,12 +2675,12 @@
         <v>37</v>
       </c>
       <c r="D132" s="5">
-        <v>6277</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>112</v>
@@ -2689,12 +2689,12 @@
         <v>115</v>
       </c>
       <c r="D133" s="5">
-        <v>621773</v>
+        <v>621143</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>112</v>
@@ -2703,12 +2703,12 @@
         <v>116</v>
       </c>
       <c r="D134" s="5">
-        <v>604063</v>
+        <v>603007</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>112</v>
@@ -2717,12 +2717,12 @@
         <v>117</v>
       </c>
       <c r="D135" s="5">
-        <v>97350</v>
+        <v>97430</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>112</v>
@@ -2731,12 +2731,12 @@
         <v>118</v>
       </c>
       <c r="D136" s="5">
-        <v>59657</v>
+        <v>59552</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>112</v>
@@ -2745,12 +2745,12 @@
         <v>38</v>
       </c>
       <c r="D137" s="5">
-        <v>14419</v>
+        <v>14503</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>112</v>
@@ -2759,12 +2759,12 @@
         <v>39</v>
       </c>
       <c r="D138" s="5">
-        <v>9789</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>112</v>
@@ -2773,12 +2773,12 @@
         <v>40</v>
       </c>
       <c r="D139" s="5">
-        <v>36158</v>
+        <v>36200</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>112</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>112</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>112</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>112</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>112</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>112</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>112</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>112</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>112</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>112</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>112</v>
@@ -2927,12 +2927,12 @@
         <v>51</v>
       </c>
       <c r="D150" s="5">
-        <v>3212</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>112</v>
@@ -2941,12 +2941,12 @@
         <v>52</v>
       </c>
       <c r="D151" s="5">
-        <v>2568</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>112</v>
@@ -2955,12 +2955,12 @@
         <v>53</v>
       </c>
       <c r="D152" s="6">
-        <v>344</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>112</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>112</v>
@@ -2983,12 +2983,12 @@
         <v>55</v>
       </c>
       <c r="D154" s="5">
-        <v>42213</v>
+        <v>41763</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>112</v>
@@ -2997,12 +2997,12 @@
         <v>56</v>
       </c>
       <c r="D155" s="5">
-        <v>3506</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>112</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>112</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>112</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>112</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>112</v>
@@ -3067,12 +3067,12 @@
         <v>60</v>
       </c>
       <c r="D160" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>112</v>
@@ -3081,12 +3081,12 @@
         <v>61</v>
       </c>
       <c r="D161" s="5">
-        <v>2863</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>112</v>
@@ -3095,12 +3095,12 @@
         <v>62</v>
       </c>
       <c r="D162" s="5">
-        <v>16794</v>
+        <v>16704</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>112</v>
@@ -3109,12 +3109,12 @@
         <v>63</v>
       </c>
       <c r="D163" s="5">
-        <v>19423</v>
+        <v>19351</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>112</v>
@@ -3123,12 +3123,12 @@
         <v>64</v>
       </c>
       <c r="D164" s="5">
-        <v>3787</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>112</v>
@@ -3137,12 +3137,12 @@
         <v>65</v>
       </c>
       <c r="D165" s="5">
-        <v>26884</v>
+        <v>25984</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>112</v>
@@ -3151,12 +3151,12 @@
         <v>66</v>
       </c>
       <c r="D166" s="5">
-        <v>1613</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>112</v>
@@ -3165,12 +3165,12 @@
         <v>67</v>
       </c>
       <c r="D167" s="5">
-        <v>5013</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>112</v>
@@ -3179,12 +3179,12 @@
         <v>68</v>
       </c>
       <c r="D168" s="6">
-        <v>893</v>
+        <v>875</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>112</v>
@@ -3193,12 +3193,12 @@
         <v>69</v>
       </c>
       <c r="D169" s="5">
-        <v>46506</v>
+        <v>46110</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>112</v>
@@ -3207,12 +3207,12 @@
         <v>70</v>
       </c>
       <c r="D170" s="5">
-        <v>12348</v>
+        <v>11952</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>112</v>
@@ -3221,12 +3221,12 @@
         <v>71</v>
       </c>
       <c r="D171" s="5">
-        <v>11736</v>
+        <v>11484</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>112</v>
@@ -3235,12 +3235,12 @@
         <v>72</v>
       </c>
       <c r="D172" s="5">
-        <v>32151</v>
+        <v>31575</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>112</v>
@@ -3248,11 +3248,13 @@
       <c r="C173" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="6">
+        <v>11</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>112</v>
@@ -3261,12 +3263,12 @@
         <v>74</v>
       </c>
       <c r="D174" s="5">
-        <v>5011</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>112</v>
@@ -3275,12 +3277,12 @@
         <v>75</v>
       </c>
       <c r="D175" s="5">
-        <v>1298</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>112</v>
@@ -3289,12 +3291,12 @@
         <v>76</v>
       </c>
       <c r="D176" s="5">
-        <v>7682</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>112</v>
@@ -3303,12 +3305,12 @@
         <v>77</v>
       </c>
       <c r="D177" s="5">
-        <v>1588</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>112</v>
@@ -3317,12 +3319,12 @@
         <v>78</v>
       </c>
       <c r="D178" s="5">
-        <v>20070</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>112</v>
@@ -3331,12 +3333,12 @@
         <v>79</v>
       </c>
       <c r="D179" s="5">
-        <v>392262</v>
+        <v>394170</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>112</v>
@@ -3345,12 +3347,12 @@
         <v>80</v>
       </c>
       <c r="D180" s="5">
-        <v>18324</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>112</v>
@@ -3359,12 +3361,12 @@
         <v>81</v>
       </c>
       <c r="D181" s="5">
-        <v>18034</v>
+        <v>17654</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>112</v>
@@ -3378,7 +3380,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>112</v>
@@ -3387,12 +3389,12 @@
         <v>83</v>
       </c>
       <c r="D183" s="5">
-        <v>10926</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>112</v>
@@ -3401,12 +3403,12 @@
         <v>84</v>
       </c>
       <c r="D184" s="5">
-        <v>6858</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>112</v>
@@ -3415,12 +3417,12 @@
         <v>85</v>
       </c>
       <c r="D185" s="5">
-        <v>29196</v>
+        <v>28458</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>112</v>
@@ -3429,12 +3431,12 @@
         <v>86</v>
       </c>
       <c r="D186" s="5">
-        <v>31772</v>
+        <v>31466</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>112</v>
@@ -3443,12 +3445,12 @@
         <v>87</v>
       </c>
       <c r="D187" s="5">
-        <v>21858</v>
+        <v>20328</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>112</v>
@@ -3457,12 +3459,12 @@
         <v>88</v>
       </c>
       <c r="D188" s="5">
-        <v>10055</v>
+        <v>9389</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>112</v>
@@ -3471,12 +3473,12 @@
         <v>89</v>
       </c>
       <c r="D189" s="5">
-        <v>36774</v>
+        <v>35694</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>112</v>
@@ -3485,12 +3487,12 @@
         <v>90</v>
       </c>
       <c r="D190" s="5">
-        <v>24372</v>
+        <v>24138</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>112</v>
@@ -3499,12 +3501,12 @@
         <v>91</v>
       </c>
       <c r="D191" s="5">
-        <v>23262</v>
+        <v>23352</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>112</v>
@@ -3513,12 +3515,12 @@
         <v>92</v>
       </c>
       <c r="D192" s="5">
-        <v>16060</v>
+        <v>16222</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>112</v>
@@ -3527,12 +3529,12 @@
         <v>93</v>
       </c>
       <c r="D193" s="5">
-        <v>10411</v>
+        <v>10285</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>112</v>
@@ -3541,12 +3543,12 @@
         <v>94</v>
       </c>
       <c r="D194" s="5">
-        <v>4647</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>112</v>
@@ -3554,13 +3556,13 @@
       <c r="C195" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D195" s="6">
-        <v>975</v>
+      <c r="D195" s="5">
+        <v>1035</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>112</v>
@@ -3569,12 +3571,12 @@
         <v>96</v>
       </c>
       <c r="D196" s="5">
-        <v>12475</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>112</v>
@@ -3583,12 +3585,12 @@
         <v>97</v>
       </c>
       <c r="D197" s="5">
-        <v>26982</v>
+        <v>26820</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>112</v>
@@ -3597,12 +3599,12 @@
         <v>98</v>
       </c>
       <c r="D198" s="5">
-        <v>17169</v>
+        <v>16935</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>112</v>
@@ -3611,12 +3613,12 @@
         <v>99</v>
       </c>
       <c r="D199" s="5">
-        <v>11794</v>
+        <v>11938</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>112</v>
@@ -3625,12 +3627,12 @@
         <v>100</v>
       </c>
       <c r="D200" s="5">
-        <v>57168</v>
+        <v>56970</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>112</v>
@@ -3639,12 +3641,12 @@
         <v>101</v>
       </c>
       <c r="D201" s="5">
-        <v>19476</v>
+        <v>19530</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>112</v>
@@ -3653,12 +3655,12 @@
         <v>102</v>
       </c>
       <c r="D202" s="5">
-        <v>8944</v>
+        <v>9084</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>112</v>
@@ -3667,12 +3669,12 @@
         <v>103</v>
       </c>
       <c r="D203" s="5">
-        <v>12290</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>112</v>
@@ -3681,12 +3683,12 @@
         <v>104</v>
       </c>
       <c r="D204" s="5">
-        <v>9318</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>112</v>
@@ -3695,12 +3697,12 @@
         <v>105</v>
       </c>
       <c r="D205" s="5">
-        <v>10613</v>
+        <v>10543</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>112</v>
@@ -3709,12 +3711,12 @@
         <v>106</v>
       </c>
       <c r="D206" s="5">
-        <v>21882</v>
+        <v>21868</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>112</v>
@@ -3723,12 +3725,12 @@
         <v>107</v>
       </c>
       <c r="D207" s="5">
-        <v>13908</v>
+        <v>14034</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>112</v>
@@ -3737,12 +3739,12 @@
         <v>108</v>
       </c>
       <c r="D208" s="5">
-        <v>8666</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>112</v>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="127">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -837,7 +837,7 @@
   <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A209"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>111</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>111</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>111</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>111</v>
@@ -941,12 +941,12 @@
         <v>8</v>
       </c>
       <c r="D7" s="5">
-        <v>10094</v>
+        <v>20538</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>111</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>111</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>111</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>111</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>111</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>111</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>111</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>111</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>111</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>111</v>
@@ -1078,11 +1078,13 @@
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="5">
+        <v>14812</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>111</v>
@@ -1096,7 +1098,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>111</v>
@@ -1110,7 +1112,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>111</v>
@@ -1124,7 +1126,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>111</v>
@@ -1138,7 +1140,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>111</v>
@@ -1152,7 +1154,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>111</v>
@@ -1166,7 +1168,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>111</v>
@@ -1180,7 +1182,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>111</v>
@@ -1194,7 +1196,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
@@ -1208,7 +1210,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>111</v>
@@ -1222,7 +1224,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>111</v>
@@ -1236,7 +1238,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>111</v>
@@ -1250,7 +1252,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>111</v>
@@ -1264,7 +1266,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>111</v>
@@ -1278,7 +1280,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -1290,7 +1292,7 @@
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>111</v>
@@ -1304,7 +1306,7 @@
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>111</v>
@@ -1318,7 +1320,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>111</v>
@@ -1326,11 +1328,13 @@
       <c r="C35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="5">
+        <v>14400</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>111</v>
@@ -1344,7 +1348,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>111</v>
@@ -1358,7 +1362,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>111</v>
@@ -1367,12 +1371,12 @@
         <v>48</v>
       </c>
       <c r="D38" s="5">
-        <v>1755</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>111</v>
@@ -1381,12 +1385,12 @@
         <v>50</v>
       </c>
       <c r="D39" s="5">
-        <v>2412</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>111</v>
@@ -1400,7 +1404,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>111</v>
@@ -1414,7 +1418,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>111</v>
@@ -1428,7 +1432,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>111</v>
@@ -1442,7 +1446,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>111</v>
@@ -1456,7 +1460,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>111</v>
@@ -1470,7 +1474,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>111</v>
@@ -1484,7 +1488,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>111</v>
@@ -1498,7 +1502,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>111</v>
@@ -1512,7 +1516,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>111</v>
@@ -1526,7 +1530,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>111</v>
@@ -1540,7 +1544,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>111</v>
@@ -1554,7 +1558,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>111</v>
@@ -1568,7 +1572,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>111</v>
@@ -1582,7 +1586,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>111</v>
@@ -1596,7 +1600,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>111</v>
@@ -1605,236 +1609,232 @@
         <v>71</v>
       </c>
       <c r="D55" s="5">
-        <v>43185</v>
+        <v>24177</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4815</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57" s="5">
-        <v>4878</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="5">
-        <v>5562</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="5">
-        <v>14760</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="5">
-        <v>21432</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="5">
-        <v>15347</v>
+        <v>20141</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="5">
-        <v>832961</v>
+        <v>15347</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="5">
-        <v>24714</v>
+        <v>832961</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="5">
-        <v>170763</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="5">
-        <v>246096</v>
+        <v>170763</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="5">
-        <v>9972</v>
+        <v>246096</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="5">
-        <v>20614</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D68" s="5">
-        <v>47124</v>
+        <v>20614</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="5">
-        <v>74650</v>
+        <v>47124</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="5">
-        <v>184423</v>
+        <v>74650</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="5">
-        <v>24552</v>
+        <v>184423</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>111</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>111</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>111</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>111</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>111</v>
@@ -1898,11 +1898,13 @@
       <c r="C76" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="5">
+        <v>16863</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>111</v>
@@ -1916,7 +1918,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>111</v>
@@ -1930,7 +1932,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>111</v>
@@ -1942,7 +1944,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>111</v>
@@ -1950,11 +1952,13 @@
       <c r="C80" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="D80" s="5">
+        <v>10134</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>111</v>
@@ -1963,12 +1967,12 @@
         <v>96</v>
       </c>
       <c r="D81" s="5">
-        <v>13644</v>
+        <v>25069</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>111</v>
@@ -1982,7 +1986,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>111</v>
@@ -1991,12 +1995,12 @@
         <v>98</v>
       </c>
       <c r="D83" s="5">
-        <v>14760</v>
+        <v>40842</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>111</v>
@@ -2010,7 +2014,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>111</v>
@@ -2024,7 +2028,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>111</v>
@@ -2038,7 +2042,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>111</v>
@@ -2052,7 +2056,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>111</v>
@@ -2066,7 +2070,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>111</v>
@@ -2080,7 +2084,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>111</v>
@@ -2094,7 +2098,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>111</v>
@@ -2108,7 +2112,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>111</v>
@@ -2122,1639 +2126,1633 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D93" s="5">
-        <v>19684</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D94" s="5">
+        <v>6221</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" s="5">
-        <v>6263</v>
+        <v>11115</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" s="5">
-        <v>11115</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97" s="5">
-        <v>8645</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D98" s="5">
-        <v>7642</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D99" s="5">
-        <v>8652</v>
+        <v>12670</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D100" s="5">
-        <v>11942</v>
+        <v>45192</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D101" s="5">
-        <v>45192</v>
+        <v>12062</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" s="5">
-        <v>11936</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13566</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="D103" s="5">
-        <v>12852</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19744</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="D104" s="5">
-        <v>19744</v>
+        <v>21129</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="5">
-        <v>21143</v>
+        <v>41107</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D106" s="5">
-        <v>40757</v>
+        <v>13940</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" s="5">
-        <v>14268</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" s="5">
-        <v>6484</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D109" s="5">
-        <v>6162</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" s="5">
-        <v>15218</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111" s="5">
-        <v>3374</v>
+        <v>38337</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" s="5">
-        <v>37385</v>
+        <v>30856</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113" s="5">
-        <v>30716</v>
+        <v>21965</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D114" s="5">
-        <v>21615</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D115" s="5">
-        <v>10730</v>
+        <v>10242</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D116" s="5">
-        <v>10242</v>
+        <v>11286</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D117" s="5">
-        <v>10418</v>
+        <v>114</v>
+      </c>
+      <c r="D117" s="6">
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D118" s="6">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D118" s="5">
+        <v>15181</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D119" s="5">
-        <v>15377</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D120" s="5">
-        <v>3235</v>
+        <v>9982</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D121" s="5">
-        <v>10276</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="5">
-        <v>6846</v>
+        <v>72082</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" s="5">
-        <v>66468</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D124" s="5">
-        <v>4074</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D125" s="5">
-        <v>44113</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" s="5">
-        <v>6492</v>
+        <v>24598</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D127" s="5">
-        <v>24598</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D128" s="5">
-        <v>5736</v>
+        <v>11307</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" s="5">
-        <v>11307</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D130" s="5">
-        <v>7513</v>
+        <v>12614</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D131" s="5">
-        <v>12534</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D132" s="5">
-        <v>6291</v>
+        <v>621248</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D133" s="5">
-        <v>621143</v>
+        <v>602719</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D134" s="5">
-        <v>603007</v>
+        <v>97510</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D135" s="5">
-        <v>97430</v>
+        <v>59552</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D136" s="5">
-        <v>59552</v>
+        <v>14587</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D137" s="5">
-        <v>14503</v>
+        <v>9915</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D138" s="5">
-        <v>9775</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D139" s="5">
-        <v>36200</v>
+        <v>41</v>
+      </c>
+      <c r="D139" s="6">
+        <v>910</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D140" s="6">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D141" s="6">
-        <v>540</v>
+        <v>43</v>
+      </c>
+      <c r="D141" s="5">
+        <v>3070</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" s="5">
-        <v>3070</v>
+        <v>44</v>
+      </c>
+      <c r="D142" s="6">
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D143" s="6">
-        <v>90</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D144" s="6">
-        <v>234</v>
+        <v>46</v>
+      </c>
+      <c r="D144" s="5">
+        <v>2106</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D145" s="5">
-        <v>2106</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D146" s="5">
-        <v>1278</v>
+        <v>48</v>
+      </c>
+      <c r="D146" s="6">
+        <v>756</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D147" s="6">
-        <v>756</v>
+        <v>49</v>
+      </c>
+      <c r="D147" s="5">
+        <v>1602</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D148" s="5">
-        <v>1602</v>
+        <v>50</v>
+      </c>
+      <c r="D148" s="6">
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D149" s="6">
-        <v>90</v>
+        <v>51</v>
+      </c>
+      <c r="D149" s="5">
+        <v>3104</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D150" s="5">
-        <v>3104</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D151" s="5">
-        <v>2640</v>
+        <v>53</v>
+      </c>
+      <c r="D151" s="6">
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D152" s="6">
-        <v>362</v>
+        <v>54</v>
+      </c>
+      <c r="D152" s="5">
+        <v>6570</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D153" s="5">
-        <v>6642</v>
+        <v>43131</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D154" s="5">
-        <v>41763</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D155" s="5">
-        <v>3560</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D156" s="5">
-        <v>5589</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="D157" s="5">
-        <v>3270</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D158" s="5">
-        <v>2740</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="5">
-        <v>1320</v>
+        <v>60</v>
+      </c>
+      <c r="D159" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D160" s="6">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="D160" s="5">
+        <v>2881</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D161" s="5">
-        <v>3001</v>
+        <v>16488</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D162" s="5">
-        <v>16704</v>
+        <v>19279</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D163" s="5">
-        <v>19351</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D164" s="5">
-        <v>3733</v>
+        <v>26110</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D165" s="5">
-        <v>25984</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D166" s="5">
-        <v>1703</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D167" s="5">
-        <v>4869</v>
+        <v>68</v>
+      </c>
+      <c r="D167" s="6">
+        <v>857</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D168" s="6">
-        <v>875</v>
+        <v>69</v>
+      </c>
+      <c r="D168" s="5">
+        <v>46902</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D169" s="5">
-        <v>46110</v>
+        <v>13212</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D170" s="5">
-        <v>11952</v>
+        <v>31014</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D171" s="5">
-        <v>11484</v>
+        <v>33267</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D172" s="5">
-        <v>31575</v>
+        <v>73</v>
+      </c>
+      <c r="D172" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D173" s="6">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="D173" s="5">
+        <v>4831</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D174" s="5">
-        <v>4921</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D175" s="5">
-        <v>1136</v>
+        <v>22028</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D176" s="5">
-        <v>7358</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D177" s="5">
-        <v>1228</v>
+        <v>20250</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D178" s="5">
-        <v>20160</v>
+        <v>378798</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D179" s="5">
-        <v>394170</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D180" s="5">
-        <v>18450</v>
+        <v>11698</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D181" s="5">
-        <v>17654</v>
+        <v>284634</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D182" s="5">
-        <v>282834</v>
+        <v>10872</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D183" s="5">
-        <v>10980</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D184" s="5">
-        <v>6948</v>
+        <v>29772</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D185" s="5">
-        <v>28458</v>
+        <v>32240</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D186" s="5">
-        <v>31466</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D187" s="5">
-        <v>20328</v>
+        <v>34193</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D188" s="5">
-        <v>9389</v>
+        <v>36594</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D189" s="5">
-        <v>35694</v>
+        <v>23886</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D190" s="5">
-        <v>24138</v>
+        <v>23118</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D191" s="5">
-        <v>23352</v>
+        <v>16096</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D192" s="5">
-        <v>16222</v>
+        <v>11113</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D193" s="5">
-        <v>10285</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D194" s="5">
-        <v>4629</v>
+        <v>95</v>
+      </c>
+      <c r="D194" s="6">
+        <v>955</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D195" s="5">
-        <v>1035</v>
+        <v>12043</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D196" s="5">
-        <v>12349</v>
+        <v>28440</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D197" s="5">
-        <v>26820</v>
+        <v>17241</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D198" s="5">
-        <v>16935</v>
+        <v>12838</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D199" s="5">
-        <v>11938</v>
+        <v>57546</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D200" s="5">
-        <v>56970</v>
+        <v>18918</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D201" s="5">
-        <v>19530</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D202" s="5">
-        <v>9084</v>
+        <v>12892</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D203" s="5">
-        <v>11730</v>
+        <v>9570</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D204" s="5">
-        <v>9206</v>
+        <v>11831</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D205" s="5">
-        <v>10543</v>
+        <v>22036</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D206" s="5">
-        <v>21868</v>
+        <v>15280</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D207" s="5">
-        <v>14034</v>
+        <v>28350</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D208" s="5">
-        <v>8526</v>
+        <v>16534</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>45687</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D209" s="5">
-        <v>16534</v>
-      </c>
+      <c r="A209" s="2"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -837,7 +837,7 @@
   <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>111</v>
@@ -872,11 +872,13 @@
       <c r="C2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5">
+        <v>10038</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>111</v>
@@ -890,7 +892,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
@@ -904,7 +906,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>111</v>
@@ -918,7 +920,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>111</v>
@@ -932,7 +934,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>111</v>
@@ -946,7 +948,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>111</v>
@@ -960,7 +962,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>111</v>
@@ -968,11 +970,13 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="5">
+        <v>13153</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>111</v>
@@ -986,7 +990,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>111</v>
@@ -1000,7 +1004,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>111</v>
@@ -1014,7 +1018,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>111</v>
@@ -1028,7 +1032,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>111</v>
@@ -1042,7 +1046,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>111</v>
@@ -1056,7 +1060,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>111</v>
@@ -1070,7 +1074,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>111</v>
@@ -1084,7 +1088,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>111</v>
@@ -1098,7 +1102,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>111</v>
@@ -1112,7 +1116,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>111</v>
@@ -1126,7 +1130,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>111</v>
@@ -1140,7 +1144,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>111</v>
@@ -1154,7 +1158,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>111</v>
@@ -1163,12 +1167,12 @@
         <v>26</v>
       </c>
       <c r="D23" s="5">
-        <v>46144</v>
+        <v>25760</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>111</v>
@@ -1182,7 +1186,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>111</v>
@@ -1196,7 +1200,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>111</v>
@@ -1210,7 +1214,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>111</v>
@@ -1219,12 +1223,12 @@
         <v>35</v>
       </c>
       <c r="D27" s="5">
-        <v>34720</v>
+        <v>19558</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>111</v>
@@ -1233,12 +1237,12 @@
         <v>36</v>
       </c>
       <c r="D28" s="5">
-        <v>35640</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>111</v>
@@ -1252,7 +1256,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>111</v>
@@ -1266,7 +1270,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>111</v>
@@ -1280,7 +1284,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -1288,11 +1292,13 @@
       <c r="C32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="5">
+        <v>10598</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>111</v>
@@ -1306,7 +1312,7 @@
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>111</v>
@@ -1320,7 +1326,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>111</v>
@@ -1334,507 +1340,507 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" s="5">
-        <v>5035</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D37" s="5">
-        <v>2394</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5">
-        <v>3497</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" s="5">
-        <v>4764</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D40" s="5">
-        <v>5480</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D41" s="5">
-        <v>3917</v>
+        <v>29916</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="5">
-        <v>29916</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="5">
-        <v>15561</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D44" s="5">
-        <v>17604</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="5">
-        <v>3230</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="5">
-        <v>4856</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" s="5">
-        <v>21074</v>
+        <v>12072</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48" s="5">
-        <v>12072</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49" s="5">
-        <v>16902</v>
+        <v>31624</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D50" s="5">
-        <v>31624</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D51" s="5">
-        <v>6363</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52" s="5">
-        <v>10507</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" s="5">
-        <v>5054</v>
+        <v>25876</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D54" s="5">
-        <v>25876</v>
+        <v>24177</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="5">
-        <v>24177</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4815</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="5">
-        <v>4815</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D58" s="5">
-        <v>4878</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" s="5">
-        <v>5562</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="D60" s="5">
+        <v>20141</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="5">
-        <v>20141</v>
+        <v>15347</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D62" s="5">
-        <v>15347</v>
+        <v>832961</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" s="5">
-        <v>832961</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64" s="5">
-        <v>24714</v>
+        <v>220490</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D65" s="5">
-        <v>170763</v>
+        <v>246096</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66" s="5">
-        <v>246096</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D67" s="5">
-        <v>9972</v>
+        <v>20614</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D68" s="5">
-        <v>20614</v>
+        <v>47124</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D69" s="5">
-        <v>47124</v>
+        <v>74650</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D70" s="5">
-        <v>74650</v>
+        <v>184423</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="5">
-        <v>184423</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>111</v>
@@ -1848,7 +1854,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>111</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>111</v>
@@ -1871,12 +1877,12 @@
         <v>91</v>
       </c>
       <c r="D74" s="5">
-        <v>103511</v>
+        <v>128387</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>111</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>111</v>
@@ -1904,7 +1910,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>111</v>
@@ -1918,7 +1924,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>111</v>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>111</v>
@@ -1944,7 +1950,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>111</v>
@@ -1958,7 +1964,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>111</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>111</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>111</v>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>111</v>
@@ -2014,7 +2020,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>111</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>111</v>
@@ -2042,7 +2048,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>111</v>
@@ -2051,12 +2057,12 @@
         <v>102</v>
       </c>
       <c r="D87" s="5">
-        <v>24062</v>
+        <v>10664</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>111</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>111</v>
@@ -2084,7 +2090,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>111</v>
@@ -2098,7 +2104,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>111</v>
@@ -2112,7 +2118,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>111</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>111</v>
@@ -2140,7 +2146,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>112</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>112</v>
@@ -2168,7 +2174,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>112</v>
@@ -2182,7 +2188,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>112</v>
@@ -2196,7 +2202,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>112</v>
@@ -2210,7 +2216,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>112</v>
@@ -2224,7 +2230,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>112</v>
@@ -2238,7 +2244,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>112</v>
@@ -2252,7 +2258,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>112</v>
@@ -2266,7 +2272,7 @@
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>112</v>
@@ -2280,7 +2286,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>112</v>
@@ -2294,7 +2300,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>112</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>112</v>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>112</v>
@@ -2336,7 +2342,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>112</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>112</v>
@@ -2364,7 +2370,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>112</v>
@@ -2378,7 +2384,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>112</v>
@@ -2392,7 +2398,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>112</v>
@@ -2406,7 +2412,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>112</v>
@@ -2420,7 +2426,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>112</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>112</v>
@@ -2448,7 +2454,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>112</v>
@@ -2462,7 +2468,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>112</v>
@@ -2476,7 +2482,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>112</v>
@@ -2490,7 +2496,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>112</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>112</v>
@@ -2513,12 +2519,12 @@
         <v>26</v>
       </c>
       <c r="D120" s="5">
-        <v>9982</v>
+        <v>30366</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>112</v>
@@ -2532,7 +2538,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>112</v>
@@ -2546,7 +2552,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>112</v>
@@ -2560,7 +2566,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>112</v>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>112</v>
@@ -2588,7 +2594,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>112</v>
@@ -2602,7 +2608,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>112</v>
@@ -2616,7 +2622,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>112</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>112</v>
@@ -2639,12 +2645,12 @@
         <v>35</v>
       </c>
       <c r="D129" s="5">
-        <v>8381</v>
+        <v>23498</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>112</v>
@@ -2653,12 +2659,12 @@
         <v>36</v>
       </c>
       <c r="D130" s="5">
-        <v>12614</v>
+        <v>27552</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>112</v>
@@ -2672,7 +2678,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>112</v>
@@ -2686,7 +2692,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>112</v>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>112</v>
@@ -2714,7 +2720,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>112</v>
@@ -2728,7 +2734,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>112</v>
@@ -2742,7 +2748,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>112</v>
@@ -2756,7 +2762,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>112</v>
@@ -2770,7 +2776,7 @@
     </row>
     <row r="139" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>112</v>
@@ -2784,7 +2790,7 @@
     </row>
     <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>112</v>
@@ -2798,7 +2804,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>112</v>
@@ -2812,7 +2818,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>112</v>
@@ -2820,13 +2826,13 @@
       <c r="C142" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D142" s="6">
-        <v>90</v>
+      <c r="D142" s="5">
+        <v>5125</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>112</v>
@@ -2840,7 +2846,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>112</v>
@@ -2854,7 +2860,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>112</v>
@@ -2868,7 +2874,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>112</v>
@@ -2876,13 +2882,13 @@
       <c r="C146" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D146" s="6">
-        <v>756</v>
+      <c r="D146" s="5">
+        <v>2511</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>112</v>
@@ -2896,7 +2902,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>112</v>
@@ -2910,7 +2916,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>112</v>
@@ -2924,7 +2930,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>112</v>
@@ -2938,7 +2944,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>112</v>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>112</v>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>112</v>
@@ -2980,7 +2986,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>112</v>
@@ -2994,7 +3000,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>112</v>
@@ -3008,7 +3014,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>112</v>
@@ -3022,7 +3028,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>112</v>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>112</v>
@@ -3050,7 +3056,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>112</v>
@@ -3064,7 +3070,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>112</v>
@@ -3078,7 +3084,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>112</v>
@@ -3092,7 +3098,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>112</v>
@@ -3106,7 +3112,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>112</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>112</v>
@@ -3129,12 +3135,12 @@
         <v>65</v>
       </c>
       <c r="D164" s="5">
-        <v>26110</v>
+        <v>26056</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>112</v>
@@ -3148,7 +3154,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>112</v>
@@ -3162,7 +3168,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>112</v>
@@ -3176,7 +3182,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>112</v>
@@ -3190,7 +3196,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>112</v>
@@ -3204,7 +3210,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>112</v>
@@ -3218,7 +3224,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>112</v>
@@ -3232,7 +3238,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>112</v>
@@ -3246,7 +3252,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>112</v>
@@ -3260,7 +3266,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>112</v>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>112</v>
@@ -3288,7 +3294,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>112</v>
@@ -3297,12 +3303,12 @@
         <v>77</v>
       </c>
       <c r="D176" s="5">
-        <v>4648</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>112</v>
@@ -3316,7 +3322,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>112</v>
@@ -3330,7 +3336,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>112</v>
@@ -3339,12 +3345,12 @@
         <v>80</v>
       </c>
       <c r="D179" s="5">
-        <v>19152</v>
+        <v>19098</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>112</v>
@@ -3358,7 +3364,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>112</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>112</v>
@@ -3386,7 +3392,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>112</v>
@@ -3395,12 +3401,12 @@
         <v>84</v>
       </c>
       <c r="D183" s="5">
-        <v>6966</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>112</v>
@@ -3414,7 +3420,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>112</v>
@@ -3428,7 +3434,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>112</v>
@@ -3442,7 +3448,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>112</v>
@@ -3451,12 +3457,12 @@
         <v>88</v>
       </c>
       <c r="D187" s="5">
-        <v>34193</v>
+        <v>34146</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>112</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>112</v>
@@ -3484,7 +3490,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>112</v>
@@ -3498,7 +3504,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>112</v>
@@ -3512,7 +3518,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>112</v>
@@ -3521,12 +3527,12 @@
         <v>93</v>
       </c>
       <c r="D192" s="5">
-        <v>11113</v>
+        <v>11134</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>112</v>
@@ -3535,12 +3541,12 @@
         <v>94</v>
       </c>
       <c r="D193" s="5">
-        <v>4593</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>112</v>
@@ -3554,7 +3560,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>112</v>
@@ -3568,7 +3574,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>112</v>
@@ -3582,7 +3588,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>112</v>
@@ -3596,7 +3602,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>112</v>
@@ -3610,7 +3616,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>112</v>
@@ -3624,7 +3630,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>112</v>
@@ -3638,7 +3644,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>112</v>
@@ -3647,12 +3653,12 @@
         <v>102</v>
       </c>
       <c r="D201" s="5">
-        <v>8748</v>
+        <v>22120</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>112</v>
@@ -3666,7 +3672,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>112</v>
@@ -3680,7 +3686,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>112</v>
@@ -3694,7 +3700,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>112</v>
@@ -3708,7 +3714,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>112</v>
@@ -3722,7 +3728,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>112</v>
@@ -3731,12 +3737,12 @@
         <v>108</v>
       </c>
       <c r="D207" s="5">
-        <v>28350</v>
+        <v>28210</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>112</v>
@@ -3745,7 +3751,7 @@
         <v>109</v>
       </c>
       <c r="D208" s="5">
-        <v>16534</v>
+        <v>16464</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A184" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1377,7 @@
         <v>50</v>
       </c>
       <c r="D38" s="5">
-        <v>4764</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="5">
-        <v>6221</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="5">
-        <v>11115</v>
+        <v>10975</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="5">
-        <v>9009</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="5">
-        <v>7866</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="5">
-        <v>9590</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="5">
-        <v>12670</v>
+        <v>11914</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>113</v>
       </c>
       <c r="D100" s="5">
-        <v>45192</v>
+        <v>45172</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="5">
-        <v>12062</v>
+        <v>11670</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="D102" s="5">
-        <v>13566</v>
+        <v>13188</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
         <v>119</v>
       </c>
       <c r="D103" s="5">
-        <v>19744</v>
+        <v>19712</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="D104" s="5">
-        <v>21129</v>
+        <v>20989</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="5">
-        <v>41107</v>
+        <v>40967</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="5">
-        <v>13940</v>
+        <v>13758</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="D107" s="5">
-        <v>6414</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="D108" s="5">
-        <v>6456</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>16</v>
       </c>
       <c r="D109" s="5">
-        <v>15344</v>
+        <v>14420</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
         <v>17</v>
       </c>
       <c r="D110" s="5">
-        <v>3738</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
         <v>18</v>
       </c>
       <c r="D111" s="5">
-        <v>38337</v>
+        <v>37889</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>19</v>
       </c>
       <c r="D112" s="5">
-        <v>30856</v>
+        <v>29456</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>20</v>
       </c>
       <c r="D113" s="5">
-        <v>21965</v>
+        <v>21503</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,7 +2435,7 @@
         <v>21</v>
       </c>
       <c r="D114" s="5">
-        <v>10632</v>
+        <v>9386</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>22</v>
       </c>
       <c r="D115" s="5">
-        <v>10242</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>23</v>
       </c>
       <c r="D116" s="5">
-        <v>11286</v>
+        <v>10516</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>24</v>
       </c>
       <c r="D118" s="5">
-        <v>15181</v>
+        <v>14705</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="5">
-        <v>3137</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>26</v>
       </c>
       <c r="D120" s="5">
-        <v>30366</v>
+        <v>28210</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>27</v>
       </c>
       <c r="D121" s="5">
-        <v>7770</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>28</v>
       </c>
       <c r="D122" s="5">
-        <v>72082</v>
+        <v>68890</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>29</v>
       </c>
       <c r="D123" s="5">
-        <v>4046</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>30</v>
       </c>
       <c r="D124" s="5">
-        <v>44085</v>
+        <v>43665</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="D125" s="5">
-        <v>6240</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="5">
-        <v>24598</v>
+        <v>24052</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
         <v>33</v>
       </c>
       <c r="D127" s="5">
-        <v>5722</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>34</v>
       </c>
       <c r="D128" s="5">
-        <v>11307</v>
+        <v>11195</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>35</v>
       </c>
       <c r="D129" s="5">
-        <v>23498</v>
+        <v>23246</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
         <v>36</v>
       </c>
       <c r="D130" s="5">
-        <v>27552</v>
+        <v>26376</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,7 +2673,7 @@
         <v>37</v>
       </c>
       <c r="D131" s="5">
-        <v>6291</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>115</v>
       </c>
       <c r="D132" s="5">
-        <v>621248</v>
+        <v>619778</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>116</v>
       </c>
       <c r="D133" s="5">
-        <v>602719</v>
+        <v>601855</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>117</v>
       </c>
       <c r="D134" s="5">
-        <v>97510</v>
+        <v>97350</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,7 +2729,7 @@
         <v>118</v>
       </c>
       <c r="D135" s="5">
-        <v>59552</v>
+        <v>59377</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>38</v>
       </c>
       <c r="D136" s="5">
-        <v>14587</v>
+        <v>14097</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,7 +2757,7 @@
         <v>39</v>
       </c>
       <c r="D137" s="5">
-        <v>9915</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>40</v>
       </c>
       <c r="D138" s="5">
-        <v>36129</v>
+        <v>34393</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
         <v>41</v>
       </c>
       <c r="D139" s="6">
-        <v>910</v>
+        <v>810</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>42</v>
       </c>
       <c r="D140" s="6">
-        <v>540</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,7 +2827,7 @@
         <v>44</v>
       </c>
       <c r="D142" s="5">
-        <v>5125</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>45</v>
       </c>
       <c r="D143" s="6">
-        <v>234</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>46</v>
       </c>
       <c r="D144" s="5">
-        <v>2106</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,8 +2868,8 @@
       <c r="C145" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="5">
-        <v>1278</v>
+      <c r="D145" s="6">
+        <v>972</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>48</v>
       </c>
       <c r="D146" s="5">
-        <v>2511</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
         <v>49</v>
       </c>
       <c r="D147" s="5">
-        <v>1602</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,9 +2910,7 @@
       <c r="C148" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="6">
-        <v>90</v>
-      </c>
+      <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
@@ -2925,7 +2923,7 @@
         <v>51</v>
       </c>
       <c r="D149" s="5">
-        <v>3104</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,7 +2937,7 @@
         <v>52</v>
       </c>
       <c r="D150" s="5">
-        <v>2622</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,7 +2951,7 @@
         <v>53</v>
       </c>
       <c r="D151" s="6">
-        <v>326</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,7 +2965,7 @@
         <v>54</v>
       </c>
       <c r="D152" s="5">
-        <v>6570</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,7 +2979,7 @@
         <v>55</v>
       </c>
       <c r="D153" s="5">
-        <v>43131</v>
+        <v>41115</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,7 +2993,7 @@
         <v>56</v>
       </c>
       <c r="D154" s="5">
-        <v>3992</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,7 +3007,7 @@
         <v>57</v>
       </c>
       <c r="D155" s="5">
-        <v>5589</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,7 +3021,7 @@
         <v>120</v>
       </c>
       <c r="D156" s="5">
-        <v>3270</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,7 +3035,7 @@
         <v>58</v>
       </c>
       <c r="D157" s="5">
-        <v>2740</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,7 +3049,7 @@
         <v>59</v>
       </c>
       <c r="D158" s="5">
-        <v>1320</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,7 +3063,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,7 +3077,7 @@
         <v>61</v>
       </c>
       <c r="D160" s="5">
-        <v>2881</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,7 +3091,7 @@
         <v>62</v>
       </c>
       <c r="D161" s="5">
-        <v>16488</v>
+        <v>15552</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,7 +3105,7 @@
         <v>63</v>
       </c>
       <c r="D162" s="5">
-        <v>19279</v>
+        <v>18955</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,7 +3119,7 @@
         <v>64</v>
       </c>
       <c r="D163" s="5">
-        <v>3733</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,7 +3133,7 @@
         <v>65</v>
       </c>
       <c r="D164" s="5">
-        <v>26056</v>
+        <v>25786</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,7 +3147,7 @@
         <v>66</v>
       </c>
       <c r="D165" s="5">
-        <v>1649</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,7 +3161,7 @@
         <v>67</v>
       </c>
       <c r="D166" s="5">
-        <v>4689</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,7 +3175,7 @@
         <v>68</v>
       </c>
       <c r="D167" s="6">
-        <v>857</v>
+        <v>641</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,7 +3189,7 @@
         <v>69</v>
       </c>
       <c r="D168" s="5">
-        <v>46902</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,7 +3203,7 @@
         <v>70</v>
       </c>
       <c r="D169" s="5">
-        <v>13212</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,7 +3217,7 @@
         <v>71</v>
       </c>
       <c r="D170" s="5">
-        <v>31014</v>
+        <v>30330</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,7 +3231,7 @@
         <v>72</v>
       </c>
       <c r="D171" s="5">
-        <v>33267</v>
+        <v>30729</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,7 +3259,7 @@
         <v>74</v>
       </c>
       <c r="D173" s="5">
-        <v>4831</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,8 +3272,8 @@
       <c r="C174" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D174" s="5">
-        <v>1172</v>
+      <c r="D174" s="6">
+        <v>974</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,7 +3287,7 @@
         <v>76</v>
       </c>
       <c r="D175" s="5">
-        <v>22028</v>
+        <v>20570</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,7 +3301,7 @@
         <v>77</v>
       </c>
       <c r="D176" s="5">
-        <v>3203</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,7 +3315,7 @@
         <v>78</v>
       </c>
       <c r="D177" s="5">
-        <v>20250</v>
+        <v>19926</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,7 +3329,7 @@
         <v>79</v>
       </c>
       <c r="D178" s="5">
-        <v>378798</v>
+        <v>367098</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,7 +3343,7 @@
         <v>80</v>
       </c>
       <c r="D179" s="5">
-        <v>19098</v>
+        <v>18558</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,7 +3357,7 @@
         <v>81</v>
       </c>
       <c r="D180" s="5">
-        <v>11698</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,7 +3371,7 @@
         <v>82</v>
       </c>
       <c r="D181" s="5">
-        <v>284634</v>
+        <v>274554</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,7 +3385,7 @@
         <v>83</v>
       </c>
       <c r="D182" s="5">
-        <v>10872</v>
+        <v>9864</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,7 +3399,7 @@
         <v>84</v>
       </c>
       <c r="D183" s="5">
-        <v>6912</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,7 +3413,7 @@
         <v>85</v>
       </c>
       <c r="D184" s="5">
-        <v>29772</v>
+        <v>28602</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,7 +3427,7 @@
         <v>86</v>
       </c>
       <c r="D185" s="5">
-        <v>32240</v>
+        <v>30944</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,7 +3441,7 @@
         <v>87</v>
       </c>
       <c r="D186" s="5">
-        <v>20508</v>
+        <v>13866</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,7 +3455,7 @@
         <v>88</v>
       </c>
       <c r="D187" s="5">
-        <v>34146</v>
+        <v>33012</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,7 +3469,7 @@
         <v>89</v>
       </c>
       <c r="D188" s="5">
-        <v>36594</v>
+        <v>33732</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,7 +3483,7 @@
         <v>90</v>
       </c>
       <c r="D189" s="5">
-        <v>23886</v>
+        <v>23274</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,7 +3497,7 @@
         <v>91</v>
       </c>
       <c r="D190" s="5">
-        <v>23118</v>
+        <v>22776</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,7 +3511,7 @@
         <v>92</v>
       </c>
       <c r="D191" s="5">
-        <v>16096</v>
+        <v>14854</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,7 +3525,7 @@
         <v>93</v>
       </c>
       <c r="D192" s="5">
-        <v>11134</v>
+        <v>10861</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,7 +3539,7 @@
         <v>94</v>
       </c>
       <c r="D193" s="5">
-        <v>4557</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,7 +3553,7 @@
         <v>95</v>
       </c>
       <c r="D194" s="6">
-        <v>955</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,7 +3567,7 @@
         <v>96</v>
       </c>
       <c r="D195" s="5">
-        <v>12043</v>
+        <v>11593</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,7 +3581,7 @@
         <v>97</v>
       </c>
       <c r="D196" s="5">
-        <v>28440</v>
+        <v>27054</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3597,7 +3595,7 @@
         <v>98</v>
       </c>
       <c r="D197" s="5">
-        <v>17241</v>
+        <v>15873</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3611,7 +3609,7 @@
         <v>99</v>
       </c>
       <c r="D198" s="5">
-        <v>12838</v>
+        <v>11470</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3625,7 +3623,7 @@
         <v>100</v>
       </c>
       <c r="D199" s="5">
-        <v>57546</v>
+        <v>56232</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3639,7 +3637,7 @@
         <v>101</v>
       </c>
       <c r="D200" s="5">
-        <v>18918</v>
+        <v>18036</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,7 +3651,7 @@
         <v>102</v>
       </c>
       <c r="D201" s="5">
-        <v>22120</v>
+        <v>21238</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,7 +3665,7 @@
         <v>103</v>
       </c>
       <c r="D202" s="5">
-        <v>12892</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3681,7 +3679,7 @@
         <v>104</v>
       </c>
       <c r="D203" s="5">
-        <v>9570</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3695,7 +3693,7 @@
         <v>105</v>
       </c>
       <c r="D204" s="5">
-        <v>11831</v>
+        <v>11439</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3709,7 +3707,7 @@
         <v>106</v>
       </c>
       <c r="D205" s="5">
-        <v>22036</v>
+        <v>21504</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,7 +3721,7 @@
         <v>107</v>
       </c>
       <c r="D206" s="5">
-        <v>15280</v>
+        <v>14552</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3737,7 +3735,7 @@
         <v>108</v>
       </c>
       <c r="D207" s="5">
-        <v>28210</v>
+        <v>27888</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3751,7 +3749,7 @@
         <v>109</v>
       </c>
       <c r="D208" s="5">
-        <v>16464</v>
+        <v>16114</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="126">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -822,7 +822,7 @@
   <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,10 +1112,10 @@
         <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4">
-        <v>274</v>
+        <v>34</v>
+      </c>
+      <c r="C26" s="3">
+        <v>19558</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1123,10 +1123,10 @@
         <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3">
-        <v>19558</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,10 +1134,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3">
-        <v>20702</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,10 +1145,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3">
-        <v>12110</v>
+        <v>13063</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,54 +1156,54 @@
         <v>110</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C30" s="3">
-        <v>13063</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3">
-        <v>43590</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3">
-        <v>10598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C33" s="3">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>35946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3">
-        <v>1950</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,10 +1211,10 @@
         <v>110</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3">
-        <v>14400</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,10 +1222,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3">
-        <v>1742</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,10 +1233,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3">
-        <v>2352</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,10 +1244,10 @@
         <v>110</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
-        <v>5480</v>
+        <v>29916</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,10 +1255,10 @@
         <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3">
-        <v>3917</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
         <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="3">
-        <v>29916</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,10 +1277,10 @@
         <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3">
-        <v>15561</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,10 +1288,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3">
-        <v>17604</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,10 +1299,10 @@
         <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C43" s="3">
-        <v>3230</v>
+        <v>12072</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,10 +1310,10 @@
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3">
-        <v>21074</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,10 +1321,10 @@
         <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C45" s="3">
-        <v>12072</v>
+        <v>31624</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,10 +1332,10 @@
         <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3">
-        <v>16902</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,10 +1343,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C47" s="3">
-        <v>31624</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,10 +1354,10 @@
         <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C48" s="3">
-        <v>6363</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,10 +1365,10 @@
         <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C49" s="3">
-        <v>10507</v>
+        <v>25876</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,10 +1376,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C50" s="3">
-        <v>5054</v>
+        <v>24177</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,21 +1387,19 @@
         <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="3">
-        <v>25876</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C52" s="3">
-        <v>24177</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,19 +1407,21 @@
         <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4878</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="3">
-        <v>4815</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,10 +1429,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" s="3">
-        <v>4878</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,10 +1440,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C56" s="3">
-        <v>5562</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,10 +1451,10 @@
         <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C57" s="3">
-        <v>7560</v>
+        <v>15347</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,10 +1462,10 @@
         <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58" s="3">
-        <v>20141</v>
+        <v>832961</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,10 +1473,10 @@
         <v>110</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C59" s="3">
-        <v>15347</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,10 +1484,10 @@
         <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60" s="3">
-        <v>832961</v>
+        <v>220490</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,10 +1495,10 @@
         <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C61" s="3">
-        <v>24714</v>
+        <v>246096</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,10 +1506,10 @@
         <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C62" s="3">
-        <v>220490</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,10 +1517,10 @@
         <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" s="3">
-        <v>246096</v>
+        <v>20097</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1528,10 +1528,10 @@
         <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C64" s="3">
-        <v>9972</v>
+        <v>47124</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,10 +1539,10 @@
         <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C65" s="3">
-        <v>20614</v>
+        <v>74650</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,10 +1550,10 @@
         <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C66" s="3">
-        <v>47124</v>
+        <v>185034</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,21 +1561,19 @@
         <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="3">
-        <v>74650</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3">
-        <v>184423</v>
+        <v>23292</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,19 +1581,21 @@
         <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C69" s="4">
+        <v>483</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C70" s="3">
-        <v>24928</v>
+        <v>128387</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,10 +1603,10 @@
         <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="4">
-        <v>483</v>
+        <v>91</v>
+      </c>
+      <c r="C71" s="3">
+        <v>16037</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,10 +1614,10 @@
         <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" s="3">
-        <v>128387</v>
+        <v>16863</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,10 +1625,10 @@
         <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C73" s="3">
-        <v>16037</v>
+        <v>16223</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,10 +1636,10 @@
         <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C74" s="3">
-        <v>16863</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,21 +1647,19 @@
         <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" s="3">
-        <v>16223</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" s="3">
-        <v>10152</v>
+        <v>10134</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,19 +1667,21 @@
         <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C77" s="3">
+        <v>25069</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C78" s="3">
-        <v>10134</v>
+        <v>27137</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C79" s="3">
-        <v>25069</v>
+        <v>40842</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1700,10 +1700,10 @@
         <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C80" s="3">
-        <v>27137</v>
+        <v>18354</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,10 +1711,10 @@
         <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3">
-        <v>40842</v>
+        <v>64757</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,10 +1722,10 @@
         <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C82" s="3">
-        <v>18354</v>
+        <v>20223</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,10 +1733,10 @@
         <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C83" s="3">
-        <v>64757</v>
+        <v>10664</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,10 +1744,10 @@
         <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C84" s="3">
-        <v>20223</v>
+        <v>40586</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,10 +1755,10 @@
         <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3">
-        <v>10664</v>
+        <v>10248</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1766,10 +1766,10 @@
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C86" s="3">
-        <v>32848</v>
+        <v>29590</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,10 +1777,10 @@
         <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C87" s="3">
-        <v>10248</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,10 +1788,10 @@
         <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C88" s="3">
-        <v>14344</v>
+        <v>28373</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,32 +1799,32 @@
         <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C89" s="3">
-        <v>33145</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="C90" s="3">
-        <v>28373</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>9658</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,10 +1832,10 @@
         <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="3">
-        <v>5437</v>
+        <v>8715</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +1843,10 @@
         <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C93" s="3">
-        <v>10975</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,10 +1854,10 @@
         <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>8715</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,10 +1865,10 @@
         <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" s="3">
-        <v>6676</v>
+        <v>11494</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,10 +1876,10 @@
         <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C96" s="3">
-        <v>8694</v>
+        <v>45172</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,10 +1887,10 @@
         <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" s="3">
-        <v>11564</v>
+        <v>11684</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,21 +1898,21 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>45172</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C99" s="3">
-        <v>11684</v>
+        <v>19584</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,21 +1920,21 @@
         <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="3">
-        <v>13118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>20751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>19680</v>
+        <v>40449</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +1942,10 @@
         <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C102" s="3">
-        <v>20751</v>
+        <v>13254</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,10 +1953,10 @@
         <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C103" s="3">
-        <v>40547</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,10 +1964,10 @@
         <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C104" s="3">
-        <v>13254</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,10 +1975,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C105" s="3">
-        <v>5714</v>
+        <v>14140</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,10 +1986,10 @@
         <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C106" s="3">
-        <v>5728</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,10 +1997,10 @@
         <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C107" s="3">
-        <v>14308</v>
+        <v>37539</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,10 +2008,10 @@
         <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C108" s="3">
-        <v>2982</v>
+        <v>29414</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,10 +2019,10 @@
         <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C109" s="3">
-        <v>37679</v>
+        <v>21237</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,10 +2030,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C110" s="3">
-        <v>29414</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +2041,10 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C111" s="3">
-        <v>21237</v>
+        <v>8856</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,10 +2052,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C112" s="3">
-        <v>9176</v>
+        <v>10502</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,10 +2063,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="3">
-        <v>8926</v>
+        <v>113</v>
+      </c>
+      <c r="C113" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,10 +2074,10 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C114" s="3">
-        <v>10502</v>
+        <v>14495</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,10 +2085,10 @@
         <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115" s="4">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2325</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,10 +2096,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C116" s="3">
-        <v>14495</v>
+        <v>27860</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,10 +2107,10 @@
         <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C117" s="3">
-        <v>2325</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,10 +2118,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C118" s="3">
-        <v>28000</v>
+        <v>67518</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,10 +2129,10 @@
         <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C119" s="3">
-        <v>6860</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,10 +2140,10 @@
         <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C120" s="3">
-        <v>68666</v>
+        <v>43637</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,10 +2151,10 @@
         <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C121" s="3">
-        <v>3934</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,10 +2162,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C122" s="3">
-        <v>43637</v>
+        <v>23758</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,10 +2173,10 @@
         <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C123" s="3">
-        <v>5680</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,10 +2184,10 @@
         <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C124" s="3">
-        <v>23856</v>
+        <v>11469</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,10 +2195,10 @@
         <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C125" s="3">
-        <v>5610</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2206,10 @@
         <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C126" s="3">
-        <v>11195</v>
+        <v>26152</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,10 +2217,10 @@
         <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C127" s="3">
-        <v>23106</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,10 +2228,10 @@
         <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C128" s="3">
-        <v>26152</v>
+        <v>617958</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2239,10 @@
         <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="C129" s="3">
-        <v>4681</v>
+        <v>601663</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,10 +2250,10 @@
         <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C130" s="3">
-        <v>617958</v>
+        <v>97350</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2261,10 @@
         <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C131" s="3">
-        <v>601663</v>
+        <v>59377</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2272,10 @@
         <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C132" s="3">
-        <v>97350</v>
+        <v>13929</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,10 +2283,10 @@
         <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C133" s="3">
-        <v>59377</v>
+        <v>9313</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,54 +2294,54 @@
         <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C134" s="3">
-        <v>13929</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C135" s="3">
-        <v>9495</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C135" s="4">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C136" s="3">
-        <v>33917</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C136" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C137" s="4">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C137" s="3">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C138" s="4">
-        <v>480</v>
+        <v>43</v>
+      </c>
+      <c r="C138" s="3">
+        <v>4837</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +2349,10 @@
         <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C139" s="3">
-        <v>3070</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +2360,10 @@
         <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C140" s="3">
-        <v>4837</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +2371,10 @@
         <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C141" s="3">
-        <v>2358</v>
+        <v>46</v>
+      </c>
+      <c r="C141" s="4">
+        <v>972</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +2382,10 @@
         <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C142" s="3">
-        <v>1908</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +2393,10 @@
         <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C143" s="4">
-        <v>972</v>
+        <v>48</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1278</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +2404,10 @@
         <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C144" s="3">
-        <v>2313</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,10 +2415,10 @@
         <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C145" s="3">
-        <v>1386</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,10 +2426,10 @@
         <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C146" s="3">
-        <v>2106</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +2437,10 @@
         <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C147" s="3">
-        <v>3068</v>
+        <v>52</v>
+      </c>
+      <c r="C147" s="4">
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +2448,10 @@
         <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C148" s="3">
-        <v>2478</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,10 +2459,10 @@
         <v>111</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C149" s="4">
-        <v>272</v>
+        <v>54</v>
+      </c>
+      <c r="C149" s="3">
+        <v>40557</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,10 +2470,10 @@
         <v>111</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C150" s="3">
-        <v>6156</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +2481,10 @@
         <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C151" s="3">
-        <v>41097</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,10 +2492,10 @@
         <v>111</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C152" s="3">
-        <v>3308</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,10 +2503,10 @@
         <v>111</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C153" s="3">
-        <v>4815</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,10 +2514,10 @@
         <v>111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C154" s="3">
-        <v>3140</v>
+        <v>58</v>
+      </c>
+      <c r="C154" s="4">
+        <v>910</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,10 +2525,10 @@
         <v>111</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C155" s="3">
-        <v>2640</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,10 +2536,10 @@
         <v>111</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C156" s="3">
-        <v>1010</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,10 +2547,10 @@
         <v>111</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C157" s="3">
-        <v>4826</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,10 +2558,10 @@
         <v>111</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C158" s="3">
-        <v>2305</v>
+        <v>18757</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,10 +2569,10 @@
         <v>111</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C159" s="3">
-        <v>15516</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,10 +2580,10 @@
         <v>111</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C160" s="3">
-        <v>18757</v>
+        <v>25372</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,10 +2591,10 @@
         <v>111</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C161" s="3">
-        <v>3391</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,10 +2602,10 @@
         <v>111</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C162" s="3">
-        <v>25552</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,10 +2613,10 @@
         <v>111</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1235</v>
+        <v>67</v>
+      </c>
+      <c r="C163" s="4">
+        <v>641</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,10 +2624,10 @@
         <v>111</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C164" s="3">
-        <v>4293</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,10 +2635,10 @@
         <v>111</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C165" s="4">
-        <v>641</v>
+        <v>69</v>
+      </c>
+      <c r="C165" s="3">
+        <v>12312</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,10 +2646,10 @@
         <v>111</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C166" s="3">
-        <v>44544</v>
+        <v>29952</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,10 +2657,10 @@
         <v>111</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C167" s="3">
-        <v>12564</v>
+        <v>30567</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,10 +2668,10 @@
         <v>111</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C168" s="3">
-        <v>30132</v>
+        <v>72</v>
+      </c>
+      <c r="C168" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,10 +2679,10 @@
         <v>111</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C169" s="3">
-        <v>30693</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,10 +2690,10 @@
         <v>111</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C170" s="4">
-        <v>11</v>
+        <v>902</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,10 +2701,10 @@
         <v>111</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C171" s="3">
-        <v>4687</v>
+        <v>20246</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +2712,10 @@
         <v>111</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C172" s="4">
-        <v>902</v>
+        <v>845</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +2723,10 @@
         <v>111</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C173" s="3">
-        <v>20300</v>
+        <v>19746</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,10 +2734,10 @@
         <v>111</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C174" s="3">
-        <v>1745</v>
+        <v>355812</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,10 +2745,10 @@
         <v>111</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C175" s="3">
-        <v>19854</v>
+        <v>17892</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +2756,10 @@
         <v>111</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C176" s="3">
-        <v>362472</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,10 +2767,10 @@
         <v>111</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C177" s="3">
-        <v>18216</v>
+        <v>271872</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,10 +2778,10 @@
         <v>111</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C178" s="3">
-        <v>5740</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,10 +2789,10 @@
         <v>111</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C179" s="3">
-        <v>274194</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +2800,10 @@
         <v>111</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C180" s="3">
-        <v>9738</v>
+        <v>27828</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,10 +2811,10 @@
         <v>111</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C181" s="3">
-        <v>6480</v>
+        <v>30296</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,10 +2822,10 @@
         <v>111</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C182" s="3">
-        <v>28440</v>
+        <v>62227</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,10 +2833,10 @@
         <v>111</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C183" s="3">
-        <v>30476</v>
+        <v>31986</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,10 +2844,10 @@
         <v>111</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C184" s="3">
-        <v>13866</v>
+        <v>35332</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,10 +2855,10 @@
         <v>111</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C185" s="3">
-        <v>32940</v>
+        <v>23166</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,10 +2866,10 @@
         <v>111</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C186" s="3">
-        <v>33696</v>
+        <v>22524</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,10 +2877,10 @@
         <v>111</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C187" s="3">
-        <v>23166</v>
+        <v>14836</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,10 +2888,10 @@
         <v>111</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C188" s="3">
-        <v>22524</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +2899,10 @@
         <v>111</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C189" s="3">
-        <v>14836</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,10 +2910,10 @@
         <v>111</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C190" s="3">
-        <v>10483</v>
+        <v>94</v>
+      </c>
+      <c r="C190" s="4">
+        <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,10 +2921,10 @@
         <v>111</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C191" s="3">
-        <v>4503</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,10 +2932,10 @@
         <v>111</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C192" s="4">
-        <v>305</v>
+        <v>96</v>
+      </c>
+      <c r="C192" s="3">
+        <v>26964</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,10 +2943,10 @@
         <v>111</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C193" s="3">
-        <v>11377</v>
+        <v>15855</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,10 +2954,10 @@
         <v>111</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C194" s="3">
-        <v>26964</v>
+        <v>11128</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,10 +2965,10 @@
         <v>111</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C195" s="3">
-        <v>15855</v>
+        <v>55980</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,10 +2976,10 @@
         <v>111</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C196" s="3">
-        <v>11272</v>
+        <v>17928</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,10 +2987,10 @@
         <v>111</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C197" s="3">
-        <v>55980</v>
+        <v>21238</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,10 +2998,10 @@
         <v>111</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C198" s="3">
-        <v>17946</v>
+        <v>12402</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,10 +3009,10 @@
         <v>111</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C199" s="3">
-        <v>21238</v>
+        <v>9066</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,10 +3020,10 @@
         <v>111</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C200" s="3">
-        <v>12402</v>
+        <v>11229</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,10 +3031,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C201" s="3">
-        <v>9080</v>
+        <v>21434</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,10 +3042,10 @@
         <v>111</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C202" s="3">
-        <v>11229</v>
+        <v>14272</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3053,10 +3053,10 @@
         <v>111</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C203" s="3">
-        <v>21434</v>
+        <v>27496</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,33 +3064,21 @@
         <v>111</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C204" s="3">
-        <v>14412</v>
+        <v>15876</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C205" s="3">
-        <v>27790</v>
-      </c>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C206" s="3">
-        <v>15974</v>
-      </c>
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>16904</v>
+        <v>34082</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="3">
-        <v>10710</v>
+        <v>20510</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,21 +1200,19 @@
         <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1742</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3">
-        <v>2352</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,10 +1220,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3">
-        <v>5480</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,10 +1231,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3">
-        <v>3917</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,10 +1242,10 @@
         <v>110</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3">
-        <v>29916</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,10 +1253,10 @@
         <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
-        <v>15561</v>
+        <v>29916</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,10 +1264,10 @@
         <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3">
-        <v>17604</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,10 +1275,10 @@
         <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3">
-        <v>3230</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,10 +1286,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="3">
-        <v>21074</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,10 +1297,10 @@
         <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3">
-        <v>12072</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,10 +1308,10 @@
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3">
-        <v>16902</v>
+        <v>12072</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,10 +1319,10 @@
         <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3">
-        <v>31624</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,10 +1330,10 @@
         <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3">
-        <v>6363</v>
+        <v>30546</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,7 +1387,9 @@
       <c r="B51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="3">
+        <v>10404</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1443,7 +1443,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="3">
-        <v>45629</v>
+        <v>65773</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="3">
-        <v>220490</v>
+        <v>149210</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>81</v>
       </c>
       <c r="C61" s="3">
-        <v>246096</v>
+        <v>194742</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>86</v>
       </c>
       <c r="C66" s="3">
-        <v>185034</v>
+        <v>137514</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,9 @@
       <c r="B67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="3">
+        <v>24282</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -1583,8 +1585,8 @@
       <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="4">
-        <v>483</v>
+      <c r="C69" s="3">
+        <v>10698</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1595,7 +1597,7 @@
         <v>90</v>
       </c>
       <c r="C70" s="3">
-        <v>128387</v>
+        <v>65135</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,7 +1630,7 @@
         <v>94</v>
       </c>
       <c r="C73" s="3">
-        <v>16223</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,7 +1651,9 @@
       <c r="B75" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="3">
+        <v>100332</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -1813,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="3">
-        <v>5409</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1846,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="3">
-        <v>6676</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>8694</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="3">
-        <v>11494</v>
+        <v>10206</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,7 +1883,7 @@
         <v>112</v>
       </c>
       <c r="C96" s="3">
-        <v>45172</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1912,7 +1916,7 @@
         <v>118</v>
       </c>
       <c r="C99" s="3">
-        <v>19584</v>
+        <v>19520</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1934,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>40449</v>
+        <v>39455</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="C102" s="3">
-        <v>13254</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="C105" s="3">
-        <v>14140</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1989,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="3">
-        <v>2982</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,7 +2004,7 @@
         <v>17</v>
       </c>
       <c r="C107" s="3">
-        <v>37539</v>
+        <v>34501</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2011,7 +2015,7 @@
         <v>18</v>
       </c>
       <c r="C108" s="3">
-        <v>29414</v>
+        <v>29232</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2022,7 +2026,7 @@
         <v>19</v>
       </c>
       <c r="C109" s="3">
-        <v>21237</v>
+        <v>19389</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2033,7 +2037,7 @@
         <v>20</v>
       </c>
       <c r="C110" s="3">
-        <v>9176</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,7 +2114,7 @@
         <v>26</v>
       </c>
       <c r="C117" s="3">
-        <v>6860</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,7 +2125,7 @@
         <v>27</v>
       </c>
       <c r="C118" s="3">
-        <v>67518</v>
+        <v>55772</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,7 +2136,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="3">
-        <v>3934</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,7 +2147,7 @@
         <v>29</v>
       </c>
       <c r="C120" s="3">
-        <v>43637</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,7 +2191,7 @@
         <v>33</v>
       </c>
       <c r="C124" s="3">
-        <v>11469</v>
+        <v>10923</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="C127" s="3">
-        <v>4681</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,7 +2235,7 @@
         <v>114</v>
       </c>
       <c r="C128" s="3">
-        <v>617958</v>
+        <v>616978</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,7 +2246,7 @@
         <v>115</v>
       </c>
       <c r="C129" s="3">
-        <v>601663</v>
+        <v>601183</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,7 +2257,7 @@
         <v>116</v>
       </c>
       <c r="C130" s="3">
-        <v>97350</v>
+        <v>96870</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2264,7 +2268,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="3">
-        <v>59377</v>
+        <v>58957</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2308,7 +2312,7 @@
         <v>40</v>
       </c>
       <c r="C135" s="4">
-        <v>810</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
@@ -2319,7 +2323,7 @@
         <v>41</v>
       </c>
       <c r="C136" s="4">
-        <v>480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,7 +2345,7 @@
         <v>43</v>
       </c>
       <c r="C138" s="3">
-        <v>4837</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,7 +2356,7 @@
         <v>44</v>
       </c>
       <c r="C139" s="3">
-        <v>2304</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2363,7 +2367,7 @@
         <v>45</v>
       </c>
       <c r="C140" s="3">
-        <v>1908</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,7 +2378,7 @@
         <v>46</v>
       </c>
       <c r="C141" s="4">
-        <v>972</v>
+        <v>882</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,7 +2389,7 @@
         <v>47</v>
       </c>
       <c r="C142" s="3">
-        <v>2169</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,7 +2400,7 @@
         <v>48</v>
       </c>
       <c r="C143" s="3">
-        <v>1278</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,7 +2411,7 @@
         <v>49</v>
       </c>
       <c r="C144" s="3">
-        <v>2088</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,7 +2488,7 @@
         <v>56</v>
       </c>
       <c r="C151" s="3">
-        <v>4815</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2495,7 +2499,7 @@
         <v>119</v>
       </c>
       <c r="C152" s="3">
-        <v>3040</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,7 +2510,7 @@
         <v>57</v>
       </c>
       <c r="C153" s="3">
-        <v>2540</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,7 +2521,7 @@
         <v>58</v>
       </c>
       <c r="C154" s="4">
-        <v>910</v>
+        <v>860</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,7 +2532,7 @@
         <v>59</v>
       </c>
       <c r="C155" s="3">
-        <v>4776</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2561,7 +2565,7 @@
         <v>62</v>
       </c>
       <c r="C158" s="3">
-        <v>18757</v>
+        <v>16543</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,7 +2576,7 @@
         <v>63</v>
       </c>
       <c r="C159" s="3">
-        <v>3337</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2594,7 +2598,7 @@
         <v>65</v>
       </c>
       <c r="C161" s="3">
-        <v>1235</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2605,7 +2609,7 @@
         <v>66</v>
       </c>
       <c r="C162" s="3">
-        <v>4293</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,7 +2631,7 @@
         <v>68</v>
       </c>
       <c r="C164" s="3">
-        <v>44544</v>
+        <v>41592</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,7 +2642,7 @@
         <v>69</v>
       </c>
       <c r="C165" s="3">
-        <v>12312</v>
+        <v>12024</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2649,7 +2653,7 @@
         <v>70</v>
       </c>
       <c r="C166" s="3">
-        <v>29952</v>
+        <v>27828</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,7 +2697,7 @@
         <v>74</v>
       </c>
       <c r="C170" s="4">
-        <v>902</v>
+        <v>416</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,7 +2708,7 @@
         <v>75</v>
       </c>
       <c r="C171" s="3">
-        <v>20246</v>
+        <v>18680</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,7 +2719,7 @@
         <v>76</v>
       </c>
       <c r="C172" s="4">
-        <v>845</v>
+        <v>906</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,7 +2741,7 @@
         <v>78</v>
       </c>
       <c r="C174" s="3">
-        <v>355812</v>
+        <v>353760</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,7 +2752,7 @@
         <v>79</v>
       </c>
       <c r="C175" s="3">
-        <v>17892</v>
+        <v>16488</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,7 +2763,7 @@
         <v>80</v>
       </c>
       <c r="C176" s="3">
-        <v>5470</v>
+        <v>76750</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,7 +2774,7 @@
         <v>81</v>
       </c>
       <c r="C177" s="3">
-        <v>271872</v>
+        <v>323226</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,7 +2785,7 @@
         <v>82</v>
       </c>
       <c r="C178" s="3">
-        <v>9720</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,7 +2818,7 @@
         <v>85</v>
       </c>
       <c r="C181" s="3">
-        <v>30296</v>
+        <v>27884</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,7 +2829,7 @@
         <v>86</v>
       </c>
       <c r="C182" s="3">
-        <v>62227</v>
+        <v>95707</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,7 +2840,7 @@
         <v>87</v>
       </c>
       <c r="C183" s="3">
-        <v>31986</v>
+        <v>31968</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,7 +2862,7 @@
         <v>89</v>
       </c>
       <c r="C185" s="3">
-        <v>23166</v>
+        <v>23130</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,7 +2873,7 @@
         <v>90</v>
       </c>
       <c r="C186" s="3">
-        <v>22524</v>
+        <v>85776</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,7 +2884,7 @@
         <v>91</v>
       </c>
       <c r="C187" s="3">
-        <v>14836</v>
+        <v>13378</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,7 +2895,7 @@
         <v>92</v>
       </c>
       <c r="C188" s="3">
-        <v>10447</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,8 +2916,8 @@
       <c r="B190" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C190" s="4">
-        <v>305</v>
+      <c r="C190" s="3">
+        <v>8801</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,7 +2928,7 @@
         <v>95</v>
       </c>
       <c r="C191" s="3">
-        <v>11377</v>
+        <v>10009</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,7 +2950,7 @@
         <v>97</v>
       </c>
       <c r="C193" s="3">
-        <v>15855</v>
+        <v>15009</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,7 +2961,7 @@
         <v>98</v>
       </c>
       <c r="C194" s="3">
-        <v>11128</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,7 +2972,7 @@
         <v>99</v>
       </c>
       <c r="C195" s="3">
-        <v>55980</v>
+        <v>52758</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,7 +2983,7 @@
         <v>100</v>
       </c>
       <c r="C196" s="3">
-        <v>17928</v>
+        <v>15696</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,7 +2994,7 @@
         <v>101</v>
       </c>
       <c r="C197" s="3">
-        <v>21238</v>
+        <v>18676</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,7 +3005,7 @@
         <v>102</v>
       </c>
       <c r="C198" s="3">
-        <v>12402</v>
+        <v>11492</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,7 +3027,7 @@
         <v>104</v>
       </c>
       <c r="C200" s="3">
-        <v>11229</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,7 +3049,7 @@
         <v>106</v>
       </c>
       <c r="C202" s="3">
-        <v>14272</v>
+        <v>12508</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,7 +3060,7 @@
         <v>107</v>
       </c>
       <c r="C203" s="3">
-        <v>27496</v>
+        <v>27160</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -991,10 +991,10 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
-        <v>19194</v>
+        <v>33847</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,10 +1002,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>33847</v>
+        <v>14812</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
-        <v>14812</v>
+        <v>11690</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,10 +1024,10 @@
         <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3">
-        <v>11690</v>
+        <v>20742</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3">
-        <v>20742</v>
+        <v>14252</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,10 +1046,10 @@
         <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3">
-        <v>14252</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,10 +1057,10 @@
         <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3">
-        <v>9366</v>
+        <v>22397</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
-        <v>11100</v>
+        <v>25760</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
-        <v>25760</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,10 +1090,10 @@
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3">
-        <v>9562</v>
+        <v>29549</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,10 +1101,10 @@
         <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3">
-        <v>69166</v>
+        <v>19558</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,10 +1112,10 @@
         <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3">
-        <v>19558</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1123,10 +1123,10 @@
         <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3">
-        <v>20702</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,10 +1134,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3">
-        <v>12110</v>
+        <v>13063</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,11 +1145,9 @@
         <v>110</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3">
-        <v>13063</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1322,7 +1320,7 @@
         <v>62</v>
       </c>
       <c r="C45" s="3">
-        <v>16902</v>
+        <v>33174</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1364,7 @@
         <v>69</v>
       </c>
       <c r="C49" s="3">
-        <v>25876</v>
+        <v>37126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,7 +1441,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="3">
-        <v>65773</v>
+        <v>85879</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,7 +1496,7 @@
         <v>81</v>
       </c>
       <c r="C61" s="3">
-        <v>194742</v>
+        <v>147222</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1553,7 +1551,7 @@
         <v>86</v>
       </c>
       <c r="C66" s="3">
-        <v>137514</v>
+        <v>86862</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,7 +1595,7 @@
         <v>90</v>
       </c>
       <c r="C70" s="3">
-        <v>65135</v>
+        <v>63702</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,7 +1606,7 @@
         <v>91</v>
       </c>
       <c r="C71" s="3">
-        <v>16037</v>
+        <v>31763</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,7 +1727,7 @@
         <v>100</v>
       </c>
       <c r="C82" s="3">
-        <v>20223</v>
+        <v>41481</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="3">
-        <v>4905</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>10947</v>
+        <v>10919</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="3">
-        <v>8715</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="3">
-        <v>6438</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,7 +1859,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>6384</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="3">
-        <v>10206</v>
+        <v>10136</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,7 +1881,7 @@
         <v>112</v>
       </c>
       <c r="C96" s="3">
-        <v>45112</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,7 +1892,7 @@
         <v>8</v>
       </c>
       <c r="C97" s="3">
-        <v>11684</v>
+        <v>11544</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>13118</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
@@ -1927,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="C100" s="3">
-        <v>20751</v>
+        <v>20681</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>39455</v>
+        <v>38475</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="C102" s="3">
-        <v>11462</v>
+        <v>11392</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,7 +1958,7 @@
         <v>13</v>
       </c>
       <c r="C103" s="3">
-        <v>5714</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,7 +1969,7 @@
         <v>14</v>
       </c>
       <c r="C104" s="3">
-        <v>5616</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,7 +1980,7 @@
         <v>15</v>
       </c>
       <c r="C105" s="3">
-        <v>12586</v>
+        <v>12446</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,7 +1991,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="3">
-        <v>2380</v>
+        <v>21434</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,7 +2002,7 @@
         <v>17</v>
       </c>
       <c r="C107" s="3">
-        <v>34501</v>
+        <v>34459</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2015,7 +2013,7 @@
         <v>18</v>
       </c>
       <c r="C108" s="3">
-        <v>29232</v>
+        <v>28966</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,7 +2024,7 @@
         <v>19</v>
       </c>
       <c r="C109" s="3">
-        <v>19389</v>
+        <v>19319</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,7 +2035,7 @@
         <v>20</v>
       </c>
       <c r="C110" s="3">
-        <v>8420</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,7 +2046,7 @@
         <v>21</v>
       </c>
       <c r="C111" s="3">
-        <v>8856</v>
+        <v>8758</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,7 +2057,7 @@
         <v>22</v>
       </c>
       <c r="C112" s="3">
-        <v>10502</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,7 +2079,7 @@
         <v>23</v>
       </c>
       <c r="C114" s="3">
-        <v>14495</v>
+        <v>14313</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,7 +2090,7 @@
         <v>24</v>
       </c>
       <c r="C115" s="3">
-        <v>2325</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2103,7 +2101,7 @@
         <v>25</v>
       </c>
       <c r="C116" s="3">
-        <v>27860</v>
+        <v>27720</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,7 +2112,7 @@
         <v>26</v>
       </c>
       <c r="C117" s="3">
-        <v>6370</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,7 +2123,7 @@
         <v>27</v>
       </c>
       <c r="C118" s="3">
-        <v>55772</v>
+        <v>95109</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,7 +2145,7 @@
         <v>29</v>
       </c>
       <c r="C120" s="3">
-        <v>41957</v>
+        <v>41691</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2158,7 +2156,7 @@
         <v>30</v>
       </c>
       <c r="C121" s="3">
-        <v>5680</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,7 +2189,7 @@
         <v>33</v>
       </c>
       <c r="C124" s="3">
-        <v>10923</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,7 +2200,7 @@
         <v>34</v>
       </c>
       <c r="C125" s="3">
-        <v>23106</v>
+        <v>23036</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,7 +2211,7 @@
         <v>35</v>
       </c>
       <c r="C126" s="3">
-        <v>26152</v>
+        <v>26082</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,7 +2222,7 @@
         <v>36</v>
       </c>
       <c r="C127" s="3">
-        <v>4009</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,7 +2233,7 @@
         <v>114</v>
       </c>
       <c r="C128" s="3">
-        <v>616978</v>
+        <v>614738</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2279,7 +2277,7 @@
         <v>37</v>
       </c>
       <c r="C132" s="3">
-        <v>13929</v>
+        <v>13859</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,7 +2288,7 @@
         <v>38</v>
       </c>
       <c r="C133" s="3">
-        <v>9313</v>
+        <v>9243</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,7 +2299,7 @@
         <v>39</v>
       </c>
       <c r="C134" s="3">
-        <v>77507</v>
+        <v>77437</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
@@ -2444,7 +2442,7 @@
         <v>52</v>
       </c>
       <c r="C147" s="4">
-        <v>272</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2455,7 +2453,7 @@
         <v>53</v>
       </c>
       <c r="C148" s="3">
-        <v>6156</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,7 +2464,7 @@
         <v>54</v>
       </c>
       <c r="C149" s="3">
-        <v>40557</v>
+        <v>40377</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2477,7 +2475,7 @@
         <v>55</v>
       </c>
       <c r="C150" s="3">
-        <v>3200</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,7 +2530,7 @@
         <v>59</v>
       </c>
       <c r="C155" s="3">
-        <v>3856</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2554,7 +2552,7 @@
         <v>61</v>
       </c>
       <c r="C157" s="3">
-        <v>15390</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2565,7 +2563,7 @@
         <v>62</v>
       </c>
       <c r="C158" s="3">
-        <v>16543</v>
+        <v>16453</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2576,7 +2574,7 @@
         <v>63</v>
       </c>
       <c r="C159" s="3">
-        <v>3121</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,7 +2585,7 @@
         <v>64</v>
       </c>
       <c r="C160" s="3">
-        <v>25372</v>
+        <v>26270</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,7 +2607,7 @@
         <v>66</v>
       </c>
       <c r="C162" s="3">
-        <v>3807</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2620,7 +2618,7 @@
         <v>67</v>
       </c>
       <c r="C163" s="4">
-        <v>641</v>
+        <v>605</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2631,7 +2629,7 @@
         <v>68</v>
       </c>
       <c r="C164" s="3">
-        <v>41592</v>
+        <v>41484</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2642,7 +2640,7 @@
         <v>69</v>
       </c>
       <c r="C165" s="3">
-        <v>12024</v>
+        <v>11844</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,7 +2651,7 @@
         <v>70</v>
       </c>
       <c r="C166" s="3">
-        <v>27828</v>
+        <v>27648</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,7 +2662,7 @@
         <v>71</v>
       </c>
       <c r="C167" s="3">
-        <v>30567</v>
+        <v>30423</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2708,7 +2706,7 @@
         <v>75</v>
       </c>
       <c r="C171" s="3">
-        <v>18680</v>
+        <v>18590</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2719,7 +2717,7 @@
         <v>76</v>
       </c>
       <c r="C172" s="4">
-        <v>906</v>
+        <v>762</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2730,7 +2728,7 @@
         <v>77</v>
       </c>
       <c r="C173" s="3">
-        <v>19746</v>
+        <v>19656</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2741,7 +2739,7 @@
         <v>78</v>
       </c>
       <c r="C174" s="3">
-        <v>353760</v>
+        <v>352680</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2752,7 +2750,7 @@
         <v>79</v>
       </c>
       <c r="C175" s="3">
-        <v>16488</v>
+        <v>15930</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2763,7 +2761,7 @@
         <v>80</v>
       </c>
       <c r="C176" s="3">
-        <v>76750</v>
+        <v>70972</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2774,7 +2772,7 @@
         <v>81</v>
       </c>
       <c r="C177" s="3">
-        <v>323226</v>
+        <v>370386</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,7 +2783,7 @@
         <v>82</v>
       </c>
       <c r="C178" s="3">
-        <v>9288</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2796,7 +2794,7 @@
         <v>83</v>
       </c>
       <c r="C179" s="3">
-        <v>6817</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,7 +2805,7 @@
         <v>84</v>
       </c>
       <c r="C180" s="3">
-        <v>27828</v>
+        <v>25956</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,7 +2816,7 @@
         <v>85</v>
       </c>
       <c r="C181" s="3">
-        <v>27884</v>
+        <v>26516</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,7 +2827,7 @@
         <v>86</v>
       </c>
       <c r="C182" s="3">
-        <v>95707</v>
+        <v>146197</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,7 +2838,7 @@
         <v>87</v>
       </c>
       <c r="C183" s="3">
-        <v>31968</v>
+        <v>31788</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2851,7 +2849,7 @@
         <v>88</v>
       </c>
       <c r="C184" s="3">
-        <v>35332</v>
+        <v>34216</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2873,7 +2871,7 @@
         <v>90</v>
       </c>
       <c r="C186" s="3">
-        <v>85776</v>
+        <v>85697</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2884,7 +2882,7 @@
         <v>91</v>
       </c>
       <c r="C187" s="3">
-        <v>13378</v>
+        <v>13827</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2895,7 +2893,7 @@
         <v>92</v>
       </c>
       <c r="C188" s="3">
-        <v>7855</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,7 +2926,7 @@
         <v>95</v>
       </c>
       <c r="C191" s="3">
-        <v>10009</v>
+        <v>9883</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2939,7 +2937,7 @@
         <v>96</v>
       </c>
       <c r="C192" s="3">
-        <v>26964</v>
+        <v>26154</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,7 +2948,7 @@
         <v>97</v>
       </c>
       <c r="C193" s="3">
-        <v>15009</v>
+        <v>14307</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,7 +2959,7 @@
         <v>98</v>
       </c>
       <c r="C194" s="3">
-        <v>9220</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,7 +2970,7 @@
         <v>99</v>
       </c>
       <c r="C195" s="3">
-        <v>52758</v>
+        <v>51264</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2983,7 +2981,7 @@
         <v>100</v>
       </c>
       <c r="C196" s="3">
-        <v>15696</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2994,7 +2992,7 @@
         <v>101</v>
       </c>
       <c r="C197" s="3">
-        <v>18676</v>
+        <v>18354</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,7 +3003,7 @@
         <v>102</v>
       </c>
       <c r="C198" s="3">
-        <v>11492</v>
+        <v>11422</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,7 +3014,7 @@
         <v>103</v>
       </c>
       <c r="C199" s="3">
-        <v>9066</v>
+        <v>8996</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,7 +3025,7 @@
         <v>104</v>
       </c>
       <c r="C200" s="3">
-        <v>10389</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3038,7 +3036,7 @@
         <v>105</v>
       </c>
       <c r="C201" s="3">
-        <v>21434</v>
+        <v>21294</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,7 +3047,7 @@
         <v>106</v>
       </c>
       <c r="C202" s="3">
-        <v>12508</v>
+        <v>12018</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3060,7 +3058,7 @@
         <v>107</v>
       </c>
       <c r="C203" s="3">
-        <v>27160</v>
+        <v>27076</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,7 +3069,7 @@
         <v>108</v>
       </c>
       <c r="C204" s="3">
-        <v>15876</v>
+        <v>15806</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/finished_goods_stocks.xlsx
+++ b/data/finished_goods_stocks.xlsx
@@ -947,10 +947,10 @@
         <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>25900</v>
+        <v>20510</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,10 +958,10 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>20510</v>
+        <v>9828</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,10 +969,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
-        <v>10860</v>
+        <v>17454</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,10 +980,10 @@
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>17454</v>
+        <v>33460</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,10 +991,10 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
-        <v>33847</v>
+        <v>14812</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,10 +1002,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
-        <v>14812</v>
+        <v>11690</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
-        <v>11690</v>
+        <v>20742</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,10 +1024,10 @@
         <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3">
-        <v>20742</v>
+        <v>14252</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3">
-        <v>14252</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,10 +1046,10 @@
         <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3">
-        <v>9366</v>
+        <v>22397</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,10 +1057,10 @@
         <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3">
-        <v>22397</v>
+        <v>35980</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,10 +1068,10 @@
         <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3">
-        <v>25760</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3">
-        <v>9562</v>
+        <v>29549</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,10 +1090,10 @@
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3">
-        <v>29549</v>
+        <v>19558</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,10 +1101,10 @@
         <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3">
-        <v>19558</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,21 +1112,19 @@
         <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20702</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3">
-        <v>12110</v>
+        <v>12676</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,30 +1132,30 @@
         <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="3">
-        <v>13063</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3">
-        <v>10598</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
@@ -1165,21 +1163,21 @@
         <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C32" s="3">
-        <v>1950</v>
+        <v>35946</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,30 +1185,30 @@
         <v>110</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="3">
-        <v>35946</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1742</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3">
-        <v>1742</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1216,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3">
-        <v>2352</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1227,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3">
-        <v>5480</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,11 +1238,9 @@
         <v>110</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3917</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1273,10 +1269,10 @@
         <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3">
-        <v>17604</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1280,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3">
-        <v>3230</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,10 +1291,10 @@
         <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="3">
-        <v>21074</v>
+        <v>12072</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,10 +1302,10 @@
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3">
-        <v>12072</v>
+        <v>33174</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,11 +1313,9 @@
         <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="3">
-        <v>33174</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1375,7 +1369,7 @@
         <v>70</v>
       </c>
       <c r="C50" s="3">
-        <v>24177</v>
+        <v>49122</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,7 +1435,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="3">
-        <v>85879</v>
+        <v>106291</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,7 +1479,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="3">
-        <v>149210</v>
+        <v>173924</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,7 +1534,7 @@
         <v>85</v>
       </c>
       <c r="C65" s="3">
-        <v>74650</v>
+        <v>73231</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1584,7 +1578,7 @@
         <v>89</v>
       </c>
       <c r="C69" s="3">
-        <v>10698</v>
+        <v>10215</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,7 +1787,7 @@
         <v>106</v>
       </c>
       <c r="C88" s="3">
-        <v>28373</v>
+        <v>28136</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="3">
-        <v>4863</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="3">
-        <v>10919</v>
+        <v>10891</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="3">
-        <v>8645</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="3">
-        <v>6172</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>6314</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="3">
-        <v>10136</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,7 +1886,7 @@
         <v>8</v>
       </c>
       <c r="C97" s="3">
-        <v>11544</v>
+        <v>11516</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>13020</v>
+        <v>12880</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
@@ -1925,7 +1919,7 @@
         <v>10</v>
       </c>
       <c r="C100" s="3">
-        <v>20681</v>
+        <v>20667</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>38475</v>
+        <v>37887</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="C102" s="3">
-        <v>11392</v>
+        <v>37170</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,7 +1952,7 @@
         <v>13</v>
       </c>
       <c r="C103" s="3">
-        <v>5644</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="C104" s="3">
-        <v>5476</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="C105" s="3">
-        <v>12446</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,7 +1985,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="3">
-        <v>21434</v>
+        <v>21406</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,7 +1996,7 @@
         <v>17</v>
       </c>
       <c r="C107" s="3">
-        <v>34459</v>
+        <v>34356</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2024,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="C109" s="3">
-        <v>19319</v>
+        <v>19291</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="C110" s="3">
-        <v>8322</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,7 +2040,7 @@
         <v>21</v>
       </c>
       <c r="C111" s="3">
-        <v>8758</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,7 +2051,7 @@
         <v>22</v>
       </c>
       <c r="C112" s="3">
-        <v>10432</v>
+        <v>10306</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,7 +2073,7 @@
         <v>23</v>
       </c>
       <c r="C114" s="3">
-        <v>14313</v>
+        <v>14262</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2090,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="C115" s="3">
-        <v>2255</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,7 +2095,7 @@
         <v>25</v>
       </c>
       <c r="C116" s="3">
-        <v>27720</v>
+        <v>27258</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="C117" s="3">
-        <v>6300</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2123,7 +2117,7 @@
         <v>27</v>
       </c>
       <c r="C118" s="3">
-        <v>95109</v>
+        <v>94353</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2134,7 +2128,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="3">
-        <v>3696</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2145,7 +2139,7 @@
         <v>29</v>
       </c>
       <c r="C120" s="3">
-        <v>41691</v>
+        <v>41579</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,7 +2150,7 @@
         <v>30</v>
       </c>
       <c r="C121" s="3">
-        <v>5596</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,7 +2161,7 @@
         <v>31</v>
       </c>
       <c r="C122" s="3">
-        <v>23758</v>
+        <v>23730</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,7 +2194,7 @@
         <v>34</v>
       </c>
       <c r="C125" s="3">
-        <v>23036</v>
+        <v>23022</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,7 +2205,7 @@
         <v>35</v>
       </c>
       <c r="C126" s="3">
-        <v>26082</v>
+        <v>26011</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2222,7 +2216,7 @@
         <v>36</v>
       </c>
       <c r="C127" s="3">
-        <v>3939</v>
+        <v>16049</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2277,7 +2271,7 @@
         <v>37</v>
       </c>
       <c r="C132" s="3">
-        <v>13859</v>
+        <v>13831</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2288,7 +2282,7 @@
         <v>38</v>
       </c>
       <c r="C133" s="3">
-        <v>9243</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,7 +2293,7 @@
         <v>39</v>
       </c>
       <c r="C134" s="3">
-        <v>77437</v>
+        <v>77241</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
@@ -2343,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="C138" s="3">
-        <v>3973</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,7 +2348,7 @@
         <v>44</v>
       </c>
       <c r="C139" s="3">
-        <v>2124</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,7 +2370,7 @@
         <v>46</v>
       </c>
       <c r="C141" s="4">
-        <v>882</v>
+        <v>828</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,7 +2381,7 @@
         <v>47</v>
       </c>
       <c r="C142" s="3">
-        <v>2007</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,7 +2392,7 @@
         <v>48</v>
       </c>
       <c r="C143" s="3">
-        <v>1224</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,7 +2403,7 @@
         <v>49</v>
       </c>
       <c r="C144" s="3">
-        <v>1764</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,7 +2414,7 @@
         <v>50</v>
       </c>
       <c r="C145" s="3">
-        <v>3068</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,7 +2447,7 @@
         <v>53</v>
       </c>
       <c r="C148" s="3">
-        <v>6120</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,7 +2458,7 @@
         <v>54</v>
       </c>
       <c r="C149" s="3">
-        <v>40377</v>
+        <v>40197</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,7 +2469,7 @@
         <v>55</v>
       </c>
       <c r="C150" s="3">
-        <v>3002</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,7 +2480,7 @@
         <v>56</v>
       </c>
       <c r="C151" s="3">
-        <v>4221</v>
+        <v>21825</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,7 +2491,7 @@
         <v>119</v>
       </c>
       <c r="C152" s="3">
-        <v>2850</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,7 +2502,7 @@
         <v>57</v>
       </c>
       <c r="C153" s="3">
-        <v>2350</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,7 +2513,7 @@
         <v>58</v>
       </c>
       <c r="C154" s="4">
-        <v>860</v>
+        <v>960</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,7 +2524,7 @@
         <v>59</v>
       </c>
       <c r="C155" s="3">
-        <v>3836</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,7 +2535,7 @@
         <v>60</v>
       </c>
       <c r="C156" s="3">
-        <v>2305</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2552,7 +2546,7 @